--- a/getdata/doc/模型与接口.xlsx
+++ b/getdata/doc/模型与接口.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\git\WhyiseeBench\springStart\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\git\myGit\get-data\getdata\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED489F7C-8B34-4EC5-8E3E-0039EA8CA479}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2AD9097-B260-42BA-944A-E3F24044335C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="242">
   <si>
     <r>
       <rPr>
@@ -1087,6 +1087,14 @@
   <si>
     <t>create_type</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>周期截止时间</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>cycle_end_date</t>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1339,7 +1347,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1456,6 +1464,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7469,10 +7480,10 @@
       <c r="B1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="48"/>
+      <c r="D1" s="49"/>
       <c r="E1" s="9" t="s">
         <v>7</v>
       </c>
@@ -7480,14 +7491,14 @@
       <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="49" t="s">
+      <c r="B2" s="41"/>
+      <c r="C2" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="48"/>
+      <c r="D2" s="49"/>
       <c r="E2" s="11" t="s">
         <v>10</v>
       </c>
@@ -7499,12 +7510,12 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="46"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="47"/>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
       <c r="G3" s="14"/>
@@ -7516,10 +7527,10 @@
       <c r="B4" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="46"/>
+      <c r="D4" s="47"/>
       <c r="E4" s="16" t="s">
         <v>16</v>
       </c>
@@ -7594,10 +7605,10 @@
       <c r="B1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="48"/>
+      <c r="D1" s="49"/>
       <c r="E1" s="9" t="s">
         <v>7</v>
       </c>
@@ -7605,14 +7616,14 @@
       <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="49" t="s">
+      <c r="B2" s="41"/>
+      <c r="C2" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="48"/>
+      <c r="D2" s="49"/>
       <c r="E2" s="11" t="s">
         <v>10</v>
       </c>
@@ -7624,12 +7635,12 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="46"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="47"/>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
       <c r="G3" s="14"/>
@@ -7641,10 +7652,10 @@
       <c r="B4" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="46"/>
+      <c r="D4" s="47"/>
       <c r="E4" s="16" t="s">
         <v>16</v>
       </c>
@@ -13351,10 +13362,10 @@
       <c r="B1" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="40"/>
+      <c r="D1" s="41"/>
       <c r="E1" s="25" t="s">
         <v>7</v>
       </c>
@@ -13362,14 +13373,14 @@
       <c r="G1" s="26"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="42" t="s">
+      <c r="B2" s="41"/>
+      <c r="C2" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="40"/>
+      <c r="D2" s="41"/>
       <c r="E2" s="27" t="s">
         <v>10</v>
       </c>
@@ -13381,12 +13392,12 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="40"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="41"/>
       <c r="E3" s="19"/>
       <c r="F3" s="19"/>
       <c r="G3" s="14"/>
@@ -13398,10 +13409,10 @@
       <c r="B4" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="40"/>
+      <c r="D4" s="41"/>
       <c r="E4" s="28" t="s">
         <v>16</v>
       </c>
@@ -13601,10 +13612,10 @@
       <c r="B1" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="40"/>
+      <c r="D1" s="41"/>
       <c r="E1" s="25" t="s">
         <v>7</v>
       </c>
@@ -13612,14 +13623,14 @@
       <c r="G1" s="26"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="42" t="s">
+      <c r="B2" s="41"/>
+      <c r="C2" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="40"/>
+      <c r="D2" s="41"/>
       <c r="E2" s="27" t="s">
         <v>10</v>
       </c>
@@ -13631,12 +13642,12 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="24">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="40"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="41"/>
       <c r="E3" s="19"/>
       <c r="F3" s="19"/>
       <c r="G3" s="30" t="s">
@@ -13650,10 +13661,10 @@
       <c r="B4" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="40"/>
+      <c r="D4" s="41"/>
       <c r="E4" s="28" t="s">
         <v>16</v>
       </c>
@@ -13909,10 +13920,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A09EC6E4-313A-414A-90E1-5D6FB5B11A52}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B3"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -13928,10 +13939,10 @@
       <c r="B1" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="D1" s="40"/>
+      <c r="D1" s="41"/>
       <c r="E1" s="25" t="s">
         <v>7</v>
       </c>
@@ -13939,14 +13950,14 @@
       <c r="G1" s="26"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="42" t="s">
+      <c r="B2" s="41"/>
+      <c r="C2" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="40"/>
+      <c r="D2" s="41"/>
       <c r="E2" s="27" t="s">
         <v>10</v>
       </c>
@@ -13958,12 +13969,12 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="40"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="41"/>
       <c r="E3" s="19"/>
       <c r="F3" s="19"/>
       <c r="G3" s="30"/>
@@ -13975,10 +13986,10 @@
       <c r="B4" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="40"/>
+      <c r="D4" s="41"/>
       <c r="E4" s="28" t="s">
         <v>16</v>
       </c>
@@ -14186,28 +14197,24 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="33" t="s">
-        <v>113</v>
-      </c>
-      <c r="B18" s="31" t="s">
-        <v>115</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
+        <v>240</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>241</v>
+      </c>
+      <c r="C18" s="39" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="33" t="s">
-        <v>114</v>
-      </c>
-      <c r="B19" s="33" t="s">
-        <v>101</v>
+        <v>113</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>115</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D19" s="32"/>
       <c r="E19" s="32"/>
@@ -14216,10 +14223,10 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="33" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="C20" s="23" t="s">
         <v>38</v>
@@ -14231,10 +14238,10 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="33" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>126</v>
+        <v>92</v>
       </c>
       <c r="C21" s="23" t="s">
         <v>38</v>
@@ -14246,10 +14253,10 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="33" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B22" s="33" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C22" s="23" t="s">
         <v>38</v>
@@ -14260,14 +14267,14 @@
       <c r="G22" s="32"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="B23" s="23" t="s">
-        <v>37</v>
+      <c r="A23" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="B23" s="33" t="s">
+        <v>127</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D23" s="32"/>
       <c r="E23" s="32"/>
@@ -14276,13 +14283,13 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="23" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D24" s="32"/>
       <c r="E24" s="32"/>
@@ -14291,10 +14298,10 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="23" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C25" s="23" t="s">
         <v>41</v>
@@ -14306,13 +14313,13 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D26" s="32"/>
       <c r="E26" s="32"/>
@@ -14320,14 +14327,14 @@
       <c r="G26" s="32"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="35" t="s">
-        <v>120</v>
-      </c>
-      <c r="B27" s="35" t="s">
-        <v>122</v>
+      <c r="A27" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>62</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D27" s="32"/>
       <c r="E27" s="32"/>
@@ -14336,18 +14343,33 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="35" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B28" s="35" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D28" s="32"/>
       <c r="E28" s="32"/>
       <c r="F28" s="32"/>
       <c r="G28" s="32"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="B29" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -14388,10 +14410,10 @@
       <c r="B1" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="42" t="s">
         <v>140</v>
       </c>
-      <c r="D1" s="40"/>
+      <c r="D1" s="41"/>
       <c r="E1" s="25" t="s">
         <v>7</v>
       </c>
@@ -14399,14 +14421,14 @@
       <c r="G1" s="26"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="42" t="s">
+      <c r="B2" s="41"/>
+      <c r="C2" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="40"/>
+      <c r="D2" s="41"/>
       <c r="E2" s="27" t="s">
         <v>10</v>
       </c>
@@ -14418,12 +14440,12 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="44" t="s">
         <v>141</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="40"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="41"/>
       <c r="E3" s="19"/>
       <c r="F3" s="19"/>
       <c r="G3" s="30"/>
@@ -14435,10 +14457,10 @@
       <c r="B4" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="40"/>
+      <c r="D4" s="41"/>
       <c r="E4" s="28" t="s">
         <v>16</v>
       </c>
@@ -14759,10 +14781,10 @@
       <c r="B1" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="42" t="s">
         <v>140</v>
       </c>
-      <c r="D1" s="40"/>
+      <c r="D1" s="41"/>
       <c r="E1" s="25" t="s">
         <v>7</v>
       </c>
@@ -14770,14 +14792,14 @@
       <c r="G1" s="26"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="42" t="s">
+      <c r="B2" s="41"/>
+      <c r="C2" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="40"/>
+      <c r="D2" s="41"/>
       <c r="E2" s="27" t="s">
         <v>10</v>
       </c>
@@ -14789,12 +14811,12 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="44" t="s">
         <v>167</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="40"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="41"/>
       <c r="E3" s="29"/>
       <c r="F3" s="29"/>
       <c r="G3" s="30" t="s">
@@ -14808,10 +14830,10 @@
       <c r="B4" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="40"/>
+      <c r="D4" s="41"/>
       <c r="E4" s="28" t="s">
         <v>16</v>
       </c>
@@ -15051,7 +15073,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20AD4854-E9AA-417B-8E43-0F6E6A1AEE7C}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
@@ -15067,10 +15089,10 @@
       <c r="B1" s="24" t="s">
         <v>205</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="42" t="s">
         <v>203</v>
       </c>
-      <c r="D1" s="40"/>
+      <c r="D1" s="41"/>
       <c r="E1" s="25" t="s">
         <v>7</v>
       </c>
@@ -15078,14 +15100,14 @@
       <c r="G1" s="26"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="42" t="s">
+      <c r="B2" s="41"/>
+      <c r="C2" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="40"/>
+      <c r="D2" s="41"/>
       <c r="E2" s="27" t="s">
         <v>10</v>
       </c>
@@ -15097,12 +15119,12 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="44" t="s">
         <v>202</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="40"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="41"/>
       <c r="E3" s="38"/>
       <c r="F3" s="38"/>
       <c r="G3" s="30"/>
@@ -15114,10 +15136,10 @@
       <c r="B4" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="40"/>
+      <c r="D4" s="41"/>
       <c r="E4" s="28" t="s">
         <v>16</v>
       </c>
@@ -15475,12 +15497,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="C4:D4"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>

--- a/getdata/doc/模型与接口.xlsx
+++ b/getdata/doc/模型与接口.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\git\myGit\get-data\getdata\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2AD9097-B260-42BA-944A-E3F24044335C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74E79965-5B6C-49E7-A67D-70D43DD97A6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20916" yWindow="156" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -13345,8 +13345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82A1E8BE-F4D8-4DFE-997C-38F54A34FFE2}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -13922,8 +13922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A09EC6E4-313A-414A-90E1-5D6FB5B11A52}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>

--- a/getdata/doc/模型与接口.xlsx
+++ b/getdata/doc/模型与接口.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\git\myGit\get-data\getdata\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\myGit\get-data\getdata\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74E79965-5B6C-49E7-A67D-70D43DD97A6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4890DDFD-BA7C-49BC-8A6E-C2F9EF3CA0F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20916" yWindow="156" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -25,12 +25,12 @@
     <sheet name="静态码表" sheetId="15" r:id="rId10"/>
     <sheet name="序列表" sheetId="16" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="279">
   <si>
     <r>
       <rPr>
@@ -926,9 +926,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>tc_gd_tagconfig</t>
-  </si>
-  <si>
     <t>tc_auth_user</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1095,13 +1092,148 @@
   <si>
     <t>cycle_end_date</t>
     <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>展示指标数量</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>筛选指标数量</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据更新时间</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>show_tag_num</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>cond_tag_num</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>update_date</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;result column=</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> jdbcType=</t>
+  </si>
+  <si>
+    <t>VARCHAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> property=</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /&gt;</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>remark</t>
+  </si>
+  <si>
+    <t>create_persion</t>
+  </si>
+  <si>
+    <t>createPersion</t>
+  </si>
+  <si>
+    <t>create_date</t>
+  </si>
+  <si>
+    <t>createDate</t>
+  </si>
+  <si>
+    <t>用户群名称</t>
+  </si>
+  <si>
+    <r>
+      <t>troop_name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_zh</t>
+    </r>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>tag_id</t>
+  </si>
+  <si>
+    <t>tc_gd_tagconfig</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tagId</t>
+  </si>
+  <si>
+    <t>tag_name</t>
+  </si>
+  <si>
+    <t>tagName</t>
+  </si>
+  <si>
+    <t>tag_name_zh</t>
+  </si>
+  <si>
+    <t>tagNameZh</t>
+  </si>
+  <si>
+    <t>tag_from_id</t>
+  </si>
+  <si>
+    <t>tagFromId</t>
+  </si>
+  <si>
+    <t>tag_class_id</t>
+  </si>
+  <si>
+    <t>tagClassId</t>
+  </si>
+  <si>
+    <t>tag_data_type</t>
+  </si>
+  <si>
+    <t>tagDataType</t>
+  </si>
+  <si>
+    <t>tag_show_order</t>
+  </si>
+  <si>
+    <t>tagShowOrder</t>
+  </si>
+  <si>
+    <t>is_show</t>
+  </si>
+  <si>
+    <t>isShow</t>
+  </si>
+  <si>
+    <t>is_cond</t>
+  </si>
+  <si>
+    <t>isCond</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1227,6 +1359,12 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF080808"/>
+      <name val="JetBrains Mono"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1347,7 +1485,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1468,6 +1606,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1499,6 +1646,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1805,17 +1955,17 @@
   <dimension ref="A1:Z200"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="12.8984375" customWidth="1"/>
-    <col min="2" max="2" width="18.796875" customWidth="1"/>
-    <col min="3" max="26" width="12.8984375" customWidth="1"/>
+    <col min="1" max="1" width="12.875" customWidth="1"/>
+    <col min="2" max="2" width="18.75" customWidth="1"/>
+    <col min="3" max="26" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" ht="16.5">
       <c r="A1" s="1" t="s">
         <v>43</v>
       </c>
@@ -1845,7 +1995,7 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" ht="16.5">
       <c r="A2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -1872,7 +2022,7 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" ht="16.5">
       <c r="A3" s="2" t="s">
         <v>44</v>
       </c>
@@ -1906,7 +2056,7 @@
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" ht="16.5">
       <c r="A4" s="2" t="s">
         <v>66</v>
       </c>
@@ -1940,7 +2090,7 @@
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" ht="16.5">
       <c r="A5" s="2" t="s">
         <v>82</v>
       </c>
@@ -1974,7 +2124,7 @@
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" ht="16.5">
       <c r="A6" s="34" t="s">
         <v>137</v>
       </c>
@@ -2008,12 +2158,12 @@
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" ht="16.5">
       <c r="A7" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B7" t="s">
-        <v>199</v>
+      <c r="B7" s="17" t="s">
+        <v>261</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>184</v>
@@ -2044,7 +2194,7 @@
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" ht="16.5">
       <c r="A8" s="2" t="s">
         <v>194</v>
       </c>
@@ -2075,7 +2225,7 @@
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" ht="16.5">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -2103,15 +2253,15 @@
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:26" ht="16.5">
       <c r="A10" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>200</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>201</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2137,7 +2287,7 @@
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" ht="16.5">
       <c r="A11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -2164,7 +2314,7 @@
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:26" ht="16.5">
       <c r="A12" s="2"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -2192,7 +2342,7 @@
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:26" ht="16.5">
       <c r="A13" s="2"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -2220,7 +2370,7 @@
       <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:26" ht="16.5">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -2248,7 +2398,7 @@
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:26" ht="16.5">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -2276,7 +2426,7 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:26" ht="16.5">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -2304,7 +2454,7 @@
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
     </row>
-    <row r="17" spans="1:26">
+    <row r="17" spans="1:26" ht="16.5">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -2332,7 +2482,7 @@
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
     </row>
-    <row r="18" spans="1:26">
+    <row r="18" spans="1:26" ht="16.5">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -2360,7 +2510,7 @@
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
     </row>
-    <row r="19" spans="1:26">
+    <row r="19" spans="1:26" ht="16.5">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -2388,7 +2538,7 @@
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:26" ht="16.5">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -2416,7 +2566,7 @@
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
     </row>
-    <row r="21" spans="1:26">
+    <row r="21" spans="1:26" ht="16.5">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -2444,7 +2594,7 @@
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
     </row>
-    <row r="22" spans="1:26">
+    <row r="22" spans="1:26" ht="16.5">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -2472,7 +2622,7 @@
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
     </row>
-    <row r="23" spans="1:26">
+    <row r="23" spans="1:26" ht="16.5">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -2500,7 +2650,7 @@
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
     </row>
-    <row r="24" spans="1:26">
+    <row r="24" spans="1:26" ht="16.5">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -2528,7 +2678,7 @@
       <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
     </row>
-    <row r="25" spans="1:26">
+    <row r="25" spans="1:26" ht="16.5">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -2556,7 +2706,7 @@
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
     </row>
-    <row r="26" spans="1:26">
+    <row r="26" spans="1:26" ht="16.5">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -2584,7 +2734,7 @@
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
     </row>
-    <row r="27" spans="1:26">
+    <row r="27" spans="1:26" ht="16.5">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -2612,7 +2762,7 @@
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
     </row>
-    <row r="28" spans="1:26">
+    <row r="28" spans="1:26" ht="16.5">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -2640,7 +2790,7 @@
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
     </row>
-    <row r="29" spans="1:26">
+    <row r="29" spans="1:26" ht="16.5">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -2668,7 +2818,7 @@
       <c r="Y29" s="2"/>
       <c r="Z29" s="2"/>
     </row>
-    <row r="30" spans="1:26">
+    <row r="30" spans="1:26" ht="16.5">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -2696,7 +2846,7 @@
       <c r="Y30" s="2"/>
       <c r="Z30" s="2"/>
     </row>
-    <row r="31" spans="1:26">
+    <row r="31" spans="1:26" ht="16.5">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -2724,7 +2874,7 @@
       <c r="Y31" s="2"/>
       <c r="Z31" s="2"/>
     </row>
-    <row r="32" spans="1:26">
+    <row r="32" spans="1:26" ht="16.5">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -2752,7 +2902,7 @@
       <c r="Y32" s="2"/>
       <c r="Z32" s="2"/>
     </row>
-    <row r="33" spans="1:26">
+    <row r="33" spans="1:26" ht="16.5">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -2780,7 +2930,7 @@
       <c r="Y33" s="2"/>
       <c r="Z33" s="2"/>
     </row>
-    <row r="34" spans="1:26">
+    <row r="34" spans="1:26" ht="16.5">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -2808,7 +2958,7 @@
       <c r="Y34" s="2"/>
       <c r="Z34" s="2"/>
     </row>
-    <row r="35" spans="1:26">
+    <row r="35" spans="1:26" ht="16.5">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -2836,7 +2986,7 @@
       <c r="Y35" s="2"/>
       <c r="Z35" s="2"/>
     </row>
-    <row r="36" spans="1:26">
+    <row r="36" spans="1:26" ht="16.5">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -2864,7 +3014,7 @@
       <c r="Y36" s="2"/>
       <c r="Z36" s="2"/>
     </row>
-    <row r="37" spans="1:26">
+    <row r="37" spans="1:26" ht="16.5">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -2892,7 +3042,7 @@
       <c r="Y37" s="2"/>
       <c r="Z37" s="2"/>
     </row>
-    <row r="38" spans="1:26">
+    <row r="38" spans="1:26" ht="16.5">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -2920,7 +3070,7 @@
       <c r="Y38" s="2"/>
       <c r="Z38" s="2"/>
     </row>
-    <row r="39" spans="1:26">
+    <row r="39" spans="1:26" ht="16.5">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -2948,7 +3098,7 @@
       <c r="Y39" s="2"/>
       <c r="Z39" s="2"/>
     </row>
-    <row r="40" spans="1:26">
+    <row r="40" spans="1:26" ht="16.5">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -2976,7 +3126,7 @@
       <c r="Y40" s="2"/>
       <c r="Z40" s="2"/>
     </row>
-    <row r="41" spans="1:26">
+    <row r="41" spans="1:26" ht="16.5">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -3004,7 +3154,7 @@
       <c r="Y41" s="2"/>
       <c r="Z41" s="2"/>
     </row>
-    <row r="42" spans="1:26">
+    <row r="42" spans="1:26" ht="16.5">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -3032,7 +3182,7 @@
       <c r="Y42" s="2"/>
       <c r="Z42" s="2"/>
     </row>
-    <row r="43" spans="1:26">
+    <row r="43" spans="1:26" ht="16.5">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -3060,7 +3210,7 @@
       <c r="Y43" s="2"/>
       <c r="Z43" s="2"/>
     </row>
-    <row r="44" spans="1:26">
+    <row r="44" spans="1:26" ht="16.5">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -3088,7 +3238,7 @@
       <c r="Y44" s="2"/>
       <c r="Z44" s="2"/>
     </row>
-    <row r="45" spans="1:26">
+    <row r="45" spans="1:26" ht="16.5">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -3116,7 +3266,7 @@
       <c r="Y45" s="2"/>
       <c r="Z45" s="2"/>
     </row>
-    <row r="46" spans="1:26">
+    <row r="46" spans="1:26" ht="16.5">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -3144,7 +3294,7 @@
       <c r="Y46" s="2"/>
       <c r="Z46" s="2"/>
     </row>
-    <row r="47" spans="1:26">
+    <row r="47" spans="1:26" ht="16.5">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -3172,7 +3322,7 @@
       <c r="Y47" s="2"/>
       <c r="Z47" s="2"/>
     </row>
-    <row r="48" spans="1:26">
+    <row r="48" spans="1:26" ht="16.5">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -3200,7 +3350,7 @@
       <c r="Y48" s="2"/>
       <c r="Z48" s="2"/>
     </row>
-    <row r="49" spans="1:26">
+    <row r="49" spans="1:26" ht="16.5">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -3228,7 +3378,7 @@
       <c r="Y49" s="2"/>
       <c r="Z49" s="2"/>
     </row>
-    <row r="50" spans="1:26">
+    <row r="50" spans="1:26" ht="16.5">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -3256,7 +3406,7 @@
       <c r="Y50" s="2"/>
       <c r="Z50" s="2"/>
     </row>
-    <row r="51" spans="1:26">
+    <row r="51" spans="1:26" ht="16.5">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -3284,7 +3434,7 @@
       <c r="Y51" s="2"/>
       <c r="Z51" s="2"/>
     </row>
-    <row r="52" spans="1:26">
+    <row r="52" spans="1:26" ht="16.5">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -3312,7 +3462,7 @@
       <c r="Y52" s="2"/>
       <c r="Z52" s="2"/>
     </row>
-    <row r="53" spans="1:26">
+    <row r="53" spans="1:26" ht="16.5">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -3340,7 +3490,7 @@
       <c r="Y53" s="2"/>
       <c r="Z53" s="2"/>
     </row>
-    <row r="54" spans="1:26">
+    <row r="54" spans="1:26" ht="16.5">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -3368,7 +3518,7 @@
       <c r="Y54" s="2"/>
       <c r="Z54" s="2"/>
     </row>
-    <row r="55" spans="1:26">
+    <row r="55" spans="1:26" ht="16.5">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -3396,7 +3546,7 @@
       <c r="Y55" s="2"/>
       <c r="Z55" s="2"/>
     </row>
-    <row r="56" spans="1:26">
+    <row r="56" spans="1:26" ht="16.5">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -3424,7 +3574,7 @@
       <c r="Y56" s="2"/>
       <c r="Z56" s="2"/>
     </row>
-    <row r="57" spans="1:26">
+    <row r="57" spans="1:26" ht="16.5">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -3452,7 +3602,7 @@
       <c r="Y57" s="2"/>
       <c r="Z57" s="2"/>
     </row>
-    <row r="58" spans="1:26">
+    <row r="58" spans="1:26" ht="16.5">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -3480,7 +3630,7 @@
       <c r="Y58" s="2"/>
       <c r="Z58" s="2"/>
     </row>
-    <row r="59" spans="1:26">
+    <row r="59" spans="1:26" ht="16.5">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -3508,7 +3658,7 @@
       <c r="Y59" s="2"/>
       <c r="Z59" s="2"/>
     </row>
-    <row r="60" spans="1:26">
+    <row r="60" spans="1:26" ht="16.5">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -3536,7 +3686,7 @@
       <c r="Y60" s="2"/>
       <c r="Z60" s="2"/>
     </row>
-    <row r="61" spans="1:26">
+    <row r="61" spans="1:26" ht="16.5">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -3564,7 +3714,7 @@
       <c r="Y61" s="2"/>
       <c r="Z61" s="2"/>
     </row>
-    <row r="62" spans="1:26">
+    <row r="62" spans="1:26" ht="16.5">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -3592,7 +3742,7 @@
       <c r="Y62" s="2"/>
       <c r="Z62" s="2"/>
     </row>
-    <row r="63" spans="1:26">
+    <row r="63" spans="1:26" ht="16.5">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -3620,7 +3770,7 @@
       <c r="Y63" s="2"/>
       <c r="Z63" s="2"/>
     </row>
-    <row r="64" spans="1:26">
+    <row r="64" spans="1:26" ht="16.5">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -3648,7 +3798,7 @@
       <c r="Y64" s="2"/>
       <c r="Z64" s="2"/>
     </row>
-    <row r="65" spans="1:26">
+    <row r="65" spans="1:26" ht="16.5">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -3676,7 +3826,7 @@
       <c r="Y65" s="2"/>
       <c r="Z65" s="2"/>
     </row>
-    <row r="66" spans="1:26">
+    <row r="66" spans="1:26" ht="16.5">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -3704,7 +3854,7 @@
       <c r="Y66" s="2"/>
       <c r="Z66" s="2"/>
     </row>
-    <row r="67" spans="1:26">
+    <row r="67" spans="1:26" ht="16.5">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -3732,7 +3882,7 @@
       <c r="Y67" s="2"/>
       <c r="Z67" s="2"/>
     </row>
-    <row r="68" spans="1:26">
+    <row r="68" spans="1:26" ht="16.5">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -3760,7 +3910,7 @@
       <c r="Y68" s="2"/>
       <c r="Z68" s="2"/>
     </row>
-    <row r="69" spans="1:26">
+    <row r="69" spans="1:26" ht="16.5">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -3788,7 +3938,7 @@
       <c r="Y69" s="2"/>
       <c r="Z69" s="2"/>
     </row>
-    <row r="70" spans="1:26">
+    <row r="70" spans="1:26" ht="16.5">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -3816,7 +3966,7 @@
       <c r="Y70" s="2"/>
       <c r="Z70" s="2"/>
     </row>
-    <row r="71" spans="1:26">
+    <row r="71" spans="1:26" ht="16.5">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -3844,7 +3994,7 @@
       <c r="Y71" s="2"/>
       <c r="Z71" s="2"/>
     </row>
-    <row r="72" spans="1:26">
+    <row r="72" spans="1:26" ht="16.5">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -3872,7 +4022,7 @@
       <c r="Y72" s="2"/>
       <c r="Z72" s="2"/>
     </row>
-    <row r="73" spans="1:26">
+    <row r="73" spans="1:26" ht="16.5">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -3900,7 +4050,7 @@
       <c r="Y73" s="2"/>
       <c r="Z73" s="2"/>
     </row>
-    <row r="74" spans="1:26">
+    <row r="74" spans="1:26" ht="16.5">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -3928,7 +4078,7 @@
       <c r="Y74" s="2"/>
       <c r="Z74" s="2"/>
     </row>
-    <row r="75" spans="1:26">
+    <row r="75" spans="1:26" ht="16.5">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -3956,7 +4106,7 @@
       <c r="Y75" s="2"/>
       <c r="Z75" s="2"/>
     </row>
-    <row r="76" spans="1:26">
+    <row r="76" spans="1:26" ht="16.5">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -3984,7 +4134,7 @@
       <c r="Y76" s="2"/>
       <c r="Z76" s="2"/>
     </row>
-    <row r="77" spans="1:26">
+    <row r="77" spans="1:26" ht="16.5">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -4012,7 +4162,7 @@
       <c r="Y77" s="2"/>
       <c r="Z77" s="2"/>
     </row>
-    <row r="78" spans="1:26">
+    <row r="78" spans="1:26" ht="16.5">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -4040,7 +4190,7 @@
       <c r="Y78" s="2"/>
       <c r="Z78" s="2"/>
     </row>
-    <row r="79" spans="1:26">
+    <row r="79" spans="1:26" ht="16.5">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -4068,7 +4218,7 @@
       <c r="Y79" s="2"/>
       <c r="Z79" s="2"/>
     </row>
-    <row r="80" spans="1:26">
+    <row r="80" spans="1:26" ht="16.5">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -4096,7 +4246,7 @@
       <c r="Y80" s="2"/>
       <c r="Z80" s="2"/>
     </row>
-    <row r="81" spans="1:26">
+    <row r="81" spans="1:26" ht="16.5">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -4124,7 +4274,7 @@
       <c r="Y81" s="2"/>
       <c r="Z81" s="2"/>
     </row>
-    <row r="82" spans="1:26">
+    <row r="82" spans="1:26" ht="16.5">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -4152,7 +4302,7 @@
       <c r="Y82" s="2"/>
       <c r="Z82" s="2"/>
     </row>
-    <row r="83" spans="1:26">
+    <row r="83" spans="1:26" ht="16.5">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -4180,7 +4330,7 @@
       <c r="Y83" s="2"/>
       <c r="Z83" s="2"/>
     </row>
-    <row r="84" spans="1:26">
+    <row r="84" spans="1:26" ht="16.5">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -4208,7 +4358,7 @@
       <c r="Y84" s="2"/>
       <c r="Z84" s="2"/>
     </row>
-    <row r="85" spans="1:26">
+    <row r="85" spans="1:26" ht="16.5">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -4236,7 +4386,7 @@
       <c r="Y85" s="2"/>
       <c r="Z85" s="2"/>
     </row>
-    <row r="86" spans="1:26">
+    <row r="86" spans="1:26" ht="16.5">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -4264,7 +4414,7 @@
       <c r="Y86" s="2"/>
       <c r="Z86" s="2"/>
     </row>
-    <row r="87" spans="1:26">
+    <row r="87" spans="1:26" ht="16.5">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -4292,7 +4442,7 @@
       <c r="Y87" s="2"/>
       <c r="Z87" s="2"/>
     </row>
-    <row r="88" spans="1:26">
+    <row r="88" spans="1:26" ht="16.5">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -4320,7 +4470,7 @@
       <c r="Y88" s="2"/>
       <c r="Z88" s="2"/>
     </row>
-    <row r="89" spans="1:26">
+    <row r="89" spans="1:26" ht="16.5">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -4348,7 +4498,7 @@
       <c r="Y89" s="2"/>
       <c r="Z89" s="2"/>
     </row>
-    <row r="90" spans="1:26">
+    <row r="90" spans="1:26" ht="16.5">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -4376,7 +4526,7 @@
       <c r="Y90" s="2"/>
       <c r="Z90" s="2"/>
     </row>
-    <row r="91" spans="1:26">
+    <row r="91" spans="1:26" ht="16.5">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -4404,7 +4554,7 @@
       <c r="Y91" s="2"/>
       <c r="Z91" s="2"/>
     </row>
-    <row r="92" spans="1:26">
+    <row r="92" spans="1:26" ht="16.5">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -4432,7 +4582,7 @@
       <c r="Y92" s="2"/>
       <c r="Z92" s="2"/>
     </row>
-    <row r="93" spans="1:26">
+    <row r="93" spans="1:26" ht="16.5">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -4460,7 +4610,7 @@
       <c r="Y93" s="2"/>
       <c r="Z93" s="2"/>
     </row>
-    <row r="94" spans="1:26">
+    <row r="94" spans="1:26" ht="16.5">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -4488,7 +4638,7 @@
       <c r="Y94" s="2"/>
       <c r="Z94" s="2"/>
     </row>
-    <row r="95" spans="1:26">
+    <row r="95" spans="1:26" ht="16.5">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -4516,7 +4666,7 @@
       <c r="Y95" s="2"/>
       <c r="Z95" s="2"/>
     </row>
-    <row r="96" spans="1:26">
+    <row r="96" spans="1:26" ht="16.5">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -4544,7 +4694,7 @@
       <c r="Y96" s="2"/>
       <c r="Z96" s="2"/>
     </row>
-    <row r="97" spans="1:26">
+    <row r="97" spans="1:26" ht="16.5">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -4572,7 +4722,7 @@
       <c r="Y97" s="2"/>
       <c r="Z97" s="2"/>
     </row>
-    <row r="98" spans="1:26">
+    <row r="98" spans="1:26" ht="16.5">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -4600,7 +4750,7 @@
       <c r="Y98" s="2"/>
       <c r="Z98" s="2"/>
     </row>
-    <row r="99" spans="1:26">
+    <row r="99" spans="1:26" ht="16.5">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -4628,7 +4778,7 @@
       <c r="Y99" s="2"/>
       <c r="Z99" s="2"/>
     </row>
-    <row r="100" spans="1:26">
+    <row r="100" spans="1:26" ht="16.5">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -4656,7 +4806,7 @@
       <c r="Y100" s="2"/>
       <c r="Z100" s="2"/>
     </row>
-    <row r="101" spans="1:26">
+    <row r="101" spans="1:26" ht="16.5">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -4684,7 +4834,7 @@
       <c r="Y101" s="2"/>
       <c r="Z101" s="2"/>
     </row>
-    <row r="102" spans="1:26">
+    <row r="102" spans="1:26" ht="16.5">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -4712,7 +4862,7 @@
       <c r="Y102" s="2"/>
       <c r="Z102" s="2"/>
     </row>
-    <row r="103" spans="1:26">
+    <row r="103" spans="1:26" ht="16.5">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -4740,7 +4890,7 @@
       <c r="Y103" s="2"/>
       <c r="Z103" s="2"/>
     </row>
-    <row r="104" spans="1:26">
+    <row r="104" spans="1:26" ht="16.5">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -4768,7 +4918,7 @@
       <c r="Y104" s="2"/>
       <c r="Z104" s="2"/>
     </row>
-    <row r="105" spans="1:26">
+    <row r="105" spans="1:26" ht="16.5">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -4796,7 +4946,7 @@
       <c r="Y105" s="2"/>
       <c r="Z105" s="2"/>
     </row>
-    <row r="106" spans="1:26">
+    <row r="106" spans="1:26" ht="16.5">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -4824,7 +4974,7 @@
       <c r="Y106" s="2"/>
       <c r="Z106" s="2"/>
     </row>
-    <row r="107" spans="1:26">
+    <row r="107" spans="1:26" ht="16.5">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -4852,7 +5002,7 @@
       <c r="Y107" s="2"/>
       <c r="Z107" s="2"/>
     </row>
-    <row r="108" spans="1:26">
+    <row r="108" spans="1:26" ht="16.5">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -4880,7 +5030,7 @@
       <c r="Y108" s="2"/>
       <c r="Z108" s="2"/>
     </row>
-    <row r="109" spans="1:26">
+    <row r="109" spans="1:26" ht="16.5">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -4908,7 +5058,7 @@
       <c r="Y109" s="2"/>
       <c r="Z109" s="2"/>
     </row>
-    <row r="110" spans="1:26">
+    <row r="110" spans="1:26" ht="16.5">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -4936,7 +5086,7 @@
       <c r="Y110" s="2"/>
       <c r="Z110" s="2"/>
     </row>
-    <row r="111" spans="1:26">
+    <row r="111" spans="1:26" ht="16.5">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -4964,7 +5114,7 @@
       <c r="Y111" s="2"/>
       <c r="Z111" s="2"/>
     </row>
-    <row r="112" spans="1:26">
+    <row r="112" spans="1:26" ht="16.5">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -4992,7 +5142,7 @@
       <c r="Y112" s="2"/>
       <c r="Z112" s="2"/>
     </row>
-    <row r="113" spans="1:26">
+    <row r="113" spans="1:26" ht="16.5">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -5020,7 +5170,7 @@
       <c r="Y113" s="2"/>
       <c r="Z113" s="2"/>
     </row>
-    <row r="114" spans="1:26">
+    <row r="114" spans="1:26" ht="16.5">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -5048,7 +5198,7 @@
       <c r="Y114" s="2"/>
       <c r="Z114" s="2"/>
     </row>
-    <row r="115" spans="1:26">
+    <row r="115" spans="1:26" ht="16.5">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -5076,7 +5226,7 @@
       <c r="Y115" s="2"/>
       <c r="Z115" s="2"/>
     </row>
-    <row r="116" spans="1:26">
+    <row r="116" spans="1:26" ht="16.5">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -5104,7 +5254,7 @@
       <c r="Y116" s="2"/>
       <c r="Z116" s="2"/>
     </row>
-    <row r="117" spans="1:26">
+    <row r="117" spans="1:26" ht="16.5">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -5132,7 +5282,7 @@
       <c r="Y117" s="2"/>
       <c r="Z117" s="2"/>
     </row>
-    <row r="118" spans="1:26">
+    <row r="118" spans="1:26" ht="16.5">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -5160,7 +5310,7 @@
       <c r="Y118" s="2"/>
       <c r="Z118" s="2"/>
     </row>
-    <row r="119" spans="1:26">
+    <row r="119" spans="1:26" ht="16.5">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -5188,7 +5338,7 @@
       <c r="Y119" s="2"/>
       <c r="Z119" s="2"/>
     </row>
-    <row r="120" spans="1:26">
+    <row r="120" spans="1:26" ht="16.5">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -5216,7 +5366,7 @@
       <c r="Y120" s="2"/>
       <c r="Z120" s="2"/>
     </row>
-    <row r="121" spans="1:26">
+    <row r="121" spans="1:26" ht="16.5">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -5244,7 +5394,7 @@
       <c r="Y121" s="2"/>
       <c r="Z121" s="2"/>
     </row>
-    <row r="122" spans="1:26">
+    <row r="122" spans="1:26" ht="16.5">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -5272,7 +5422,7 @@
       <c r="Y122" s="2"/>
       <c r="Z122" s="2"/>
     </row>
-    <row r="123" spans="1:26">
+    <row r="123" spans="1:26" ht="16.5">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -5300,7 +5450,7 @@
       <c r="Y123" s="2"/>
       <c r="Z123" s="2"/>
     </row>
-    <row r="124" spans="1:26">
+    <row r="124" spans="1:26" ht="16.5">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -5328,7 +5478,7 @@
       <c r="Y124" s="2"/>
       <c r="Z124" s="2"/>
     </row>
-    <row r="125" spans="1:26">
+    <row r="125" spans="1:26" ht="16.5">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -5356,7 +5506,7 @@
       <c r="Y125" s="2"/>
       <c r="Z125" s="2"/>
     </row>
-    <row r="126" spans="1:26">
+    <row r="126" spans="1:26" ht="16.5">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -5384,7 +5534,7 @@
       <c r="Y126" s="2"/>
       <c r="Z126" s="2"/>
     </row>
-    <row r="127" spans="1:26">
+    <row r="127" spans="1:26" ht="16.5">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -5412,7 +5562,7 @@
       <c r="Y127" s="2"/>
       <c r="Z127" s="2"/>
     </row>
-    <row r="128" spans="1:26">
+    <row r="128" spans="1:26" ht="16.5">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -5440,7 +5590,7 @@
       <c r="Y128" s="2"/>
       <c r="Z128" s="2"/>
     </row>
-    <row r="129" spans="1:26">
+    <row r="129" spans="1:26" ht="16.5">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -5468,7 +5618,7 @@
       <c r="Y129" s="2"/>
       <c r="Z129" s="2"/>
     </row>
-    <row r="130" spans="1:26">
+    <row r="130" spans="1:26" ht="16.5">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -5496,7 +5646,7 @@
       <c r="Y130" s="2"/>
       <c r="Z130" s="2"/>
     </row>
-    <row r="131" spans="1:26">
+    <row r="131" spans="1:26" ht="16.5">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -5524,7 +5674,7 @@
       <c r="Y131" s="2"/>
       <c r="Z131" s="2"/>
     </row>
-    <row r="132" spans="1:26">
+    <row r="132" spans="1:26" ht="16.5">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -5552,7 +5702,7 @@
       <c r="Y132" s="2"/>
       <c r="Z132" s="2"/>
     </row>
-    <row r="133" spans="1:26">
+    <row r="133" spans="1:26" ht="16.5">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -5580,7 +5730,7 @@
       <c r="Y133" s="2"/>
       <c r="Z133" s="2"/>
     </row>
-    <row r="134" spans="1:26">
+    <row r="134" spans="1:26" ht="16.5">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -5608,7 +5758,7 @@
       <c r="Y134" s="2"/>
       <c r="Z134" s="2"/>
     </row>
-    <row r="135" spans="1:26">
+    <row r="135" spans="1:26" ht="16.5">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -5636,7 +5786,7 @@
       <c r="Y135" s="2"/>
       <c r="Z135" s="2"/>
     </row>
-    <row r="136" spans="1:26">
+    <row r="136" spans="1:26" ht="16.5">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -5664,7 +5814,7 @@
       <c r="Y136" s="2"/>
       <c r="Z136" s="2"/>
     </row>
-    <row r="137" spans="1:26">
+    <row r="137" spans="1:26" ht="16.5">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -5692,7 +5842,7 @@
       <c r="Y137" s="2"/>
       <c r="Z137" s="2"/>
     </row>
-    <row r="138" spans="1:26">
+    <row r="138" spans="1:26" ht="16.5">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -5720,7 +5870,7 @@
       <c r="Y138" s="2"/>
       <c r="Z138" s="2"/>
     </row>
-    <row r="139" spans="1:26">
+    <row r="139" spans="1:26" ht="16.5">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -5748,7 +5898,7 @@
       <c r="Y139" s="2"/>
       <c r="Z139" s="2"/>
     </row>
-    <row r="140" spans="1:26">
+    <row r="140" spans="1:26" ht="16.5">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -5776,7 +5926,7 @@
       <c r="Y140" s="2"/>
       <c r="Z140" s="2"/>
     </row>
-    <row r="141" spans="1:26">
+    <row r="141" spans="1:26" ht="16.5">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -5804,7 +5954,7 @@
       <c r="Y141" s="2"/>
       <c r="Z141" s="2"/>
     </row>
-    <row r="142" spans="1:26">
+    <row r="142" spans="1:26" ht="16.5">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -5832,7 +5982,7 @@
       <c r="Y142" s="2"/>
       <c r="Z142" s="2"/>
     </row>
-    <row r="143" spans="1:26">
+    <row r="143" spans="1:26" ht="16.5">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -5860,7 +6010,7 @@
       <c r="Y143" s="2"/>
       <c r="Z143" s="2"/>
     </row>
-    <row r="144" spans="1:26">
+    <row r="144" spans="1:26" ht="16.5">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -5888,7 +6038,7 @@
       <c r="Y144" s="2"/>
       <c r="Z144" s="2"/>
     </row>
-    <row r="145" spans="1:26">
+    <row r="145" spans="1:26" ht="16.5">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -5916,7 +6066,7 @@
       <c r="Y145" s="2"/>
       <c r="Z145" s="2"/>
     </row>
-    <row r="146" spans="1:26">
+    <row r="146" spans="1:26" ht="16.5">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -5944,7 +6094,7 @@
       <c r="Y146" s="2"/>
       <c r="Z146" s="2"/>
     </row>
-    <row r="147" spans="1:26">
+    <row r="147" spans="1:26" ht="16.5">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -5972,7 +6122,7 @@
       <c r="Y147" s="2"/>
       <c r="Z147" s="2"/>
     </row>
-    <row r="148" spans="1:26">
+    <row r="148" spans="1:26" ht="16.5">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -6000,7 +6150,7 @@
       <c r="Y148" s="2"/>
       <c r="Z148" s="2"/>
     </row>
-    <row r="149" spans="1:26">
+    <row r="149" spans="1:26" ht="16.5">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -6028,7 +6178,7 @@
       <c r="Y149" s="2"/>
       <c r="Z149" s="2"/>
     </row>
-    <row r="150" spans="1:26">
+    <row r="150" spans="1:26" ht="16.5">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -6056,7 +6206,7 @@
       <c r="Y150" s="2"/>
       <c r="Z150" s="2"/>
     </row>
-    <row r="151" spans="1:26">
+    <row r="151" spans="1:26" ht="16.5">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -6084,7 +6234,7 @@
       <c r="Y151" s="2"/>
       <c r="Z151" s="2"/>
     </row>
-    <row r="152" spans="1:26">
+    <row r="152" spans="1:26" ht="16.5">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -6112,7 +6262,7 @@
       <c r="Y152" s="2"/>
       <c r="Z152" s="2"/>
     </row>
-    <row r="153" spans="1:26">
+    <row r="153" spans="1:26" ht="16.5">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -6140,7 +6290,7 @@
       <c r="Y153" s="2"/>
       <c r="Z153" s="2"/>
     </row>
-    <row r="154" spans="1:26">
+    <row r="154" spans="1:26" ht="16.5">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -6168,7 +6318,7 @@
       <c r="Y154" s="2"/>
       <c r="Z154" s="2"/>
     </row>
-    <row r="155" spans="1:26">
+    <row r="155" spans="1:26" ht="16.5">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -6196,7 +6346,7 @@
       <c r="Y155" s="2"/>
       <c r="Z155" s="2"/>
     </row>
-    <row r="156" spans="1:26">
+    <row r="156" spans="1:26" ht="16.5">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -6224,7 +6374,7 @@
       <c r="Y156" s="2"/>
       <c r="Z156" s="2"/>
     </row>
-    <row r="157" spans="1:26">
+    <row r="157" spans="1:26" ht="16.5">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -6252,7 +6402,7 @@
       <c r="Y157" s="2"/>
       <c r="Z157" s="2"/>
     </row>
-    <row r="158" spans="1:26">
+    <row r="158" spans="1:26" ht="16.5">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -6280,7 +6430,7 @@
       <c r="Y158" s="2"/>
       <c r="Z158" s="2"/>
     </row>
-    <row r="159" spans="1:26">
+    <row r="159" spans="1:26" ht="16.5">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -6308,7 +6458,7 @@
       <c r="Y159" s="2"/>
       <c r="Z159" s="2"/>
     </row>
-    <row r="160" spans="1:26">
+    <row r="160" spans="1:26" ht="16.5">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -6336,7 +6486,7 @@
       <c r="Y160" s="2"/>
       <c r="Z160" s="2"/>
     </row>
-    <row r="161" spans="1:26">
+    <row r="161" spans="1:26" ht="16.5">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -6364,7 +6514,7 @@
       <c r="Y161" s="2"/>
       <c r="Z161" s="2"/>
     </row>
-    <row r="162" spans="1:26">
+    <row r="162" spans="1:26" ht="16.5">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -6392,7 +6542,7 @@
       <c r="Y162" s="2"/>
       <c r="Z162" s="2"/>
     </row>
-    <row r="163" spans="1:26">
+    <row r="163" spans="1:26" ht="16.5">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -6420,7 +6570,7 @@
       <c r="Y163" s="2"/>
       <c r="Z163" s="2"/>
     </row>
-    <row r="164" spans="1:26">
+    <row r="164" spans="1:26" ht="16.5">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -6448,7 +6598,7 @@
       <c r="Y164" s="2"/>
       <c r="Z164" s="2"/>
     </row>
-    <row r="165" spans="1:26">
+    <row r="165" spans="1:26" ht="16.5">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -6476,7 +6626,7 @@
       <c r="Y165" s="2"/>
       <c r="Z165" s="2"/>
     </row>
-    <row r="166" spans="1:26">
+    <row r="166" spans="1:26" ht="16.5">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -6504,7 +6654,7 @@
       <c r="Y166" s="2"/>
       <c r="Z166" s="2"/>
     </row>
-    <row r="167" spans="1:26">
+    <row r="167" spans="1:26" ht="16.5">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -6532,7 +6682,7 @@
       <c r="Y167" s="2"/>
       <c r="Z167" s="2"/>
     </row>
-    <row r="168" spans="1:26">
+    <row r="168" spans="1:26" ht="16.5">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -6560,7 +6710,7 @@
       <c r="Y168" s="2"/>
       <c r="Z168" s="2"/>
     </row>
-    <row r="169" spans="1:26">
+    <row r="169" spans="1:26" ht="16.5">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -6588,7 +6738,7 @@
       <c r="Y169" s="2"/>
       <c r="Z169" s="2"/>
     </row>
-    <row r="170" spans="1:26">
+    <row r="170" spans="1:26" ht="16.5">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -6616,7 +6766,7 @@
       <c r="Y170" s="2"/>
       <c r="Z170" s="2"/>
     </row>
-    <row r="171" spans="1:26">
+    <row r="171" spans="1:26" ht="16.5">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -6644,7 +6794,7 @@
       <c r="Y171" s="2"/>
       <c r="Z171" s="2"/>
     </row>
-    <row r="172" spans="1:26">
+    <row r="172" spans="1:26" ht="16.5">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -6672,7 +6822,7 @@
       <c r="Y172" s="2"/>
       <c r="Z172" s="2"/>
     </row>
-    <row r="173" spans="1:26">
+    <row r="173" spans="1:26" ht="16.5">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -6700,7 +6850,7 @@
       <c r="Y173" s="2"/>
       <c r="Z173" s="2"/>
     </row>
-    <row r="174" spans="1:26">
+    <row r="174" spans="1:26" ht="16.5">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -6728,7 +6878,7 @@
       <c r="Y174" s="2"/>
       <c r="Z174" s="2"/>
     </row>
-    <row r="175" spans="1:26">
+    <row r="175" spans="1:26" ht="16.5">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -6756,7 +6906,7 @@
       <c r="Y175" s="2"/>
       <c r="Z175" s="2"/>
     </row>
-    <row r="176" spans="1:26">
+    <row r="176" spans="1:26" ht="16.5">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -6784,7 +6934,7 @@
       <c r="Y176" s="2"/>
       <c r="Z176" s="2"/>
     </row>
-    <row r="177" spans="1:26">
+    <row r="177" spans="1:26" ht="16.5">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -6812,7 +6962,7 @@
       <c r="Y177" s="2"/>
       <c r="Z177" s="2"/>
     </row>
-    <row r="178" spans="1:26">
+    <row r="178" spans="1:26" ht="16.5">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -6840,7 +6990,7 @@
       <c r="Y178" s="2"/>
       <c r="Z178" s="2"/>
     </row>
-    <row r="179" spans="1:26">
+    <row r="179" spans="1:26" ht="16.5">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -6868,7 +7018,7 @@
       <c r="Y179" s="2"/>
       <c r="Z179" s="2"/>
     </row>
-    <row r="180" spans="1:26">
+    <row r="180" spans="1:26" ht="16.5">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -6896,7 +7046,7 @@
       <c r="Y180" s="2"/>
       <c r="Z180" s="2"/>
     </row>
-    <row r="181" spans="1:26">
+    <row r="181" spans="1:26" ht="16.5">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -6924,7 +7074,7 @@
       <c r="Y181" s="2"/>
       <c r="Z181" s="2"/>
     </row>
-    <row r="182" spans="1:26">
+    <row r="182" spans="1:26" ht="16.5">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -6952,7 +7102,7 @@
       <c r="Y182" s="2"/>
       <c r="Z182" s="2"/>
     </row>
-    <row r="183" spans="1:26">
+    <row r="183" spans="1:26" ht="16.5">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -6980,7 +7130,7 @@
       <c r="Y183" s="2"/>
       <c r="Z183" s="2"/>
     </row>
-    <row r="184" spans="1:26">
+    <row r="184" spans="1:26" ht="16.5">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -7008,7 +7158,7 @@
       <c r="Y184" s="2"/>
       <c r="Z184" s="2"/>
     </row>
-    <row r="185" spans="1:26">
+    <row r="185" spans="1:26" ht="16.5">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -7036,7 +7186,7 @@
       <c r="Y185" s="2"/>
       <c r="Z185" s="2"/>
     </row>
-    <row r="186" spans="1:26">
+    <row r="186" spans="1:26" ht="16.5">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -7064,7 +7214,7 @@
       <c r="Y186" s="2"/>
       <c r="Z186" s="2"/>
     </row>
-    <row r="187" spans="1:26">
+    <row r="187" spans="1:26" ht="16.5">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -7092,7 +7242,7 @@
       <c r="Y187" s="2"/>
       <c r="Z187" s="2"/>
     </row>
-    <row r="188" spans="1:26">
+    <row r="188" spans="1:26" ht="16.5">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -7120,7 +7270,7 @@
       <c r="Y188" s="2"/>
       <c r="Z188" s="2"/>
     </row>
-    <row r="189" spans="1:26">
+    <row r="189" spans="1:26" ht="16.5">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -7148,7 +7298,7 @@
       <c r="Y189" s="2"/>
       <c r="Z189" s="2"/>
     </row>
-    <row r="190" spans="1:26">
+    <row r="190" spans="1:26" ht="16.5">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -7176,7 +7326,7 @@
       <c r="Y190" s="2"/>
       <c r="Z190" s="2"/>
     </row>
-    <row r="191" spans="1:26">
+    <row r="191" spans="1:26" ht="16.5">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -7204,7 +7354,7 @@
       <c r="Y191" s="2"/>
       <c r="Z191" s="2"/>
     </row>
-    <row r="192" spans="1:26">
+    <row r="192" spans="1:26" ht="16.5">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -7232,7 +7382,7 @@
       <c r="Y192" s="2"/>
       <c r="Z192" s="2"/>
     </row>
-    <row r="193" spans="1:26">
+    <row r="193" spans="1:26" ht="16.5">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -7260,7 +7410,7 @@
       <c r="Y193" s="2"/>
       <c r="Z193" s="2"/>
     </row>
-    <row r="194" spans="1:26">
+    <row r="194" spans="1:26" ht="16.5">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -7288,7 +7438,7 @@
       <c r="Y194" s="2"/>
       <c r="Z194" s="2"/>
     </row>
-    <row r="195" spans="1:26">
+    <row r="195" spans="1:26" ht="16.5">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -7316,7 +7466,7 @@
       <c r="Y195" s="2"/>
       <c r="Z195" s="2"/>
     </row>
-    <row r="196" spans="1:26">
+    <row r="196" spans="1:26" ht="16.5">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -7344,7 +7494,7 @@
       <c r="Y196" s="2"/>
       <c r="Z196" s="2"/>
     </row>
-    <row r="197" spans="1:26">
+    <row r="197" spans="1:26" ht="16.5">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -7372,7 +7522,7 @@
       <c r="Y197" s="2"/>
       <c r="Z197" s="2"/>
     </row>
-    <row r="198" spans="1:26">
+    <row r="198" spans="1:26" ht="16.5">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -7400,7 +7550,7 @@
       <c r="Y198" s="2"/>
       <c r="Z198" s="2"/>
     </row>
-    <row r="199" spans="1:26">
+    <row r="199" spans="1:26" ht="16.5">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -7428,7 +7578,7 @@
       <c r="Y199" s="2"/>
       <c r="Z199" s="2"/>
     </row>
-    <row r="200" spans="1:26">
+    <row r="200" spans="1:26" ht="16.5">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -7471,34 +7621,34 @@
       <selection activeCell="G4" sqref="A1:G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" ht="16.5">
       <c r="A1" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="49"/>
+      <c r="D1" s="52"/>
       <c r="E1" s="9" t="s">
         <v>7</v>
       </c>
       <c r="F1" s="10"/>
       <c r="G1" s="10"/>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="43" t="s">
+    <row r="2" spans="1:7" ht="16.5">
+      <c r="A2" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="50" t="s">
+      <c r="B2" s="44"/>
+      <c r="C2" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="49"/>
+      <c r="D2" s="52"/>
       <c r="E2" s="11" t="s">
         <v>10</v>
       </c>
@@ -7509,28 +7659,28 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="44" t="s">
+    <row r="3" spans="1:7" ht="16.5">
+      <c r="A3" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="47"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="50"/>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
       <c r="G3" s="14"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" ht="16.5">
       <c r="A4" s="15" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="47"/>
+      <c r="D4" s="50"/>
       <c r="E4" s="16" t="s">
         <v>16</v>
       </c>
@@ -7596,34 +7746,34 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" ht="16.5">
       <c r="A1" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="49"/>
+      <c r="D1" s="52"/>
       <c r="E1" s="9" t="s">
         <v>7</v>
       </c>
       <c r="F1" s="10"/>
       <c r="G1" s="10"/>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="43" t="s">
+    <row r="2" spans="1:7" ht="16.5">
+      <c r="A2" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="50" t="s">
+      <c r="B2" s="44"/>
+      <c r="C2" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="49"/>
+      <c r="D2" s="52"/>
       <c r="E2" s="11" t="s">
         <v>10</v>
       </c>
@@ -7634,28 +7784,28 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="44" t="s">
+    <row r="3" spans="1:7" ht="16.5">
+      <c r="A3" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="47"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="50"/>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
       <c r="G3" s="14"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" ht="16.5">
       <c r="A4" s="15" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="47"/>
+      <c r="D4" s="50"/>
       <c r="E4" s="16" t="s">
         <v>16</v>
       </c>
@@ -7715,15 +7865,15 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="3" width="12.8984375" customWidth="1"/>
+    <col min="1" max="3" width="12.875" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
-    <col min="5" max="5" width="29.296875" customWidth="1"/>
-    <col min="6" max="26" width="12.8984375" customWidth="1"/>
+    <col min="5" max="5" width="29.25" customWidth="1"/>
+    <col min="6" max="26" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" ht="16.5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -7763,7 +7913,7 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" ht="16.5">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -7791,7 +7941,7 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" ht="16.5">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -7819,7 +7969,7 @@
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" ht="16.5">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -7847,7 +7997,7 @@
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" ht="16.5">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -7875,7 +8025,7 @@
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" ht="16.5">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -7903,7 +8053,7 @@
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" ht="16.5">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -7931,7 +8081,7 @@
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" ht="16.5">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -7959,7 +8109,7 @@
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" ht="16.5">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -7987,7 +8137,7 @@
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:26" ht="16.5">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -8015,7 +8165,7 @@
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" ht="16.5">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -8043,7 +8193,7 @@
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:26" ht="16.5">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -8071,7 +8221,7 @@
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:26" ht="16.5">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -8099,7 +8249,7 @@
       <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:26" ht="16.5">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -8127,7 +8277,7 @@
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:26" ht="16.5">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -8155,7 +8305,7 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:26" ht="16.5">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -8183,7 +8333,7 @@
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
     </row>
-    <row r="17" spans="1:26">
+    <row r="17" spans="1:26" ht="16.5">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -8211,7 +8361,7 @@
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
     </row>
-    <row r="18" spans="1:26">
+    <row r="18" spans="1:26" ht="16.5">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -8239,7 +8389,7 @@
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
     </row>
-    <row r="19" spans="1:26">
+    <row r="19" spans="1:26" ht="16.5">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -8267,7 +8417,7 @@
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:26" ht="16.5">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -8295,7 +8445,7 @@
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
     </row>
-    <row r="21" spans="1:26">
+    <row r="21" spans="1:26" ht="16.5">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -8323,7 +8473,7 @@
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
     </row>
-    <row r="22" spans="1:26">
+    <row r="22" spans="1:26" ht="16.5">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -8351,7 +8501,7 @@
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
     </row>
-    <row r="23" spans="1:26">
+    <row r="23" spans="1:26" ht="16.5">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -8379,7 +8529,7 @@
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
     </row>
-    <row r="24" spans="1:26">
+    <row r="24" spans="1:26" ht="16.5">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -8407,7 +8557,7 @@
       <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
     </row>
-    <row r="25" spans="1:26">
+    <row r="25" spans="1:26" ht="16.5">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -8435,7 +8585,7 @@
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
     </row>
-    <row r="26" spans="1:26">
+    <row r="26" spans="1:26" ht="16.5">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -8463,7 +8613,7 @@
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
     </row>
-    <row r="27" spans="1:26">
+    <row r="27" spans="1:26" ht="16.5">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -8491,7 +8641,7 @@
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
     </row>
-    <row r="28" spans="1:26">
+    <row r="28" spans="1:26" ht="16.5">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -8519,7 +8669,7 @@
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
     </row>
-    <row r="29" spans="1:26">
+    <row r="29" spans="1:26" ht="16.5">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -8547,7 +8697,7 @@
       <c r="Y29" s="2"/>
       <c r="Z29" s="2"/>
     </row>
-    <row r="30" spans="1:26">
+    <row r="30" spans="1:26" ht="16.5">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -8575,7 +8725,7 @@
       <c r="Y30" s="2"/>
       <c r="Z30" s="2"/>
     </row>
-    <row r="31" spans="1:26">
+    <row r="31" spans="1:26" ht="16.5">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -8603,7 +8753,7 @@
       <c r="Y31" s="2"/>
       <c r="Z31" s="2"/>
     </row>
-    <row r="32" spans="1:26">
+    <row r="32" spans="1:26" ht="16.5">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -8631,7 +8781,7 @@
       <c r="Y32" s="2"/>
       <c r="Z32" s="2"/>
     </row>
-    <row r="33" spans="1:26">
+    <row r="33" spans="1:26" ht="16.5">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -8659,7 +8809,7 @@
       <c r="Y33" s="2"/>
       <c r="Z33" s="2"/>
     </row>
-    <row r="34" spans="1:26">
+    <row r="34" spans="1:26" ht="16.5">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -8687,7 +8837,7 @@
       <c r="Y34" s="2"/>
       <c r="Z34" s="2"/>
     </row>
-    <row r="35" spans="1:26">
+    <row r="35" spans="1:26" ht="16.5">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -8715,7 +8865,7 @@
       <c r="Y35" s="2"/>
       <c r="Z35" s="2"/>
     </row>
-    <row r="36" spans="1:26">
+    <row r="36" spans="1:26" ht="16.5">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -8743,7 +8893,7 @@
       <c r="Y36" s="2"/>
       <c r="Z36" s="2"/>
     </row>
-    <row r="37" spans="1:26">
+    <row r="37" spans="1:26" ht="16.5">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -8771,7 +8921,7 @@
       <c r="Y37" s="2"/>
       <c r="Z37" s="2"/>
     </row>
-    <row r="38" spans="1:26">
+    <row r="38" spans="1:26" ht="16.5">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -8799,7 +8949,7 @@
       <c r="Y38" s="2"/>
       <c r="Z38" s="2"/>
     </row>
-    <row r="39" spans="1:26">
+    <row r="39" spans="1:26" ht="16.5">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -8827,7 +8977,7 @@
       <c r="Y39" s="2"/>
       <c r="Z39" s="2"/>
     </row>
-    <row r="40" spans="1:26">
+    <row r="40" spans="1:26" ht="16.5">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -8855,7 +9005,7 @@
       <c r="Y40" s="2"/>
       <c r="Z40" s="2"/>
     </row>
-    <row r="41" spans="1:26">
+    <row r="41" spans="1:26" ht="16.5">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -8883,7 +9033,7 @@
       <c r="Y41" s="2"/>
       <c r="Z41" s="2"/>
     </row>
-    <row r="42" spans="1:26">
+    <row r="42" spans="1:26" ht="16.5">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -8911,7 +9061,7 @@
       <c r="Y42" s="2"/>
       <c r="Z42" s="2"/>
     </row>
-    <row r="43" spans="1:26">
+    <row r="43" spans="1:26" ht="16.5">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -8939,7 +9089,7 @@
       <c r="Y43" s="2"/>
       <c r="Z43" s="2"/>
     </row>
-    <row r="44" spans="1:26">
+    <row r="44" spans="1:26" ht="16.5">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -8967,7 +9117,7 @@
       <c r="Y44" s="2"/>
       <c r="Z44" s="2"/>
     </row>
-    <row r="45" spans="1:26">
+    <row r="45" spans="1:26" ht="16.5">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -8995,7 +9145,7 @@
       <c r="Y45" s="2"/>
       <c r="Z45" s="2"/>
     </row>
-    <row r="46" spans="1:26">
+    <row r="46" spans="1:26" ht="16.5">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -9023,7 +9173,7 @@
       <c r="Y46" s="2"/>
       <c r="Z46" s="2"/>
     </row>
-    <row r="47" spans="1:26">
+    <row r="47" spans="1:26" ht="16.5">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -9051,7 +9201,7 @@
       <c r="Y47" s="2"/>
       <c r="Z47" s="2"/>
     </row>
-    <row r="48" spans="1:26">
+    <row r="48" spans="1:26" ht="16.5">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -9079,7 +9229,7 @@
       <c r="Y48" s="2"/>
       <c r="Z48" s="2"/>
     </row>
-    <row r="49" spans="1:26">
+    <row r="49" spans="1:26" ht="16.5">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -9107,7 +9257,7 @@
       <c r="Y49" s="2"/>
       <c r="Z49" s="2"/>
     </row>
-    <row r="50" spans="1:26">
+    <row r="50" spans="1:26" ht="16.5">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -9135,7 +9285,7 @@
       <c r="Y50" s="2"/>
       <c r="Z50" s="2"/>
     </row>
-    <row r="51" spans="1:26">
+    <row r="51" spans="1:26" ht="16.5">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -9163,7 +9313,7 @@
       <c r="Y51" s="2"/>
       <c r="Z51" s="2"/>
     </row>
-    <row r="52" spans="1:26">
+    <row r="52" spans="1:26" ht="16.5">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -9191,7 +9341,7 @@
       <c r="Y52" s="2"/>
       <c r="Z52" s="2"/>
     </row>
-    <row r="53" spans="1:26">
+    <row r="53" spans="1:26" ht="16.5">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -9219,7 +9369,7 @@
       <c r="Y53" s="2"/>
       <c r="Z53" s="2"/>
     </row>
-    <row r="54" spans="1:26">
+    <row r="54" spans="1:26" ht="16.5">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -9247,7 +9397,7 @@
       <c r="Y54" s="2"/>
       <c r="Z54" s="2"/>
     </row>
-    <row r="55" spans="1:26">
+    <row r="55" spans="1:26" ht="16.5">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -9275,7 +9425,7 @@
       <c r="Y55" s="2"/>
       <c r="Z55" s="2"/>
     </row>
-    <row r="56" spans="1:26">
+    <row r="56" spans="1:26" ht="16.5">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -9303,7 +9453,7 @@
       <c r="Y56" s="2"/>
       <c r="Z56" s="2"/>
     </row>
-    <row r="57" spans="1:26">
+    <row r="57" spans="1:26" ht="16.5">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -9331,7 +9481,7 @@
       <c r="Y57" s="2"/>
       <c r="Z57" s="2"/>
     </row>
-    <row r="58" spans="1:26">
+    <row r="58" spans="1:26" ht="16.5">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -9359,7 +9509,7 @@
       <c r="Y58" s="2"/>
       <c r="Z58" s="2"/>
     </row>
-    <row r="59" spans="1:26">
+    <row r="59" spans="1:26" ht="16.5">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -9387,7 +9537,7 @@
       <c r="Y59" s="2"/>
       <c r="Z59" s="2"/>
     </row>
-    <row r="60" spans="1:26">
+    <row r="60" spans="1:26" ht="16.5">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -9415,7 +9565,7 @@
       <c r="Y60" s="2"/>
       <c r="Z60" s="2"/>
     </row>
-    <row r="61" spans="1:26">
+    <row r="61" spans="1:26" ht="16.5">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -9443,7 +9593,7 @@
       <c r="Y61" s="2"/>
       <c r="Z61" s="2"/>
     </row>
-    <row r="62" spans="1:26">
+    <row r="62" spans="1:26" ht="16.5">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -9471,7 +9621,7 @@
       <c r="Y62" s="2"/>
       <c r="Z62" s="2"/>
     </row>
-    <row r="63" spans="1:26">
+    <row r="63" spans="1:26" ht="16.5">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -9499,7 +9649,7 @@
       <c r="Y63" s="2"/>
       <c r="Z63" s="2"/>
     </row>
-    <row r="64" spans="1:26">
+    <row r="64" spans="1:26" ht="16.5">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -9527,7 +9677,7 @@
       <c r="Y64" s="2"/>
       <c r="Z64" s="2"/>
     </row>
-    <row r="65" spans="1:26">
+    <row r="65" spans="1:26" ht="16.5">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -9555,7 +9705,7 @@
       <c r="Y65" s="2"/>
       <c r="Z65" s="2"/>
     </row>
-    <row r="66" spans="1:26">
+    <row r="66" spans="1:26" ht="16.5">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -9583,7 +9733,7 @@
       <c r="Y66" s="2"/>
       <c r="Z66" s="2"/>
     </row>
-    <row r="67" spans="1:26">
+    <row r="67" spans="1:26" ht="16.5">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -9611,7 +9761,7 @@
       <c r="Y67" s="2"/>
       <c r="Z67" s="2"/>
     </row>
-    <row r="68" spans="1:26">
+    <row r="68" spans="1:26" ht="16.5">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -9639,7 +9789,7 @@
       <c r="Y68" s="2"/>
       <c r="Z68" s="2"/>
     </row>
-    <row r="69" spans="1:26">
+    <row r="69" spans="1:26" ht="16.5">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -9667,7 +9817,7 @@
       <c r="Y69" s="2"/>
       <c r="Z69" s="2"/>
     </row>
-    <row r="70" spans="1:26">
+    <row r="70" spans="1:26" ht="16.5">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -9695,7 +9845,7 @@
       <c r="Y70" s="2"/>
       <c r="Z70" s="2"/>
     </row>
-    <row r="71" spans="1:26">
+    <row r="71" spans="1:26" ht="16.5">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -9723,7 +9873,7 @@
       <c r="Y71" s="2"/>
       <c r="Z71" s="2"/>
     </row>
-    <row r="72" spans="1:26">
+    <row r="72" spans="1:26" ht="16.5">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -9751,7 +9901,7 @@
       <c r="Y72" s="2"/>
       <c r="Z72" s="2"/>
     </row>
-    <row r="73" spans="1:26">
+    <row r="73" spans="1:26" ht="16.5">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -9779,7 +9929,7 @@
       <c r="Y73" s="2"/>
       <c r="Z73" s="2"/>
     </row>
-    <row r="74" spans="1:26">
+    <row r="74" spans="1:26" ht="16.5">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -9807,7 +9957,7 @@
       <c r="Y74" s="2"/>
       <c r="Z74" s="2"/>
     </row>
-    <row r="75" spans="1:26">
+    <row r="75" spans="1:26" ht="16.5">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -9835,7 +9985,7 @@
       <c r="Y75" s="2"/>
       <c r="Z75" s="2"/>
     </row>
-    <row r="76" spans="1:26">
+    <row r="76" spans="1:26" ht="16.5">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -9863,7 +10013,7 @@
       <c r="Y76" s="2"/>
       <c r="Z76" s="2"/>
     </row>
-    <row r="77" spans="1:26">
+    <row r="77" spans="1:26" ht="16.5">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -9891,7 +10041,7 @@
       <c r="Y77" s="2"/>
       <c r="Z77" s="2"/>
     </row>
-    <row r="78" spans="1:26">
+    <row r="78" spans="1:26" ht="16.5">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -9919,7 +10069,7 @@
       <c r="Y78" s="2"/>
       <c r="Z78" s="2"/>
     </row>
-    <row r="79" spans="1:26">
+    <row r="79" spans="1:26" ht="16.5">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -9947,7 +10097,7 @@
       <c r="Y79" s="2"/>
       <c r="Z79" s="2"/>
     </row>
-    <row r="80" spans="1:26">
+    <row r="80" spans="1:26" ht="16.5">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -9975,7 +10125,7 @@
       <c r="Y80" s="2"/>
       <c r="Z80" s="2"/>
     </row>
-    <row r="81" spans="1:26">
+    <row r="81" spans="1:26" ht="16.5">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -10003,7 +10153,7 @@
       <c r="Y81" s="2"/>
       <c r="Z81" s="2"/>
     </row>
-    <row r="82" spans="1:26">
+    <row r="82" spans="1:26" ht="16.5">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -10031,7 +10181,7 @@
       <c r="Y82" s="2"/>
       <c r="Z82" s="2"/>
     </row>
-    <row r="83" spans="1:26">
+    <row r="83" spans="1:26" ht="16.5">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -10059,7 +10209,7 @@
       <c r="Y83" s="2"/>
       <c r="Z83" s="2"/>
     </row>
-    <row r="84" spans="1:26">
+    <row r="84" spans="1:26" ht="16.5">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -10087,7 +10237,7 @@
       <c r="Y84" s="2"/>
       <c r="Z84" s="2"/>
     </row>
-    <row r="85" spans="1:26">
+    <row r="85" spans="1:26" ht="16.5">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -10115,7 +10265,7 @@
       <c r="Y85" s="2"/>
       <c r="Z85" s="2"/>
     </row>
-    <row r="86" spans="1:26">
+    <row r="86" spans="1:26" ht="16.5">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -10143,7 +10293,7 @@
       <c r="Y86" s="2"/>
       <c r="Z86" s="2"/>
     </row>
-    <row r="87" spans="1:26">
+    <row r="87" spans="1:26" ht="16.5">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -10171,7 +10321,7 @@
       <c r="Y87" s="2"/>
       <c r="Z87" s="2"/>
     </row>
-    <row r="88" spans="1:26">
+    <row r="88" spans="1:26" ht="16.5">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -10199,7 +10349,7 @@
       <c r="Y88" s="2"/>
       <c r="Z88" s="2"/>
     </row>
-    <row r="89" spans="1:26">
+    <row r="89" spans="1:26" ht="16.5">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -10227,7 +10377,7 @@
       <c r="Y89" s="2"/>
       <c r="Z89" s="2"/>
     </row>
-    <row r="90" spans="1:26">
+    <row r="90" spans="1:26" ht="16.5">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -10255,7 +10405,7 @@
       <c r="Y90" s="2"/>
       <c r="Z90" s="2"/>
     </row>
-    <row r="91" spans="1:26">
+    <row r="91" spans="1:26" ht="16.5">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -10283,7 +10433,7 @@
       <c r="Y91" s="2"/>
       <c r="Z91" s="2"/>
     </row>
-    <row r="92" spans="1:26">
+    <row r="92" spans="1:26" ht="16.5">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -10311,7 +10461,7 @@
       <c r="Y92" s="2"/>
       <c r="Z92" s="2"/>
     </row>
-    <row r="93" spans="1:26">
+    <row r="93" spans="1:26" ht="16.5">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -10339,7 +10489,7 @@
       <c r="Y93" s="2"/>
       <c r="Z93" s="2"/>
     </row>
-    <row r="94" spans="1:26">
+    <row r="94" spans="1:26" ht="16.5">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -10367,7 +10517,7 @@
       <c r="Y94" s="2"/>
       <c r="Z94" s="2"/>
     </row>
-    <row r="95" spans="1:26">
+    <row r="95" spans="1:26" ht="16.5">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -10395,7 +10545,7 @@
       <c r="Y95" s="2"/>
       <c r="Z95" s="2"/>
     </row>
-    <row r="96" spans="1:26">
+    <row r="96" spans="1:26" ht="16.5">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -10423,7 +10573,7 @@
       <c r="Y96" s="2"/>
       <c r="Z96" s="2"/>
     </row>
-    <row r="97" spans="1:26">
+    <row r="97" spans="1:26" ht="16.5">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -10451,7 +10601,7 @@
       <c r="Y97" s="2"/>
       <c r="Z97" s="2"/>
     </row>
-    <row r="98" spans="1:26">
+    <row r="98" spans="1:26" ht="16.5">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -10479,7 +10629,7 @@
       <c r="Y98" s="2"/>
       <c r="Z98" s="2"/>
     </row>
-    <row r="99" spans="1:26">
+    <row r="99" spans="1:26" ht="16.5">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -10507,7 +10657,7 @@
       <c r="Y99" s="2"/>
       <c r="Z99" s="2"/>
     </row>
-    <row r="100" spans="1:26">
+    <row r="100" spans="1:26" ht="16.5">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -10535,7 +10685,7 @@
       <c r="Y100" s="2"/>
       <c r="Z100" s="2"/>
     </row>
-    <row r="101" spans="1:26">
+    <row r="101" spans="1:26" ht="16.5">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -10563,7 +10713,7 @@
       <c r="Y101" s="2"/>
       <c r="Z101" s="2"/>
     </row>
-    <row r="102" spans="1:26">
+    <row r="102" spans="1:26" ht="16.5">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -10591,7 +10741,7 @@
       <c r="Y102" s="2"/>
       <c r="Z102" s="2"/>
     </row>
-    <row r="103" spans="1:26">
+    <row r="103" spans="1:26" ht="16.5">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -10619,7 +10769,7 @@
       <c r="Y103" s="2"/>
       <c r="Z103" s="2"/>
     </row>
-    <row r="104" spans="1:26">
+    <row r="104" spans="1:26" ht="16.5">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -10647,7 +10797,7 @@
       <c r="Y104" s="2"/>
       <c r="Z104" s="2"/>
     </row>
-    <row r="105" spans="1:26">
+    <row r="105" spans="1:26" ht="16.5">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -10675,7 +10825,7 @@
       <c r="Y105" s="2"/>
       <c r="Z105" s="2"/>
     </row>
-    <row r="106" spans="1:26">
+    <row r="106" spans="1:26" ht="16.5">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -10703,7 +10853,7 @@
       <c r="Y106" s="2"/>
       <c r="Z106" s="2"/>
     </row>
-    <row r="107" spans="1:26">
+    <row r="107" spans="1:26" ht="16.5">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -10731,7 +10881,7 @@
       <c r="Y107" s="2"/>
       <c r="Z107" s="2"/>
     </row>
-    <row r="108" spans="1:26">
+    <row r="108" spans="1:26" ht="16.5">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -10759,7 +10909,7 @@
       <c r="Y108" s="2"/>
       <c r="Z108" s="2"/>
     </row>
-    <row r="109" spans="1:26">
+    <row r="109" spans="1:26" ht="16.5">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -10787,7 +10937,7 @@
       <c r="Y109" s="2"/>
       <c r="Z109" s="2"/>
     </row>
-    <row r="110" spans="1:26">
+    <row r="110" spans="1:26" ht="16.5">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -10815,7 +10965,7 @@
       <c r="Y110" s="2"/>
       <c r="Z110" s="2"/>
     </row>
-    <row r="111" spans="1:26">
+    <row r="111" spans="1:26" ht="16.5">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -10843,7 +10993,7 @@
       <c r="Y111" s="2"/>
       <c r="Z111" s="2"/>
     </row>
-    <row r="112" spans="1:26">
+    <row r="112" spans="1:26" ht="16.5">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -10871,7 +11021,7 @@
       <c r="Y112" s="2"/>
       <c r="Z112" s="2"/>
     </row>
-    <row r="113" spans="1:26">
+    <row r="113" spans="1:26" ht="16.5">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -10899,7 +11049,7 @@
       <c r="Y113" s="2"/>
       <c r="Z113" s="2"/>
     </row>
-    <row r="114" spans="1:26">
+    <row r="114" spans="1:26" ht="16.5">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -10927,7 +11077,7 @@
       <c r="Y114" s="2"/>
       <c r="Z114" s="2"/>
     </row>
-    <row r="115" spans="1:26">
+    <row r="115" spans="1:26" ht="16.5">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -10955,7 +11105,7 @@
       <c r="Y115" s="2"/>
       <c r="Z115" s="2"/>
     </row>
-    <row r="116" spans="1:26">
+    <row r="116" spans="1:26" ht="16.5">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -10983,7 +11133,7 @@
       <c r="Y116" s="2"/>
       <c r="Z116" s="2"/>
     </row>
-    <row r="117" spans="1:26">
+    <row r="117" spans="1:26" ht="16.5">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -11011,7 +11161,7 @@
       <c r="Y117" s="2"/>
       <c r="Z117" s="2"/>
     </row>
-    <row r="118" spans="1:26">
+    <row r="118" spans="1:26" ht="16.5">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -11039,7 +11189,7 @@
       <c r="Y118" s="2"/>
       <c r="Z118" s="2"/>
     </row>
-    <row r="119" spans="1:26">
+    <row r="119" spans="1:26" ht="16.5">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -11067,7 +11217,7 @@
       <c r="Y119" s="2"/>
       <c r="Z119" s="2"/>
     </row>
-    <row r="120" spans="1:26">
+    <row r="120" spans="1:26" ht="16.5">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -11095,7 +11245,7 @@
       <c r="Y120" s="2"/>
       <c r="Z120" s="2"/>
     </row>
-    <row r="121" spans="1:26">
+    <row r="121" spans="1:26" ht="16.5">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -11123,7 +11273,7 @@
       <c r="Y121" s="2"/>
       <c r="Z121" s="2"/>
     </row>
-    <row r="122" spans="1:26">
+    <row r="122" spans="1:26" ht="16.5">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -11151,7 +11301,7 @@
       <c r="Y122" s="2"/>
       <c r="Z122" s="2"/>
     </row>
-    <row r="123" spans="1:26">
+    <row r="123" spans="1:26" ht="16.5">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -11179,7 +11329,7 @@
       <c r="Y123" s="2"/>
       <c r="Z123" s="2"/>
     </row>
-    <row r="124" spans="1:26">
+    <row r="124" spans="1:26" ht="16.5">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -11207,7 +11357,7 @@
       <c r="Y124" s="2"/>
       <c r="Z124" s="2"/>
     </row>
-    <row r="125" spans="1:26">
+    <row r="125" spans="1:26" ht="16.5">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -11235,7 +11385,7 @@
       <c r="Y125" s="2"/>
       <c r="Z125" s="2"/>
     </row>
-    <row r="126" spans="1:26">
+    <row r="126" spans="1:26" ht="16.5">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -11263,7 +11413,7 @@
       <c r="Y126" s="2"/>
       <c r="Z126" s="2"/>
     </row>
-    <row r="127" spans="1:26">
+    <row r="127" spans="1:26" ht="16.5">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -11291,7 +11441,7 @@
       <c r="Y127" s="2"/>
       <c r="Z127" s="2"/>
     </row>
-    <row r="128" spans="1:26">
+    <row r="128" spans="1:26" ht="16.5">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -11319,7 +11469,7 @@
       <c r="Y128" s="2"/>
       <c r="Z128" s="2"/>
     </row>
-    <row r="129" spans="1:26">
+    <row r="129" spans="1:26" ht="16.5">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -11347,7 +11497,7 @@
       <c r="Y129" s="2"/>
       <c r="Z129" s="2"/>
     </row>
-    <row r="130" spans="1:26">
+    <row r="130" spans="1:26" ht="16.5">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -11375,7 +11525,7 @@
       <c r="Y130" s="2"/>
       <c r="Z130" s="2"/>
     </row>
-    <row r="131" spans="1:26">
+    <row r="131" spans="1:26" ht="16.5">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -11403,7 +11553,7 @@
       <c r="Y131" s="2"/>
       <c r="Z131" s="2"/>
     </row>
-    <row r="132" spans="1:26">
+    <row r="132" spans="1:26" ht="16.5">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -11431,7 +11581,7 @@
       <c r="Y132" s="2"/>
       <c r="Z132" s="2"/>
     </row>
-    <row r="133" spans="1:26">
+    <row r="133" spans="1:26" ht="16.5">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -11459,7 +11609,7 @@
       <c r="Y133" s="2"/>
       <c r="Z133" s="2"/>
     </row>
-    <row r="134" spans="1:26">
+    <row r="134" spans="1:26" ht="16.5">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -11487,7 +11637,7 @@
       <c r="Y134" s="2"/>
       <c r="Z134" s="2"/>
     </row>
-    <row r="135" spans="1:26">
+    <row r="135" spans="1:26" ht="16.5">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -11515,7 +11665,7 @@
       <c r="Y135" s="2"/>
       <c r="Z135" s="2"/>
     </row>
-    <row r="136" spans="1:26">
+    <row r="136" spans="1:26" ht="16.5">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -11543,7 +11693,7 @@
       <c r="Y136" s="2"/>
       <c r="Z136" s="2"/>
     </row>
-    <row r="137" spans="1:26">
+    <row r="137" spans="1:26" ht="16.5">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -11571,7 +11721,7 @@
       <c r="Y137" s="2"/>
       <c r="Z137" s="2"/>
     </row>
-    <row r="138" spans="1:26">
+    <row r="138" spans="1:26" ht="16.5">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -11599,7 +11749,7 @@
       <c r="Y138" s="2"/>
       <c r="Z138" s="2"/>
     </row>
-    <row r="139" spans="1:26">
+    <row r="139" spans="1:26" ht="16.5">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -11627,7 +11777,7 @@
       <c r="Y139" s="2"/>
       <c r="Z139" s="2"/>
     </row>
-    <row r="140" spans="1:26">
+    <row r="140" spans="1:26" ht="16.5">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -11655,7 +11805,7 @@
       <c r="Y140" s="2"/>
       <c r="Z140" s="2"/>
     </row>
-    <row r="141" spans="1:26">
+    <row r="141" spans="1:26" ht="16.5">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -11683,7 +11833,7 @@
       <c r="Y141" s="2"/>
       <c r="Z141" s="2"/>
     </row>
-    <row r="142" spans="1:26">
+    <row r="142" spans="1:26" ht="16.5">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -11711,7 +11861,7 @@
       <c r="Y142" s="2"/>
       <c r="Z142" s="2"/>
     </row>
-    <row r="143" spans="1:26">
+    <row r="143" spans="1:26" ht="16.5">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -11739,7 +11889,7 @@
       <c r="Y143" s="2"/>
       <c r="Z143" s="2"/>
     </row>
-    <row r="144" spans="1:26">
+    <row r="144" spans="1:26" ht="16.5">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -11767,7 +11917,7 @@
       <c r="Y144" s="2"/>
       <c r="Z144" s="2"/>
     </row>
-    <row r="145" spans="1:26">
+    <row r="145" spans="1:26" ht="16.5">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -11795,7 +11945,7 @@
       <c r="Y145" s="2"/>
       <c r="Z145" s="2"/>
     </row>
-    <row r="146" spans="1:26">
+    <row r="146" spans="1:26" ht="16.5">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -11823,7 +11973,7 @@
       <c r="Y146" s="2"/>
       <c r="Z146" s="2"/>
     </row>
-    <row r="147" spans="1:26">
+    <row r="147" spans="1:26" ht="16.5">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -11851,7 +12001,7 @@
       <c r="Y147" s="2"/>
       <c r="Z147" s="2"/>
     </row>
-    <row r="148" spans="1:26">
+    <row r="148" spans="1:26" ht="16.5">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -11879,7 +12029,7 @@
       <c r="Y148" s="2"/>
       <c r="Z148" s="2"/>
     </row>
-    <row r="149" spans="1:26">
+    <row r="149" spans="1:26" ht="16.5">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -11907,7 +12057,7 @@
       <c r="Y149" s="2"/>
       <c r="Z149" s="2"/>
     </row>
-    <row r="150" spans="1:26">
+    <row r="150" spans="1:26" ht="16.5">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -11935,7 +12085,7 @@
       <c r="Y150" s="2"/>
       <c r="Z150" s="2"/>
     </row>
-    <row r="151" spans="1:26">
+    <row r="151" spans="1:26" ht="16.5">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -11963,7 +12113,7 @@
       <c r="Y151" s="2"/>
       <c r="Z151" s="2"/>
     </row>
-    <row r="152" spans="1:26">
+    <row r="152" spans="1:26" ht="16.5">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -11991,7 +12141,7 @@
       <c r="Y152" s="2"/>
       <c r="Z152" s="2"/>
     </row>
-    <row r="153" spans="1:26">
+    <row r="153" spans="1:26" ht="16.5">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -12019,7 +12169,7 @@
       <c r="Y153" s="2"/>
       <c r="Z153" s="2"/>
     </row>
-    <row r="154" spans="1:26">
+    <row r="154" spans="1:26" ht="16.5">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -12047,7 +12197,7 @@
       <c r="Y154" s="2"/>
       <c r="Z154" s="2"/>
     </row>
-    <row r="155" spans="1:26">
+    <row r="155" spans="1:26" ht="16.5">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -12075,7 +12225,7 @@
       <c r="Y155" s="2"/>
       <c r="Z155" s="2"/>
     </row>
-    <row r="156" spans="1:26">
+    <row r="156" spans="1:26" ht="16.5">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -12103,7 +12253,7 @@
       <c r="Y156" s="2"/>
       <c r="Z156" s="2"/>
     </row>
-    <row r="157" spans="1:26">
+    <row r="157" spans="1:26" ht="16.5">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -12131,7 +12281,7 @@
       <c r="Y157" s="2"/>
       <c r="Z157" s="2"/>
     </row>
-    <row r="158" spans="1:26">
+    <row r="158" spans="1:26" ht="16.5">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -12159,7 +12309,7 @@
       <c r="Y158" s="2"/>
       <c r="Z158" s="2"/>
     </row>
-    <row r="159" spans="1:26">
+    <row r="159" spans="1:26" ht="16.5">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -12187,7 +12337,7 @@
       <c r="Y159" s="2"/>
       <c r="Z159" s="2"/>
     </row>
-    <row r="160" spans="1:26">
+    <row r="160" spans="1:26" ht="16.5">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -12215,7 +12365,7 @@
       <c r="Y160" s="2"/>
       <c r="Z160" s="2"/>
     </row>
-    <row r="161" spans="1:26">
+    <row r="161" spans="1:26" ht="16.5">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -12243,7 +12393,7 @@
       <c r="Y161" s="2"/>
       <c r="Z161" s="2"/>
     </row>
-    <row r="162" spans="1:26">
+    <row r="162" spans="1:26" ht="16.5">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -12271,7 +12421,7 @@
       <c r="Y162" s="2"/>
       <c r="Z162" s="2"/>
     </row>
-    <row r="163" spans="1:26">
+    <row r="163" spans="1:26" ht="16.5">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -12299,7 +12449,7 @@
       <c r="Y163" s="2"/>
       <c r="Z163" s="2"/>
     </row>
-    <row r="164" spans="1:26">
+    <row r="164" spans="1:26" ht="16.5">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -12327,7 +12477,7 @@
       <c r="Y164" s="2"/>
       <c r="Z164" s="2"/>
     </row>
-    <row r="165" spans="1:26">
+    <row r="165" spans="1:26" ht="16.5">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -12355,7 +12505,7 @@
       <c r="Y165" s="2"/>
       <c r="Z165" s="2"/>
     </row>
-    <row r="166" spans="1:26">
+    <row r="166" spans="1:26" ht="16.5">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -12383,7 +12533,7 @@
       <c r="Y166" s="2"/>
       <c r="Z166" s="2"/>
     </row>
-    <row r="167" spans="1:26">
+    <row r="167" spans="1:26" ht="16.5">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -12411,7 +12561,7 @@
       <c r="Y167" s="2"/>
       <c r="Z167" s="2"/>
     </row>
-    <row r="168" spans="1:26">
+    <row r="168" spans="1:26" ht="16.5">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -12439,7 +12589,7 @@
       <c r="Y168" s="2"/>
       <c r="Z168" s="2"/>
     </row>
-    <row r="169" spans="1:26">
+    <row r="169" spans="1:26" ht="16.5">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -12467,7 +12617,7 @@
       <c r="Y169" s="2"/>
       <c r="Z169" s="2"/>
     </row>
-    <row r="170" spans="1:26">
+    <row r="170" spans="1:26" ht="16.5">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -12495,7 +12645,7 @@
       <c r="Y170" s="2"/>
       <c r="Z170" s="2"/>
     </row>
-    <row r="171" spans="1:26">
+    <row r="171" spans="1:26" ht="16.5">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -12523,7 +12673,7 @@
       <c r="Y171" s="2"/>
       <c r="Z171" s="2"/>
     </row>
-    <row r="172" spans="1:26">
+    <row r="172" spans="1:26" ht="16.5">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -12551,7 +12701,7 @@
       <c r="Y172" s="2"/>
       <c r="Z172" s="2"/>
     </row>
-    <row r="173" spans="1:26">
+    <row r="173" spans="1:26" ht="16.5">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -12579,7 +12729,7 @@
       <c r="Y173" s="2"/>
       <c r="Z173" s="2"/>
     </row>
-    <row r="174" spans="1:26">
+    <row r="174" spans="1:26" ht="16.5">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -12607,7 +12757,7 @@
       <c r="Y174" s="2"/>
       <c r="Z174" s="2"/>
     </row>
-    <row r="175" spans="1:26">
+    <row r="175" spans="1:26" ht="16.5">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -12635,7 +12785,7 @@
       <c r="Y175" s="2"/>
       <c r="Z175" s="2"/>
     </row>
-    <row r="176" spans="1:26">
+    <row r="176" spans="1:26" ht="16.5">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -12663,7 +12813,7 @@
       <c r="Y176" s="2"/>
       <c r="Z176" s="2"/>
     </row>
-    <row r="177" spans="1:26">
+    <row r="177" spans="1:26" ht="16.5">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -12691,7 +12841,7 @@
       <c r="Y177" s="2"/>
       <c r="Z177" s="2"/>
     </row>
-    <row r="178" spans="1:26">
+    <row r="178" spans="1:26" ht="16.5">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -12719,7 +12869,7 @@
       <c r="Y178" s="2"/>
       <c r="Z178" s="2"/>
     </row>
-    <row r="179" spans="1:26">
+    <row r="179" spans="1:26" ht="16.5">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -12747,7 +12897,7 @@
       <c r="Y179" s="2"/>
       <c r="Z179" s="2"/>
     </row>
-    <row r="180" spans="1:26">
+    <row r="180" spans="1:26" ht="16.5">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -12775,7 +12925,7 @@
       <c r="Y180" s="2"/>
       <c r="Z180" s="2"/>
     </row>
-    <row r="181" spans="1:26">
+    <row r="181" spans="1:26" ht="16.5">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -12803,7 +12953,7 @@
       <c r="Y181" s="2"/>
       <c r="Z181" s="2"/>
     </row>
-    <row r="182" spans="1:26">
+    <row r="182" spans="1:26" ht="16.5">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -12831,7 +12981,7 @@
       <c r="Y182" s="2"/>
       <c r="Z182" s="2"/>
     </row>
-    <row r="183" spans="1:26">
+    <row r="183" spans="1:26" ht="16.5">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -12859,7 +13009,7 @@
       <c r="Y183" s="2"/>
       <c r="Z183" s="2"/>
     </row>
-    <row r="184" spans="1:26">
+    <row r="184" spans="1:26" ht="16.5">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -12887,7 +13037,7 @@
       <c r="Y184" s="2"/>
       <c r="Z184" s="2"/>
     </row>
-    <row r="185" spans="1:26">
+    <row r="185" spans="1:26" ht="16.5">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -12915,7 +13065,7 @@
       <c r="Y185" s="2"/>
       <c r="Z185" s="2"/>
     </row>
-    <row r="186" spans="1:26">
+    <row r="186" spans="1:26" ht="16.5">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -12943,7 +13093,7 @@
       <c r="Y186" s="2"/>
       <c r="Z186" s="2"/>
     </row>
-    <row r="187" spans="1:26">
+    <row r="187" spans="1:26" ht="16.5">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -12971,7 +13121,7 @@
       <c r="Y187" s="2"/>
       <c r="Z187" s="2"/>
     </row>
-    <row r="188" spans="1:26">
+    <row r="188" spans="1:26" ht="16.5">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -12999,7 +13149,7 @@
       <c r="Y188" s="2"/>
       <c r="Z188" s="2"/>
     </row>
-    <row r="189" spans="1:26">
+    <row r="189" spans="1:26" ht="16.5">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -13027,7 +13177,7 @@
       <c r="Y189" s="2"/>
       <c r="Z189" s="2"/>
     </row>
-    <row r="190" spans="1:26">
+    <row r="190" spans="1:26" ht="16.5">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -13055,7 +13205,7 @@
       <c r="Y190" s="2"/>
       <c r="Z190" s="2"/>
     </row>
-    <row r="191" spans="1:26">
+    <row r="191" spans="1:26" ht="16.5">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -13083,7 +13233,7 @@
       <c r="Y191" s="2"/>
       <c r="Z191" s="2"/>
     </row>
-    <row r="192" spans="1:26">
+    <row r="192" spans="1:26" ht="16.5">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -13111,7 +13261,7 @@
       <c r="Y192" s="2"/>
       <c r="Z192" s="2"/>
     </row>
-    <row r="193" spans="1:26">
+    <row r="193" spans="1:26" ht="16.5">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -13139,7 +13289,7 @@
       <c r="Y193" s="2"/>
       <c r="Z193" s="2"/>
     </row>
-    <row r="194" spans="1:26">
+    <row r="194" spans="1:26" ht="16.5">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -13167,7 +13317,7 @@
       <c r="Y194" s="2"/>
       <c r="Z194" s="2"/>
     </row>
-    <row r="195" spans="1:26">
+    <row r="195" spans="1:26" ht="16.5">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -13195,7 +13345,7 @@
       <c r="Y195" s="2"/>
       <c r="Z195" s="2"/>
     </row>
-    <row r="196" spans="1:26">
+    <row r="196" spans="1:26" ht="16.5">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -13223,7 +13373,7 @@
       <c r="Y196" s="2"/>
       <c r="Z196" s="2"/>
     </row>
-    <row r="197" spans="1:26">
+    <row r="197" spans="1:26" ht="16.5">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -13251,7 +13401,7 @@
       <c r="Y197" s="2"/>
       <c r="Z197" s="2"/>
     </row>
-    <row r="198" spans="1:26">
+    <row r="198" spans="1:26" ht="16.5">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -13279,7 +13429,7 @@
       <c r="Y198" s="2"/>
       <c r="Z198" s="2"/>
     </row>
-    <row r="199" spans="1:26">
+    <row r="199" spans="1:26" ht="16.5">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -13307,7 +13457,7 @@
       <c r="Y199" s="2"/>
       <c r="Z199" s="2"/>
     </row>
-    <row r="200" spans="1:26">
+    <row r="200" spans="1:26" ht="16.5">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -13343,44 +13493,44 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82A1E8BE-F4D8-4DFE-997C-38F54A34FFE2}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J5" sqref="J5:J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="15.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:16" ht="16.5">
+      <c r="A1" s="41" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="41"/>
+      <c r="D1" s="44"/>
       <c r="E1" s="25" t="s">
         <v>7</v>
       </c>
       <c r="F1" s="26"/>
       <c r="G1" s="26"/>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="43" t="s">
+    <row r="2" spans="1:16" ht="16.5">
+      <c r="A2" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="43" t="s">
+      <c r="B2" s="44"/>
+      <c r="C2" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="41"/>
+      <c r="D2" s="44"/>
       <c r="E2" s="27" t="s">
         <v>10</v>
       </c>
@@ -13391,28 +13541,28 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="44" t="s">
+    <row r="3" spans="1:16" ht="16.5">
+      <c r="A3" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
       <c r="G3" s="14"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:16" ht="16.5">
       <c r="A4" s="28" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="41"/>
+      <c r="D4" s="44"/>
       <c r="E4" s="28" t="s">
         <v>16</v>
       </c>
@@ -13423,155 +13573,549 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="21" t="s">
+    <row r="5" spans="1:16" ht="16.5">
+      <c r="A5" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="21" t="s">
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="I5" s="55" t="s">
+        <v>247</v>
+      </c>
+      <c r="J5" t="s">
+        <v>260</v>
+      </c>
+      <c r="K5" t="s">
+        <v>248</v>
+      </c>
+      <c r="L5" t="s">
+        <v>249</v>
+      </c>
+      <c r="M5" t="s">
+        <v>250</v>
+      </c>
+      <c r="N5" t="s">
+        <v>262</v>
+      </c>
+      <c r="O5" t="s">
+        <v>251</v>
+      </c>
+      <c r="P5" t="str">
+        <f>"&lt;if test="""&amp;N5&amp;" != null and "&amp;N5&amp;" !=''""&gt; and  "&amp;J5&amp; "= #{"&amp;N5&amp;"} &lt;/if&gt;"</f>
+        <v>&lt;if test="tagId != null and tagId !=''"&gt; and  tag_id= #{tagId} &lt;/if&gt;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="16.5">
+      <c r="A6" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="21" t="s">
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="I6" s="55" t="s">
+        <v>247</v>
+      </c>
+      <c r="J6" t="s">
+        <v>263</v>
+      </c>
+      <c r="K6" t="s">
+        <v>248</v>
+      </c>
+      <c r="L6" t="s">
+        <v>249</v>
+      </c>
+      <c r="M6" t="s">
+        <v>250</v>
+      </c>
+      <c r="N6" t="s">
+        <v>264</v>
+      </c>
+      <c r="O6" t="s">
+        <v>251</v>
+      </c>
+      <c r="P6" t="str">
+        <f t="shared" ref="P6:P17" si="0">"&lt;if test="""&amp;N6&amp;" != null and "&amp;N6&amp;" !=''""&gt; and  "&amp;J6&amp; "= #{"&amp;N6&amp;"} &lt;/if&gt;"</f>
+        <v>&lt;if test="tagName != null and tagName !=''"&gt; and  tag_name= #{tagName} &lt;/if&gt;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="16.5">
+      <c r="A7" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="21" t="s">
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="I7" s="55" t="s">
+        <v>247</v>
+      </c>
+      <c r="J7" t="s">
+        <v>265</v>
+      </c>
+      <c r="K7" t="s">
+        <v>248</v>
+      </c>
+      <c r="L7" t="s">
+        <v>249</v>
+      </c>
+      <c r="M7" t="s">
+        <v>250</v>
+      </c>
+      <c r="N7" t="s">
+        <v>266</v>
+      </c>
+      <c r="O7" t="s">
+        <v>251</v>
+      </c>
+      <c r="P7" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;if test="tagNameZh != null and tagNameZh !=''"&gt; and  tag_name_zh= #{tagNameZh} &lt;/if&gt;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="16.5">
+      <c r="A8" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="21" t="s">
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="I8" s="55" t="s">
+        <v>247</v>
+      </c>
+      <c r="J8" t="s">
+        <v>267</v>
+      </c>
+      <c r="K8" t="s">
+        <v>248</v>
+      </c>
+      <c r="L8" t="s">
+        <v>249</v>
+      </c>
+      <c r="M8" t="s">
+        <v>250</v>
+      </c>
+      <c r="N8" t="s">
+        <v>268</v>
+      </c>
+      <c r="O8" t="s">
+        <v>251</v>
+      </c>
+      <c r="P8" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;if test="tagFromId != null and tagFromId !=''"&gt; and  tag_from_id= #{tagFromId} &lt;/if&gt;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="16.5">
+      <c r="A9" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="21" t="s">
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="I9" s="55" t="s">
+        <v>247</v>
+      </c>
+      <c r="J9" t="s">
+        <v>269</v>
+      </c>
+      <c r="K9" t="s">
+        <v>248</v>
+      </c>
+      <c r="L9" t="s">
+        <v>249</v>
+      </c>
+      <c r="M9" t="s">
+        <v>250</v>
+      </c>
+      <c r="N9" t="s">
+        <v>270</v>
+      </c>
+      <c r="O9" t="s">
+        <v>251</v>
+      </c>
+      <c r="P9" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;if test="tagClassId != null and tagClassId !=''"&gt; and  tag_class_id= #{tagClassId} &lt;/if&gt;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="16.5">
+      <c r="A10" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="21" t="s">
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="I10" s="55" t="s">
+        <v>247</v>
+      </c>
+      <c r="J10" t="s">
+        <v>271</v>
+      </c>
+      <c r="K10" t="s">
+        <v>248</v>
+      </c>
+      <c r="L10" t="s">
+        <v>249</v>
+      </c>
+      <c r="M10" t="s">
+        <v>250</v>
+      </c>
+      <c r="N10" t="s">
+        <v>272</v>
+      </c>
+      <c r="O10" t="s">
+        <v>251</v>
+      </c>
+      <c r="P10" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;if test="tagDataType != null and tagDataType !=''"&gt; and  tag_data_type= #{tagDataType} &lt;/if&gt;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="16.5">
+      <c r="A11" s="35" t="s">
+        <v>241</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>244</v>
+      </c>
+      <c r="C11" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="I11" s="55" t="s">
+        <v>247</v>
+      </c>
+      <c r="J11" t="s">
+        <v>273</v>
+      </c>
+      <c r="K11" t="s">
+        <v>248</v>
+      </c>
+      <c r="L11" t="s">
+        <v>249</v>
+      </c>
+      <c r="M11" t="s">
+        <v>250</v>
+      </c>
+      <c r="N11" t="s">
+        <v>274</v>
+      </c>
+      <c r="O11" t="s">
+        <v>251</v>
+      </c>
+      <c r="P11" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;if test="tagShowOrder != null and tagShowOrder !=''"&gt; and  tag_show_order= #{tagShowOrder} &lt;/if&gt;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="16.5">
+      <c r="A12" s="35" t="s">
+        <v>242</v>
+      </c>
+      <c r="B12" s="35" t="s">
+        <v>245</v>
+      </c>
+      <c r="C12" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="I12" s="55" t="s">
+        <v>247</v>
+      </c>
+      <c r="J12" t="s">
+        <v>275</v>
+      </c>
+      <c r="K12" t="s">
+        <v>248</v>
+      </c>
+      <c r="L12" t="s">
+        <v>249</v>
+      </c>
+      <c r="M12" t="s">
+        <v>250</v>
+      </c>
+      <c r="N12" t="s">
+        <v>276</v>
+      </c>
+      <c r="O12" t="s">
+        <v>251</v>
+      </c>
+      <c r="P12" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;if test="isShow != null and isShow !=''"&gt; and  is_show= #{isShow} &lt;/if&gt;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="16.5">
+      <c r="A13" s="35" t="s">
+        <v>243</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>246</v>
+      </c>
+      <c r="C13" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="I13" s="55" t="s">
+        <v>247</v>
+      </c>
+      <c r="J13" t="s">
+        <v>277</v>
+      </c>
+      <c r="K13" t="s">
+        <v>248</v>
+      </c>
+      <c r="L13" t="s">
+        <v>249</v>
+      </c>
+      <c r="M13" t="s">
+        <v>250</v>
+      </c>
+      <c r="N13" t="s">
+        <v>278</v>
+      </c>
+      <c r="O13" t="s">
+        <v>251</v>
+      </c>
+      <c r="P13" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;if test="isCond != null and isCond !=''"&gt; and  is_cond= #{isCond} &lt;/if&gt;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="16.5">
+      <c r="A14" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B14" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C14" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="21" t="s">
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="I14" s="55" t="s">
+        <v>247</v>
+      </c>
+      <c r="J14" t="s">
+        <v>252</v>
+      </c>
+      <c r="K14" t="s">
+        <v>248</v>
+      </c>
+      <c r="L14" t="s">
+        <v>249</v>
+      </c>
+      <c r="M14" t="s">
+        <v>250</v>
+      </c>
+      <c r="N14" t="s">
+        <v>252</v>
+      </c>
+      <c r="O14" t="s">
+        <v>251</v>
+      </c>
+      <c r="P14" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;if test="status != null and status !=''"&gt; and  status= #{status} &lt;/if&gt;</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="16.5">
+      <c r="A15" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B15" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C15" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="21" t="s">
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="I15" s="55" t="s">
+        <v>247</v>
+      </c>
+      <c r="J15" t="s">
+        <v>253</v>
+      </c>
+      <c r="K15" t="s">
+        <v>248</v>
+      </c>
+      <c r="L15" t="s">
+        <v>249</v>
+      </c>
+      <c r="M15" t="s">
+        <v>250</v>
+      </c>
+      <c r="N15" t="s">
+        <v>253</v>
+      </c>
+      <c r="O15" t="s">
+        <v>251</v>
+      </c>
+      <c r="P15" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;if test="remark != null and remark !=''"&gt; and  remark= #{remark} &lt;/if&gt;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="16.5">
+      <c r="A16" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B16" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C16" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="21" t="s">
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="I16" s="55" t="s">
+        <v>247</v>
+      </c>
+      <c r="J16" t="s">
+        <v>254</v>
+      </c>
+      <c r="K16" t="s">
+        <v>248</v>
+      </c>
+      <c r="L16" t="s">
+        <v>249</v>
+      </c>
+      <c r="M16" t="s">
+        <v>250</v>
+      </c>
+      <c r="N16" t="s">
+        <v>255</v>
+      </c>
+      <c r="O16" t="s">
+        <v>251</v>
+      </c>
+      <c r="P16" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;if test="createPersion != null and createPersion !=''"&gt; and  create_persion= #{createPersion} &lt;/if&gt;</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="16.5">
+      <c r="A17" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B17" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C17" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="I17" s="55" t="s">
+        <v>247</v>
+      </c>
+      <c r="J17" t="s">
+        <v>256</v>
+      </c>
+      <c r="K17" t="s">
+        <v>248</v>
+      </c>
+      <c r="L17" t="s">
+        <v>249</v>
+      </c>
+      <c r="M17" t="s">
+        <v>250</v>
+      </c>
+      <c r="N17" t="s">
+        <v>257</v>
+      </c>
+      <c r="O17" t="s">
+        <v>251</v>
+      </c>
+      <c r="P17" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;if test="createDate != null and createDate !=''"&gt; and  create_date= #{createDate} &lt;/if&gt;</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="I18" s="55"/>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="I19" s="55"/>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="I20" s="55"/>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="I21" s="55"/>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="I22" s="55"/>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="I23" s="55"/>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="I24" s="55"/>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="I25" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -13587,6 +14131,7 @@
     <hyperlink ref="E1" r:id="rId1" xr:uid="{75194CD4-363F-4069-9321-A5A5DE410555}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -13598,39 +14143,39 @@
       <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.8984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" ht="16.5">
       <c r="A1" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="41"/>
+      <c r="D1" s="44"/>
       <c r="E1" s="25" t="s">
         <v>7</v>
       </c>
       <c r="F1" s="26"/>
       <c r="G1" s="26"/>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="43" t="s">
+    <row r="2" spans="1:7" ht="16.5">
+      <c r="A2" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="43" t="s">
+      <c r="B2" s="44"/>
+      <c r="C2" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="41"/>
+      <c r="D2" s="44"/>
       <c r="E2" s="27" t="s">
         <v>10</v>
       </c>
@@ -13642,29 +14187,29 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="24">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="41"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="44"/>
       <c r="E3" s="19"/>
       <c r="F3" s="19"/>
       <c r="G3" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" ht="16.5">
       <c r="A4" s="28" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="41"/>
+      <c r="D4" s="44"/>
       <c r="E4" s="28" t="s">
         <v>16</v>
       </c>
@@ -13675,7 +14220,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" ht="16.5">
       <c r="A5" s="31" t="s">
         <v>70</v>
       </c>
@@ -13690,7 +14235,7 @@
       <c r="F5" s="32"/>
       <c r="G5" s="32"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" ht="16.5">
       <c r="A6" s="31" t="s">
         <v>72</v>
       </c>
@@ -13705,7 +14250,7 @@
       <c r="F6" s="32"/>
       <c r="G6" s="32"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" ht="16.5">
       <c r="A7" s="31" t="s">
         <v>74</v>
       </c>
@@ -13720,7 +14265,7 @@
       <c r="F7" s="32"/>
       <c r="G7" s="32"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" ht="16.5">
       <c r="A8" s="33" t="s">
         <v>77</v>
       </c>
@@ -13735,7 +14280,7 @@
       <c r="F8" s="32"/>
       <c r="G8" s="32"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" ht="16.5">
       <c r="A9" s="33" t="s">
         <v>79</v>
       </c>
@@ -13750,7 +14295,7 @@
       <c r="F9" s="32"/>
       <c r="G9" s="32"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" ht="16.5">
       <c r="A10" s="33" t="s">
         <v>133</v>
       </c>
@@ -13765,7 +14310,7 @@
       <c r="F10" s="32"/>
       <c r="G10" s="32"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" ht="16.5">
       <c r="A11" s="33" t="s">
         <v>128</v>
       </c>
@@ -13780,7 +14325,7 @@
       <c r="F11" s="32"/>
       <c r="G11" s="32"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" ht="16.5">
       <c r="A12" s="33" t="s">
         <v>129</v>
       </c>
@@ -13795,7 +14340,7 @@
       <c r="F12" s="32"/>
       <c r="G12" s="32"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" ht="16.5">
       <c r="A13" s="33" t="s">
         <v>130</v>
       </c>
@@ -13810,7 +14355,7 @@
       <c r="F13" s="32"/>
       <c r="G13" s="32"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" ht="16.5">
       <c r="A14" s="33" t="s">
         <v>134</v>
       </c>
@@ -13825,7 +14370,7 @@
       <c r="F14" s="32"/>
       <c r="G14" s="32"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" ht="16.5">
       <c r="A15" s="33" t="s">
         <v>104</v>
       </c>
@@ -13840,7 +14385,7 @@
       <c r="F15" s="32"/>
       <c r="G15" s="32"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" ht="16.5">
       <c r="A16" s="21" t="s">
         <v>51</v>
       </c>
@@ -13855,7 +14400,7 @@
       <c r="F16" s="32"/>
       <c r="G16" s="32"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" ht="16.5">
       <c r="A17" s="21" t="s">
         <v>20</v>
       </c>
@@ -13870,7 +14415,7 @@
       <c r="F17" s="32"/>
       <c r="G17" s="32"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" ht="16.5">
       <c r="A18" s="21" t="s">
         <v>52</v>
       </c>
@@ -13885,7 +14430,7 @@
       <c r="F18" s="32"/>
       <c r="G18" s="32"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" ht="16.5">
       <c r="A19" s="21" t="s">
         <v>53</v>
       </c>
@@ -13922,42 +14467,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A09EC6E4-313A-414A-90E1-5D6FB5B11A52}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="18.09765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.8984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" ht="16.5">
       <c r="A1" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="45" t="s">
         <v>102</v>
       </c>
-      <c r="D1" s="41"/>
+      <c r="D1" s="44"/>
       <c r="E1" s="25" t="s">
         <v>7</v>
       </c>
       <c r="F1" s="26"/>
       <c r="G1" s="26"/>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="43" t="s">
+    <row r="2" spans="1:7" ht="16.5">
+      <c r="A2" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="43" t="s">
+      <c r="B2" s="44"/>
+      <c r="C2" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="41"/>
+      <c r="D2" s="44"/>
       <c r="E2" s="27" t="s">
         <v>10</v>
       </c>
@@ -13968,28 +14513,28 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="44" t="s">
+    <row r="3" spans="1:7" ht="16.5">
+      <c r="A3" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="41"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="44"/>
       <c r="E3" s="19"/>
       <c r="F3" s="19"/>
       <c r="G3" s="30"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" ht="16.5">
       <c r="A4" s="28" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="41"/>
+      <c r="D4" s="44"/>
       <c r="E4" s="28" t="s">
         <v>16</v>
       </c>
@@ -14000,7 +14545,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" ht="16.5">
       <c r="A5" s="31" t="s">
         <v>85</v>
       </c>
@@ -14015,7 +14560,7 @@
       <c r="F5" s="32"/>
       <c r="G5" s="32"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" ht="16.5">
       <c r="A6" s="31" t="s">
         <v>86</v>
       </c>
@@ -14030,7 +14575,7 @@
       <c r="F6" s="32"/>
       <c r="G6" s="32"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" ht="16.5">
       <c r="A7" s="31" t="s">
         <v>89</v>
       </c>
@@ -14045,7 +14590,7 @@
       <c r="F7" s="32"/>
       <c r="G7" s="32"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" ht="16.5">
       <c r="A8" s="33" t="s">
         <v>90</v>
       </c>
@@ -14060,7 +14605,7 @@
       <c r="F8" s="32"/>
       <c r="G8" s="32"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" ht="16.5">
       <c r="A9" s="33" t="s">
         <v>91</v>
       </c>
@@ -14075,7 +14620,7 @@
       <c r="F9" s="32"/>
       <c r="G9" s="32"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" ht="16.5">
       <c r="A10" s="33" t="s">
         <v>106</v>
       </c>
@@ -14090,7 +14635,7 @@
       <c r="F10" s="32"/>
       <c r="G10" s="32"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" ht="16.5">
       <c r="A11" s="33" t="s">
         <v>103</v>
       </c>
@@ -14105,7 +14650,7 @@
       <c r="F11" s="32"/>
       <c r="G11" s="32"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" ht="16.5">
       <c r="A12" s="33" t="s">
         <v>107</v>
       </c>
@@ -14120,7 +14665,7 @@
       <c r="F12" s="32"/>
       <c r="G12" s="32"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" ht="16.5">
       <c r="A13" s="33" t="s">
         <v>100</v>
       </c>
@@ -14135,7 +14680,7 @@
       <c r="F13" s="32"/>
       <c r="G13" s="32"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" ht="16.5">
       <c r="A14" s="33" t="s">
         <v>191</v>
       </c>
@@ -14150,7 +14695,7 @@
       <c r="F14" s="32"/>
       <c r="G14" s="32"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" ht="16.5">
       <c r="A15" s="33" t="s">
         <v>112</v>
       </c>
@@ -14165,7 +14710,7 @@
       <c r="F15" s="32"/>
       <c r="G15" s="32"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" ht="16.5">
       <c r="A16" s="33" t="s">
         <v>95</v>
       </c>
@@ -14180,7 +14725,7 @@
       <c r="F16" s="32"/>
       <c r="G16" s="32"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" ht="16.5">
       <c r="A17" s="33" t="s">
         <v>96</v>
       </c>
@@ -14195,18 +14740,18 @@
       <c r="F17" s="32"/>
       <c r="G17" s="32"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" ht="16.5">
       <c r="A18" s="33" t="s">
+        <v>239</v>
+      </c>
+      <c r="B18" s="33" t="s">
         <v>240</v>
-      </c>
-      <c r="B18" s="33" t="s">
-        <v>241</v>
       </c>
       <c r="C18" s="39" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" ht="16.5">
       <c r="A19" s="33" t="s">
         <v>113</v>
       </c>
@@ -14221,7 +14766,7 @@
       <c r="F19" s="32"/>
       <c r="G19" s="32"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" ht="16.5">
       <c r="A20" s="33" t="s">
         <v>114</v>
       </c>
@@ -14236,7 +14781,7 @@
       <c r="F20" s="32"/>
       <c r="G20" s="32"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" ht="16.5">
       <c r="A21" s="33" t="s">
         <v>124</v>
       </c>
@@ -14251,7 +14796,7 @@
       <c r="F21" s="32"/>
       <c r="G21" s="32"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" ht="16.5">
       <c r="A22" s="33" t="s">
         <v>119</v>
       </c>
@@ -14266,7 +14811,7 @@
       <c r="F22" s="32"/>
       <c r="G22" s="32"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" ht="16.5">
       <c r="A23" s="33" t="s">
         <v>125</v>
       </c>
@@ -14281,7 +14826,7 @@
       <c r="F23" s="32"/>
       <c r="G23" s="32"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" ht="16.5">
       <c r="A24" s="23" t="s">
         <v>51</v>
       </c>
@@ -14296,7 +14841,7 @@
       <c r="F24" s="32"/>
       <c r="G24" s="32"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" ht="16.5">
       <c r="A25" s="23" t="s">
         <v>20</v>
       </c>
@@ -14311,7 +14856,7 @@
       <c r="F25" s="32"/>
       <c r="G25" s="32"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" ht="16.5">
       <c r="A26" s="23" t="s">
         <v>52</v>
       </c>
@@ -14326,7 +14871,7 @@
       <c r="F26" s="32"/>
       <c r="G26" s="32"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" ht="16.5">
       <c r="A27" s="23" t="s">
         <v>53</v>
       </c>
@@ -14341,7 +14886,7 @@
       <c r="F27" s="32"/>
       <c r="G27" s="32"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" ht="16.5">
       <c r="A28" s="35" t="s">
         <v>120</v>
       </c>
@@ -14356,7 +14901,7 @@
       <c r="F28" s="32"/>
       <c r="G28" s="32"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" ht="16.5">
       <c r="A29" s="35" t="s">
         <v>121</v>
       </c>
@@ -14391,44 +14936,44 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9977B4FF-2833-4277-B728-AA1892995068}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="2" width="18.09765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="18.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" ht="16.5">
       <c r="A1" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="45" t="s">
         <v>140</v>
       </c>
-      <c r="D1" s="41"/>
+      <c r="D1" s="44"/>
       <c r="E1" s="25" t="s">
         <v>7</v>
       </c>
       <c r="F1" s="26"/>
       <c r="G1" s="26"/>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="43" t="s">
+    <row r="2" spans="1:7" ht="16.5">
+      <c r="A2" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="43" t="s">
+      <c r="B2" s="44"/>
+      <c r="C2" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="41"/>
+      <c r="D2" s="44"/>
       <c r="E2" s="27" t="s">
         <v>10</v>
       </c>
@@ -14439,28 +14984,28 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="44" t="s">
+    <row r="3" spans="1:7" ht="16.5">
+      <c r="A3" s="47" t="s">
         <v>141</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="41"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="44"/>
       <c r="E3" s="19"/>
       <c r="F3" s="19"/>
       <c r="G3" s="30"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" ht="16.5">
       <c r="A4" s="28" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="41"/>
+      <c r="D4" s="44"/>
       <c r="E4" s="28" t="s">
         <v>16</v>
       </c>
@@ -14471,14 +15016,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" ht="16.5">
       <c r="A5" s="31" t="s">
         <v>142</v>
       </c>
       <c r="B5" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="40" t="s">
         <v>38</v>
       </c>
       <c r="D5" s="32"/>
@@ -14486,14 +15031,14 @@
       <c r="F5" s="32"/>
       <c r="G5" s="32"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" ht="16.5">
       <c r="A6" s="31" t="s">
         <v>144</v>
       </c>
       <c r="B6" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="40" t="s">
         <v>41</v>
       </c>
       <c r="D6" s="32"/>
@@ -14501,59 +15046,55 @@
       <c r="F6" s="32"/>
       <c r="G6" s="32"/>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="31" t="s">
+    <row r="7" spans="1:7" ht="16.5">
+      <c r="A7" t="s">
+        <v>258</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="16.5">
+      <c r="A8" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B8" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C8" s="40" t="s">
         <v>41</v>
-      </c>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="33" t="s">
-        <v>147</v>
-      </c>
-      <c r="B8" s="33" t="s">
-        <v>152</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>39</v>
       </c>
       <c r="D8" s="32"/>
       <c r="E8" s="32"/>
       <c r="F8" s="32"/>
       <c r="G8" s="32"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" ht="16.5">
       <c r="A9" s="33" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>153</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>38</v>
+        <v>152</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>39</v>
       </c>
       <c r="D9" s="32"/>
       <c r="E9" s="32"/>
       <c r="F9" s="32"/>
       <c r="G9" s="32"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" ht="16.5">
       <c r="A10" s="33" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>161</v>
-      </c>
-      <c r="C10" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="C10" s="40" t="s">
         <v>38</v>
       </c>
       <c r="D10" s="32"/>
@@ -14561,14 +15102,14 @@
       <c r="F10" s="32"/>
       <c r="G10" s="32"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" ht="16.5">
       <c r="A11" s="33" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>154</v>
-      </c>
-      <c r="C11" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="C11" s="40" t="s">
         <v>38</v>
       </c>
       <c r="D11" s="32"/>
@@ -14576,14 +15117,14 @@
       <c r="F11" s="32"/>
       <c r="G11" s="32"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" ht="16.5">
       <c r="A12" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>155</v>
-      </c>
-      <c r="C12" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="C12" s="40" t="s">
         <v>38</v>
       </c>
       <c r="D12" s="32"/>
@@ -14591,29 +15132,29 @@
       <c r="F12" s="32"/>
       <c r="G12" s="32"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" ht="16.5">
       <c r="A13" s="33" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>162</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>41</v>
+        <v>155</v>
+      </c>
+      <c r="C13" s="40" t="s">
+        <v>38</v>
       </c>
       <c r="D13" s="32"/>
       <c r="E13" s="32"/>
       <c r="F13" s="32"/>
       <c r="G13" s="32"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" ht="16.5">
       <c r="A14" s="33" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>163</v>
-      </c>
-      <c r="C14" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="C14" s="40" t="s">
         <v>41</v>
       </c>
       <c r="D14" s="32"/>
@@ -14621,104 +15162,104 @@
       <c r="F14" s="32"/>
       <c r="G14" s="32"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" ht="16.5">
       <c r="A15" s="33" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>164</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>42</v>
+        <v>163</v>
+      </c>
+      <c r="C15" s="40" t="s">
+        <v>41</v>
       </c>
       <c r="D15" s="32"/>
       <c r="E15" s="32"/>
       <c r="F15" s="32"/>
       <c r="G15" s="32"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" ht="16.5">
       <c r="A16" s="33" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>165</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>38</v>
+        <v>164</v>
+      </c>
+      <c r="C16" s="40" t="s">
+        <v>42</v>
       </c>
       <c r="D16" s="32"/>
       <c r="E16" s="32"/>
       <c r="F16" s="32"/>
       <c r="G16" s="32"/>
     </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>42</v>
+    <row r="17" spans="1:7" ht="16.5">
+      <c r="A17" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="C17" s="40" t="s">
+        <v>38</v>
       </c>
       <c r="D17" s="32"/>
       <c r="E17" s="32"/>
       <c r="F17" s="32"/>
       <c r="G17" s="32"/>
     </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>41</v>
+    <row r="18" spans="1:7" ht="16.5">
+      <c r="A18" s="35" t="s">
+        <v>241</v>
+      </c>
+      <c r="B18" s="35" t="s">
+        <v>244</v>
+      </c>
+      <c r="C18" s="40" t="s">
+        <v>38</v>
       </c>
       <c r="D18" s="32"/>
       <c r="E18" s="32"/>
       <c r="F18" s="32"/>
       <c r="G18" s="32"/>
     </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>41</v>
+    <row r="19" spans="1:7" ht="16.5">
+      <c r="A19" s="35" t="s">
+        <v>242</v>
+      </c>
+      <c r="B19" s="35" t="s">
+        <v>245</v>
+      </c>
+      <c r="C19" s="40" t="s">
+        <v>38</v>
       </c>
       <c r="D19" s="32"/>
       <c r="E19" s="32"/>
       <c r="F19" s="32"/>
       <c r="G19" s="32"/>
     </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>39</v>
+    <row r="20" spans="1:7" ht="16.5">
+      <c r="A20" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="40" t="s">
+        <v>42</v>
       </c>
       <c r="D20" s="32"/>
       <c r="E20" s="32"/>
       <c r="F20" s="32"/>
       <c r="G20" s="32"/>
     </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="35" t="s">
-        <v>120</v>
-      </c>
-      <c r="B21" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="C21" s="21" t="s">
+    <row r="21" spans="1:7" ht="16.5">
+      <c r="A21" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="40" t="s">
         <v>41</v>
       </c>
       <c r="D21" s="32"/>
@@ -14726,20 +15267,65 @@
       <c r="F21" s="32"/>
       <c r="G21" s="32"/>
     </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="35" t="s">
-        <v>121</v>
-      </c>
-      <c r="B22" s="35" t="s">
-        <v>123</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>39</v>
+    <row r="22" spans="1:7" ht="16.5">
+      <c r="A22" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="40" t="s">
+        <v>41</v>
       </c>
       <c r="D22" s="32"/>
       <c r="E22" s="32"/>
       <c r="F22" s="32"/>
       <c r="G22" s="32"/>
+    </row>
+    <row r="23" spans="1:7" ht="16.5">
+      <c r="A23" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+    </row>
+    <row r="24" spans="1:7" ht="16.5">
+      <c r="A24" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="B24" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="C24" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+    </row>
+    <row r="25" spans="1:7" ht="16.5">
+      <c r="A25" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="B25" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="C25" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -14763,43 +15349,43 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="A1:G4"/>
+      <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="13.69921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.8984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.59765625" customWidth="1"/>
+    <col min="7" max="7" width="24.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" ht="16.5">
       <c r="A1" s="22" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="45" t="s">
         <v>140</v>
       </c>
-      <c r="D1" s="41"/>
+      <c r="D1" s="44"/>
       <c r="E1" s="25" t="s">
         <v>7</v>
       </c>
       <c r="F1" s="26"/>
       <c r="G1" s="26"/>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="43" t="s">
+    <row r="2" spans="1:7" ht="16.5">
+      <c r="A2" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="43" t="s">
+      <c r="B2" s="44"/>
+      <c r="C2" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="41"/>
+      <c r="D2" s="44"/>
       <c r="E2" s="27" t="s">
         <v>10</v>
       </c>
@@ -14810,30 +15396,30 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="44" t="s">
+    <row r="3" spans="1:7" ht="16.5">
+      <c r="A3" s="47" t="s">
         <v>167</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="41"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="44"/>
       <c r="E3" s="29"/>
       <c r="F3" s="29"/>
       <c r="G3" s="30" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" ht="16.5">
       <c r="A4" s="28" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="41"/>
+      <c r="D4" s="44"/>
       <c r="E4" s="28" t="s">
         <v>16</v>
       </c>
@@ -14844,7 +15430,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" ht="16.5">
       <c r="A5" s="31" t="s">
         <v>168</v>
       </c>
@@ -14859,7 +15445,7 @@
       <c r="F5" s="32"/>
       <c r="G5" s="32"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" ht="16.5">
       <c r="A6" s="31" t="s">
         <v>169</v>
       </c>
@@ -14874,7 +15460,7 @@
       <c r="F6" s="32"/>
       <c r="G6" s="32"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" ht="16.5">
       <c r="A7" s="31" t="s">
         <v>170</v>
       </c>
@@ -14889,7 +15475,7 @@
       <c r="F7" s="32"/>
       <c r="G7" s="32"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" ht="16.5">
       <c r="A8" s="33" t="s">
         <v>174</v>
       </c>
@@ -14904,7 +15490,7 @@
       <c r="F8" s="32"/>
       <c r="G8" s="32"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" ht="16.5">
       <c r="A9" s="33" t="s">
         <v>171</v>
       </c>
@@ -14919,7 +15505,7 @@
       <c r="F9" s="32"/>
       <c r="G9" s="32"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" ht="16.5">
       <c r="A10" s="33" t="s">
         <v>185</v>
       </c>
@@ -14934,7 +15520,7 @@
       <c r="F10" s="32"/>
       <c r="G10" s="32"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" ht="16.5">
       <c r="A11" s="33" t="s">
         <v>175</v>
       </c>
@@ -14949,7 +15535,7 @@
       <c r="F11" s="32"/>
       <c r="G11" s="32"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" ht="16.5">
       <c r="A12" s="33" t="s">
         <v>172</v>
       </c>
@@ -14964,7 +15550,7 @@
       <c r="F12" s="32"/>
       <c r="G12" s="32"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" ht="16.5">
       <c r="A13" s="33" t="s">
         <v>173</v>
       </c>
@@ -14979,7 +15565,7 @@
       <c r="F13" s="32"/>
       <c r="G13" s="32"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" ht="16.5">
       <c r="A14" s="23" t="s">
         <v>51</v>
       </c>
@@ -14994,7 +15580,7 @@
       <c r="F14" s="32"/>
       <c r="G14" s="32"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" ht="16.5">
       <c r="A15" s="23" t="s">
         <v>20</v>
       </c>
@@ -15009,7 +15595,7 @@
       <c r="F15" s="32"/>
       <c r="G15" s="32"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" ht="16.5">
       <c r="A16" s="23" t="s">
         <v>52</v>
       </c>
@@ -15024,7 +15610,7 @@
       <c r="F16" s="32"/>
       <c r="G16" s="32"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" ht="16.5">
       <c r="A17" s="23" t="s">
         <v>53</v>
       </c>
@@ -15062,7 +15648,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15077,37 +15663,37 @@
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="18.09765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" ht="16.5">
       <c r="A1" s="37" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="C1" s="42" t="s">
-        <v>203</v>
-      </c>
-      <c r="D1" s="41"/>
+        <v>204</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>202</v>
+      </c>
+      <c r="D1" s="44"/>
       <c r="E1" s="25" t="s">
         <v>7</v>
       </c>
       <c r="F1" s="26"/>
       <c r="G1" s="26"/>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="43" t="s">
+    <row r="2" spans="1:7" ht="16.5">
+      <c r="A2" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="43" t="s">
+      <c r="B2" s="44"/>
+      <c r="C2" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="41"/>
+      <c r="D2" s="44"/>
       <c r="E2" s="27" t="s">
         <v>10</v>
       </c>
@@ -15118,28 +15704,28 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="44" t="s">
-        <v>202</v>
-      </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="41"/>
+    <row r="3" spans="1:7" ht="16.5">
+      <c r="A3" s="47" t="s">
+        <v>201</v>
+      </c>
+      <c r="B3" s="44"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="44"/>
       <c r="E3" s="38"/>
       <c r="F3" s="38"/>
       <c r="G3" s="30"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" ht="16.5">
       <c r="A4" s="28" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="41"/>
+      <c r="D4" s="44"/>
       <c r="E4" s="28" t="s">
         <v>16</v>
       </c>
@@ -15150,12 +15736,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" ht="16.5">
       <c r="A5" s="32" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C5" s="36" t="s">
         <v>38</v>
@@ -15165,12 +15751,12 @@
       <c r="F5" s="32"/>
       <c r="G5" s="32"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" ht="16.5">
       <c r="A6" s="32" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C6" s="36" t="s">
         <v>41</v>
@@ -15180,12 +15766,12 @@
       <c r="F6" s="32"/>
       <c r="G6" s="32"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" ht="16.5">
       <c r="A7" s="32" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C7" s="36" t="s">
         <v>41</v>
@@ -15195,12 +15781,12 @@
       <c r="F7" s="32"/>
       <c r="G7" s="32"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" ht="16.5">
       <c r="A8" s="32" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C8" s="36" t="s">
         <v>41</v>
@@ -15210,12 +15796,12 @@
       <c r="F8" s="32"/>
       <c r="G8" s="32"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" ht="16.5">
       <c r="A9" s="31" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C9" s="36" t="s">
         <v>42</v>
@@ -15225,12 +15811,12 @@
       <c r="F9" s="32"/>
       <c r="G9" s="32"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" ht="16.5">
       <c r="A10" s="31" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C10" s="36" t="s">
         <v>38</v>
@@ -15240,12 +15826,12 @@
       <c r="F10" s="32"/>
       <c r="G10" s="32"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" ht="16.5">
       <c r="A11" s="32" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C11" s="36" t="s">
         <v>39</v>
@@ -15255,12 +15841,12 @@
       <c r="F11" s="32"/>
       <c r="G11" s="32"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" ht="16.5">
       <c r="A12" s="32" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C12" s="36" t="s">
         <v>41</v>
@@ -15270,12 +15856,12 @@
       <c r="F12" s="32"/>
       <c r="G12" s="32"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" ht="16.5">
       <c r="A13" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C13" s="36" t="s">
         <v>41</v>
@@ -15285,12 +15871,12 @@
       <c r="F13" s="32"/>
       <c r="G13" s="32"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" ht="16.5">
       <c r="A14" s="32" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C14" s="36" t="s">
         <v>42</v>
@@ -15300,12 +15886,12 @@
       <c r="F14" s="32"/>
       <c r="G14" s="32"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" ht="16.5">
       <c r="A15" s="32" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C15" s="36" t="s">
         <v>39</v>
@@ -15315,12 +15901,12 @@
       <c r="F15" s="32"/>
       <c r="G15" s="32"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" ht="16.5">
       <c r="A16" s="32" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C16" s="36" t="s">
         <v>38</v>
@@ -15330,12 +15916,12 @@
       <c r="F16" s="32"/>
       <c r="G16" s="32"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" ht="16.5">
       <c r="A17" s="32" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C17" s="36" t="s">
         <v>38</v>
@@ -15345,12 +15931,12 @@
       <c r="F17" s="32"/>
       <c r="G17" s="32"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" ht="16.5">
       <c r="A18" s="32" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C18" s="36" t="s">
         <v>38</v>
@@ -15360,12 +15946,12 @@
       <c r="F18" s="32"/>
       <c r="G18" s="32"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" ht="16.5">
       <c r="A19" s="32" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C19" s="36" t="s">
         <v>39</v>
@@ -15375,12 +15961,12 @@
       <c r="F19" s="32"/>
       <c r="G19" s="32"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" ht="16.5">
       <c r="A20" s="32" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C20" s="36" t="s">
         <v>39</v>
@@ -15390,12 +15976,12 @@
       <c r="F20" s="32"/>
       <c r="G20" s="32"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" ht="16.5">
       <c r="A21" s="32" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C21" s="36" t="s">
         <v>39</v>
@@ -15405,7 +15991,7 @@
       <c r="F21" s="32"/>
       <c r="G21" s="32"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" ht="16.5">
       <c r="A22" s="36" t="s">
         <v>51</v>
       </c>
@@ -15420,7 +16006,7 @@
       <c r="F22" s="32"/>
       <c r="G22" s="32"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" ht="16.5">
       <c r="A23" s="36" t="s">
         <v>20</v>
       </c>
@@ -15435,7 +16021,7 @@
       <c r="F23" s="32"/>
       <c r="G23" s="32"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" ht="16.5">
       <c r="A24" s="36" t="s">
         <v>52</v>
       </c>
@@ -15450,7 +16036,7 @@
       <c r="F24" s="32"/>
       <c r="G24" s="32"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" ht="16.5">
       <c r="A25" s="36" t="s">
         <v>53</v>
       </c>
@@ -15465,7 +16051,7 @@
       <c r="F25" s="32"/>
       <c r="G25" s="32"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" ht="16.5">
       <c r="A26" s="35" t="s">
         <v>120</v>
       </c>
@@ -15480,7 +16066,7 @@
       <c r="F26" s="32"/>
       <c r="G26" s="32"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" ht="16.5">
       <c r="A27" s="35" t="s">
         <v>121</v>
       </c>

--- a/getdata/doc/模型与接口.xlsx
+++ b/getdata/doc/模型与接口.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\myGit\get-data\getdata\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\git\myGit\get-data\getdata\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4890DDFD-BA7C-49BC-8A6E-C2F9EF3CA0F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{339C8F92-869C-48E4-B2C3-0E511E2C9F0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-2328" windowWidth="30936" windowHeight="16896" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="283">
   <si>
     <r>
       <rPr>
@@ -132,6 +132,7 @@
         <sz val="10"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>关联条件</t>
@@ -142,6 +143,7 @@
         <sz val="10"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>1</t>
     </r>
@@ -154,6 +156,7 @@
         <sz val="10"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>关联条件</t>
@@ -164,6 +167,7 @@
         <sz val="10"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>2</t>
     </r>
@@ -224,27 +228,27 @@
   </si>
   <si>
     <t>字段id</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>字段名称</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>选项id</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>选项类型</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>展示优先级</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>是否有效</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>序列表</t>
@@ -256,27 +260,27 @@
   </si>
   <si>
     <t>seq_name</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>序列名称</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>当前值</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>步长</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>current_val</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>increment_val</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>status</t>
@@ -412,47 +416,47 @@
   </si>
   <si>
     <t>流程编码</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>flow_id</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>流程名称</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>可作为通用配置表</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>流程类型</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>flow_name</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>flow_type</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>父流程编码</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>parent_flow_id</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>流程配置键</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>flow_key</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>varchar(2000)</t>
@@ -472,51 +476,51 @@
   </si>
   <si>
     <t>任务编码</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>任务名称</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>task_id</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>task_name</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>任务流程编码</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>执行引擎</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>执行语句</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>task_status</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>exec_type</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>exec_sql</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>周期类型</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>周期执行项</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>配置时候的第一步选择,以及所有指标的来源</t>
@@ -532,11 +536,11 @@
   </si>
   <si>
     <t>展示配置编码</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>data_num</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>配置结果表,查询,执行使用,初步查看,详细内容再管理单独的表查询</t>
@@ -544,139 +548,139 @@
   </si>
   <si>
     <t>用户群配置编码</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>流程序号</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>flow_sort</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>数据源配置编码</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>筛选条件配置编码</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>source_flow_id</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>troop_flow_id</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>cond_flow_id</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>show_flow_id</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>结果配置编码</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>最新结果文件</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>最新结果数量</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>data_file</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>data_flow_id</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>cycle_type</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>cycle_value</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>最新执行开始时间</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>修改人</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>修改时间</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>update_persion</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>update_date</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>最新任务执行状态</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>最新执行结束时间</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>begin_time</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>end_time</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>流程配置值2</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>流程配置值3</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>流程配置值4</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>flow_value2</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>flow_value1</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>流程配置值1</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>流程配置值5</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>flow_value3</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>flow_value4</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>4.用户群表</t>
@@ -700,99 +704,99 @@
   </si>
   <si>
     <t>用户群编码</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>troop_id</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>用户群名称</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>troop_name</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>用户群来源</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>用户群类别</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>用户群数量</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>用户生效开始时间</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>用户生效结束时间</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>troop_from</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>troop_type</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>troop_num</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>troop_begin_date</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>troop_end_date</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>主键</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>原始文件名</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>是否使用其中标签</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>标签配置编码</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>用户群状态</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>troop_status</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>source_file_name</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>troop_key</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>is_user_tag</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>tag_flow_id</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>5.标签配置表</t>
@@ -804,67 +808,67 @@
   </si>
   <si>
     <t>标签编码</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>标签名称</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>标签中文名称</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>标签分类编码</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>是否可展示</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>是否可做条件</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>数据来源编码</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>标签展示排序</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>tag_id</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>tag_name</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>tag_name_zh</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>tag_from_id</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>tag_class_id</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>tag_show_order</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>is_show</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>is_cond</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>数据源标签配置信息</t>
@@ -872,11 +876,11 @@
   </si>
   <si>
     <t>标签数据类型</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>tag_data_type</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>有一个同表结构的表,保存用户导入的标签</t>
@@ -884,11 +888,11 @@
   </si>
   <si>
     <t>flow_value5</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>tc_gd_tagconfig_flow</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>标签配置表</t>
@@ -896,11 +900,11 @@
   </si>
   <si>
     <t>执行配置编码</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>exec_flow_id</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>保存任务的执行情况</t>
@@ -1087,35 +1091,35 @@
   </si>
   <si>
     <t>周期截止时间</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>cycle_end_date</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>展示指标数量</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>筛选指标数量</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>数据更新时间</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>show_tag_num</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>cond_tag_num</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>update_date</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>&lt;result column=</t>
@@ -1168,65 +1172,78 @@
       </rPr>
       <t>_zh</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>tag_id</t>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>tc_gd_tagconfig</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>tagId</t>
-  </si>
-  <si>
-    <t>tag_name</t>
-  </si>
-  <si>
-    <t>tagName</t>
-  </si>
-  <si>
-    <t>tag_name_zh</t>
-  </si>
-  <si>
-    <t>tagNameZh</t>
-  </si>
-  <si>
-    <t>tag_from_id</t>
-  </si>
-  <si>
-    <t>tagFromId</t>
-  </si>
-  <si>
-    <t>tag_class_id</t>
-  </si>
-  <si>
-    <t>tagClassId</t>
-  </si>
-  <si>
-    <t>tag_data_type</t>
-  </si>
-  <si>
-    <t>tagDataType</t>
-  </si>
-  <si>
-    <t>tag_show_order</t>
-  </si>
-  <si>
-    <t>tagShowOrder</t>
-  </si>
-  <si>
-    <t>is_show</t>
-  </si>
-  <si>
-    <t>isShow</t>
-  </si>
-  <si>
-    <t>is_cond</t>
-  </si>
-  <si>
-    <t>isCond</t>
+    <t>flow_name</t>
+  </si>
+  <si>
+    <t>flow_key</t>
+  </si>
+  <si>
+    <t>parent_flow_id</t>
+  </si>
+  <si>
+    <t>flow_id</t>
+  </si>
+  <si>
+    <t>flowId</t>
+  </si>
+  <si>
+    <t>flowName</t>
+  </si>
+  <si>
+    <t>flow_type</t>
+  </si>
+  <si>
+    <t>flowType</t>
+  </si>
+  <si>
+    <t>parentFlowId</t>
+  </si>
+  <si>
+    <t>flowKey</t>
+  </si>
+  <si>
+    <t>flowValue1</t>
+  </si>
+  <si>
+    <t>flow_value2</t>
+  </si>
+  <si>
+    <t>flowValue2</t>
+  </si>
+  <si>
+    <t>flow_value3</t>
+  </si>
+  <si>
+    <t>flowValue3</t>
+  </si>
+  <si>
+    <t>flow_value4</t>
+  </si>
+  <si>
+    <t>flowValue4</t>
+  </si>
+  <si>
+    <t>flow_value5</t>
+  </si>
+  <si>
+    <t>flowValue5</t>
+  </si>
+  <si>
+    <t>flow_sort</t>
+  </si>
+  <si>
+    <t>flowSort</t>
+  </si>
+  <si>
+    <t>flow_value1</t>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1312,19 +1329,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
@@ -1363,6 +1367,21 @@
       <sz val="9.8000000000000007"/>
       <color rgb="FF080808"/>
       <name val="JetBrains Mono"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Times New Roman"/>
       <family val="1"/>
     </font>
   </fonts>
@@ -1537,10 +1556,10 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1576,16 +1595,16 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1615,17 +1634,20 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1637,7 +1659,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1646,9 +1668,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1958,14 +1977,14 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="12.875" customWidth="1"/>
-    <col min="2" max="2" width="18.75" customWidth="1"/>
-    <col min="3" max="26" width="12.875" customWidth="1"/>
+    <col min="1" max="1" width="12.8984375" customWidth="1"/>
+    <col min="2" max="2" width="18.69921875" customWidth="1"/>
+    <col min="3" max="26" width="12.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="16.5">
+    <row r="1" spans="1:26">
       <c r="A1" s="1" t="s">
         <v>43</v>
       </c>
@@ -1995,7 +2014,7 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="16.5">
+    <row r="2" spans="1:26">
       <c r="A2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -2022,7 +2041,7 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
     </row>
-    <row r="3" spans="1:26" ht="16.5">
+    <row r="3" spans="1:26">
       <c r="A3" s="2" t="s">
         <v>44</v>
       </c>
@@ -2056,7 +2075,7 @@
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
     </row>
-    <row r="4" spans="1:26" ht="16.5">
+    <row r="4" spans="1:26">
       <c r="A4" s="2" t="s">
         <v>66</v>
       </c>
@@ -2090,7 +2109,7 @@
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
     </row>
-    <row r="5" spans="1:26" ht="16.5">
+    <row r="5" spans="1:26">
       <c r="A5" s="2" t="s">
         <v>82</v>
       </c>
@@ -2124,7 +2143,7 @@
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
     </row>
-    <row r="6" spans="1:26" ht="16.5">
+    <row r="6" spans="1:26">
       <c r="A6" s="34" t="s">
         <v>137</v>
       </c>
@@ -2158,12 +2177,12 @@
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
     </row>
-    <row r="7" spans="1:26" ht="16.5">
+    <row r="7" spans="1:26">
       <c r="A7" s="2" t="s">
         <v>166</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>184</v>
@@ -2194,7 +2213,7 @@
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
     </row>
-    <row r="8" spans="1:26" ht="16.5">
+    <row r="8" spans="1:26">
       <c r="A8" s="2" t="s">
         <v>194</v>
       </c>
@@ -2225,7 +2244,7 @@
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
     </row>
-    <row r="9" spans="1:26" ht="16.5">
+    <row r="9" spans="1:26">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -2253,7 +2272,7 @@
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
     </row>
-    <row r="10" spans="1:26" ht="16.5">
+    <row r="10" spans="1:26">
       <c r="A10" s="2" t="s">
         <v>203</v>
       </c>
@@ -2287,7 +2306,7 @@
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
     </row>
-    <row r="11" spans="1:26" ht="16.5">
+    <row r="11" spans="1:26">
       <c r="A11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -2314,7 +2333,7 @@
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
     </row>
-    <row r="12" spans="1:26" ht="16.5">
+    <row r="12" spans="1:26">
       <c r="A12" s="2"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -2342,7 +2361,7 @@
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
     </row>
-    <row r="13" spans="1:26" ht="16.5">
+    <row r="13" spans="1:26">
       <c r="A13" s="2"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -2370,7 +2389,7 @@
       <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
     </row>
-    <row r="14" spans="1:26" ht="16.5">
+    <row r="14" spans="1:26">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -2398,7 +2417,7 @@
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
     </row>
-    <row r="15" spans="1:26" ht="16.5">
+    <row r="15" spans="1:26">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -2426,7 +2445,7 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
     </row>
-    <row r="16" spans="1:26" ht="16.5">
+    <row r="16" spans="1:26">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -2454,7 +2473,7 @@
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
     </row>
-    <row r="17" spans="1:26" ht="16.5">
+    <row r="17" spans="1:26">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -2482,7 +2501,7 @@
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
     </row>
-    <row r="18" spans="1:26" ht="16.5">
+    <row r="18" spans="1:26">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -2510,7 +2529,7 @@
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
     </row>
-    <row r="19" spans="1:26" ht="16.5">
+    <row r="19" spans="1:26">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -2538,7 +2557,7 @@
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
     </row>
-    <row r="20" spans="1:26" ht="16.5">
+    <row r="20" spans="1:26">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -2566,7 +2585,7 @@
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
     </row>
-    <row r="21" spans="1:26" ht="16.5">
+    <row r="21" spans="1:26">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -2594,7 +2613,7 @@
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
     </row>
-    <row r="22" spans="1:26" ht="16.5">
+    <row r="22" spans="1:26">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -2622,7 +2641,7 @@
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
     </row>
-    <row r="23" spans="1:26" ht="16.5">
+    <row r="23" spans="1:26">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -2650,7 +2669,7 @@
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
     </row>
-    <row r="24" spans="1:26" ht="16.5">
+    <row r="24" spans="1:26">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -2678,7 +2697,7 @@
       <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
     </row>
-    <row r="25" spans="1:26" ht="16.5">
+    <row r="25" spans="1:26">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -2706,7 +2725,7 @@
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
     </row>
-    <row r="26" spans="1:26" ht="16.5">
+    <row r="26" spans="1:26">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -2734,7 +2753,7 @@
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
     </row>
-    <row r="27" spans="1:26" ht="16.5">
+    <row r="27" spans="1:26">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -2762,7 +2781,7 @@
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
     </row>
-    <row r="28" spans="1:26" ht="16.5">
+    <row r="28" spans="1:26">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -2790,7 +2809,7 @@
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
     </row>
-    <row r="29" spans="1:26" ht="16.5">
+    <row r="29" spans="1:26">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -2818,7 +2837,7 @@
       <c r="Y29" s="2"/>
       <c r="Z29" s="2"/>
     </row>
-    <row r="30" spans="1:26" ht="16.5">
+    <row r="30" spans="1:26">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -2846,7 +2865,7 @@
       <c r="Y30" s="2"/>
       <c r="Z30" s="2"/>
     </row>
-    <row r="31" spans="1:26" ht="16.5">
+    <row r="31" spans="1:26">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -2874,7 +2893,7 @@
       <c r="Y31" s="2"/>
       <c r="Z31" s="2"/>
     </row>
-    <row r="32" spans="1:26" ht="16.5">
+    <row r="32" spans="1:26">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -2902,7 +2921,7 @@
       <c r="Y32" s="2"/>
       <c r="Z32" s="2"/>
     </row>
-    <row r="33" spans="1:26" ht="16.5">
+    <row r="33" spans="1:26">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -2930,7 +2949,7 @@
       <c r="Y33" s="2"/>
       <c r="Z33" s="2"/>
     </row>
-    <row r="34" spans="1:26" ht="16.5">
+    <row r="34" spans="1:26">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -2958,7 +2977,7 @@
       <c r="Y34" s="2"/>
       <c r="Z34" s="2"/>
     </row>
-    <row r="35" spans="1:26" ht="16.5">
+    <row r="35" spans="1:26">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -2986,7 +3005,7 @@
       <c r="Y35" s="2"/>
       <c r="Z35" s="2"/>
     </row>
-    <row r="36" spans="1:26" ht="16.5">
+    <row r="36" spans="1:26">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -3014,7 +3033,7 @@
       <c r="Y36" s="2"/>
       <c r="Z36" s="2"/>
     </row>
-    <row r="37" spans="1:26" ht="16.5">
+    <row r="37" spans="1:26">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -3042,7 +3061,7 @@
       <c r="Y37" s="2"/>
       <c r="Z37" s="2"/>
     </row>
-    <row r="38" spans="1:26" ht="16.5">
+    <row r="38" spans="1:26">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -3070,7 +3089,7 @@
       <c r="Y38" s="2"/>
       <c r="Z38" s="2"/>
     </row>
-    <row r="39" spans="1:26" ht="16.5">
+    <row r="39" spans="1:26">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -3098,7 +3117,7 @@
       <c r="Y39" s="2"/>
       <c r="Z39" s="2"/>
     </row>
-    <row r="40" spans="1:26" ht="16.5">
+    <row r="40" spans="1:26">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -3126,7 +3145,7 @@
       <c r="Y40" s="2"/>
       <c r="Z40" s="2"/>
     </row>
-    <row r="41" spans="1:26" ht="16.5">
+    <row r="41" spans="1:26">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -3154,7 +3173,7 @@
       <c r="Y41" s="2"/>
       <c r="Z41" s="2"/>
     </row>
-    <row r="42" spans="1:26" ht="16.5">
+    <row r="42" spans="1:26">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -3182,7 +3201,7 @@
       <c r="Y42" s="2"/>
       <c r="Z42" s="2"/>
     </row>
-    <row r="43" spans="1:26" ht="16.5">
+    <row r="43" spans="1:26">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -3210,7 +3229,7 @@
       <c r="Y43" s="2"/>
       <c r="Z43" s="2"/>
     </row>
-    <row r="44" spans="1:26" ht="16.5">
+    <row r="44" spans="1:26">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -3238,7 +3257,7 @@
       <c r="Y44" s="2"/>
       <c r="Z44" s="2"/>
     </row>
-    <row r="45" spans="1:26" ht="16.5">
+    <row r="45" spans="1:26">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -3266,7 +3285,7 @@
       <c r="Y45" s="2"/>
       <c r="Z45" s="2"/>
     </row>
-    <row r="46" spans="1:26" ht="16.5">
+    <row r="46" spans="1:26">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -3294,7 +3313,7 @@
       <c r="Y46" s="2"/>
       <c r="Z46" s="2"/>
     </row>
-    <row r="47" spans="1:26" ht="16.5">
+    <row r="47" spans="1:26">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -3322,7 +3341,7 @@
       <c r="Y47" s="2"/>
       <c r="Z47" s="2"/>
     </row>
-    <row r="48" spans="1:26" ht="16.5">
+    <row r="48" spans="1:26">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -3350,7 +3369,7 @@
       <c r="Y48" s="2"/>
       <c r="Z48" s="2"/>
     </row>
-    <row r="49" spans="1:26" ht="16.5">
+    <row r="49" spans="1:26">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -3378,7 +3397,7 @@
       <c r="Y49" s="2"/>
       <c r="Z49" s="2"/>
     </row>
-    <row r="50" spans="1:26" ht="16.5">
+    <row r="50" spans="1:26">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -3406,7 +3425,7 @@
       <c r="Y50" s="2"/>
       <c r="Z50" s="2"/>
     </row>
-    <row r="51" spans="1:26" ht="16.5">
+    <row r="51" spans="1:26">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -3434,7 +3453,7 @@
       <c r="Y51" s="2"/>
       <c r="Z51" s="2"/>
     </row>
-    <row r="52" spans="1:26" ht="16.5">
+    <row r="52" spans="1:26">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -3462,7 +3481,7 @@
       <c r="Y52" s="2"/>
       <c r="Z52" s="2"/>
     </row>
-    <row r="53" spans="1:26" ht="16.5">
+    <row r="53" spans="1:26">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -3490,7 +3509,7 @@
       <c r="Y53" s="2"/>
       <c r="Z53" s="2"/>
     </row>
-    <row r="54" spans="1:26" ht="16.5">
+    <row r="54" spans="1:26">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -3518,7 +3537,7 @@
       <c r="Y54" s="2"/>
       <c r="Z54" s="2"/>
     </row>
-    <row r="55" spans="1:26" ht="16.5">
+    <row r="55" spans="1:26">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -3546,7 +3565,7 @@
       <c r="Y55" s="2"/>
       <c r="Z55" s="2"/>
     </row>
-    <row r="56" spans="1:26" ht="16.5">
+    <row r="56" spans="1:26">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -3574,7 +3593,7 @@
       <c r="Y56" s="2"/>
       <c r="Z56" s="2"/>
     </row>
-    <row r="57" spans="1:26" ht="16.5">
+    <row r="57" spans="1:26">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -3602,7 +3621,7 @@
       <c r="Y57" s="2"/>
       <c r="Z57" s="2"/>
     </row>
-    <row r="58" spans="1:26" ht="16.5">
+    <row r="58" spans="1:26">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -3630,7 +3649,7 @@
       <c r="Y58" s="2"/>
       <c r="Z58" s="2"/>
     </row>
-    <row r="59" spans="1:26" ht="16.5">
+    <row r="59" spans="1:26">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -3658,7 +3677,7 @@
       <c r="Y59" s="2"/>
       <c r="Z59" s="2"/>
     </row>
-    <row r="60" spans="1:26" ht="16.5">
+    <row r="60" spans="1:26">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -3686,7 +3705,7 @@
       <c r="Y60" s="2"/>
       <c r="Z60" s="2"/>
     </row>
-    <row r="61" spans="1:26" ht="16.5">
+    <row r="61" spans="1:26">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -3714,7 +3733,7 @@
       <c r="Y61" s="2"/>
       <c r="Z61" s="2"/>
     </row>
-    <row r="62" spans="1:26" ht="16.5">
+    <row r="62" spans="1:26">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -3742,7 +3761,7 @@
       <c r="Y62" s="2"/>
       <c r="Z62" s="2"/>
     </row>
-    <row r="63" spans="1:26" ht="16.5">
+    <row r="63" spans="1:26">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -3770,7 +3789,7 @@
       <c r="Y63" s="2"/>
       <c r="Z63" s="2"/>
     </row>
-    <row r="64" spans="1:26" ht="16.5">
+    <row r="64" spans="1:26">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -3798,7 +3817,7 @@
       <c r="Y64" s="2"/>
       <c r="Z64" s="2"/>
     </row>
-    <row r="65" spans="1:26" ht="16.5">
+    <row r="65" spans="1:26">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -3826,7 +3845,7 @@
       <c r="Y65" s="2"/>
       <c r="Z65" s="2"/>
     </row>
-    <row r="66" spans="1:26" ht="16.5">
+    <row r="66" spans="1:26">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -3854,7 +3873,7 @@
       <c r="Y66" s="2"/>
       <c r="Z66" s="2"/>
     </row>
-    <row r="67" spans="1:26" ht="16.5">
+    <row r="67" spans="1:26">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -3882,7 +3901,7 @@
       <c r="Y67" s="2"/>
       <c r="Z67" s="2"/>
     </row>
-    <row r="68" spans="1:26" ht="16.5">
+    <row r="68" spans="1:26">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -3910,7 +3929,7 @@
       <c r="Y68" s="2"/>
       <c r="Z68" s="2"/>
     </row>
-    <row r="69" spans="1:26" ht="16.5">
+    <row r="69" spans="1:26">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -3938,7 +3957,7 @@
       <c r="Y69" s="2"/>
       <c r="Z69" s="2"/>
     </row>
-    <row r="70" spans="1:26" ht="16.5">
+    <row r="70" spans="1:26">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -3966,7 +3985,7 @@
       <c r="Y70" s="2"/>
       <c r="Z70" s="2"/>
     </row>
-    <row r="71" spans="1:26" ht="16.5">
+    <row r="71" spans="1:26">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -3994,7 +4013,7 @@
       <c r="Y71" s="2"/>
       <c r="Z71" s="2"/>
     </row>
-    <row r="72" spans="1:26" ht="16.5">
+    <row r="72" spans="1:26">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -4022,7 +4041,7 @@
       <c r="Y72" s="2"/>
       <c r="Z72" s="2"/>
     </row>
-    <row r="73" spans="1:26" ht="16.5">
+    <row r="73" spans="1:26">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -4050,7 +4069,7 @@
       <c r="Y73" s="2"/>
       <c r="Z73" s="2"/>
     </row>
-    <row r="74" spans="1:26" ht="16.5">
+    <row r="74" spans="1:26">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -4078,7 +4097,7 @@
       <c r="Y74" s="2"/>
       <c r="Z74" s="2"/>
     </row>
-    <row r="75" spans="1:26" ht="16.5">
+    <row r="75" spans="1:26">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -4106,7 +4125,7 @@
       <c r="Y75" s="2"/>
       <c r="Z75" s="2"/>
     </row>
-    <row r="76" spans="1:26" ht="16.5">
+    <row r="76" spans="1:26">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -4134,7 +4153,7 @@
       <c r="Y76" s="2"/>
       <c r="Z76" s="2"/>
     </row>
-    <row r="77" spans="1:26" ht="16.5">
+    <row r="77" spans="1:26">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -4162,7 +4181,7 @@
       <c r="Y77" s="2"/>
       <c r="Z77" s="2"/>
     </row>
-    <row r="78" spans="1:26" ht="16.5">
+    <row r="78" spans="1:26">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -4190,7 +4209,7 @@
       <c r="Y78" s="2"/>
       <c r="Z78" s="2"/>
     </row>
-    <row r="79" spans="1:26" ht="16.5">
+    <row r="79" spans="1:26">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -4218,7 +4237,7 @@
       <c r="Y79" s="2"/>
       <c r="Z79" s="2"/>
     </row>
-    <row r="80" spans="1:26" ht="16.5">
+    <row r="80" spans="1:26">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -4246,7 +4265,7 @@
       <c r="Y80" s="2"/>
       <c r="Z80" s="2"/>
     </row>
-    <row r="81" spans="1:26" ht="16.5">
+    <row r="81" spans="1:26">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -4274,7 +4293,7 @@
       <c r="Y81" s="2"/>
       <c r="Z81" s="2"/>
     </row>
-    <row r="82" spans="1:26" ht="16.5">
+    <row r="82" spans="1:26">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -4302,7 +4321,7 @@
       <c r="Y82" s="2"/>
       <c r="Z82" s="2"/>
     </row>
-    <row r="83" spans="1:26" ht="16.5">
+    <row r="83" spans="1:26">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -4330,7 +4349,7 @@
       <c r="Y83" s="2"/>
       <c r="Z83" s="2"/>
     </row>
-    <row r="84" spans="1:26" ht="16.5">
+    <row r="84" spans="1:26">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -4358,7 +4377,7 @@
       <c r="Y84" s="2"/>
       <c r="Z84" s="2"/>
     </row>
-    <row r="85" spans="1:26" ht="16.5">
+    <row r="85" spans="1:26">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -4386,7 +4405,7 @@
       <c r="Y85" s="2"/>
       <c r="Z85" s="2"/>
     </row>
-    <row r="86" spans="1:26" ht="16.5">
+    <row r="86" spans="1:26">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -4414,7 +4433,7 @@
       <c r="Y86" s="2"/>
       <c r="Z86" s="2"/>
     </row>
-    <row r="87" spans="1:26" ht="16.5">
+    <row r="87" spans="1:26">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -4442,7 +4461,7 @@
       <c r="Y87" s="2"/>
       <c r="Z87" s="2"/>
     </row>
-    <row r="88" spans="1:26" ht="16.5">
+    <row r="88" spans="1:26">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -4470,7 +4489,7 @@
       <c r="Y88" s="2"/>
       <c r="Z88" s="2"/>
     </row>
-    <row r="89" spans="1:26" ht="16.5">
+    <row r="89" spans="1:26">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -4498,7 +4517,7 @@
       <c r="Y89" s="2"/>
       <c r="Z89" s="2"/>
     </row>
-    <row r="90" spans="1:26" ht="16.5">
+    <row r="90" spans="1:26">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -4526,7 +4545,7 @@
       <c r="Y90" s="2"/>
       <c r="Z90" s="2"/>
     </row>
-    <row r="91" spans="1:26" ht="16.5">
+    <row r="91" spans="1:26">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -4554,7 +4573,7 @@
       <c r="Y91" s="2"/>
       <c r="Z91" s="2"/>
     </row>
-    <row r="92" spans="1:26" ht="16.5">
+    <row r="92" spans="1:26">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -4582,7 +4601,7 @@
       <c r="Y92" s="2"/>
       <c r="Z92" s="2"/>
     </row>
-    <row r="93" spans="1:26" ht="16.5">
+    <row r="93" spans="1:26">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -4610,7 +4629,7 @@
       <c r="Y93" s="2"/>
       <c r="Z93" s="2"/>
     </row>
-    <row r="94" spans="1:26" ht="16.5">
+    <row r="94" spans="1:26">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -4638,7 +4657,7 @@
       <c r="Y94" s="2"/>
       <c r="Z94" s="2"/>
     </row>
-    <row r="95" spans="1:26" ht="16.5">
+    <row r="95" spans="1:26">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -4666,7 +4685,7 @@
       <c r="Y95" s="2"/>
       <c r="Z95" s="2"/>
     </row>
-    <row r="96" spans="1:26" ht="16.5">
+    <row r="96" spans="1:26">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -4694,7 +4713,7 @@
       <c r="Y96" s="2"/>
       <c r="Z96" s="2"/>
     </row>
-    <row r="97" spans="1:26" ht="16.5">
+    <row r="97" spans="1:26">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -4722,7 +4741,7 @@
       <c r="Y97" s="2"/>
       <c r="Z97" s="2"/>
     </row>
-    <row r="98" spans="1:26" ht="16.5">
+    <row r="98" spans="1:26">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -4750,7 +4769,7 @@
       <c r="Y98" s="2"/>
       <c r="Z98" s="2"/>
     </row>
-    <row r="99" spans="1:26" ht="16.5">
+    <row r="99" spans="1:26">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -4778,7 +4797,7 @@
       <c r="Y99" s="2"/>
       <c r="Z99" s="2"/>
     </row>
-    <row r="100" spans="1:26" ht="16.5">
+    <row r="100" spans="1:26">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -4806,7 +4825,7 @@
       <c r="Y100" s="2"/>
       <c r="Z100" s="2"/>
     </row>
-    <row r="101" spans="1:26" ht="16.5">
+    <row r="101" spans="1:26">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -4834,7 +4853,7 @@
       <c r="Y101" s="2"/>
       <c r="Z101" s="2"/>
     </row>
-    <row r="102" spans="1:26" ht="16.5">
+    <row r="102" spans="1:26">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -4862,7 +4881,7 @@
       <c r="Y102" s="2"/>
       <c r="Z102" s="2"/>
     </row>
-    <row r="103" spans="1:26" ht="16.5">
+    <row r="103" spans="1:26">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -4890,7 +4909,7 @@
       <c r="Y103" s="2"/>
       <c r="Z103" s="2"/>
     </row>
-    <row r="104" spans="1:26" ht="16.5">
+    <row r="104" spans="1:26">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -4918,7 +4937,7 @@
       <c r="Y104" s="2"/>
       <c r="Z104" s="2"/>
     </row>
-    <row r="105" spans="1:26" ht="16.5">
+    <row r="105" spans="1:26">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -4946,7 +4965,7 @@
       <c r="Y105" s="2"/>
       <c r="Z105" s="2"/>
     </row>
-    <row r="106" spans="1:26" ht="16.5">
+    <row r="106" spans="1:26">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -4974,7 +4993,7 @@
       <c r="Y106" s="2"/>
       <c r="Z106" s="2"/>
     </row>
-    <row r="107" spans="1:26" ht="16.5">
+    <row r="107" spans="1:26">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -5002,7 +5021,7 @@
       <c r="Y107" s="2"/>
       <c r="Z107" s="2"/>
     </row>
-    <row r="108" spans="1:26" ht="16.5">
+    <row r="108" spans="1:26">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -5030,7 +5049,7 @@
       <c r="Y108" s="2"/>
       <c r="Z108" s="2"/>
     </row>
-    <row r="109" spans="1:26" ht="16.5">
+    <row r="109" spans="1:26">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -5058,7 +5077,7 @@
       <c r="Y109" s="2"/>
       <c r="Z109" s="2"/>
     </row>
-    <row r="110" spans="1:26" ht="16.5">
+    <row r="110" spans="1:26">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -5086,7 +5105,7 @@
       <c r="Y110" s="2"/>
       <c r="Z110" s="2"/>
     </row>
-    <row r="111" spans="1:26" ht="16.5">
+    <row r="111" spans="1:26">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -5114,7 +5133,7 @@
       <c r="Y111" s="2"/>
       <c r="Z111" s="2"/>
     </row>
-    <row r="112" spans="1:26" ht="16.5">
+    <row r="112" spans="1:26">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -5142,7 +5161,7 @@
       <c r="Y112" s="2"/>
       <c r="Z112" s="2"/>
     </row>
-    <row r="113" spans="1:26" ht="16.5">
+    <row r="113" spans="1:26">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -5170,7 +5189,7 @@
       <c r="Y113" s="2"/>
       <c r="Z113" s="2"/>
     </row>
-    <row r="114" spans="1:26" ht="16.5">
+    <row r="114" spans="1:26">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -5198,7 +5217,7 @@
       <c r="Y114" s="2"/>
       <c r="Z114" s="2"/>
     </row>
-    <row r="115" spans="1:26" ht="16.5">
+    <row r="115" spans="1:26">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -5226,7 +5245,7 @@
       <c r="Y115" s="2"/>
       <c r="Z115" s="2"/>
     </row>
-    <row r="116" spans="1:26" ht="16.5">
+    <row r="116" spans="1:26">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -5254,7 +5273,7 @@
       <c r="Y116" s="2"/>
       <c r="Z116" s="2"/>
     </row>
-    <row r="117" spans="1:26" ht="16.5">
+    <row r="117" spans="1:26">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -5282,7 +5301,7 @@
       <c r="Y117" s="2"/>
       <c r="Z117" s="2"/>
     </row>
-    <row r="118" spans="1:26" ht="16.5">
+    <row r="118" spans="1:26">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -5310,7 +5329,7 @@
       <c r="Y118" s="2"/>
       <c r="Z118" s="2"/>
     </row>
-    <row r="119" spans="1:26" ht="16.5">
+    <row r="119" spans="1:26">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -5338,7 +5357,7 @@
       <c r="Y119" s="2"/>
       <c r="Z119" s="2"/>
     </row>
-    <row r="120" spans="1:26" ht="16.5">
+    <row r="120" spans="1:26">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -5366,7 +5385,7 @@
       <c r="Y120" s="2"/>
       <c r="Z120" s="2"/>
     </row>
-    <row r="121" spans="1:26" ht="16.5">
+    <row r="121" spans="1:26">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -5394,7 +5413,7 @@
       <c r="Y121" s="2"/>
       <c r="Z121" s="2"/>
     </row>
-    <row r="122" spans="1:26" ht="16.5">
+    <row r="122" spans="1:26">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -5422,7 +5441,7 @@
       <c r="Y122" s="2"/>
       <c r="Z122" s="2"/>
     </row>
-    <row r="123" spans="1:26" ht="16.5">
+    <row r="123" spans="1:26">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -5450,7 +5469,7 @@
       <c r="Y123" s="2"/>
       <c r="Z123" s="2"/>
     </row>
-    <row r="124" spans="1:26" ht="16.5">
+    <row r="124" spans="1:26">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -5478,7 +5497,7 @@
       <c r="Y124" s="2"/>
       <c r="Z124" s="2"/>
     </row>
-    <row r="125" spans="1:26" ht="16.5">
+    <row r="125" spans="1:26">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -5506,7 +5525,7 @@
       <c r="Y125" s="2"/>
       <c r="Z125" s="2"/>
     </row>
-    <row r="126" spans="1:26" ht="16.5">
+    <row r="126" spans="1:26">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -5534,7 +5553,7 @@
       <c r="Y126" s="2"/>
       <c r="Z126" s="2"/>
     </row>
-    <row r="127" spans="1:26" ht="16.5">
+    <row r="127" spans="1:26">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -5562,7 +5581,7 @@
       <c r="Y127" s="2"/>
       <c r="Z127" s="2"/>
     </row>
-    <row r="128" spans="1:26" ht="16.5">
+    <row r="128" spans="1:26">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -5590,7 +5609,7 @@
       <c r="Y128" s="2"/>
       <c r="Z128" s="2"/>
     </row>
-    <row r="129" spans="1:26" ht="16.5">
+    <row r="129" spans="1:26">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -5618,7 +5637,7 @@
       <c r="Y129" s="2"/>
       <c r="Z129" s="2"/>
     </row>
-    <row r="130" spans="1:26" ht="16.5">
+    <row r="130" spans="1:26">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -5646,7 +5665,7 @@
       <c r="Y130" s="2"/>
       <c r="Z130" s="2"/>
     </row>
-    <row r="131" spans="1:26" ht="16.5">
+    <row r="131" spans="1:26">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -5674,7 +5693,7 @@
       <c r="Y131" s="2"/>
       <c r="Z131" s="2"/>
     </row>
-    <row r="132" spans="1:26" ht="16.5">
+    <row r="132" spans="1:26">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -5702,7 +5721,7 @@
       <c r="Y132" s="2"/>
       <c r="Z132" s="2"/>
     </row>
-    <row r="133" spans="1:26" ht="16.5">
+    <row r="133" spans="1:26">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -5730,7 +5749,7 @@
       <c r="Y133" s="2"/>
       <c r="Z133" s="2"/>
     </row>
-    <row r="134" spans="1:26" ht="16.5">
+    <row r="134" spans="1:26">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -5758,7 +5777,7 @@
       <c r="Y134" s="2"/>
       <c r="Z134" s="2"/>
     </row>
-    <row r="135" spans="1:26" ht="16.5">
+    <row r="135" spans="1:26">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -5786,7 +5805,7 @@
       <c r="Y135" s="2"/>
       <c r="Z135" s="2"/>
     </row>
-    <row r="136" spans="1:26" ht="16.5">
+    <row r="136" spans="1:26">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -5814,7 +5833,7 @@
       <c r="Y136" s="2"/>
       <c r="Z136" s="2"/>
     </row>
-    <row r="137" spans="1:26" ht="16.5">
+    <row r="137" spans="1:26">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -5842,7 +5861,7 @@
       <c r="Y137" s="2"/>
       <c r="Z137" s="2"/>
     </row>
-    <row r="138" spans="1:26" ht="16.5">
+    <row r="138" spans="1:26">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -5870,7 +5889,7 @@
       <c r="Y138" s="2"/>
       <c r="Z138" s="2"/>
     </row>
-    <row r="139" spans="1:26" ht="16.5">
+    <row r="139" spans="1:26">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -5898,7 +5917,7 @@
       <c r="Y139" s="2"/>
       <c r="Z139" s="2"/>
     </row>
-    <row r="140" spans="1:26" ht="16.5">
+    <row r="140" spans="1:26">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -5926,7 +5945,7 @@
       <c r="Y140" s="2"/>
       <c r="Z140" s="2"/>
     </row>
-    <row r="141" spans="1:26" ht="16.5">
+    <row r="141" spans="1:26">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -5954,7 +5973,7 @@
       <c r="Y141" s="2"/>
       <c r="Z141" s="2"/>
     </row>
-    <row r="142" spans="1:26" ht="16.5">
+    <row r="142" spans="1:26">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -5982,7 +6001,7 @@
       <c r="Y142" s="2"/>
       <c r="Z142" s="2"/>
     </row>
-    <row r="143" spans="1:26" ht="16.5">
+    <row r="143" spans="1:26">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -6010,7 +6029,7 @@
       <c r="Y143" s="2"/>
       <c r="Z143" s="2"/>
     </row>
-    <row r="144" spans="1:26" ht="16.5">
+    <row r="144" spans="1:26">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -6038,7 +6057,7 @@
       <c r="Y144" s="2"/>
       <c r="Z144" s="2"/>
     </row>
-    <row r="145" spans="1:26" ht="16.5">
+    <row r="145" spans="1:26">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -6066,7 +6085,7 @@
       <c r="Y145" s="2"/>
       <c r="Z145" s="2"/>
     </row>
-    <row r="146" spans="1:26" ht="16.5">
+    <row r="146" spans="1:26">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -6094,7 +6113,7 @@
       <c r="Y146" s="2"/>
       <c r="Z146" s="2"/>
     </row>
-    <row r="147" spans="1:26" ht="16.5">
+    <row r="147" spans="1:26">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -6122,7 +6141,7 @@
       <c r="Y147" s="2"/>
       <c r="Z147" s="2"/>
     </row>
-    <row r="148" spans="1:26" ht="16.5">
+    <row r="148" spans="1:26">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -6150,7 +6169,7 @@
       <c r="Y148" s="2"/>
       <c r="Z148" s="2"/>
     </row>
-    <row r="149" spans="1:26" ht="16.5">
+    <row r="149" spans="1:26">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -6178,7 +6197,7 @@
       <c r="Y149" s="2"/>
       <c r="Z149" s="2"/>
     </row>
-    <row r="150" spans="1:26" ht="16.5">
+    <row r="150" spans="1:26">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -6206,7 +6225,7 @@
       <c r="Y150" s="2"/>
       <c r="Z150" s="2"/>
     </row>
-    <row r="151" spans="1:26" ht="16.5">
+    <row r="151" spans="1:26">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -6234,7 +6253,7 @@
       <c r="Y151" s="2"/>
       <c r="Z151" s="2"/>
     </row>
-    <row r="152" spans="1:26" ht="16.5">
+    <row r="152" spans="1:26">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -6262,7 +6281,7 @@
       <c r="Y152" s="2"/>
       <c r="Z152" s="2"/>
     </row>
-    <row r="153" spans="1:26" ht="16.5">
+    <row r="153" spans="1:26">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -6290,7 +6309,7 @@
       <c r="Y153" s="2"/>
       <c r="Z153" s="2"/>
     </row>
-    <row r="154" spans="1:26" ht="16.5">
+    <row r="154" spans="1:26">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -6318,7 +6337,7 @@
       <c r="Y154" s="2"/>
       <c r="Z154" s="2"/>
     </row>
-    <row r="155" spans="1:26" ht="16.5">
+    <row r="155" spans="1:26">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -6346,7 +6365,7 @@
       <c r="Y155" s="2"/>
       <c r="Z155" s="2"/>
     </row>
-    <row r="156" spans="1:26" ht="16.5">
+    <row r="156" spans="1:26">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -6374,7 +6393,7 @@
       <c r="Y156" s="2"/>
       <c r="Z156" s="2"/>
     </row>
-    <row r="157" spans="1:26" ht="16.5">
+    <row r="157" spans="1:26">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -6402,7 +6421,7 @@
       <c r="Y157" s="2"/>
       <c r="Z157" s="2"/>
     </row>
-    <row r="158" spans="1:26" ht="16.5">
+    <row r="158" spans="1:26">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -6430,7 +6449,7 @@
       <c r="Y158" s="2"/>
       <c r="Z158" s="2"/>
     </row>
-    <row r="159" spans="1:26" ht="16.5">
+    <row r="159" spans="1:26">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -6458,7 +6477,7 @@
       <c r="Y159" s="2"/>
       <c r="Z159" s="2"/>
     </row>
-    <row r="160" spans="1:26" ht="16.5">
+    <row r="160" spans="1:26">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -6486,7 +6505,7 @@
       <c r="Y160" s="2"/>
       <c r="Z160" s="2"/>
     </row>
-    <row r="161" spans="1:26" ht="16.5">
+    <row r="161" spans="1:26">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -6514,7 +6533,7 @@
       <c r="Y161" s="2"/>
       <c r="Z161" s="2"/>
     </row>
-    <row r="162" spans="1:26" ht="16.5">
+    <row r="162" spans="1:26">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -6542,7 +6561,7 @@
       <c r="Y162" s="2"/>
       <c r="Z162" s="2"/>
     </row>
-    <row r="163" spans="1:26" ht="16.5">
+    <row r="163" spans="1:26">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -6570,7 +6589,7 @@
       <c r="Y163" s="2"/>
       <c r="Z163" s="2"/>
     </row>
-    <row r="164" spans="1:26" ht="16.5">
+    <row r="164" spans="1:26">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -6598,7 +6617,7 @@
       <c r="Y164" s="2"/>
       <c r="Z164" s="2"/>
     </row>
-    <row r="165" spans="1:26" ht="16.5">
+    <row r="165" spans="1:26">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -6626,7 +6645,7 @@
       <c r="Y165" s="2"/>
       <c r="Z165" s="2"/>
     </row>
-    <row r="166" spans="1:26" ht="16.5">
+    <row r="166" spans="1:26">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -6654,7 +6673,7 @@
       <c r="Y166" s="2"/>
       <c r="Z166" s="2"/>
     </row>
-    <row r="167" spans="1:26" ht="16.5">
+    <row r="167" spans="1:26">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -6682,7 +6701,7 @@
       <c r="Y167" s="2"/>
       <c r="Z167" s="2"/>
     </row>
-    <row r="168" spans="1:26" ht="16.5">
+    <row r="168" spans="1:26">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -6710,7 +6729,7 @@
       <c r="Y168" s="2"/>
       <c r="Z168" s="2"/>
     </row>
-    <row r="169" spans="1:26" ht="16.5">
+    <row r="169" spans="1:26">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -6738,7 +6757,7 @@
       <c r="Y169" s="2"/>
       <c r="Z169" s="2"/>
     </row>
-    <row r="170" spans="1:26" ht="16.5">
+    <row r="170" spans="1:26">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -6766,7 +6785,7 @@
       <c r="Y170" s="2"/>
       <c r="Z170" s="2"/>
     </row>
-    <row r="171" spans="1:26" ht="16.5">
+    <row r="171" spans="1:26">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -6794,7 +6813,7 @@
       <c r="Y171" s="2"/>
       <c r="Z171" s="2"/>
     </row>
-    <row r="172" spans="1:26" ht="16.5">
+    <row r="172" spans="1:26">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -6822,7 +6841,7 @@
       <c r="Y172" s="2"/>
       <c r="Z172" s="2"/>
     </row>
-    <row r="173" spans="1:26" ht="16.5">
+    <row r="173" spans="1:26">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -6850,7 +6869,7 @@
       <c r="Y173" s="2"/>
       <c r="Z173" s="2"/>
     </row>
-    <row r="174" spans="1:26" ht="16.5">
+    <row r="174" spans="1:26">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -6878,7 +6897,7 @@
       <c r="Y174" s="2"/>
       <c r="Z174" s="2"/>
     </row>
-    <row r="175" spans="1:26" ht="16.5">
+    <row r="175" spans="1:26">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -6906,7 +6925,7 @@
       <c r="Y175" s="2"/>
       <c r="Z175" s="2"/>
     </row>
-    <row r="176" spans="1:26" ht="16.5">
+    <row r="176" spans="1:26">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -6934,7 +6953,7 @@
       <c r="Y176" s="2"/>
       <c r="Z176" s="2"/>
     </row>
-    <row r="177" spans="1:26" ht="16.5">
+    <row r="177" spans="1:26">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -6962,7 +6981,7 @@
       <c r="Y177" s="2"/>
       <c r="Z177" s="2"/>
     </row>
-    <row r="178" spans="1:26" ht="16.5">
+    <row r="178" spans="1:26">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -6990,7 +7009,7 @@
       <c r="Y178" s="2"/>
       <c r="Z178" s="2"/>
     </row>
-    <row r="179" spans="1:26" ht="16.5">
+    <row r="179" spans="1:26">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -7018,7 +7037,7 @@
       <c r="Y179" s="2"/>
       <c r="Z179" s="2"/>
     </row>
-    <row r="180" spans="1:26" ht="16.5">
+    <row r="180" spans="1:26">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -7046,7 +7065,7 @@
       <c r="Y180" s="2"/>
       <c r="Z180" s="2"/>
     </row>
-    <row r="181" spans="1:26" ht="16.5">
+    <row r="181" spans="1:26">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -7074,7 +7093,7 @@
       <c r="Y181" s="2"/>
       <c r="Z181" s="2"/>
     </row>
-    <row r="182" spans="1:26" ht="16.5">
+    <row r="182" spans="1:26">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -7102,7 +7121,7 @@
       <c r="Y182" s="2"/>
       <c r="Z182" s="2"/>
     </row>
-    <row r="183" spans="1:26" ht="16.5">
+    <row r="183" spans="1:26">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -7130,7 +7149,7 @@
       <c r="Y183" s="2"/>
       <c r="Z183" s="2"/>
     </row>
-    <row r="184" spans="1:26" ht="16.5">
+    <row r="184" spans="1:26">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -7158,7 +7177,7 @@
       <c r="Y184" s="2"/>
       <c r="Z184" s="2"/>
     </row>
-    <row r="185" spans="1:26" ht="16.5">
+    <row r="185" spans="1:26">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -7186,7 +7205,7 @@
       <c r="Y185" s="2"/>
       <c r="Z185" s="2"/>
     </row>
-    <row r="186" spans="1:26" ht="16.5">
+    <row r="186" spans="1:26">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -7214,7 +7233,7 @@
       <c r="Y186" s="2"/>
       <c r="Z186" s="2"/>
     </row>
-    <row r="187" spans="1:26" ht="16.5">
+    <row r="187" spans="1:26">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -7242,7 +7261,7 @@
       <c r="Y187" s="2"/>
       <c r="Z187" s="2"/>
     </row>
-    <row r="188" spans="1:26" ht="16.5">
+    <row r="188" spans="1:26">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -7270,7 +7289,7 @@
       <c r="Y188" s="2"/>
       <c r="Z188" s="2"/>
     </row>
-    <row r="189" spans="1:26" ht="16.5">
+    <row r="189" spans="1:26">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -7298,7 +7317,7 @@
       <c r="Y189" s="2"/>
       <c r="Z189" s="2"/>
     </row>
-    <row r="190" spans="1:26" ht="16.5">
+    <row r="190" spans="1:26">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -7326,7 +7345,7 @@
       <c r="Y190" s="2"/>
       <c r="Z190" s="2"/>
     </row>
-    <row r="191" spans="1:26" ht="16.5">
+    <row r="191" spans="1:26">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -7354,7 +7373,7 @@
       <c r="Y191" s="2"/>
       <c r="Z191" s="2"/>
     </row>
-    <row r="192" spans="1:26" ht="16.5">
+    <row r="192" spans="1:26">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -7382,7 +7401,7 @@
       <c r="Y192" s="2"/>
       <c r="Z192" s="2"/>
     </row>
-    <row r="193" spans="1:26" ht="16.5">
+    <row r="193" spans="1:26">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -7410,7 +7429,7 @@
       <c r="Y193" s="2"/>
       <c r="Z193" s="2"/>
     </row>
-    <row r="194" spans="1:26" ht="16.5">
+    <row r="194" spans="1:26">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -7438,7 +7457,7 @@
       <c r="Y194" s="2"/>
       <c r="Z194" s="2"/>
     </row>
-    <row r="195" spans="1:26" ht="16.5">
+    <row r="195" spans="1:26">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -7466,7 +7485,7 @@
       <c r="Y195" s="2"/>
       <c r="Z195" s="2"/>
     </row>
-    <row r="196" spans="1:26" ht="16.5">
+    <row r="196" spans="1:26">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -7494,7 +7513,7 @@
       <c r="Y196" s="2"/>
       <c r="Z196" s="2"/>
     </row>
-    <row r="197" spans="1:26" ht="16.5">
+    <row r="197" spans="1:26">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -7522,7 +7541,7 @@
       <c r="Y197" s="2"/>
       <c r="Z197" s="2"/>
     </row>
-    <row r="198" spans="1:26" ht="16.5">
+    <row r="198" spans="1:26">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -7550,7 +7569,7 @@
       <c r="Y198" s="2"/>
       <c r="Z198" s="2"/>
     </row>
-    <row r="199" spans="1:26" ht="16.5">
+    <row r="199" spans="1:26">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -7578,7 +7597,7 @@
       <c r="Y199" s="2"/>
       <c r="Z199" s="2"/>
     </row>
-    <row r="200" spans="1:26" ht="16.5">
+    <row r="200" spans="1:26">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -7621,34 +7640,34 @@
       <selection activeCell="G4" sqref="A1:G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15.6"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5">
+    <row r="1" spans="1:7">
       <c r="A1" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="52"/>
+      <c r="D1" s="53"/>
       <c r="E1" s="9" t="s">
         <v>7</v>
       </c>
       <c r="F1" s="10"/>
       <c r="G1" s="10"/>
     </row>
-    <row r="2" spans="1:7" ht="16.5">
-      <c r="A2" s="46" t="s">
+    <row r="2" spans="1:7">
+      <c r="A2" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="53" t="s">
+      <c r="B2" s="45"/>
+      <c r="C2" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="52"/>
+      <c r="D2" s="53"/>
       <c r="E2" s="11" t="s">
         <v>10</v>
       </c>
@@ -7659,28 +7678,28 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16.5">
-      <c r="A3" s="47" t="s">
+    <row r="3" spans="1:7">
+      <c r="A3" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="50"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="51"/>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
       <c r="G3" s="14"/>
     </row>
-    <row r="4" spans="1:7" ht="16.5">
+    <row r="4" spans="1:7">
       <c r="A4" s="15" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="50"/>
+      <c r="D4" s="51"/>
       <c r="E4" s="16" t="s">
         <v>16</v>
       </c>
@@ -7730,7 +7749,7 @@
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:D3"/>
   </mergeCells>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E1" r:id="rId1" xr:uid="{58D8AA3A-81EA-4DC7-B010-B459081CAC2B}"/>
   </hyperlinks>
@@ -7746,34 +7765,34 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15.6"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5">
+    <row r="1" spans="1:7">
       <c r="A1" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="52"/>
+      <c r="D1" s="53"/>
       <c r="E1" s="9" t="s">
         <v>7</v>
       </c>
       <c r="F1" s="10"/>
       <c r="G1" s="10"/>
     </row>
-    <row r="2" spans="1:7" ht="16.5">
-      <c r="A2" s="46" t="s">
+    <row r="2" spans="1:7">
+      <c r="A2" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="53" t="s">
+      <c r="B2" s="45"/>
+      <c r="C2" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="52"/>
+      <c r="D2" s="53"/>
       <c r="E2" s="11" t="s">
         <v>10</v>
       </c>
@@ -7784,28 +7803,28 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16.5">
-      <c r="A3" s="47" t="s">
+    <row r="3" spans="1:7">
+      <c r="A3" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="50"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="51"/>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
       <c r="G3" s="14"/>
     </row>
-    <row r="4" spans="1:7" ht="16.5">
+    <row r="4" spans="1:7">
       <c r="A4" s="15" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="50"/>
+      <c r="D4" s="51"/>
       <c r="E4" s="16" t="s">
         <v>16</v>
       </c>
@@ -7849,11 +7868,12 @@
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:D3"/>
   </mergeCells>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E1" r:id="rId1" xr:uid="{841307DA-50B8-4997-BACD-8CB06E9A0F8A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -7865,15 +7885,15 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="3" width="12.875" customWidth="1"/>
+    <col min="1" max="3" width="12.8984375" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
-    <col min="5" max="5" width="29.25" customWidth="1"/>
-    <col min="6" max="26" width="12.875" customWidth="1"/>
+    <col min="5" max="5" width="29.19921875" customWidth="1"/>
+    <col min="6" max="26" width="12.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="16.5">
+    <row r="1" spans="1:26">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -7913,7 +7933,7 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="16.5">
+    <row r="2" spans="1:26">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -7941,7 +7961,7 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
     </row>
-    <row r="3" spans="1:26" ht="16.5">
+    <row r="3" spans="1:26">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -7969,7 +7989,7 @@
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
     </row>
-    <row r="4" spans="1:26" ht="16.5">
+    <row r="4" spans="1:26">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -7997,7 +8017,7 @@
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
     </row>
-    <row r="5" spans="1:26" ht="16.5">
+    <row r="5" spans="1:26">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -8025,7 +8045,7 @@
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
     </row>
-    <row r="6" spans="1:26" ht="16.5">
+    <row r="6" spans="1:26">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -8053,7 +8073,7 @@
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
     </row>
-    <row r="7" spans="1:26" ht="16.5">
+    <row r="7" spans="1:26">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -8081,7 +8101,7 @@
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
     </row>
-    <row r="8" spans="1:26" ht="16.5">
+    <row r="8" spans="1:26">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -8109,7 +8129,7 @@
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
     </row>
-    <row r="9" spans="1:26" ht="16.5">
+    <row r="9" spans="1:26">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -8137,7 +8157,7 @@
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
     </row>
-    <row r="10" spans="1:26" ht="16.5">
+    <row r="10" spans="1:26">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -8165,7 +8185,7 @@
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
     </row>
-    <row r="11" spans="1:26" ht="16.5">
+    <row r="11" spans="1:26">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -8193,7 +8213,7 @@
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
     </row>
-    <row r="12" spans="1:26" ht="16.5">
+    <row r="12" spans="1:26">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -8221,7 +8241,7 @@
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
     </row>
-    <row r="13" spans="1:26" ht="16.5">
+    <row r="13" spans="1:26">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -8249,7 +8269,7 @@
       <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
     </row>
-    <row r="14" spans="1:26" ht="16.5">
+    <row r="14" spans="1:26">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -8277,7 +8297,7 @@
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
     </row>
-    <row r="15" spans="1:26" ht="16.5">
+    <row r="15" spans="1:26">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -8305,7 +8325,7 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
     </row>
-    <row r="16" spans="1:26" ht="16.5">
+    <row r="16" spans="1:26">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -8333,7 +8353,7 @@
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
     </row>
-    <row r="17" spans="1:26" ht="16.5">
+    <row r="17" spans="1:26">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -8361,7 +8381,7 @@
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
     </row>
-    <row r="18" spans="1:26" ht="16.5">
+    <row r="18" spans="1:26">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -8389,7 +8409,7 @@
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
     </row>
-    <row r="19" spans="1:26" ht="16.5">
+    <row r="19" spans="1:26">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -8417,7 +8437,7 @@
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
     </row>
-    <row r="20" spans="1:26" ht="16.5">
+    <row r="20" spans="1:26">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -8445,7 +8465,7 @@
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
     </row>
-    <row r="21" spans="1:26" ht="16.5">
+    <row r="21" spans="1:26">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -8473,7 +8493,7 @@
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
     </row>
-    <row r="22" spans="1:26" ht="16.5">
+    <row r="22" spans="1:26">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -8501,7 +8521,7 @@
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
     </row>
-    <row r="23" spans="1:26" ht="16.5">
+    <row r="23" spans="1:26">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -8529,7 +8549,7 @@
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
     </row>
-    <row r="24" spans="1:26" ht="16.5">
+    <row r="24" spans="1:26">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -8557,7 +8577,7 @@
       <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
     </row>
-    <row r="25" spans="1:26" ht="16.5">
+    <row r="25" spans="1:26">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -8585,7 +8605,7 @@
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
     </row>
-    <row r="26" spans="1:26" ht="16.5">
+    <row r="26" spans="1:26">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -8613,7 +8633,7 @@
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
     </row>
-    <row r="27" spans="1:26" ht="16.5">
+    <row r="27" spans="1:26">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -8641,7 +8661,7 @@
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
     </row>
-    <row r="28" spans="1:26" ht="16.5">
+    <row r="28" spans="1:26">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -8669,7 +8689,7 @@
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
     </row>
-    <row r="29" spans="1:26" ht="16.5">
+    <row r="29" spans="1:26">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -8697,7 +8717,7 @@
       <c r="Y29" s="2"/>
       <c r="Z29" s="2"/>
     </row>
-    <row r="30" spans="1:26" ht="16.5">
+    <row r="30" spans="1:26">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -8725,7 +8745,7 @@
       <c r="Y30" s="2"/>
       <c r="Z30" s="2"/>
     </row>
-    <row r="31" spans="1:26" ht="16.5">
+    <row r="31" spans="1:26">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -8753,7 +8773,7 @@
       <c r="Y31" s="2"/>
       <c r="Z31" s="2"/>
     </row>
-    <row r="32" spans="1:26" ht="16.5">
+    <row r="32" spans="1:26">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -8781,7 +8801,7 @@
       <c r="Y32" s="2"/>
       <c r="Z32" s="2"/>
     </row>
-    <row r="33" spans="1:26" ht="16.5">
+    <row r="33" spans="1:26">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -8809,7 +8829,7 @@
       <c r="Y33" s="2"/>
       <c r="Z33" s="2"/>
     </row>
-    <row r="34" spans="1:26" ht="16.5">
+    <row r="34" spans="1:26">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -8837,7 +8857,7 @@
       <c r="Y34" s="2"/>
       <c r="Z34" s="2"/>
     </row>
-    <row r="35" spans="1:26" ht="16.5">
+    <row r="35" spans="1:26">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -8865,7 +8885,7 @@
       <c r="Y35" s="2"/>
       <c r="Z35" s="2"/>
     </row>
-    <row r="36" spans="1:26" ht="16.5">
+    <row r="36" spans="1:26">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -8893,7 +8913,7 @@
       <c r="Y36" s="2"/>
       <c r="Z36" s="2"/>
     </row>
-    <row r="37" spans="1:26" ht="16.5">
+    <row r="37" spans="1:26">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -8921,7 +8941,7 @@
       <c r="Y37" s="2"/>
       <c r="Z37" s="2"/>
     </row>
-    <row r="38" spans="1:26" ht="16.5">
+    <row r="38" spans="1:26">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -8949,7 +8969,7 @@
       <c r="Y38" s="2"/>
       <c r="Z38" s="2"/>
     </row>
-    <row r="39" spans="1:26" ht="16.5">
+    <row r="39" spans="1:26">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -8977,7 +8997,7 @@
       <c r="Y39" s="2"/>
       <c r="Z39" s="2"/>
     </row>
-    <row r="40" spans="1:26" ht="16.5">
+    <row r="40" spans="1:26">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -9005,7 +9025,7 @@
       <c r="Y40" s="2"/>
       <c r="Z40" s="2"/>
     </row>
-    <row r="41" spans="1:26" ht="16.5">
+    <row r="41" spans="1:26">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -9033,7 +9053,7 @@
       <c r="Y41" s="2"/>
       <c r="Z41" s="2"/>
     </row>
-    <row r="42" spans="1:26" ht="16.5">
+    <row r="42" spans="1:26">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -9061,7 +9081,7 @@
       <c r="Y42" s="2"/>
       <c r="Z42" s="2"/>
     </row>
-    <row r="43" spans="1:26" ht="16.5">
+    <row r="43" spans="1:26">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -9089,7 +9109,7 @@
       <c r="Y43" s="2"/>
       <c r="Z43" s="2"/>
     </row>
-    <row r="44" spans="1:26" ht="16.5">
+    <row r="44" spans="1:26">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -9117,7 +9137,7 @@
       <c r="Y44" s="2"/>
       <c r="Z44" s="2"/>
     </row>
-    <row r="45" spans="1:26" ht="16.5">
+    <row r="45" spans="1:26">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -9145,7 +9165,7 @@
       <c r="Y45" s="2"/>
       <c r="Z45" s="2"/>
     </row>
-    <row r="46" spans="1:26" ht="16.5">
+    <row r="46" spans="1:26">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -9173,7 +9193,7 @@
       <c r="Y46" s="2"/>
       <c r="Z46" s="2"/>
     </row>
-    <row r="47" spans="1:26" ht="16.5">
+    <row r="47" spans="1:26">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -9201,7 +9221,7 @@
       <c r="Y47" s="2"/>
       <c r="Z47" s="2"/>
     </row>
-    <row r="48" spans="1:26" ht="16.5">
+    <row r="48" spans="1:26">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -9229,7 +9249,7 @@
       <c r="Y48" s="2"/>
       <c r="Z48" s="2"/>
     </row>
-    <row r="49" spans="1:26" ht="16.5">
+    <row r="49" spans="1:26">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -9257,7 +9277,7 @@
       <c r="Y49" s="2"/>
       <c r="Z49" s="2"/>
     </row>
-    <row r="50" spans="1:26" ht="16.5">
+    <row r="50" spans="1:26">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -9285,7 +9305,7 @@
       <c r="Y50" s="2"/>
       <c r="Z50" s="2"/>
     </row>
-    <row r="51" spans="1:26" ht="16.5">
+    <row r="51" spans="1:26">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -9313,7 +9333,7 @@
       <c r="Y51" s="2"/>
       <c r="Z51" s="2"/>
     </row>
-    <row r="52" spans="1:26" ht="16.5">
+    <row r="52" spans="1:26">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -9341,7 +9361,7 @@
       <c r="Y52" s="2"/>
       <c r="Z52" s="2"/>
     </row>
-    <row r="53" spans="1:26" ht="16.5">
+    <row r="53" spans="1:26">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -9369,7 +9389,7 @@
       <c r="Y53" s="2"/>
       <c r="Z53" s="2"/>
     </row>
-    <row r="54" spans="1:26" ht="16.5">
+    <row r="54" spans="1:26">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -9397,7 +9417,7 @@
       <c r="Y54" s="2"/>
       <c r="Z54" s="2"/>
     </row>
-    <row r="55" spans="1:26" ht="16.5">
+    <row r="55" spans="1:26">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -9425,7 +9445,7 @@
       <c r="Y55" s="2"/>
       <c r="Z55" s="2"/>
     </row>
-    <row r="56" spans="1:26" ht="16.5">
+    <row r="56" spans="1:26">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -9453,7 +9473,7 @@
       <c r="Y56" s="2"/>
       <c r="Z56" s="2"/>
     </row>
-    <row r="57" spans="1:26" ht="16.5">
+    <row r="57" spans="1:26">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -9481,7 +9501,7 @@
       <c r="Y57" s="2"/>
       <c r="Z57" s="2"/>
     </row>
-    <row r="58" spans="1:26" ht="16.5">
+    <row r="58" spans="1:26">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -9509,7 +9529,7 @@
       <c r="Y58" s="2"/>
       <c r="Z58" s="2"/>
     </row>
-    <row r="59" spans="1:26" ht="16.5">
+    <row r="59" spans="1:26">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -9537,7 +9557,7 @@
       <c r="Y59" s="2"/>
       <c r="Z59" s="2"/>
     </row>
-    <row r="60" spans="1:26" ht="16.5">
+    <row r="60" spans="1:26">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -9565,7 +9585,7 @@
       <c r="Y60" s="2"/>
       <c r="Z60" s="2"/>
     </row>
-    <row r="61" spans="1:26" ht="16.5">
+    <row r="61" spans="1:26">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -9593,7 +9613,7 @@
       <c r="Y61" s="2"/>
       <c r="Z61" s="2"/>
     </row>
-    <row r="62" spans="1:26" ht="16.5">
+    <row r="62" spans="1:26">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -9621,7 +9641,7 @@
       <c r="Y62" s="2"/>
       <c r="Z62" s="2"/>
     </row>
-    <row r="63" spans="1:26" ht="16.5">
+    <row r="63" spans="1:26">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -9649,7 +9669,7 @@
       <c r="Y63" s="2"/>
       <c r="Z63" s="2"/>
     </row>
-    <row r="64" spans="1:26" ht="16.5">
+    <row r="64" spans="1:26">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -9677,7 +9697,7 @@
       <c r="Y64" s="2"/>
       <c r="Z64" s="2"/>
     </row>
-    <row r="65" spans="1:26" ht="16.5">
+    <row r="65" spans="1:26">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -9705,7 +9725,7 @@
       <c r="Y65" s="2"/>
       <c r="Z65" s="2"/>
     </row>
-    <row r="66" spans="1:26" ht="16.5">
+    <row r="66" spans="1:26">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -9733,7 +9753,7 @@
       <c r="Y66" s="2"/>
       <c r="Z66" s="2"/>
     </row>
-    <row r="67" spans="1:26" ht="16.5">
+    <row r="67" spans="1:26">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -9761,7 +9781,7 @@
       <c r="Y67" s="2"/>
       <c r="Z67" s="2"/>
     </row>
-    <row r="68" spans="1:26" ht="16.5">
+    <row r="68" spans="1:26">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -9789,7 +9809,7 @@
       <c r="Y68" s="2"/>
       <c r="Z68" s="2"/>
     </row>
-    <row r="69" spans="1:26" ht="16.5">
+    <row r="69" spans="1:26">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -9817,7 +9837,7 @@
       <c r="Y69" s="2"/>
       <c r="Z69" s="2"/>
     </row>
-    <row r="70" spans="1:26" ht="16.5">
+    <row r="70" spans="1:26">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -9845,7 +9865,7 @@
       <c r="Y70" s="2"/>
       <c r="Z70" s="2"/>
     </row>
-    <row r="71" spans="1:26" ht="16.5">
+    <row r="71" spans="1:26">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -9873,7 +9893,7 @@
       <c r="Y71" s="2"/>
       <c r="Z71" s="2"/>
     </row>
-    <row r="72" spans="1:26" ht="16.5">
+    <row r="72" spans="1:26">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -9901,7 +9921,7 @@
       <c r="Y72" s="2"/>
       <c r="Z72" s="2"/>
     </row>
-    <row r="73" spans="1:26" ht="16.5">
+    <row r="73" spans="1:26">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -9929,7 +9949,7 @@
       <c r="Y73" s="2"/>
       <c r="Z73" s="2"/>
     </row>
-    <row r="74" spans="1:26" ht="16.5">
+    <row r="74" spans="1:26">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -9957,7 +9977,7 @@
       <c r="Y74" s="2"/>
       <c r="Z74" s="2"/>
     </row>
-    <row r="75" spans="1:26" ht="16.5">
+    <row r="75" spans="1:26">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -9985,7 +10005,7 @@
       <c r="Y75" s="2"/>
       <c r="Z75" s="2"/>
     </row>
-    <row r="76" spans="1:26" ht="16.5">
+    <row r="76" spans="1:26">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -10013,7 +10033,7 @@
       <c r="Y76" s="2"/>
       <c r="Z76" s="2"/>
     </row>
-    <row r="77" spans="1:26" ht="16.5">
+    <row r="77" spans="1:26">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -10041,7 +10061,7 @@
       <c r="Y77" s="2"/>
       <c r="Z77" s="2"/>
     </row>
-    <row r="78" spans="1:26" ht="16.5">
+    <row r="78" spans="1:26">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -10069,7 +10089,7 @@
       <c r="Y78" s="2"/>
       <c r="Z78" s="2"/>
     </row>
-    <row r="79" spans="1:26" ht="16.5">
+    <row r="79" spans="1:26">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -10097,7 +10117,7 @@
       <c r="Y79" s="2"/>
       <c r="Z79" s="2"/>
     </row>
-    <row r="80" spans="1:26" ht="16.5">
+    <row r="80" spans="1:26">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -10125,7 +10145,7 @@
       <c r="Y80" s="2"/>
       <c r="Z80" s="2"/>
     </row>
-    <row r="81" spans="1:26" ht="16.5">
+    <row r="81" spans="1:26">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -10153,7 +10173,7 @@
       <c r="Y81" s="2"/>
       <c r="Z81" s="2"/>
     </row>
-    <row r="82" spans="1:26" ht="16.5">
+    <row r="82" spans="1:26">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -10181,7 +10201,7 @@
       <c r="Y82" s="2"/>
       <c r="Z82" s="2"/>
     </row>
-    <row r="83" spans="1:26" ht="16.5">
+    <row r="83" spans="1:26">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -10209,7 +10229,7 @@
       <c r="Y83" s="2"/>
       <c r="Z83" s="2"/>
     </row>
-    <row r="84" spans="1:26" ht="16.5">
+    <row r="84" spans="1:26">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -10237,7 +10257,7 @@
       <c r="Y84" s="2"/>
       <c r="Z84" s="2"/>
     </row>
-    <row r="85" spans="1:26" ht="16.5">
+    <row r="85" spans="1:26">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -10265,7 +10285,7 @@
       <c r="Y85" s="2"/>
       <c r="Z85" s="2"/>
     </row>
-    <row r="86" spans="1:26" ht="16.5">
+    <row r="86" spans="1:26">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -10293,7 +10313,7 @@
       <c r="Y86" s="2"/>
       <c r="Z86" s="2"/>
     </row>
-    <row r="87" spans="1:26" ht="16.5">
+    <row r="87" spans="1:26">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -10321,7 +10341,7 @@
       <c r="Y87" s="2"/>
       <c r="Z87" s="2"/>
     </row>
-    <row r="88" spans="1:26" ht="16.5">
+    <row r="88" spans="1:26">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -10349,7 +10369,7 @@
       <c r="Y88" s="2"/>
       <c r="Z88" s="2"/>
     </row>
-    <row r="89" spans="1:26" ht="16.5">
+    <row r="89" spans="1:26">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -10377,7 +10397,7 @@
       <c r="Y89" s="2"/>
       <c r="Z89" s="2"/>
     </row>
-    <row r="90" spans="1:26" ht="16.5">
+    <row r="90" spans="1:26">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -10405,7 +10425,7 @@
       <c r="Y90" s="2"/>
       <c r="Z90" s="2"/>
     </row>
-    <row r="91" spans="1:26" ht="16.5">
+    <row r="91" spans="1:26">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -10433,7 +10453,7 @@
       <c r="Y91" s="2"/>
       <c r="Z91" s="2"/>
     </row>
-    <row r="92" spans="1:26" ht="16.5">
+    <row r="92" spans="1:26">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -10461,7 +10481,7 @@
       <c r="Y92" s="2"/>
       <c r="Z92" s="2"/>
     </row>
-    <row r="93" spans="1:26" ht="16.5">
+    <row r="93" spans="1:26">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -10489,7 +10509,7 @@
       <c r="Y93" s="2"/>
       <c r="Z93" s="2"/>
     </row>
-    <row r="94" spans="1:26" ht="16.5">
+    <row r="94" spans="1:26">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -10517,7 +10537,7 @@
       <c r="Y94" s="2"/>
       <c r="Z94" s="2"/>
     </row>
-    <row r="95" spans="1:26" ht="16.5">
+    <row r="95" spans="1:26">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -10545,7 +10565,7 @@
       <c r="Y95" s="2"/>
       <c r="Z95" s="2"/>
     </row>
-    <row r="96" spans="1:26" ht="16.5">
+    <row r="96" spans="1:26">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -10573,7 +10593,7 @@
       <c r="Y96" s="2"/>
       <c r="Z96" s="2"/>
     </row>
-    <row r="97" spans="1:26" ht="16.5">
+    <row r="97" spans="1:26">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -10601,7 +10621,7 @@
       <c r="Y97" s="2"/>
       <c r="Z97" s="2"/>
     </row>
-    <row r="98" spans="1:26" ht="16.5">
+    <row r="98" spans="1:26">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -10629,7 +10649,7 @@
       <c r="Y98" s="2"/>
       <c r="Z98" s="2"/>
     </row>
-    <row r="99" spans="1:26" ht="16.5">
+    <row r="99" spans="1:26">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -10657,7 +10677,7 @@
       <c r="Y99" s="2"/>
       <c r="Z99" s="2"/>
     </row>
-    <row r="100" spans="1:26" ht="16.5">
+    <row r="100" spans="1:26">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -10685,7 +10705,7 @@
       <c r="Y100" s="2"/>
       <c r="Z100" s="2"/>
     </row>
-    <row r="101" spans="1:26" ht="16.5">
+    <row r="101" spans="1:26">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -10713,7 +10733,7 @@
       <c r="Y101" s="2"/>
       <c r="Z101" s="2"/>
     </row>
-    <row r="102" spans="1:26" ht="16.5">
+    <row r="102" spans="1:26">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -10741,7 +10761,7 @@
       <c r="Y102" s="2"/>
       <c r="Z102" s="2"/>
     </row>
-    <row r="103" spans="1:26" ht="16.5">
+    <row r="103" spans="1:26">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -10769,7 +10789,7 @@
       <c r="Y103" s="2"/>
       <c r="Z103" s="2"/>
     </row>
-    <row r="104" spans="1:26" ht="16.5">
+    <row r="104" spans="1:26">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -10797,7 +10817,7 @@
       <c r="Y104" s="2"/>
       <c r="Z104" s="2"/>
     </row>
-    <row r="105" spans="1:26" ht="16.5">
+    <row r="105" spans="1:26">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -10825,7 +10845,7 @@
       <c r="Y105" s="2"/>
       <c r="Z105" s="2"/>
     </row>
-    <row r="106" spans="1:26" ht="16.5">
+    <row r="106" spans="1:26">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -10853,7 +10873,7 @@
       <c r="Y106" s="2"/>
       <c r="Z106" s="2"/>
     </row>
-    <row r="107" spans="1:26" ht="16.5">
+    <row r="107" spans="1:26">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -10881,7 +10901,7 @@
       <c r="Y107" s="2"/>
       <c r="Z107" s="2"/>
     </row>
-    <row r="108" spans="1:26" ht="16.5">
+    <row r="108" spans="1:26">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -10909,7 +10929,7 @@
       <c r="Y108" s="2"/>
       <c r="Z108" s="2"/>
     </row>
-    <row r="109" spans="1:26" ht="16.5">
+    <row r="109" spans="1:26">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -10937,7 +10957,7 @@
       <c r="Y109" s="2"/>
       <c r="Z109" s="2"/>
     </row>
-    <row r="110" spans="1:26" ht="16.5">
+    <row r="110" spans="1:26">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -10965,7 +10985,7 @@
       <c r="Y110" s="2"/>
       <c r="Z110" s="2"/>
     </row>
-    <row r="111" spans="1:26" ht="16.5">
+    <row r="111" spans="1:26">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -10993,7 +11013,7 @@
       <c r="Y111" s="2"/>
       <c r="Z111" s="2"/>
     </row>
-    <row r="112" spans="1:26" ht="16.5">
+    <row r="112" spans="1:26">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -11021,7 +11041,7 @@
       <c r="Y112" s="2"/>
       <c r="Z112" s="2"/>
     </row>
-    <row r="113" spans="1:26" ht="16.5">
+    <row r="113" spans="1:26">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -11049,7 +11069,7 @@
       <c r="Y113" s="2"/>
       <c r="Z113" s="2"/>
     </row>
-    <row r="114" spans="1:26" ht="16.5">
+    <row r="114" spans="1:26">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -11077,7 +11097,7 @@
       <c r="Y114" s="2"/>
       <c r="Z114" s="2"/>
     </row>
-    <row r="115" spans="1:26" ht="16.5">
+    <row r="115" spans="1:26">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -11105,7 +11125,7 @@
       <c r="Y115" s="2"/>
       <c r="Z115" s="2"/>
     </row>
-    <row r="116" spans="1:26" ht="16.5">
+    <row r="116" spans="1:26">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -11133,7 +11153,7 @@
       <c r="Y116" s="2"/>
       <c r="Z116" s="2"/>
     </row>
-    <row r="117" spans="1:26" ht="16.5">
+    <row r="117" spans="1:26">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -11161,7 +11181,7 @@
       <c r="Y117" s="2"/>
       <c r="Z117" s="2"/>
     </row>
-    <row r="118" spans="1:26" ht="16.5">
+    <row r="118" spans="1:26">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -11189,7 +11209,7 @@
       <c r="Y118" s="2"/>
       <c r="Z118" s="2"/>
     </row>
-    <row r="119" spans="1:26" ht="16.5">
+    <row r="119" spans="1:26">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -11217,7 +11237,7 @@
       <c r="Y119" s="2"/>
       <c r="Z119" s="2"/>
     </row>
-    <row r="120" spans="1:26" ht="16.5">
+    <row r="120" spans="1:26">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -11245,7 +11265,7 @@
       <c r="Y120" s="2"/>
       <c r="Z120" s="2"/>
     </row>
-    <row r="121" spans="1:26" ht="16.5">
+    <row r="121" spans="1:26">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -11273,7 +11293,7 @@
       <c r="Y121" s="2"/>
       <c r="Z121" s="2"/>
     </row>
-    <row r="122" spans="1:26" ht="16.5">
+    <row r="122" spans="1:26">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -11301,7 +11321,7 @@
       <c r="Y122" s="2"/>
       <c r="Z122" s="2"/>
     </row>
-    <row r="123" spans="1:26" ht="16.5">
+    <row r="123" spans="1:26">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -11329,7 +11349,7 @@
       <c r="Y123" s="2"/>
       <c r="Z123" s="2"/>
     </row>
-    <row r="124" spans="1:26" ht="16.5">
+    <row r="124" spans="1:26">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -11357,7 +11377,7 @@
       <c r="Y124" s="2"/>
       <c r="Z124" s="2"/>
     </row>
-    <row r="125" spans="1:26" ht="16.5">
+    <row r="125" spans="1:26">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -11385,7 +11405,7 @@
       <c r="Y125" s="2"/>
       <c r="Z125" s="2"/>
     </row>
-    <row r="126" spans="1:26" ht="16.5">
+    <row r="126" spans="1:26">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -11413,7 +11433,7 @@
       <c r="Y126" s="2"/>
       <c r="Z126" s="2"/>
     </row>
-    <row r="127" spans="1:26" ht="16.5">
+    <row r="127" spans="1:26">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -11441,7 +11461,7 @@
       <c r="Y127" s="2"/>
       <c r="Z127" s="2"/>
     </row>
-    <row r="128" spans="1:26" ht="16.5">
+    <row r="128" spans="1:26">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -11469,7 +11489,7 @@
       <c r="Y128" s="2"/>
       <c r="Z128" s="2"/>
     </row>
-    <row r="129" spans="1:26" ht="16.5">
+    <row r="129" spans="1:26">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -11497,7 +11517,7 @@
       <c r="Y129" s="2"/>
       <c r="Z129" s="2"/>
     </row>
-    <row r="130" spans="1:26" ht="16.5">
+    <row r="130" spans="1:26">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -11525,7 +11545,7 @@
       <c r="Y130" s="2"/>
       <c r="Z130" s="2"/>
     </row>
-    <row r="131" spans="1:26" ht="16.5">
+    <row r="131" spans="1:26">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -11553,7 +11573,7 @@
       <c r="Y131" s="2"/>
       <c r="Z131" s="2"/>
     </row>
-    <row r="132" spans="1:26" ht="16.5">
+    <row r="132" spans="1:26">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -11581,7 +11601,7 @@
       <c r="Y132" s="2"/>
       <c r="Z132" s="2"/>
     </row>
-    <row r="133" spans="1:26" ht="16.5">
+    <row r="133" spans="1:26">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -11609,7 +11629,7 @@
       <c r="Y133" s="2"/>
       <c r="Z133" s="2"/>
     </row>
-    <row r="134" spans="1:26" ht="16.5">
+    <row r="134" spans="1:26">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -11637,7 +11657,7 @@
       <c r="Y134" s="2"/>
       <c r="Z134" s="2"/>
     </row>
-    <row r="135" spans="1:26" ht="16.5">
+    <row r="135" spans="1:26">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -11665,7 +11685,7 @@
       <c r="Y135" s="2"/>
       <c r="Z135" s="2"/>
     </row>
-    <row r="136" spans="1:26" ht="16.5">
+    <row r="136" spans="1:26">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -11693,7 +11713,7 @@
       <c r="Y136" s="2"/>
       <c r="Z136" s="2"/>
     </row>
-    <row r="137" spans="1:26" ht="16.5">
+    <row r="137" spans="1:26">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -11721,7 +11741,7 @@
       <c r="Y137" s="2"/>
       <c r="Z137" s="2"/>
     </row>
-    <row r="138" spans="1:26" ht="16.5">
+    <row r="138" spans="1:26">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -11749,7 +11769,7 @@
       <c r="Y138" s="2"/>
       <c r="Z138" s="2"/>
     </row>
-    <row r="139" spans="1:26" ht="16.5">
+    <row r="139" spans="1:26">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -11777,7 +11797,7 @@
       <c r="Y139" s="2"/>
       <c r="Z139" s="2"/>
     </row>
-    <row r="140" spans="1:26" ht="16.5">
+    <row r="140" spans="1:26">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -11805,7 +11825,7 @@
       <c r="Y140" s="2"/>
       <c r="Z140" s="2"/>
     </row>
-    <row r="141" spans="1:26" ht="16.5">
+    <row r="141" spans="1:26">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -11833,7 +11853,7 @@
       <c r="Y141" s="2"/>
       <c r="Z141" s="2"/>
     </row>
-    <row r="142" spans="1:26" ht="16.5">
+    <row r="142" spans="1:26">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -11861,7 +11881,7 @@
       <c r="Y142" s="2"/>
       <c r="Z142" s="2"/>
     </row>
-    <row r="143" spans="1:26" ht="16.5">
+    <row r="143" spans="1:26">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -11889,7 +11909,7 @@
       <c r="Y143" s="2"/>
       <c r="Z143" s="2"/>
     </row>
-    <row r="144" spans="1:26" ht="16.5">
+    <row r="144" spans="1:26">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -11917,7 +11937,7 @@
       <c r="Y144" s="2"/>
       <c r="Z144" s="2"/>
     </row>
-    <row r="145" spans="1:26" ht="16.5">
+    <row r="145" spans="1:26">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -11945,7 +11965,7 @@
       <c r="Y145" s="2"/>
       <c r="Z145" s="2"/>
     </row>
-    <row r="146" spans="1:26" ht="16.5">
+    <row r="146" spans="1:26">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -11973,7 +11993,7 @@
       <c r="Y146" s="2"/>
       <c r="Z146" s="2"/>
     </row>
-    <row r="147" spans="1:26" ht="16.5">
+    <row r="147" spans="1:26">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -12001,7 +12021,7 @@
       <c r="Y147" s="2"/>
       <c r="Z147" s="2"/>
     </row>
-    <row r="148" spans="1:26" ht="16.5">
+    <row r="148" spans="1:26">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -12029,7 +12049,7 @@
       <c r="Y148" s="2"/>
       <c r="Z148" s="2"/>
     </row>
-    <row r="149" spans="1:26" ht="16.5">
+    <row r="149" spans="1:26">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -12057,7 +12077,7 @@
       <c r="Y149" s="2"/>
       <c r="Z149" s="2"/>
     </row>
-    <row r="150" spans="1:26" ht="16.5">
+    <row r="150" spans="1:26">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -12085,7 +12105,7 @@
       <c r="Y150" s="2"/>
       <c r="Z150" s="2"/>
     </row>
-    <row r="151" spans="1:26" ht="16.5">
+    <row r="151" spans="1:26">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -12113,7 +12133,7 @@
       <c r="Y151" s="2"/>
       <c r="Z151" s="2"/>
     </row>
-    <row r="152" spans="1:26" ht="16.5">
+    <row r="152" spans="1:26">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -12141,7 +12161,7 @@
       <c r="Y152" s="2"/>
       <c r="Z152" s="2"/>
     </row>
-    <row r="153" spans="1:26" ht="16.5">
+    <row r="153" spans="1:26">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -12169,7 +12189,7 @@
       <c r="Y153" s="2"/>
       <c r="Z153" s="2"/>
     </row>
-    <row r="154" spans="1:26" ht="16.5">
+    <row r="154" spans="1:26">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -12197,7 +12217,7 @@
       <c r="Y154" s="2"/>
       <c r="Z154" s="2"/>
     </row>
-    <row r="155" spans="1:26" ht="16.5">
+    <row r="155" spans="1:26">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -12225,7 +12245,7 @@
       <c r="Y155" s="2"/>
       <c r="Z155" s="2"/>
     </row>
-    <row r="156" spans="1:26" ht="16.5">
+    <row r="156" spans="1:26">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -12253,7 +12273,7 @@
       <c r="Y156" s="2"/>
       <c r="Z156" s="2"/>
     </row>
-    <row r="157" spans="1:26" ht="16.5">
+    <row r="157" spans="1:26">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -12281,7 +12301,7 @@
       <c r="Y157" s="2"/>
       <c r="Z157" s="2"/>
     </row>
-    <row r="158" spans="1:26" ht="16.5">
+    <row r="158" spans="1:26">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -12309,7 +12329,7 @@
       <c r="Y158" s="2"/>
       <c r="Z158" s="2"/>
     </row>
-    <row r="159" spans="1:26" ht="16.5">
+    <row r="159" spans="1:26">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -12337,7 +12357,7 @@
       <c r="Y159" s="2"/>
       <c r="Z159" s="2"/>
     </row>
-    <row r="160" spans="1:26" ht="16.5">
+    <row r="160" spans="1:26">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -12365,7 +12385,7 @@
       <c r="Y160" s="2"/>
       <c r="Z160" s="2"/>
     </row>
-    <row r="161" spans="1:26" ht="16.5">
+    <row r="161" spans="1:26">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -12393,7 +12413,7 @@
       <c r="Y161" s="2"/>
       <c r="Z161" s="2"/>
     </row>
-    <row r="162" spans="1:26" ht="16.5">
+    <row r="162" spans="1:26">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -12421,7 +12441,7 @@
       <c r="Y162" s="2"/>
       <c r="Z162" s="2"/>
     </row>
-    <row r="163" spans="1:26" ht="16.5">
+    <row r="163" spans="1:26">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -12449,7 +12469,7 @@
       <c r="Y163" s="2"/>
       <c r="Z163" s="2"/>
     </row>
-    <row r="164" spans="1:26" ht="16.5">
+    <row r="164" spans="1:26">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -12477,7 +12497,7 @@
       <c r="Y164" s="2"/>
       <c r="Z164" s="2"/>
     </row>
-    <row r="165" spans="1:26" ht="16.5">
+    <row r="165" spans="1:26">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -12505,7 +12525,7 @@
       <c r="Y165" s="2"/>
       <c r="Z165" s="2"/>
     </row>
-    <row r="166" spans="1:26" ht="16.5">
+    <row r="166" spans="1:26">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -12533,7 +12553,7 @@
       <c r="Y166" s="2"/>
       <c r="Z166" s="2"/>
     </row>
-    <row r="167" spans="1:26" ht="16.5">
+    <row r="167" spans="1:26">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -12561,7 +12581,7 @@
       <c r="Y167" s="2"/>
       <c r="Z167" s="2"/>
     </row>
-    <row r="168" spans="1:26" ht="16.5">
+    <row r="168" spans="1:26">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -12589,7 +12609,7 @@
       <c r="Y168" s="2"/>
       <c r="Z168" s="2"/>
     </row>
-    <row r="169" spans="1:26" ht="16.5">
+    <row r="169" spans="1:26">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -12617,7 +12637,7 @@
       <c r="Y169" s="2"/>
       <c r="Z169" s="2"/>
     </row>
-    <row r="170" spans="1:26" ht="16.5">
+    <row r="170" spans="1:26">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -12645,7 +12665,7 @@
       <c r="Y170" s="2"/>
       <c r="Z170" s="2"/>
     </row>
-    <row r="171" spans="1:26" ht="16.5">
+    <row r="171" spans="1:26">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -12673,7 +12693,7 @@
       <c r="Y171" s="2"/>
       <c r="Z171" s="2"/>
     </row>
-    <row r="172" spans="1:26" ht="16.5">
+    <row r="172" spans="1:26">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -12701,7 +12721,7 @@
       <c r="Y172" s="2"/>
       <c r="Z172" s="2"/>
     </row>
-    <row r="173" spans="1:26" ht="16.5">
+    <row r="173" spans="1:26">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -12729,7 +12749,7 @@
       <c r="Y173" s="2"/>
       <c r="Z173" s="2"/>
     </row>
-    <row r="174" spans="1:26" ht="16.5">
+    <row r="174" spans="1:26">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -12757,7 +12777,7 @@
       <c r="Y174" s="2"/>
       <c r="Z174" s="2"/>
     </row>
-    <row r="175" spans="1:26" ht="16.5">
+    <row r="175" spans="1:26">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -12785,7 +12805,7 @@
       <c r="Y175" s="2"/>
       <c r="Z175" s="2"/>
     </row>
-    <row r="176" spans="1:26" ht="16.5">
+    <row r="176" spans="1:26">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -12813,7 +12833,7 @@
       <c r="Y176" s="2"/>
       <c r="Z176" s="2"/>
     </row>
-    <row r="177" spans="1:26" ht="16.5">
+    <row r="177" spans="1:26">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -12841,7 +12861,7 @@
       <c r="Y177" s="2"/>
       <c r="Z177" s="2"/>
     </row>
-    <row r="178" spans="1:26" ht="16.5">
+    <row r="178" spans="1:26">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -12869,7 +12889,7 @@
       <c r="Y178" s="2"/>
       <c r="Z178" s="2"/>
     </row>
-    <row r="179" spans="1:26" ht="16.5">
+    <row r="179" spans="1:26">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -12897,7 +12917,7 @@
       <c r="Y179" s="2"/>
       <c r="Z179" s="2"/>
     </row>
-    <row r="180" spans="1:26" ht="16.5">
+    <row r="180" spans="1:26">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -12925,7 +12945,7 @@
       <c r="Y180" s="2"/>
       <c r="Z180" s="2"/>
     </row>
-    <row r="181" spans="1:26" ht="16.5">
+    <row r="181" spans="1:26">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -12953,7 +12973,7 @@
       <c r="Y181" s="2"/>
       <c r="Z181" s="2"/>
     </row>
-    <row r="182" spans="1:26" ht="16.5">
+    <row r="182" spans="1:26">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -12981,7 +13001,7 @@
       <c r="Y182" s="2"/>
       <c r="Z182" s="2"/>
     </row>
-    <row r="183" spans="1:26" ht="16.5">
+    <row r="183" spans="1:26">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -13009,7 +13029,7 @@
       <c r="Y183" s="2"/>
       <c r="Z183" s="2"/>
     </row>
-    <row r="184" spans="1:26" ht="16.5">
+    <row r="184" spans="1:26">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -13037,7 +13057,7 @@
       <c r="Y184" s="2"/>
       <c r="Z184" s="2"/>
     </row>
-    <row r="185" spans="1:26" ht="16.5">
+    <row r="185" spans="1:26">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -13065,7 +13085,7 @@
       <c r="Y185" s="2"/>
       <c r="Z185" s="2"/>
     </row>
-    <row r="186" spans="1:26" ht="16.5">
+    <row r="186" spans="1:26">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -13093,7 +13113,7 @@
       <c r="Y186" s="2"/>
       <c r="Z186" s="2"/>
     </row>
-    <row r="187" spans="1:26" ht="16.5">
+    <row r="187" spans="1:26">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -13121,7 +13141,7 @@
       <c r="Y187" s="2"/>
       <c r="Z187" s="2"/>
     </row>
-    <row r="188" spans="1:26" ht="16.5">
+    <row r="188" spans="1:26">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -13149,7 +13169,7 @@
       <c r="Y188" s="2"/>
       <c r="Z188" s="2"/>
     </row>
-    <row r="189" spans="1:26" ht="16.5">
+    <row r="189" spans="1:26">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -13177,7 +13197,7 @@
       <c r="Y189" s="2"/>
       <c r="Z189" s="2"/>
     </row>
-    <row r="190" spans="1:26" ht="16.5">
+    <row r="190" spans="1:26">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -13205,7 +13225,7 @@
       <c r="Y190" s="2"/>
       <c r="Z190" s="2"/>
     </row>
-    <row r="191" spans="1:26" ht="16.5">
+    <row r="191" spans="1:26">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -13233,7 +13253,7 @@
       <c r="Y191" s="2"/>
       <c r="Z191" s="2"/>
     </row>
-    <row r="192" spans="1:26" ht="16.5">
+    <row r="192" spans="1:26">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -13261,7 +13281,7 @@
       <c r="Y192" s="2"/>
       <c r="Z192" s="2"/>
     </row>
-    <row r="193" spans="1:26" ht="16.5">
+    <row r="193" spans="1:26">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -13289,7 +13309,7 @@
       <c r="Y193" s="2"/>
       <c r="Z193" s="2"/>
     </row>
-    <row r="194" spans="1:26" ht="16.5">
+    <row r="194" spans="1:26">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -13317,7 +13337,7 @@
       <c r="Y194" s="2"/>
       <c r="Z194" s="2"/>
     </row>
-    <row r="195" spans="1:26" ht="16.5">
+    <row r="195" spans="1:26">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -13345,7 +13365,7 @@
       <c r="Y195" s="2"/>
       <c r="Z195" s="2"/>
     </row>
-    <row r="196" spans="1:26" ht="16.5">
+    <row r="196" spans="1:26">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -13373,7 +13393,7 @@
       <c r="Y196" s="2"/>
       <c r="Z196" s="2"/>
     </row>
-    <row r="197" spans="1:26" ht="16.5">
+    <row r="197" spans="1:26">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -13401,7 +13421,7 @@
       <c r="Y197" s="2"/>
       <c r="Z197" s="2"/>
     </row>
-    <row r="198" spans="1:26" ht="16.5">
+    <row r="198" spans="1:26">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -13429,7 +13449,7 @@
       <c r="Y198" s="2"/>
       <c r="Z198" s="2"/>
     </row>
-    <row r="199" spans="1:26" ht="16.5">
+    <row r="199" spans="1:26">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -13457,7 +13477,7 @@
       <c r="Y199" s="2"/>
       <c r="Z199" s="2"/>
     </row>
-    <row r="200" spans="1:26" ht="16.5">
+    <row r="200" spans="1:26">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -13496,41 +13516,41 @@
   <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J5" sqref="J5:J17"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
-    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.09765625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="16.5">
+    <row r="1" spans="1:16">
       <c r="A1" s="41" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="44"/>
+      <c r="D1" s="45"/>
       <c r="E1" s="25" t="s">
         <v>7</v>
       </c>
       <c r="F1" s="26"/>
       <c r="G1" s="26"/>
     </row>
-    <row r="2" spans="1:16" ht="16.5">
-      <c r="A2" s="46" t="s">
+    <row r="2" spans="1:16">
+      <c r="A2" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="46" t="s">
+      <c r="B2" s="45"/>
+      <c r="C2" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="44"/>
+      <c r="D2" s="45"/>
       <c r="E2" s="27" t="s">
         <v>10</v>
       </c>
@@ -13541,28 +13561,28 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="16.5">
-      <c r="A3" s="47" t="s">
+    <row r="3" spans="1:16">
+      <c r="A3" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="44"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="45"/>
       <c r="E3" s="42"/>
       <c r="F3" s="42"/>
       <c r="G3" s="14"/>
     </row>
-    <row r="4" spans="1:16" ht="16.5">
+    <row r="4" spans="1:16">
       <c r="A4" s="28" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="44"/>
+      <c r="D4" s="45"/>
       <c r="E4" s="28" t="s">
         <v>16</v>
       </c>
@@ -13573,7 +13593,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="16.5">
+    <row r="5" spans="1:16">
       <c r="A5" s="40" t="s">
         <v>48</v>
       </c>
@@ -13587,11 +13607,11 @@
       <c r="E5" s="40"/>
       <c r="F5" s="40"/>
       <c r="G5" s="40"/>
-      <c r="I5" s="55" t="s">
+      <c r="I5" s="43" t="s">
         <v>247</v>
       </c>
       <c r="J5" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="K5" t="s">
         <v>248</v>
@@ -13603,17 +13623,17 @@
         <v>250</v>
       </c>
       <c r="N5" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="O5" t="s">
         <v>251</v>
       </c>
       <c r="P5" t="str">
         <f>"&lt;if test="""&amp;N5&amp;" != null and "&amp;N5&amp;" !=''""&gt; and  "&amp;J5&amp; "= #{"&amp;N5&amp;"} &lt;/if&gt;"</f>
-        <v>&lt;if test="tagId != null and tagId !=''"&gt; and  tag_id= #{tagId} &lt;/if&gt;</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="16.5">
+        <v>&lt;if test="flowId != null and flowId !=''"&gt; and  flow_id= #{flowId} &lt;/if&gt;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="40" t="s">
         <v>49</v>
       </c>
@@ -13627,11 +13647,11 @@
       <c r="E6" s="40"/>
       <c r="F6" s="40"/>
       <c r="G6" s="40"/>
-      <c r="I6" s="55" t="s">
+      <c r="I6" s="43" t="s">
         <v>247</v>
       </c>
       <c r="J6" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K6" t="s">
         <v>248</v>
@@ -13643,17 +13663,17 @@
         <v>250</v>
       </c>
       <c r="N6" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="O6" t="s">
         <v>251</v>
       </c>
       <c r="P6" t="str">
-        <f t="shared" ref="P6:P17" si="0">"&lt;if test="""&amp;N6&amp;" != null and "&amp;N6&amp;" !=''""&gt; and  "&amp;J6&amp; "= #{"&amp;N6&amp;"} &lt;/if&gt;"</f>
-        <v>&lt;if test="tagName != null and tagName !=''"&gt; and  tag_name= #{tagName} &lt;/if&gt;</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="16.5">
+        <f t="shared" ref="P6:P19" si="0">"&lt;if test="""&amp;N6&amp;" != null and "&amp;N6&amp;" !=''""&gt; and  "&amp;J6&amp; "= #{"&amp;N6&amp;"} &lt;/if&gt;"</f>
+        <v>&lt;if test="flowName != null and flowName !=''"&gt; and  flow_name= #{flowName} &lt;/if&gt;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="40" t="s">
         <v>50</v>
       </c>
@@ -13667,11 +13687,11 @@
       <c r="E7" s="40"/>
       <c r="F7" s="40"/>
       <c r="G7" s="40"/>
-      <c r="I7" s="55" t="s">
+      <c r="I7" s="43" t="s">
         <v>247</v>
       </c>
       <c r="J7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="K7" t="s">
         <v>248</v>
@@ -13683,17 +13703,17 @@
         <v>250</v>
       </c>
       <c r="N7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="O7" t="s">
         <v>251</v>
       </c>
       <c r="P7" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;if test="tagNameZh != null and tagNameZh !=''"&gt; and  tag_name_zh= #{tagNameZh} &lt;/if&gt;</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="16.5">
+        <v>&lt;if test="flowType != null and flowType !=''"&gt; and  flow_type= #{flowType} &lt;/if&gt;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="40" t="s">
         <v>55</v>
       </c>
@@ -13707,11 +13727,11 @@
       <c r="E8" s="40"/>
       <c r="F8" s="40"/>
       <c r="G8" s="40"/>
-      <c r="I8" s="55" t="s">
+      <c r="I8" s="43" t="s">
         <v>247</v>
       </c>
       <c r="J8" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="K8" t="s">
         <v>248</v>
@@ -13723,17 +13743,17 @@
         <v>250</v>
       </c>
       <c r="N8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="O8" t="s">
         <v>251</v>
       </c>
       <c r="P8" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;if test="tagFromId != null and tagFromId !=''"&gt; and  tag_from_id= #{tagFromId} &lt;/if&gt;</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="16.5">
+        <v>&lt;if test="parentFlowId != null and parentFlowId !=''"&gt; and  parent_flow_id= #{parentFlowId} &lt;/if&gt;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" s="40" t="s">
         <v>54</v>
       </c>
@@ -13747,11 +13767,11 @@
       <c r="E9" s="40"/>
       <c r="F9" s="40"/>
       <c r="G9" s="40"/>
-      <c r="I9" s="55" t="s">
+      <c r="I9" s="43" t="s">
         <v>247</v>
       </c>
       <c r="J9" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="K9" t="s">
         <v>248</v>
@@ -13770,10 +13790,10 @@
       </c>
       <c r="P9" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;if test="tagClassId != null and tagClassId !=''"&gt; and  tag_class_id= #{tagClassId} &lt;/if&gt;</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="16.5">
+        <v>&lt;if test="flowKey != null and flowKey !=''"&gt; and  flow_key= #{flowKey} &lt;/if&gt;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="40" t="s">
         <v>64</v>
       </c>
@@ -13787,11 +13807,11 @@
       <c r="E10" s="40"/>
       <c r="F10" s="40"/>
       <c r="G10" s="40"/>
-      <c r="I10" s="55" t="s">
+      <c r="I10" s="43" t="s">
         <v>247</v>
       </c>
-      <c r="J10" t="s">
-        <v>271</v>
+      <c r="J10" s="17" t="s">
+        <v>282</v>
       </c>
       <c r="K10" t="s">
         <v>248</v>
@@ -13803,17 +13823,17 @@
         <v>250</v>
       </c>
       <c r="N10" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O10" t="s">
         <v>251</v>
       </c>
       <c r="P10" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;if test="tagDataType != null and tagDataType !=''"&gt; and  tag_data_type= #{tagDataType} &lt;/if&gt;</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="16.5">
+        <v>&lt;if test="flowValue1 != null and flowValue1 !=''"&gt; and  flow_value1= #{flowValue1} &lt;/if&gt;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" s="35" t="s">
         <v>241</v>
       </c>
@@ -13827,11 +13847,11 @@
       <c r="E11" s="32"/>
       <c r="F11" s="32"/>
       <c r="G11" s="32"/>
-      <c r="I11" s="55" t="s">
+      <c r="I11" s="43" t="s">
         <v>247</v>
       </c>
       <c r="J11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K11" t="s">
         <v>248</v>
@@ -13843,17 +13863,17 @@
         <v>250</v>
       </c>
       <c r="N11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O11" t="s">
         <v>251</v>
       </c>
       <c r="P11" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;if test="tagShowOrder != null and tagShowOrder !=''"&gt; and  tag_show_order= #{tagShowOrder} &lt;/if&gt;</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="16.5">
+        <v>&lt;if test="flowValue2 != null and flowValue2 !=''"&gt; and  flow_value2= #{flowValue2} &lt;/if&gt;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" s="35" t="s">
         <v>242</v>
       </c>
@@ -13867,11 +13887,11 @@
       <c r="E12" s="32"/>
       <c r="F12" s="32"/>
       <c r="G12" s="32"/>
-      <c r="I12" s="55" t="s">
+      <c r="I12" s="43" t="s">
         <v>247</v>
       </c>
       <c r="J12" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K12" t="s">
         <v>248</v>
@@ -13883,17 +13903,17 @@
         <v>250</v>
       </c>
       <c r="N12" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="O12" t="s">
         <v>251</v>
       </c>
       <c r="P12" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;if test="isShow != null and isShow !=''"&gt; and  is_show= #{isShow} &lt;/if&gt;</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="16.5">
+        <v>&lt;if test="flowValue3 != null and flowValue3 !=''"&gt; and  flow_value3= #{flowValue3} &lt;/if&gt;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="35" t="s">
         <v>243</v>
       </c>
@@ -13907,11 +13927,11 @@
       <c r="E13" s="32"/>
       <c r="F13" s="32"/>
       <c r="G13" s="32"/>
-      <c r="I13" s="55" t="s">
+      <c r="I13" s="43" t="s">
         <v>247</v>
       </c>
       <c r="J13" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K13" t="s">
         <v>248</v>
@@ -13923,17 +13943,17 @@
         <v>250</v>
       </c>
       <c r="N13" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O13" t="s">
         <v>251</v>
       </c>
       <c r="P13" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;if test="isCond != null and isCond !=''"&gt; and  is_cond= #{isCond} &lt;/if&gt;</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="16.5">
+        <v>&lt;if test="flowValue4 != null and flowValue4 !=''"&gt; and  flow_value4= #{flowValue4} &lt;/if&gt;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" s="40" t="s">
         <v>51</v>
       </c>
@@ -13947,11 +13967,11 @@
       <c r="E14" s="40"/>
       <c r="F14" s="40"/>
       <c r="G14" s="40"/>
-      <c r="I14" s="55" t="s">
+      <c r="I14" s="43" t="s">
         <v>247</v>
       </c>
       <c r="J14" t="s">
-        <v>252</v>
+        <v>278</v>
       </c>
       <c r="K14" t="s">
         <v>248</v>
@@ -13963,17 +13983,17 @@
         <v>250</v>
       </c>
       <c r="N14" t="s">
-        <v>252</v>
+        <v>279</v>
       </c>
       <c r="O14" t="s">
         <v>251</v>
       </c>
       <c r="P14" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;if test="status != null and status !=''"&gt; and  status= #{status} &lt;/if&gt;</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="16.5">
+        <v>&lt;if test="flowValue5 != null and flowValue5 !=''"&gt; and  flow_value5= #{flowValue5} &lt;/if&gt;</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" s="40" t="s">
         <v>20</v>
       </c>
@@ -13987,11 +14007,11 @@
       <c r="E15" s="40"/>
       <c r="F15" s="40"/>
       <c r="G15" s="40"/>
-      <c r="I15" s="55" t="s">
+      <c r="I15" s="43" t="s">
         <v>247</v>
       </c>
       <c r="J15" t="s">
-        <v>253</v>
+        <v>280</v>
       </c>
       <c r="K15" t="s">
         <v>248</v>
@@ -14003,17 +14023,17 @@
         <v>250</v>
       </c>
       <c r="N15" t="s">
-        <v>253</v>
+        <v>281</v>
       </c>
       <c r="O15" t="s">
         <v>251</v>
       </c>
       <c r="P15" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;if test="remark != null and remark !=''"&gt; and  remark= #{remark} &lt;/if&gt;</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="16.5">
+        <v>&lt;if test="flowSort != null and flowSort !=''"&gt; and  flow_sort= #{flowSort} &lt;/if&gt;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" s="40" t="s">
         <v>52</v>
       </c>
@@ -14027,11 +14047,11 @@
       <c r="E16" s="40"/>
       <c r="F16" s="40"/>
       <c r="G16" s="40"/>
-      <c r="I16" s="55" t="s">
+      <c r="I16" s="43" t="s">
         <v>247</v>
       </c>
       <c r="J16" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K16" t="s">
         <v>248</v>
@@ -14043,17 +14063,17 @@
         <v>250</v>
       </c>
       <c r="N16" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="O16" t="s">
         <v>251</v>
       </c>
       <c r="P16" t="str">
         <f t="shared" si="0"/>
-        <v>&lt;if test="createPersion != null and createPersion !=''"&gt; and  create_persion= #{createPersion} &lt;/if&gt;</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" ht="16.5">
+        <v>&lt;if test="status != null and status !=''"&gt; and  status= #{status} &lt;/if&gt;</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="40" t="s">
         <v>53</v>
       </c>
@@ -14067,11 +14087,11 @@
       <c r="E17" s="40"/>
       <c r="F17" s="40"/>
       <c r="G17" s="40"/>
-      <c r="I17" s="55" t="s">
+      <c r="I17" s="43" t="s">
         <v>247</v>
       </c>
       <c r="J17" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="K17" t="s">
         <v>248</v>
@@ -14083,39 +14103,87 @@
         <v>250</v>
       </c>
       <c r="N17" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="O17" t="s">
         <v>251</v>
       </c>
       <c r="P17" t="str">
         <f t="shared" si="0"/>
+        <v>&lt;if test="remark != null and remark !=''"&gt; and  remark= #{remark} &lt;/if&gt;</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="I18" s="43" t="s">
+        <v>247</v>
+      </c>
+      <c r="J18" t="s">
+        <v>254</v>
+      </c>
+      <c r="K18" t="s">
+        <v>248</v>
+      </c>
+      <c r="L18" t="s">
+        <v>249</v>
+      </c>
+      <c r="M18" t="s">
+        <v>250</v>
+      </c>
+      <c r="N18" t="s">
+        <v>255</v>
+      </c>
+      <c r="O18" t="s">
+        <v>251</v>
+      </c>
+      <c r="P18" t="str">
+        <f>"&lt;if test="""&amp;N18&amp;" != null and "&amp;N18&amp;" !=''""&gt; and  "&amp;J18&amp; "= #{"&amp;N18&amp;"} &lt;/if&gt;"</f>
+        <v>&lt;if test="createPersion != null and createPersion !=''"&gt; and  create_persion= #{createPersion} &lt;/if&gt;</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="I19" s="43" t="s">
+        <v>247</v>
+      </c>
+      <c r="J19" t="s">
+        <v>256</v>
+      </c>
+      <c r="K19" t="s">
+        <v>248</v>
+      </c>
+      <c r="L19" t="s">
+        <v>249</v>
+      </c>
+      <c r="M19" t="s">
+        <v>250</v>
+      </c>
+      <c r="N19" t="s">
+        <v>257</v>
+      </c>
+      <c r="O19" t="s">
+        <v>251</v>
+      </c>
+      <c r="P19" t="str">
+        <f t="shared" si="0"/>
         <v>&lt;if test="createDate != null and createDate !=''"&gt; and  create_date= #{createDate} &lt;/if&gt;</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
-      <c r="I18" s="55"/>
-    </row>
-    <row r="19" spans="1:16">
-      <c r="I19" s="55"/>
-    </row>
     <row r="20" spans="1:16">
-      <c r="I20" s="55"/>
+      <c r="I20" s="43"/>
     </row>
     <row r="21" spans="1:16">
-      <c r="I21" s="55"/>
+      <c r="I21" s="43"/>
     </row>
     <row r="22" spans="1:16">
-      <c r="I22" s="55"/>
+      <c r="I22" s="43"/>
     </row>
     <row r="23" spans="1:16">
-      <c r="I23" s="55"/>
+      <c r="I23" s="43"/>
     </row>
     <row r="24" spans="1:16">
-      <c r="I24" s="55"/>
+      <c r="I24" s="43"/>
     </row>
     <row r="25" spans="1:16">
-      <c r="I25" s="55"/>
+      <c r="I25" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -14126,7 +14194,7 @@
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:D3"/>
   </mergeCells>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E1" r:id="rId1" xr:uid="{75194CD4-363F-4069-9321-A5A5DE410555}"/>
   </hyperlinks>
@@ -14143,39 +14211,39 @@
       <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5">
+    <row r="1" spans="1:7">
       <c r="A1" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="44"/>
+      <c r="D1" s="45"/>
       <c r="E1" s="25" t="s">
         <v>7</v>
       </c>
       <c r="F1" s="26"/>
       <c r="G1" s="26"/>
     </row>
-    <row r="2" spans="1:7" ht="16.5">
-      <c r="A2" s="46" t="s">
+    <row r="2" spans="1:7">
+      <c r="A2" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="46" t="s">
+      <c r="B2" s="45"/>
+      <c r="C2" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="44"/>
+      <c r="D2" s="45"/>
       <c r="E2" s="27" t="s">
         <v>10</v>
       </c>
@@ -14187,29 +14255,29 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="24">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="44"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="45"/>
       <c r="E3" s="19"/>
       <c r="F3" s="19"/>
       <c r="G3" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="16.5">
+    <row r="4" spans="1:7">
       <c r="A4" s="28" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="44"/>
+      <c r="D4" s="45"/>
       <c r="E4" s="28" t="s">
         <v>16</v>
       </c>
@@ -14220,7 +14288,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16.5">
+    <row r="5" spans="1:7">
       <c r="A5" s="31" t="s">
         <v>70</v>
       </c>
@@ -14235,7 +14303,7 @@
       <c r="F5" s="32"/>
       <c r="G5" s="32"/>
     </row>
-    <row r="6" spans="1:7" ht="16.5">
+    <row r="6" spans="1:7">
       <c r="A6" s="31" t="s">
         <v>72</v>
       </c>
@@ -14250,7 +14318,7 @@
       <c r="F6" s="32"/>
       <c r="G6" s="32"/>
     </row>
-    <row r="7" spans="1:7" ht="16.5">
+    <row r="7" spans="1:7">
       <c r="A7" s="31" t="s">
         <v>74</v>
       </c>
@@ -14265,7 +14333,7 @@
       <c r="F7" s="32"/>
       <c r="G7" s="32"/>
     </row>
-    <row r="8" spans="1:7" ht="16.5">
+    <row r="8" spans="1:7">
       <c r="A8" s="33" t="s">
         <v>77</v>
       </c>
@@ -14280,7 +14348,7 @@
       <c r="F8" s="32"/>
       <c r="G8" s="32"/>
     </row>
-    <row r="9" spans="1:7" ht="16.5">
+    <row r="9" spans="1:7">
       <c r="A9" s="33" t="s">
         <v>79</v>
       </c>
@@ -14295,7 +14363,7 @@
       <c r="F9" s="32"/>
       <c r="G9" s="32"/>
     </row>
-    <row r="10" spans="1:7" ht="16.5">
+    <row r="10" spans="1:7">
       <c r="A10" s="33" t="s">
         <v>133</v>
       </c>
@@ -14310,7 +14378,7 @@
       <c r="F10" s="32"/>
       <c r="G10" s="32"/>
     </row>
-    <row r="11" spans="1:7" ht="16.5">
+    <row r="11" spans="1:7">
       <c r="A11" s="33" t="s">
         <v>128</v>
       </c>
@@ -14325,7 +14393,7 @@
       <c r="F11" s="32"/>
       <c r="G11" s="32"/>
     </row>
-    <row r="12" spans="1:7" ht="16.5">
+    <row r="12" spans="1:7">
       <c r="A12" s="33" t="s">
         <v>129</v>
       </c>
@@ -14340,7 +14408,7 @@
       <c r="F12" s="32"/>
       <c r="G12" s="32"/>
     </row>
-    <row r="13" spans="1:7" ht="16.5">
+    <row r="13" spans="1:7">
       <c r="A13" s="33" t="s">
         <v>130</v>
       </c>
@@ -14355,7 +14423,7 @@
       <c r="F13" s="32"/>
       <c r="G13" s="32"/>
     </row>
-    <row r="14" spans="1:7" ht="16.5">
+    <row r="14" spans="1:7">
       <c r="A14" s="33" t="s">
         <v>134</v>
       </c>
@@ -14370,7 +14438,7 @@
       <c r="F14" s="32"/>
       <c r="G14" s="32"/>
     </row>
-    <row r="15" spans="1:7" ht="16.5">
+    <row r="15" spans="1:7">
       <c r="A15" s="33" t="s">
         <v>104</v>
       </c>
@@ -14385,7 +14453,7 @@
       <c r="F15" s="32"/>
       <c r="G15" s="32"/>
     </row>
-    <row r="16" spans="1:7" ht="16.5">
+    <row r="16" spans="1:7">
       <c r="A16" s="21" t="s">
         <v>51</v>
       </c>
@@ -14400,7 +14468,7 @@
       <c r="F16" s="32"/>
       <c r="G16" s="32"/>
     </row>
-    <row r="17" spans="1:7" ht="16.5">
+    <row r="17" spans="1:7">
       <c r="A17" s="21" t="s">
         <v>20</v>
       </c>
@@ -14415,7 +14483,7 @@
       <c r="F17" s="32"/>
       <c r="G17" s="32"/>
     </row>
-    <row r="18" spans="1:7" ht="16.5">
+    <row r="18" spans="1:7">
       <c r="A18" s="21" t="s">
         <v>52</v>
       </c>
@@ -14430,7 +14498,7 @@
       <c r="F18" s="32"/>
       <c r="G18" s="32"/>
     </row>
-    <row r="19" spans="1:7" ht="16.5">
+    <row r="19" spans="1:7">
       <c r="A19" s="21" t="s">
         <v>53</v>
       </c>
@@ -14454,7 +14522,7 @@
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:D3"/>
   </mergeCells>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E1" r:id="rId1" xr:uid="{CC942904-E5C4-4598-8339-092829011663}"/>
   </hyperlinks>
@@ -14468,41 +14536,41 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:A14"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="18.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5">
+    <row r="1" spans="1:7">
       <c r="A1" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="D1" s="44"/>
+      <c r="D1" s="45"/>
       <c r="E1" s="25" t="s">
         <v>7</v>
       </c>
       <c r="F1" s="26"/>
       <c r="G1" s="26"/>
     </row>
-    <row r="2" spans="1:7" ht="16.5">
-      <c r="A2" s="46" t="s">
+    <row r="2" spans="1:7">
+      <c r="A2" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="46" t="s">
+      <c r="B2" s="45"/>
+      <c r="C2" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="44"/>
+      <c r="D2" s="45"/>
       <c r="E2" s="27" t="s">
         <v>10</v>
       </c>
@@ -14513,28 +14581,28 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16.5">
-      <c r="A3" s="47" t="s">
+    <row r="3" spans="1:7">
+      <c r="A3" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="44"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="45"/>
       <c r="E3" s="19"/>
       <c r="F3" s="19"/>
       <c r="G3" s="30"/>
     </row>
-    <row r="4" spans="1:7" ht="16.5">
+    <row r="4" spans="1:7">
       <c r="A4" s="28" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="44"/>
+      <c r="D4" s="45"/>
       <c r="E4" s="28" t="s">
         <v>16</v>
       </c>
@@ -14545,7 +14613,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16.5">
+    <row r="5" spans="1:7">
       <c r="A5" s="31" t="s">
         <v>85</v>
       </c>
@@ -14560,7 +14628,7 @@
       <c r="F5" s="32"/>
       <c r="G5" s="32"/>
     </row>
-    <row r="6" spans="1:7" ht="16.5">
+    <row r="6" spans="1:7">
       <c r="A6" s="31" t="s">
         <v>86</v>
       </c>
@@ -14575,7 +14643,7 @@
       <c r="F6" s="32"/>
       <c r="G6" s="32"/>
     </row>
-    <row r="7" spans="1:7" ht="16.5">
+    <row r="7" spans="1:7">
       <c r="A7" s="31" t="s">
         <v>89</v>
       </c>
@@ -14590,7 +14658,7 @@
       <c r="F7" s="32"/>
       <c r="G7" s="32"/>
     </row>
-    <row r="8" spans="1:7" ht="16.5">
+    <row r="8" spans="1:7">
       <c r="A8" s="33" t="s">
         <v>90</v>
       </c>
@@ -14605,7 +14673,7 @@
       <c r="F8" s="32"/>
       <c r="G8" s="32"/>
     </row>
-    <row r="9" spans="1:7" ht="16.5">
+    <row r="9" spans="1:7">
       <c r="A9" s="33" t="s">
         <v>91</v>
       </c>
@@ -14620,7 +14688,7 @@
       <c r="F9" s="32"/>
       <c r="G9" s="32"/>
     </row>
-    <row r="10" spans="1:7" ht="16.5">
+    <row r="10" spans="1:7">
       <c r="A10" s="33" t="s">
         <v>106</v>
       </c>
@@ -14635,7 +14703,7 @@
       <c r="F10" s="32"/>
       <c r="G10" s="32"/>
     </row>
-    <row r="11" spans="1:7" ht="16.5">
+    <row r="11" spans="1:7">
       <c r="A11" s="33" t="s">
         <v>103</v>
       </c>
@@ -14650,7 +14718,7 @@
       <c r="F11" s="32"/>
       <c r="G11" s="32"/>
     </row>
-    <row r="12" spans="1:7" ht="16.5">
+    <row r="12" spans="1:7">
       <c r="A12" s="33" t="s">
         <v>107</v>
       </c>
@@ -14665,7 +14733,7 @@
       <c r="F12" s="32"/>
       <c r="G12" s="32"/>
     </row>
-    <row r="13" spans="1:7" ht="16.5">
+    <row r="13" spans="1:7">
       <c r="A13" s="33" t="s">
         <v>100</v>
       </c>
@@ -14680,7 +14748,7 @@
       <c r="F13" s="32"/>
       <c r="G13" s="32"/>
     </row>
-    <row r="14" spans="1:7" ht="16.5">
+    <row r="14" spans="1:7">
       <c r="A14" s="33" t="s">
         <v>191</v>
       </c>
@@ -14695,7 +14763,7 @@
       <c r="F14" s="32"/>
       <c r="G14" s="32"/>
     </row>
-    <row r="15" spans="1:7" ht="16.5">
+    <row r="15" spans="1:7">
       <c r="A15" s="33" t="s">
         <v>112</v>
       </c>
@@ -14710,7 +14778,7 @@
       <c r="F15" s="32"/>
       <c r="G15" s="32"/>
     </row>
-    <row r="16" spans="1:7" ht="16.5">
+    <row r="16" spans="1:7">
       <c r="A16" s="33" t="s">
         <v>95</v>
       </c>
@@ -14725,7 +14793,7 @@
       <c r="F16" s="32"/>
       <c r="G16" s="32"/>
     </row>
-    <row r="17" spans="1:7" ht="16.5">
+    <row r="17" spans="1:7">
       <c r="A17" s="33" t="s">
         <v>96</v>
       </c>
@@ -14740,7 +14808,7 @@
       <c r="F17" s="32"/>
       <c r="G17" s="32"/>
     </row>
-    <row r="18" spans="1:7" ht="16.5">
+    <row r="18" spans="1:7">
       <c r="A18" s="33" t="s">
         <v>239</v>
       </c>
@@ -14751,7 +14819,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="16.5">
+    <row r="19" spans="1:7">
       <c r="A19" s="33" t="s">
         <v>113</v>
       </c>
@@ -14766,7 +14834,7 @@
       <c r="F19" s="32"/>
       <c r="G19" s="32"/>
     </row>
-    <row r="20" spans="1:7" ht="16.5">
+    <row r="20" spans="1:7">
       <c r="A20" s="33" t="s">
         <v>114</v>
       </c>
@@ -14781,7 +14849,7 @@
       <c r="F20" s="32"/>
       <c r="G20" s="32"/>
     </row>
-    <row r="21" spans="1:7" ht="16.5">
+    <row r="21" spans="1:7">
       <c r="A21" s="33" t="s">
         <v>124</v>
       </c>
@@ -14796,7 +14864,7 @@
       <c r="F21" s="32"/>
       <c r="G21" s="32"/>
     </row>
-    <row r="22" spans="1:7" ht="16.5">
+    <row r="22" spans="1:7">
       <c r="A22" s="33" t="s">
         <v>119</v>
       </c>
@@ -14811,7 +14879,7 @@
       <c r="F22" s="32"/>
       <c r="G22" s="32"/>
     </row>
-    <row r="23" spans="1:7" ht="16.5">
+    <row r="23" spans="1:7">
       <c r="A23" s="33" t="s">
         <v>125</v>
       </c>
@@ -14826,7 +14894,7 @@
       <c r="F23" s="32"/>
       <c r="G23" s="32"/>
     </row>
-    <row r="24" spans="1:7" ht="16.5">
+    <row r="24" spans="1:7">
       <c r="A24" s="23" t="s">
         <v>51</v>
       </c>
@@ -14841,7 +14909,7 @@
       <c r="F24" s="32"/>
       <c r="G24" s="32"/>
     </row>
-    <row r="25" spans="1:7" ht="16.5">
+    <row r="25" spans="1:7">
       <c r="A25" s="23" t="s">
         <v>20</v>
       </c>
@@ -14856,7 +14924,7 @@
       <c r="F25" s="32"/>
       <c r="G25" s="32"/>
     </row>
-    <row r="26" spans="1:7" ht="16.5">
+    <row r="26" spans="1:7">
       <c r="A26" s="23" t="s">
         <v>52</v>
       </c>
@@ -14871,7 +14939,7 @@
       <c r="F26" s="32"/>
       <c r="G26" s="32"/>
     </row>
-    <row r="27" spans="1:7" ht="16.5">
+    <row r="27" spans="1:7">
       <c r="A27" s="23" t="s">
         <v>53</v>
       </c>
@@ -14886,7 +14954,7 @@
       <c r="F27" s="32"/>
       <c r="G27" s="32"/>
     </row>
-    <row r="28" spans="1:7" ht="16.5">
+    <row r="28" spans="1:7">
       <c r="A28" s="35" t="s">
         <v>120</v>
       </c>
@@ -14901,7 +14969,7 @@
       <c r="F28" s="32"/>
       <c r="G28" s="32"/>
     </row>
-    <row r="29" spans="1:7" ht="16.5">
+    <row r="29" spans="1:7">
       <c r="A29" s="35" t="s">
         <v>121</v>
       </c>
@@ -14925,7 +14993,7 @@
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:D3"/>
   </mergeCells>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E1" r:id="rId1" xr:uid="{80950AF4-AC3A-4346-9686-50B2CD89654D}"/>
   </hyperlinks>
@@ -14942,38 +15010,38 @@
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="2" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="18.09765625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5">
+    <row r="1" spans="1:7">
       <c r="A1" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="46" t="s">
         <v>140</v>
       </c>
-      <c r="D1" s="44"/>
+      <c r="D1" s="45"/>
       <c r="E1" s="25" t="s">
         <v>7</v>
       </c>
       <c r="F1" s="26"/>
       <c r="G1" s="26"/>
     </row>
-    <row r="2" spans="1:7" ht="16.5">
-      <c r="A2" s="46" t="s">
+    <row r="2" spans="1:7">
+      <c r="A2" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="46" t="s">
+      <c r="B2" s="45"/>
+      <c r="C2" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="44"/>
+      <c r="D2" s="45"/>
       <c r="E2" s="27" t="s">
         <v>10</v>
       </c>
@@ -14984,28 +15052,28 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16.5">
-      <c r="A3" s="47" t="s">
+    <row r="3" spans="1:7">
+      <c r="A3" s="48" t="s">
         <v>141</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="44"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="45"/>
       <c r="E3" s="19"/>
       <c r="F3" s="19"/>
       <c r="G3" s="30"/>
     </row>
-    <row r="4" spans="1:7" ht="16.5">
+    <row r="4" spans="1:7">
       <c r="A4" s="28" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="44"/>
+      <c r="D4" s="45"/>
       <c r="E4" s="28" t="s">
         <v>16</v>
       </c>
@@ -15016,7 +15084,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16.5">
+    <row r="5" spans="1:7">
       <c r="A5" s="31" t="s">
         <v>142</v>
       </c>
@@ -15031,7 +15099,7 @@
       <c r="F5" s="32"/>
       <c r="G5" s="32"/>
     </row>
-    <row r="6" spans="1:7" ht="16.5">
+    <row r="6" spans="1:7">
       <c r="A6" s="31" t="s">
         <v>144</v>
       </c>
@@ -15046,7 +15114,7 @@
       <c r="F6" s="32"/>
       <c r="G6" s="32"/>
     </row>
-    <row r="7" spans="1:7" ht="16.5">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>258</v>
       </c>
@@ -15057,7 +15125,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16.5">
+    <row r="8" spans="1:7">
       <c r="A8" s="31" t="s">
         <v>146</v>
       </c>
@@ -15072,7 +15140,7 @@
       <c r="F8" s="32"/>
       <c r="G8" s="32"/>
     </row>
-    <row r="9" spans="1:7" ht="16.5">
+    <row r="9" spans="1:7">
       <c r="A9" s="33" t="s">
         <v>147</v>
       </c>
@@ -15087,7 +15155,7 @@
       <c r="F9" s="32"/>
       <c r="G9" s="32"/>
     </row>
-    <row r="10" spans="1:7" ht="16.5">
+    <row r="10" spans="1:7">
       <c r="A10" s="33" t="s">
         <v>148</v>
       </c>
@@ -15102,7 +15170,7 @@
       <c r="F10" s="32"/>
       <c r="G10" s="32"/>
     </row>
-    <row r="11" spans="1:7" ht="16.5">
+    <row r="11" spans="1:7">
       <c r="A11" s="33" t="s">
         <v>160</v>
       </c>
@@ -15117,7 +15185,7 @@
       <c r="F11" s="32"/>
       <c r="G11" s="32"/>
     </row>
-    <row r="12" spans="1:7" ht="16.5">
+    <row r="12" spans="1:7">
       <c r="A12" s="33" t="s">
         <v>149</v>
       </c>
@@ -15132,7 +15200,7 @@
       <c r="F12" s="32"/>
       <c r="G12" s="32"/>
     </row>
-    <row r="13" spans="1:7" ht="16.5">
+    <row r="13" spans="1:7">
       <c r="A13" s="33" t="s">
         <v>150</v>
       </c>
@@ -15147,7 +15215,7 @@
       <c r="F13" s="32"/>
       <c r="G13" s="32"/>
     </row>
-    <row r="14" spans="1:7" ht="16.5">
+    <row r="14" spans="1:7">
       <c r="A14" s="33" t="s">
         <v>157</v>
       </c>
@@ -15162,7 +15230,7 @@
       <c r="F14" s="32"/>
       <c r="G14" s="32"/>
     </row>
-    <row r="15" spans="1:7" ht="16.5">
+    <row r="15" spans="1:7">
       <c r="A15" s="33" t="s">
         <v>156</v>
       </c>
@@ -15177,7 +15245,7 @@
       <c r="F15" s="32"/>
       <c r="G15" s="32"/>
     </row>
-    <row r="16" spans="1:7" ht="16.5">
+    <row r="16" spans="1:7">
       <c r="A16" s="33" t="s">
         <v>158</v>
       </c>
@@ -15192,7 +15260,7 @@
       <c r="F16" s="32"/>
       <c r="G16" s="32"/>
     </row>
-    <row r="17" spans="1:7" ht="16.5">
+    <row r="17" spans="1:7">
       <c r="A17" s="33" t="s">
         <v>159</v>
       </c>
@@ -15207,7 +15275,7 @@
       <c r="F17" s="32"/>
       <c r="G17" s="32"/>
     </row>
-    <row r="18" spans="1:7" ht="16.5">
+    <row r="18" spans="1:7">
       <c r="A18" s="35" t="s">
         <v>241</v>
       </c>
@@ -15222,7 +15290,7 @@
       <c r="F18" s="32"/>
       <c r="G18" s="32"/>
     </row>
-    <row r="19" spans="1:7" ht="16.5">
+    <row r="19" spans="1:7">
       <c r="A19" s="35" t="s">
         <v>242</v>
       </c>
@@ -15237,7 +15305,7 @@
       <c r="F19" s="32"/>
       <c r="G19" s="32"/>
     </row>
-    <row r="20" spans="1:7" ht="16.5">
+    <row r="20" spans="1:7">
       <c r="A20" s="40" t="s">
         <v>51</v>
       </c>
@@ -15252,7 +15320,7 @@
       <c r="F20" s="32"/>
       <c r="G20" s="32"/>
     </row>
-    <row r="21" spans="1:7" ht="16.5">
+    <row r="21" spans="1:7">
       <c r="A21" s="40" t="s">
         <v>20</v>
       </c>
@@ -15267,7 +15335,7 @@
       <c r="F21" s="32"/>
       <c r="G21" s="32"/>
     </row>
-    <row r="22" spans="1:7" ht="16.5">
+    <row r="22" spans="1:7">
       <c r="A22" s="40" t="s">
         <v>52</v>
       </c>
@@ -15282,7 +15350,7 @@
       <c r="F22" s="32"/>
       <c r="G22" s="32"/>
     </row>
-    <row r="23" spans="1:7" ht="16.5">
+    <row r="23" spans="1:7">
       <c r="A23" s="40" t="s">
         <v>53</v>
       </c>
@@ -15297,7 +15365,7 @@
       <c r="F23" s="32"/>
       <c r="G23" s="32"/>
     </row>
-    <row r="24" spans="1:7" ht="16.5">
+    <row r="24" spans="1:7">
       <c r="A24" s="35" t="s">
         <v>120</v>
       </c>
@@ -15312,7 +15380,7 @@
       <c r="F24" s="32"/>
       <c r="G24" s="32"/>
     </row>
-    <row r="25" spans="1:7" ht="16.5">
+    <row r="25" spans="1:7">
       <c r="A25" s="35" t="s">
         <v>121</v>
       </c>
@@ -15336,7 +15404,7 @@
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:D3"/>
   </mergeCells>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E1" r:id="rId1" xr:uid="{533AEAD8-3AEC-46D9-AB9D-9E90EEA064E8}"/>
   </hyperlinks>
@@ -15352,40 +15420,40 @@
       <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.8984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.625" customWidth="1"/>
+    <col min="7" max="7" width="24.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5">
+    <row r="1" spans="1:7">
       <c r="A1" s="22" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="46" t="s">
         <v>140</v>
       </c>
-      <c r="D1" s="44"/>
+      <c r="D1" s="45"/>
       <c r="E1" s="25" t="s">
         <v>7</v>
       </c>
       <c r="F1" s="26"/>
       <c r="G1" s="26"/>
     </row>
-    <row r="2" spans="1:7" ht="16.5">
-      <c r="A2" s="46" t="s">
+    <row r="2" spans="1:7">
+      <c r="A2" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="46" t="s">
+      <c r="B2" s="45"/>
+      <c r="C2" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="44"/>
+      <c r="D2" s="45"/>
       <c r="E2" s="27" t="s">
         <v>10</v>
       </c>
@@ -15396,30 +15464,30 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16.5">
-      <c r="A3" s="47" t="s">
+    <row r="3" spans="1:7">
+      <c r="A3" s="48" t="s">
         <v>167</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="44"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="45"/>
       <c r="E3" s="29"/>
       <c r="F3" s="29"/>
       <c r="G3" s="30" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="16.5">
+    <row r="4" spans="1:7">
       <c r="A4" s="28" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="44"/>
+      <c r="D4" s="45"/>
       <c r="E4" s="28" t="s">
         <v>16</v>
       </c>
@@ -15430,7 +15498,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16.5">
+    <row r="5" spans="1:7">
       <c r="A5" s="31" t="s">
         <v>168</v>
       </c>
@@ -15445,7 +15513,7 @@
       <c r="F5" s="32"/>
       <c r="G5" s="32"/>
     </row>
-    <row r="6" spans="1:7" ht="16.5">
+    <row r="6" spans="1:7">
       <c r="A6" s="31" t="s">
         <v>169</v>
       </c>
@@ -15460,7 +15528,7 @@
       <c r="F6" s="32"/>
       <c r="G6" s="32"/>
     </row>
-    <row r="7" spans="1:7" ht="16.5">
+    <row r="7" spans="1:7">
       <c r="A7" s="31" t="s">
         <v>170</v>
       </c>
@@ -15475,7 +15543,7 @@
       <c r="F7" s="32"/>
       <c r="G7" s="32"/>
     </row>
-    <row r="8" spans="1:7" ht="16.5">
+    <row r="8" spans="1:7">
       <c r="A8" s="33" t="s">
         <v>174</v>
       </c>
@@ -15490,7 +15558,7 @@
       <c r="F8" s="32"/>
       <c r="G8" s="32"/>
     </row>
-    <row r="9" spans="1:7" ht="16.5">
+    <row r="9" spans="1:7">
       <c r="A9" s="33" t="s">
         <v>171</v>
       </c>
@@ -15505,7 +15573,7 @@
       <c r="F9" s="32"/>
       <c r="G9" s="32"/>
     </row>
-    <row r="10" spans="1:7" ht="16.5">
+    <row r="10" spans="1:7">
       <c r="A10" s="33" t="s">
         <v>185</v>
       </c>
@@ -15520,7 +15588,7 @@
       <c r="F10" s="32"/>
       <c r="G10" s="32"/>
     </row>
-    <row r="11" spans="1:7" ht="16.5">
+    <row r="11" spans="1:7">
       <c r="A11" s="33" t="s">
         <v>175</v>
       </c>
@@ -15535,7 +15603,7 @@
       <c r="F11" s="32"/>
       <c r="G11" s="32"/>
     </row>
-    <row r="12" spans="1:7" ht="16.5">
+    <row r="12" spans="1:7">
       <c r="A12" s="33" t="s">
         <v>172</v>
       </c>
@@ -15550,7 +15618,7 @@
       <c r="F12" s="32"/>
       <c r="G12" s="32"/>
     </row>
-    <row r="13" spans="1:7" ht="16.5">
+    <row r="13" spans="1:7">
       <c r="A13" s="33" t="s">
         <v>173</v>
       </c>
@@ -15565,7 +15633,7 @@
       <c r="F13" s="32"/>
       <c r="G13" s="32"/>
     </row>
-    <row r="14" spans="1:7" ht="16.5">
+    <row r="14" spans="1:7">
       <c r="A14" s="23" t="s">
         <v>51</v>
       </c>
@@ -15580,7 +15648,7 @@
       <c r="F14" s="32"/>
       <c r="G14" s="32"/>
     </row>
-    <row r="15" spans="1:7" ht="16.5">
+    <row r="15" spans="1:7">
       <c r="A15" s="23" t="s">
         <v>20</v>
       </c>
@@ -15595,7 +15663,7 @@
       <c r="F15" s="32"/>
       <c r="G15" s="32"/>
     </row>
-    <row r="16" spans="1:7" ht="16.5">
+    <row r="16" spans="1:7">
       <c r="A16" s="23" t="s">
         <v>52</v>
       </c>
@@ -15610,7 +15678,7 @@
       <c r="F16" s="32"/>
       <c r="G16" s="32"/>
     </row>
-    <row r="17" spans="1:7" ht="16.5">
+    <row r="17" spans="1:7">
       <c r="A17" s="23" t="s">
         <v>53</v>
       </c>
@@ -15634,7 +15702,7 @@
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:D3"/>
   </mergeCells>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E1" r:id="rId1" xr:uid="{0F0E7124-77AE-48FF-8882-37570032BD8E}"/>
   </hyperlinks>
@@ -15648,9 +15716,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15.6"/>
   <sheetData/>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -15663,37 +15731,37 @@
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5">
+    <row r="1" spans="1:7">
       <c r="A1" s="37" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="24" t="s">
         <v>204</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="46" t="s">
         <v>202</v>
       </c>
-      <c r="D1" s="44"/>
+      <c r="D1" s="45"/>
       <c r="E1" s="25" t="s">
         <v>7</v>
       </c>
       <c r="F1" s="26"/>
       <c r="G1" s="26"/>
     </row>
-    <row r="2" spans="1:7" ht="16.5">
-      <c r="A2" s="46" t="s">
+    <row r="2" spans="1:7">
+      <c r="A2" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="46" t="s">
+      <c r="B2" s="45"/>
+      <c r="C2" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="44"/>
+      <c r="D2" s="45"/>
       <c r="E2" s="27" t="s">
         <v>10</v>
       </c>
@@ -15704,28 +15772,28 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16.5">
-      <c r="A3" s="47" t="s">
+    <row r="3" spans="1:7">
+      <c r="A3" s="48" t="s">
         <v>201</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="44"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="45"/>
       <c r="E3" s="38"/>
       <c r="F3" s="38"/>
       <c r="G3" s="30"/>
     </row>
-    <row r="4" spans="1:7" ht="16.5">
+    <row r="4" spans="1:7">
       <c r="A4" s="28" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="44"/>
+      <c r="D4" s="45"/>
       <c r="E4" s="28" t="s">
         <v>16</v>
       </c>
@@ -15736,7 +15804,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16.5">
+    <row r="5" spans="1:7">
       <c r="A5" s="32" t="s">
         <v>205</v>
       </c>
@@ -15751,7 +15819,7 @@
       <c r="F5" s="32"/>
       <c r="G5" s="32"/>
     </row>
-    <row r="6" spans="1:7" ht="16.5">
+    <row r="6" spans="1:7">
       <c r="A6" s="32" t="s">
         <v>207</v>
       </c>
@@ -15766,7 +15834,7 @@
       <c r="F6" s="32"/>
       <c r="G6" s="32"/>
     </row>
-    <row r="7" spans="1:7" ht="16.5">
+    <row r="7" spans="1:7">
       <c r="A7" s="32" t="s">
         <v>206</v>
       </c>
@@ -15781,7 +15849,7 @@
       <c r="F7" s="32"/>
       <c r="G7" s="32"/>
     </row>
-    <row r="8" spans="1:7" ht="16.5">
+    <row r="8" spans="1:7">
       <c r="A8" s="32" t="s">
         <v>208</v>
       </c>
@@ -15796,7 +15864,7 @@
       <c r="F8" s="32"/>
       <c r="G8" s="32"/>
     </row>
-    <row r="9" spans="1:7" ht="16.5">
+    <row r="9" spans="1:7">
       <c r="A9" s="31" t="s">
         <v>226</v>
       </c>
@@ -15811,7 +15879,7 @@
       <c r="F9" s="32"/>
       <c r="G9" s="32"/>
     </row>
-    <row r="10" spans="1:7" ht="16.5">
+    <row r="10" spans="1:7">
       <c r="A10" s="31" t="s">
         <v>227</v>
       </c>
@@ -15826,7 +15894,7 @@
       <c r="F10" s="32"/>
       <c r="G10" s="32"/>
     </row>
-    <row r="11" spans="1:7" ht="16.5">
+    <row r="11" spans="1:7">
       <c r="A11" s="32" t="s">
         <v>209</v>
       </c>
@@ -15841,7 +15909,7 @@
       <c r="F11" s="32"/>
       <c r="G11" s="32"/>
     </row>
-    <row r="12" spans="1:7" ht="16.5">
+    <row r="12" spans="1:7">
       <c r="A12" s="32" t="s">
         <v>210</v>
       </c>
@@ -15856,7 +15924,7 @@
       <c r="F12" s="32"/>
       <c r="G12" s="32"/>
     </row>
-    <row r="13" spans="1:7" ht="16.5">
+    <row r="13" spans="1:7">
       <c r="A13" s="32" t="s">
         <v>211</v>
       </c>
@@ -15871,7 +15939,7 @@
       <c r="F13" s="32"/>
       <c r="G13" s="32"/>
     </row>
-    <row r="14" spans="1:7" ht="16.5">
+    <row r="14" spans="1:7">
       <c r="A14" s="32" t="s">
         <v>212</v>
       </c>
@@ -15886,7 +15954,7 @@
       <c r="F14" s="32"/>
       <c r="G14" s="32"/>
     </row>
-    <row r="15" spans="1:7" ht="16.5">
+    <row r="15" spans="1:7">
       <c r="A15" s="32" t="s">
         <v>213</v>
       </c>
@@ -15901,7 +15969,7 @@
       <c r="F15" s="32"/>
       <c r="G15" s="32"/>
     </row>
-    <row r="16" spans="1:7" ht="16.5">
+    <row r="16" spans="1:7">
       <c r="A16" s="32" t="s">
         <v>215</v>
       </c>
@@ -15916,7 +15984,7 @@
       <c r="F16" s="32"/>
       <c r="G16" s="32"/>
     </row>
-    <row r="17" spans="1:7" ht="16.5">
+    <row r="17" spans="1:7">
       <c r="A17" s="32" t="s">
         <v>214</v>
       </c>
@@ -15931,7 +15999,7 @@
       <c r="F17" s="32"/>
       <c r="G17" s="32"/>
     </row>
-    <row r="18" spans="1:7" ht="16.5">
+    <row r="18" spans="1:7">
       <c r="A18" s="32" t="s">
         <v>219</v>
       </c>
@@ -15946,7 +16014,7 @@
       <c r="F18" s="32"/>
       <c r="G18" s="32"/>
     </row>
-    <row r="19" spans="1:7" ht="16.5">
+    <row r="19" spans="1:7">
       <c r="A19" s="32" t="s">
         <v>216</v>
       </c>
@@ -15961,7 +16029,7 @@
       <c r="F19" s="32"/>
       <c r="G19" s="32"/>
     </row>
-    <row r="20" spans="1:7" ht="16.5">
+    <row r="20" spans="1:7">
       <c r="A20" s="32" t="s">
         <v>217</v>
       </c>
@@ -15976,7 +16044,7 @@
       <c r="F20" s="32"/>
       <c r="G20" s="32"/>
     </row>
-    <row r="21" spans="1:7" ht="16.5">
+    <row r="21" spans="1:7">
       <c r="A21" s="32" t="s">
         <v>218</v>
       </c>
@@ -15991,7 +16059,7 @@
       <c r="F21" s="32"/>
       <c r="G21" s="32"/>
     </row>
-    <row r="22" spans="1:7" ht="16.5">
+    <row r="22" spans="1:7">
       <c r="A22" s="36" t="s">
         <v>51</v>
       </c>
@@ -16006,7 +16074,7 @@
       <c r="F22" s="32"/>
       <c r="G22" s="32"/>
     </row>
-    <row r="23" spans="1:7" ht="16.5">
+    <row r="23" spans="1:7">
       <c r="A23" s="36" t="s">
         <v>20</v>
       </c>
@@ -16021,7 +16089,7 @@
       <c r="F23" s="32"/>
       <c r="G23" s="32"/>
     </row>
-    <row r="24" spans="1:7" ht="16.5">
+    <row r="24" spans="1:7">
       <c r="A24" s="36" t="s">
         <v>52</v>
       </c>
@@ -16036,7 +16104,7 @@
       <c r="F24" s="32"/>
       <c r="G24" s="32"/>
     </row>
-    <row r="25" spans="1:7" ht="16.5">
+    <row r="25" spans="1:7">
       <c r="A25" s="36" t="s">
         <v>53</v>
       </c>
@@ -16051,7 +16119,7 @@
       <c r="F25" s="32"/>
       <c r="G25" s="32"/>
     </row>
-    <row r="26" spans="1:7" ht="16.5">
+    <row r="26" spans="1:7">
       <c r="A26" s="35" t="s">
         <v>120</v>
       </c>
@@ -16066,7 +16134,7 @@
       <c r="F26" s="32"/>
       <c r="G26" s="32"/>
     </row>
-    <row r="27" spans="1:7" ht="16.5">
+    <row r="27" spans="1:7">
       <c r="A27" s="35" t="s">
         <v>121</v>
       </c>

--- a/getdata/doc/模型与接口.xlsx
+++ b/getdata/doc/模型与接口.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\git\myGit\get-data\getdata\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\myGit\get-data\getdata\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{339C8F92-869C-48E4-B2C3-0E511E2C9F0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52A073E5-65A8-4AE1-A3A5-6BDD41075367}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-2328" windowWidth="30936" windowHeight="16896" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -1977,14 +1977,14 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="12.8984375" customWidth="1"/>
-    <col min="2" max="2" width="18.69921875" customWidth="1"/>
-    <col min="3" max="26" width="12.8984375" customWidth="1"/>
+    <col min="1" max="1" width="12.875" customWidth="1"/>
+    <col min="2" max="2" width="18.75" customWidth="1"/>
+    <col min="3" max="26" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" ht="16.5">
       <c r="A1" s="1" t="s">
         <v>43</v>
       </c>
@@ -2014,7 +2014,7 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" ht="16.5">
       <c r="A2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -2041,7 +2041,7 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" ht="16.5">
       <c r="A3" s="2" t="s">
         <v>44</v>
       </c>
@@ -2075,7 +2075,7 @@
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" ht="16.5">
       <c r="A4" s="2" t="s">
         <v>66</v>
       </c>
@@ -2109,7 +2109,7 @@
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" ht="16.5">
       <c r="A5" s="2" t="s">
         <v>82</v>
       </c>
@@ -2143,7 +2143,7 @@
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" ht="16.5">
       <c r="A6" s="34" t="s">
         <v>137</v>
       </c>
@@ -2177,7 +2177,7 @@
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" ht="16.5">
       <c r="A7" s="2" t="s">
         <v>166</v>
       </c>
@@ -2213,7 +2213,7 @@
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" ht="16.5">
       <c r="A8" s="2" t="s">
         <v>194</v>
       </c>
@@ -2244,7 +2244,7 @@
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" ht="16.5">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -2272,7 +2272,7 @@
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:26" ht="16.5">
       <c r="A10" s="2" t="s">
         <v>203</v>
       </c>
@@ -2306,7 +2306,7 @@
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" ht="16.5">
       <c r="A11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -2333,7 +2333,7 @@
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:26" ht="16.5">
       <c r="A12" s="2"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -2361,7 +2361,7 @@
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:26" ht="16.5">
       <c r="A13" s="2"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -2389,7 +2389,7 @@
       <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:26" ht="16.5">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -2417,7 +2417,7 @@
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:26" ht="16.5">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -2445,7 +2445,7 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:26" ht="16.5">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -2473,7 +2473,7 @@
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
     </row>
-    <row r="17" spans="1:26">
+    <row r="17" spans="1:26" ht="16.5">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -2501,7 +2501,7 @@
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
     </row>
-    <row r="18" spans="1:26">
+    <row r="18" spans="1:26" ht="16.5">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -2529,7 +2529,7 @@
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
     </row>
-    <row r="19" spans="1:26">
+    <row r="19" spans="1:26" ht="16.5">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -2557,7 +2557,7 @@
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:26" ht="16.5">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -2585,7 +2585,7 @@
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
     </row>
-    <row r="21" spans="1:26">
+    <row r="21" spans="1:26" ht="16.5">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -2613,7 +2613,7 @@
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
     </row>
-    <row r="22" spans="1:26">
+    <row r="22" spans="1:26" ht="16.5">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -2641,7 +2641,7 @@
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
     </row>
-    <row r="23" spans="1:26">
+    <row r="23" spans="1:26" ht="16.5">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -2669,7 +2669,7 @@
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
     </row>
-    <row r="24" spans="1:26">
+    <row r="24" spans="1:26" ht="16.5">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -2697,7 +2697,7 @@
       <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
     </row>
-    <row r="25" spans="1:26">
+    <row r="25" spans="1:26" ht="16.5">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -2725,7 +2725,7 @@
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
     </row>
-    <row r="26" spans="1:26">
+    <row r="26" spans="1:26" ht="16.5">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -2753,7 +2753,7 @@
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
     </row>
-    <row r="27" spans="1:26">
+    <row r="27" spans="1:26" ht="16.5">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -2781,7 +2781,7 @@
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
     </row>
-    <row r="28" spans="1:26">
+    <row r="28" spans="1:26" ht="16.5">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -2809,7 +2809,7 @@
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
     </row>
-    <row r="29" spans="1:26">
+    <row r="29" spans="1:26" ht="16.5">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -2837,7 +2837,7 @@
       <c r="Y29" s="2"/>
       <c r="Z29" s="2"/>
     </row>
-    <row r="30" spans="1:26">
+    <row r="30" spans="1:26" ht="16.5">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -2865,7 +2865,7 @@
       <c r="Y30" s="2"/>
       <c r="Z30" s="2"/>
     </row>
-    <row r="31" spans="1:26">
+    <row r="31" spans="1:26" ht="16.5">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -2893,7 +2893,7 @@
       <c r="Y31" s="2"/>
       <c r="Z31" s="2"/>
     </row>
-    <row r="32" spans="1:26">
+    <row r="32" spans="1:26" ht="16.5">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -2921,7 +2921,7 @@
       <c r="Y32" s="2"/>
       <c r="Z32" s="2"/>
     </row>
-    <row r="33" spans="1:26">
+    <row r="33" spans="1:26" ht="16.5">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -2949,7 +2949,7 @@
       <c r="Y33" s="2"/>
       <c r="Z33" s="2"/>
     </row>
-    <row r="34" spans="1:26">
+    <row r="34" spans="1:26" ht="16.5">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -2977,7 +2977,7 @@
       <c r="Y34" s="2"/>
       <c r="Z34" s="2"/>
     </row>
-    <row r="35" spans="1:26">
+    <row r="35" spans="1:26" ht="16.5">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -3005,7 +3005,7 @@
       <c r="Y35" s="2"/>
       <c r="Z35" s="2"/>
     </row>
-    <row r="36" spans="1:26">
+    <row r="36" spans="1:26" ht="16.5">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -3033,7 +3033,7 @@
       <c r="Y36" s="2"/>
       <c r="Z36" s="2"/>
     </row>
-    <row r="37" spans="1:26">
+    <row r="37" spans="1:26" ht="16.5">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -3061,7 +3061,7 @@
       <c r="Y37" s="2"/>
       <c r="Z37" s="2"/>
     </row>
-    <row r="38" spans="1:26">
+    <row r="38" spans="1:26" ht="16.5">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -3089,7 +3089,7 @@
       <c r="Y38" s="2"/>
       <c r="Z38" s="2"/>
     </row>
-    <row r="39" spans="1:26">
+    <row r="39" spans="1:26" ht="16.5">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -3117,7 +3117,7 @@
       <c r="Y39" s="2"/>
       <c r="Z39" s="2"/>
     </row>
-    <row r="40" spans="1:26">
+    <row r="40" spans="1:26" ht="16.5">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -3145,7 +3145,7 @@
       <c r="Y40" s="2"/>
       <c r="Z40" s="2"/>
     </row>
-    <row r="41" spans="1:26">
+    <row r="41" spans="1:26" ht="16.5">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -3173,7 +3173,7 @@
       <c r="Y41" s="2"/>
       <c r="Z41" s="2"/>
     </row>
-    <row r="42" spans="1:26">
+    <row r="42" spans="1:26" ht="16.5">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -3201,7 +3201,7 @@
       <c r="Y42" s="2"/>
       <c r="Z42" s="2"/>
     </row>
-    <row r="43" spans="1:26">
+    <row r="43" spans="1:26" ht="16.5">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -3229,7 +3229,7 @@
       <c r="Y43" s="2"/>
       <c r="Z43" s="2"/>
     </row>
-    <row r="44" spans="1:26">
+    <row r="44" spans="1:26" ht="16.5">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -3257,7 +3257,7 @@
       <c r="Y44" s="2"/>
       <c r="Z44" s="2"/>
     </row>
-    <row r="45" spans="1:26">
+    <row r="45" spans="1:26" ht="16.5">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -3285,7 +3285,7 @@
       <c r="Y45" s="2"/>
       <c r="Z45" s="2"/>
     </row>
-    <row r="46" spans="1:26">
+    <row r="46" spans="1:26" ht="16.5">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -3313,7 +3313,7 @@
       <c r="Y46" s="2"/>
       <c r="Z46" s="2"/>
     </row>
-    <row r="47" spans="1:26">
+    <row r="47" spans="1:26" ht="16.5">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -3341,7 +3341,7 @@
       <c r="Y47" s="2"/>
       <c r="Z47" s="2"/>
     </row>
-    <row r="48" spans="1:26">
+    <row r="48" spans="1:26" ht="16.5">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -3369,7 +3369,7 @@
       <c r="Y48" s="2"/>
       <c r="Z48" s="2"/>
     </row>
-    <row r="49" spans="1:26">
+    <row r="49" spans="1:26" ht="16.5">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -3397,7 +3397,7 @@
       <c r="Y49" s="2"/>
       <c r="Z49" s="2"/>
     </row>
-    <row r="50" spans="1:26">
+    <row r="50" spans="1:26" ht="16.5">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -3425,7 +3425,7 @@
       <c r="Y50" s="2"/>
       <c r="Z50" s="2"/>
     </row>
-    <row r="51" spans="1:26">
+    <row r="51" spans="1:26" ht="16.5">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -3453,7 +3453,7 @@
       <c r="Y51" s="2"/>
       <c r="Z51" s="2"/>
     </row>
-    <row r="52" spans="1:26">
+    <row r="52" spans="1:26" ht="16.5">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -3481,7 +3481,7 @@
       <c r="Y52" s="2"/>
       <c r="Z52" s="2"/>
     </row>
-    <row r="53" spans="1:26">
+    <row r="53" spans="1:26" ht="16.5">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -3509,7 +3509,7 @@
       <c r="Y53" s="2"/>
       <c r="Z53" s="2"/>
     </row>
-    <row r="54" spans="1:26">
+    <row r="54" spans="1:26" ht="16.5">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -3537,7 +3537,7 @@
       <c r="Y54" s="2"/>
       <c r="Z54" s="2"/>
     </row>
-    <row r="55" spans="1:26">
+    <row r="55" spans="1:26" ht="16.5">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -3565,7 +3565,7 @@
       <c r="Y55" s="2"/>
       <c r="Z55" s="2"/>
     </row>
-    <row r="56" spans="1:26">
+    <row r="56" spans="1:26" ht="16.5">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -3593,7 +3593,7 @@
       <c r="Y56" s="2"/>
       <c r="Z56" s="2"/>
     </row>
-    <row r="57" spans="1:26">
+    <row r="57" spans="1:26" ht="16.5">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -3621,7 +3621,7 @@
       <c r="Y57" s="2"/>
       <c r="Z57" s="2"/>
     </row>
-    <row r="58" spans="1:26">
+    <row r="58" spans="1:26" ht="16.5">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -3649,7 +3649,7 @@
       <c r="Y58" s="2"/>
       <c r="Z58" s="2"/>
     </row>
-    <row r="59" spans="1:26">
+    <row r="59" spans="1:26" ht="16.5">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -3677,7 +3677,7 @@
       <c r="Y59" s="2"/>
       <c r="Z59" s="2"/>
     </row>
-    <row r="60" spans="1:26">
+    <row r="60" spans="1:26" ht="16.5">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -3705,7 +3705,7 @@
       <c r="Y60" s="2"/>
       <c r="Z60" s="2"/>
     </row>
-    <row r="61" spans="1:26">
+    <row r="61" spans="1:26" ht="16.5">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -3733,7 +3733,7 @@
       <c r="Y61" s="2"/>
       <c r="Z61" s="2"/>
     </row>
-    <row r="62" spans="1:26">
+    <row r="62" spans="1:26" ht="16.5">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -3761,7 +3761,7 @@
       <c r="Y62" s="2"/>
       <c r="Z62" s="2"/>
     </row>
-    <row r="63" spans="1:26">
+    <row r="63" spans="1:26" ht="16.5">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -3789,7 +3789,7 @@
       <c r="Y63" s="2"/>
       <c r="Z63" s="2"/>
     </row>
-    <row r="64" spans="1:26">
+    <row r="64" spans="1:26" ht="16.5">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -3817,7 +3817,7 @@
       <c r="Y64" s="2"/>
       <c r="Z64" s="2"/>
     </row>
-    <row r="65" spans="1:26">
+    <row r="65" spans="1:26" ht="16.5">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -3845,7 +3845,7 @@
       <c r="Y65" s="2"/>
       <c r="Z65" s="2"/>
     </row>
-    <row r="66" spans="1:26">
+    <row r="66" spans="1:26" ht="16.5">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -3873,7 +3873,7 @@
       <c r="Y66" s="2"/>
       <c r="Z66" s="2"/>
     </row>
-    <row r="67" spans="1:26">
+    <row r="67" spans="1:26" ht="16.5">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -3901,7 +3901,7 @@
       <c r="Y67" s="2"/>
       <c r="Z67" s="2"/>
     </row>
-    <row r="68" spans="1:26">
+    <row r="68" spans="1:26" ht="16.5">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -3929,7 +3929,7 @@
       <c r="Y68" s="2"/>
       <c r="Z68" s="2"/>
     </row>
-    <row r="69" spans="1:26">
+    <row r="69" spans="1:26" ht="16.5">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -3957,7 +3957,7 @@
       <c r="Y69" s="2"/>
       <c r="Z69" s="2"/>
     </row>
-    <row r="70" spans="1:26">
+    <row r="70" spans="1:26" ht="16.5">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -3985,7 +3985,7 @@
       <c r="Y70" s="2"/>
       <c r="Z70" s="2"/>
     </row>
-    <row r="71" spans="1:26">
+    <row r="71" spans="1:26" ht="16.5">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -4013,7 +4013,7 @@
       <c r="Y71" s="2"/>
       <c r="Z71" s="2"/>
     </row>
-    <row r="72" spans="1:26">
+    <row r="72" spans="1:26" ht="16.5">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -4041,7 +4041,7 @@
       <c r="Y72" s="2"/>
       <c r="Z72" s="2"/>
     </row>
-    <row r="73" spans="1:26">
+    <row r="73" spans="1:26" ht="16.5">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -4069,7 +4069,7 @@
       <c r="Y73" s="2"/>
       <c r="Z73" s="2"/>
     </row>
-    <row r="74" spans="1:26">
+    <row r="74" spans="1:26" ht="16.5">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -4097,7 +4097,7 @@
       <c r="Y74" s="2"/>
       <c r="Z74" s="2"/>
     </row>
-    <row r="75" spans="1:26">
+    <row r="75" spans="1:26" ht="16.5">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -4125,7 +4125,7 @@
       <c r="Y75" s="2"/>
       <c r="Z75" s="2"/>
     </row>
-    <row r="76" spans="1:26">
+    <row r="76" spans="1:26" ht="16.5">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -4153,7 +4153,7 @@
       <c r="Y76" s="2"/>
       <c r="Z76" s="2"/>
     </row>
-    <row r="77" spans="1:26">
+    <row r="77" spans="1:26" ht="16.5">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -4181,7 +4181,7 @@
       <c r="Y77" s="2"/>
       <c r="Z77" s="2"/>
     </row>
-    <row r="78" spans="1:26">
+    <row r="78" spans="1:26" ht="16.5">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -4209,7 +4209,7 @@
       <c r="Y78" s="2"/>
       <c r="Z78" s="2"/>
     </row>
-    <row r="79" spans="1:26">
+    <row r="79" spans="1:26" ht="16.5">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -4237,7 +4237,7 @@
       <c r="Y79" s="2"/>
       <c r="Z79" s="2"/>
     </row>
-    <row r="80" spans="1:26">
+    <row r="80" spans="1:26" ht="16.5">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -4265,7 +4265,7 @@
       <c r="Y80" s="2"/>
       <c r="Z80" s="2"/>
     </row>
-    <row r="81" spans="1:26">
+    <row r="81" spans="1:26" ht="16.5">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -4293,7 +4293,7 @@
       <c r="Y81" s="2"/>
       <c r="Z81" s="2"/>
     </row>
-    <row r="82" spans="1:26">
+    <row r="82" spans="1:26" ht="16.5">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -4321,7 +4321,7 @@
       <c r="Y82" s="2"/>
       <c r="Z82" s="2"/>
     </row>
-    <row r="83" spans="1:26">
+    <row r="83" spans="1:26" ht="16.5">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -4349,7 +4349,7 @@
       <c r="Y83" s="2"/>
       <c r="Z83" s="2"/>
     </row>
-    <row r="84" spans="1:26">
+    <row r="84" spans="1:26" ht="16.5">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -4377,7 +4377,7 @@
       <c r="Y84" s="2"/>
       <c r="Z84" s="2"/>
     </row>
-    <row r="85" spans="1:26">
+    <row r="85" spans="1:26" ht="16.5">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -4405,7 +4405,7 @@
       <c r="Y85" s="2"/>
       <c r="Z85" s="2"/>
     </row>
-    <row r="86" spans="1:26">
+    <row r="86" spans="1:26" ht="16.5">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -4433,7 +4433,7 @@
       <c r="Y86" s="2"/>
       <c r="Z86" s="2"/>
     </row>
-    <row r="87" spans="1:26">
+    <row r="87" spans="1:26" ht="16.5">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -4461,7 +4461,7 @@
       <c r="Y87" s="2"/>
       <c r="Z87" s="2"/>
     </row>
-    <row r="88" spans="1:26">
+    <row r="88" spans="1:26" ht="16.5">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -4489,7 +4489,7 @@
       <c r="Y88" s="2"/>
       <c r="Z88" s="2"/>
     </row>
-    <row r="89" spans="1:26">
+    <row r="89" spans="1:26" ht="16.5">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -4517,7 +4517,7 @@
       <c r="Y89" s="2"/>
       <c r="Z89" s="2"/>
     </row>
-    <row r="90" spans="1:26">
+    <row r="90" spans="1:26" ht="16.5">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -4545,7 +4545,7 @@
       <c r="Y90" s="2"/>
       <c r="Z90" s="2"/>
     </row>
-    <row r="91" spans="1:26">
+    <row r="91" spans="1:26" ht="16.5">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -4573,7 +4573,7 @@
       <c r="Y91" s="2"/>
       <c r="Z91" s="2"/>
     </row>
-    <row r="92" spans="1:26">
+    <row r="92" spans="1:26" ht="16.5">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -4601,7 +4601,7 @@
       <c r="Y92" s="2"/>
       <c r="Z92" s="2"/>
     </row>
-    <row r="93" spans="1:26">
+    <row r="93" spans="1:26" ht="16.5">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -4629,7 +4629,7 @@
       <c r="Y93" s="2"/>
       <c r="Z93" s="2"/>
     </row>
-    <row r="94" spans="1:26">
+    <row r="94" spans="1:26" ht="16.5">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -4657,7 +4657,7 @@
       <c r="Y94" s="2"/>
       <c r="Z94" s="2"/>
     </row>
-    <row r="95" spans="1:26">
+    <row r="95" spans="1:26" ht="16.5">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -4685,7 +4685,7 @@
       <c r="Y95" s="2"/>
       <c r="Z95" s="2"/>
     </row>
-    <row r="96" spans="1:26">
+    <row r="96" spans="1:26" ht="16.5">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -4713,7 +4713,7 @@
       <c r="Y96" s="2"/>
       <c r="Z96" s="2"/>
     </row>
-    <row r="97" spans="1:26">
+    <row r="97" spans="1:26" ht="16.5">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -4741,7 +4741,7 @@
       <c r="Y97" s="2"/>
       <c r="Z97" s="2"/>
     </row>
-    <row r="98" spans="1:26">
+    <row r="98" spans="1:26" ht="16.5">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -4769,7 +4769,7 @@
       <c r="Y98" s="2"/>
       <c r="Z98" s="2"/>
     </row>
-    <row r="99" spans="1:26">
+    <row r="99" spans="1:26" ht="16.5">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -4797,7 +4797,7 @@
       <c r="Y99" s="2"/>
       <c r="Z99" s="2"/>
     </row>
-    <row r="100" spans="1:26">
+    <row r="100" spans="1:26" ht="16.5">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -4825,7 +4825,7 @@
       <c r="Y100" s="2"/>
       <c r="Z100" s="2"/>
     </row>
-    <row r="101" spans="1:26">
+    <row r="101" spans="1:26" ht="16.5">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -4853,7 +4853,7 @@
       <c r="Y101" s="2"/>
       <c r="Z101" s="2"/>
     </row>
-    <row r="102" spans="1:26">
+    <row r="102" spans="1:26" ht="16.5">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -4881,7 +4881,7 @@
       <c r="Y102" s="2"/>
       <c r="Z102" s="2"/>
     </row>
-    <row r="103" spans="1:26">
+    <row r="103" spans="1:26" ht="16.5">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -4909,7 +4909,7 @@
       <c r="Y103" s="2"/>
       <c r="Z103" s="2"/>
     </row>
-    <row r="104" spans="1:26">
+    <row r="104" spans="1:26" ht="16.5">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -4937,7 +4937,7 @@
       <c r="Y104" s="2"/>
       <c r="Z104" s="2"/>
     </row>
-    <row r="105" spans="1:26">
+    <row r="105" spans="1:26" ht="16.5">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -4965,7 +4965,7 @@
       <c r="Y105" s="2"/>
       <c r="Z105" s="2"/>
     </row>
-    <row r="106" spans="1:26">
+    <row r="106" spans="1:26" ht="16.5">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -4993,7 +4993,7 @@
       <c r="Y106" s="2"/>
       <c r="Z106" s="2"/>
     </row>
-    <row r="107" spans="1:26">
+    <row r="107" spans="1:26" ht="16.5">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -5021,7 +5021,7 @@
       <c r="Y107" s="2"/>
       <c r="Z107" s="2"/>
     </row>
-    <row r="108" spans="1:26">
+    <row r="108" spans="1:26" ht="16.5">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -5049,7 +5049,7 @@
       <c r="Y108" s="2"/>
       <c r="Z108" s="2"/>
     </row>
-    <row r="109" spans="1:26">
+    <row r="109" spans="1:26" ht="16.5">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -5077,7 +5077,7 @@
       <c r="Y109" s="2"/>
       <c r="Z109" s="2"/>
     </row>
-    <row r="110" spans="1:26">
+    <row r="110" spans="1:26" ht="16.5">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -5105,7 +5105,7 @@
       <c r="Y110" s="2"/>
       <c r="Z110" s="2"/>
     </row>
-    <row r="111" spans="1:26">
+    <row r="111" spans="1:26" ht="16.5">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -5133,7 +5133,7 @@
       <c r="Y111" s="2"/>
       <c r="Z111" s="2"/>
     </row>
-    <row r="112" spans="1:26">
+    <row r="112" spans="1:26" ht="16.5">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -5161,7 +5161,7 @@
       <c r="Y112" s="2"/>
       <c r="Z112" s="2"/>
     </row>
-    <row r="113" spans="1:26">
+    <row r="113" spans="1:26" ht="16.5">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -5189,7 +5189,7 @@
       <c r="Y113" s="2"/>
       <c r="Z113" s="2"/>
     </row>
-    <row r="114" spans="1:26">
+    <row r="114" spans="1:26" ht="16.5">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -5217,7 +5217,7 @@
       <c r="Y114" s="2"/>
       <c r="Z114" s="2"/>
     </row>
-    <row r="115" spans="1:26">
+    <row r="115" spans="1:26" ht="16.5">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -5245,7 +5245,7 @@
       <c r="Y115" s="2"/>
       <c r="Z115" s="2"/>
     </row>
-    <row r="116" spans="1:26">
+    <row r="116" spans="1:26" ht="16.5">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -5273,7 +5273,7 @@
       <c r="Y116" s="2"/>
       <c r="Z116" s="2"/>
     </row>
-    <row r="117" spans="1:26">
+    <row r="117" spans="1:26" ht="16.5">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -5301,7 +5301,7 @@
       <c r="Y117" s="2"/>
       <c r="Z117" s="2"/>
     </row>
-    <row r="118" spans="1:26">
+    <row r="118" spans="1:26" ht="16.5">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -5329,7 +5329,7 @@
       <c r="Y118" s="2"/>
       <c r="Z118" s="2"/>
     </row>
-    <row r="119" spans="1:26">
+    <row r="119" spans="1:26" ht="16.5">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -5357,7 +5357,7 @@
       <c r="Y119" s="2"/>
       <c r="Z119" s="2"/>
     </row>
-    <row r="120" spans="1:26">
+    <row r="120" spans="1:26" ht="16.5">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -5385,7 +5385,7 @@
       <c r="Y120" s="2"/>
       <c r="Z120" s="2"/>
     </row>
-    <row r="121" spans="1:26">
+    <row r="121" spans="1:26" ht="16.5">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -5413,7 +5413,7 @@
       <c r="Y121" s="2"/>
       <c r="Z121" s="2"/>
     </row>
-    <row r="122" spans="1:26">
+    <row r="122" spans="1:26" ht="16.5">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -5441,7 +5441,7 @@
       <c r="Y122" s="2"/>
       <c r="Z122" s="2"/>
     </row>
-    <row r="123" spans="1:26">
+    <row r="123" spans="1:26" ht="16.5">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -5469,7 +5469,7 @@
       <c r="Y123" s="2"/>
       <c r="Z123" s="2"/>
     </row>
-    <row r="124" spans="1:26">
+    <row r="124" spans="1:26" ht="16.5">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -5497,7 +5497,7 @@
       <c r="Y124" s="2"/>
       <c r="Z124" s="2"/>
     </row>
-    <row r="125" spans="1:26">
+    <row r="125" spans="1:26" ht="16.5">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -5525,7 +5525,7 @@
       <c r="Y125" s="2"/>
       <c r="Z125" s="2"/>
     </row>
-    <row r="126" spans="1:26">
+    <row r="126" spans="1:26" ht="16.5">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -5553,7 +5553,7 @@
       <c r="Y126" s="2"/>
       <c r="Z126" s="2"/>
     </row>
-    <row r="127" spans="1:26">
+    <row r="127" spans="1:26" ht="16.5">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -5581,7 +5581,7 @@
       <c r="Y127" s="2"/>
       <c r="Z127" s="2"/>
     </row>
-    <row r="128" spans="1:26">
+    <row r="128" spans="1:26" ht="16.5">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -5609,7 +5609,7 @@
       <c r="Y128" s="2"/>
       <c r="Z128" s="2"/>
     </row>
-    <row r="129" spans="1:26">
+    <row r="129" spans="1:26" ht="16.5">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -5637,7 +5637,7 @@
       <c r="Y129" s="2"/>
       <c r="Z129" s="2"/>
     </row>
-    <row r="130" spans="1:26">
+    <row r="130" spans="1:26" ht="16.5">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -5665,7 +5665,7 @@
       <c r="Y130" s="2"/>
       <c r="Z130" s="2"/>
     </row>
-    <row r="131" spans="1:26">
+    <row r="131" spans="1:26" ht="16.5">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -5693,7 +5693,7 @@
       <c r="Y131" s="2"/>
       <c r="Z131" s="2"/>
     </row>
-    <row r="132" spans="1:26">
+    <row r="132" spans="1:26" ht="16.5">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -5721,7 +5721,7 @@
       <c r="Y132" s="2"/>
       <c r="Z132" s="2"/>
     </row>
-    <row r="133" spans="1:26">
+    <row r="133" spans="1:26" ht="16.5">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -5749,7 +5749,7 @@
       <c r="Y133" s="2"/>
       <c r="Z133" s="2"/>
     </row>
-    <row r="134" spans="1:26">
+    <row r="134" spans="1:26" ht="16.5">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -5777,7 +5777,7 @@
       <c r="Y134" s="2"/>
       <c r="Z134" s="2"/>
     </row>
-    <row r="135" spans="1:26">
+    <row r="135" spans="1:26" ht="16.5">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -5805,7 +5805,7 @@
       <c r="Y135" s="2"/>
       <c r="Z135" s="2"/>
     </row>
-    <row r="136" spans="1:26">
+    <row r="136" spans="1:26" ht="16.5">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -5833,7 +5833,7 @@
       <c r="Y136" s="2"/>
       <c r="Z136" s="2"/>
     </row>
-    <row r="137" spans="1:26">
+    <row r="137" spans="1:26" ht="16.5">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -5861,7 +5861,7 @@
       <c r="Y137" s="2"/>
       <c r="Z137" s="2"/>
     </row>
-    <row r="138" spans="1:26">
+    <row r="138" spans="1:26" ht="16.5">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -5889,7 +5889,7 @@
       <c r="Y138" s="2"/>
       <c r="Z138" s="2"/>
     </row>
-    <row r="139" spans="1:26">
+    <row r="139" spans="1:26" ht="16.5">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -5917,7 +5917,7 @@
       <c r="Y139" s="2"/>
       <c r="Z139" s="2"/>
     </row>
-    <row r="140" spans="1:26">
+    <row r="140" spans="1:26" ht="16.5">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -5945,7 +5945,7 @@
       <c r="Y140" s="2"/>
       <c r="Z140" s="2"/>
     </row>
-    <row r="141" spans="1:26">
+    <row r="141" spans="1:26" ht="16.5">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -5973,7 +5973,7 @@
       <c r="Y141" s="2"/>
       <c r="Z141" s="2"/>
     </row>
-    <row r="142" spans="1:26">
+    <row r="142" spans="1:26" ht="16.5">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -6001,7 +6001,7 @@
       <c r="Y142" s="2"/>
       <c r="Z142" s="2"/>
     </row>
-    <row r="143" spans="1:26">
+    <row r="143" spans="1:26" ht="16.5">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -6029,7 +6029,7 @@
       <c r="Y143" s="2"/>
       <c r="Z143" s="2"/>
     </row>
-    <row r="144" spans="1:26">
+    <row r="144" spans="1:26" ht="16.5">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -6057,7 +6057,7 @@
       <c r="Y144" s="2"/>
       <c r="Z144" s="2"/>
     </row>
-    <row r="145" spans="1:26">
+    <row r="145" spans="1:26" ht="16.5">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -6085,7 +6085,7 @@
       <c r="Y145" s="2"/>
       <c r="Z145" s="2"/>
     </row>
-    <row r="146" spans="1:26">
+    <row r="146" spans="1:26" ht="16.5">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -6113,7 +6113,7 @@
       <c r="Y146" s="2"/>
       <c r="Z146" s="2"/>
     </row>
-    <row r="147" spans="1:26">
+    <row r="147" spans="1:26" ht="16.5">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -6141,7 +6141,7 @@
       <c r="Y147" s="2"/>
       <c r="Z147" s="2"/>
     </row>
-    <row r="148" spans="1:26">
+    <row r="148" spans="1:26" ht="16.5">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -6169,7 +6169,7 @@
       <c r="Y148" s="2"/>
       <c r="Z148" s="2"/>
     </row>
-    <row r="149" spans="1:26">
+    <row r="149" spans="1:26" ht="16.5">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -6197,7 +6197,7 @@
       <c r="Y149" s="2"/>
       <c r="Z149" s="2"/>
     </row>
-    <row r="150" spans="1:26">
+    <row r="150" spans="1:26" ht="16.5">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -6225,7 +6225,7 @@
       <c r="Y150" s="2"/>
       <c r="Z150" s="2"/>
     </row>
-    <row r="151" spans="1:26">
+    <row r="151" spans="1:26" ht="16.5">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -6253,7 +6253,7 @@
       <c r="Y151" s="2"/>
       <c r="Z151" s="2"/>
     </row>
-    <row r="152" spans="1:26">
+    <row r="152" spans="1:26" ht="16.5">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -6281,7 +6281,7 @@
       <c r="Y152" s="2"/>
       <c r="Z152" s="2"/>
     </row>
-    <row r="153" spans="1:26">
+    <row r="153" spans="1:26" ht="16.5">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -6309,7 +6309,7 @@
       <c r="Y153" s="2"/>
       <c r="Z153" s="2"/>
     </row>
-    <row r="154" spans="1:26">
+    <row r="154" spans="1:26" ht="16.5">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -6337,7 +6337,7 @@
       <c r="Y154" s="2"/>
       <c r="Z154" s="2"/>
     </row>
-    <row r="155" spans="1:26">
+    <row r="155" spans="1:26" ht="16.5">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -6365,7 +6365,7 @@
       <c r="Y155" s="2"/>
       <c r="Z155" s="2"/>
     </row>
-    <row r="156" spans="1:26">
+    <row r="156" spans="1:26" ht="16.5">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -6393,7 +6393,7 @@
       <c r="Y156" s="2"/>
       <c r="Z156" s="2"/>
     </row>
-    <row r="157" spans="1:26">
+    <row r="157" spans="1:26" ht="16.5">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -6421,7 +6421,7 @@
       <c r="Y157" s="2"/>
       <c r="Z157" s="2"/>
     </row>
-    <row r="158" spans="1:26">
+    <row r="158" spans="1:26" ht="16.5">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -6449,7 +6449,7 @@
       <c r="Y158" s="2"/>
       <c r="Z158" s="2"/>
     </row>
-    <row r="159" spans="1:26">
+    <row r="159" spans="1:26" ht="16.5">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -6477,7 +6477,7 @@
       <c r="Y159" s="2"/>
       <c r="Z159" s="2"/>
     </row>
-    <row r="160" spans="1:26">
+    <row r="160" spans="1:26" ht="16.5">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -6505,7 +6505,7 @@
       <c r="Y160" s="2"/>
       <c r="Z160" s="2"/>
     </row>
-    <row r="161" spans="1:26">
+    <row r="161" spans="1:26" ht="16.5">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -6533,7 +6533,7 @@
       <c r="Y161" s="2"/>
       <c r="Z161" s="2"/>
     </row>
-    <row r="162" spans="1:26">
+    <row r="162" spans="1:26" ht="16.5">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -6561,7 +6561,7 @@
       <c r="Y162" s="2"/>
       <c r="Z162" s="2"/>
     </row>
-    <row r="163" spans="1:26">
+    <row r="163" spans="1:26" ht="16.5">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -6589,7 +6589,7 @@
       <c r="Y163" s="2"/>
       <c r="Z163" s="2"/>
     </row>
-    <row r="164" spans="1:26">
+    <row r="164" spans="1:26" ht="16.5">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -6617,7 +6617,7 @@
       <c r="Y164" s="2"/>
       <c r="Z164" s="2"/>
     </row>
-    <row r="165" spans="1:26">
+    <row r="165" spans="1:26" ht="16.5">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -6645,7 +6645,7 @@
       <c r="Y165" s="2"/>
       <c r="Z165" s="2"/>
     </row>
-    <row r="166" spans="1:26">
+    <row r="166" spans="1:26" ht="16.5">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -6673,7 +6673,7 @@
       <c r="Y166" s="2"/>
       <c r="Z166" s="2"/>
     </row>
-    <row r="167" spans="1:26">
+    <row r="167" spans="1:26" ht="16.5">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -6701,7 +6701,7 @@
       <c r="Y167" s="2"/>
       <c r="Z167" s="2"/>
     </row>
-    <row r="168" spans="1:26">
+    <row r="168" spans="1:26" ht="16.5">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -6729,7 +6729,7 @@
       <c r="Y168" s="2"/>
       <c r="Z168" s="2"/>
     </row>
-    <row r="169" spans="1:26">
+    <row r="169" spans="1:26" ht="16.5">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -6757,7 +6757,7 @@
       <c r="Y169" s="2"/>
       <c r="Z169" s="2"/>
     </row>
-    <row r="170" spans="1:26">
+    <row r="170" spans="1:26" ht="16.5">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -6785,7 +6785,7 @@
       <c r="Y170" s="2"/>
       <c r="Z170" s="2"/>
     </row>
-    <row r="171" spans="1:26">
+    <row r="171" spans="1:26" ht="16.5">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -6813,7 +6813,7 @@
       <c r="Y171" s="2"/>
       <c r="Z171" s="2"/>
     </row>
-    <row r="172" spans="1:26">
+    <row r="172" spans="1:26" ht="16.5">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -6841,7 +6841,7 @@
       <c r="Y172" s="2"/>
       <c r="Z172" s="2"/>
     </row>
-    <row r="173" spans="1:26">
+    <row r="173" spans="1:26" ht="16.5">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -6869,7 +6869,7 @@
       <c r="Y173" s="2"/>
       <c r="Z173" s="2"/>
     </row>
-    <row r="174" spans="1:26">
+    <row r="174" spans="1:26" ht="16.5">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -6897,7 +6897,7 @@
       <c r="Y174" s="2"/>
       <c r="Z174" s="2"/>
     </row>
-    <row r="175" spans="1:26">
+    <row r="175" spans="1:26" ht="16.5">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -6925,7 +6925,7 @@
       <c r="Y175" s="2"/>
       <c r="Z175" s="2"/>
     </row>
-    <row r="176" spans="1:26">
+    <row r="176" spans="1:26" ht="16.5">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -6953,7 +6953,7 @@
       <c r="Y176" s="2"/>
       <c r="Z176" s="2"/>
     </row>
-    <row r="177" spans="1:26">
+    <row r="177" spans="1:26" ht="16.5">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -6981,7 +6981,7 @@
       <c r="Y177" s="2"/>
       <c r="Z177" s="2"/>
     </row>
-    <row r="178" spans="1:26">
+    <row r="178" spans="1:26" ht="16.5">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -7009,7 +7009,7 @@
       <c r="Y178" s="2"/>
       <c r="Z178" s="2"/>
     </row>
-    <row r="179" spans="1:26">
+    <row r="179" spans="1:26" ht="16.5">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -7037,7 +7037,7 @@
       <c r="Y179" s="2"/>
       <c r="Z179" s="2"/>
     </row>
-    <row r="180" spans="1:26">
+    <row r="180" spans="1:26" ht="16.5">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -7065,7 +7065,7 @@
       <c r="Y180" s="2"/>
       <c r="Z180" s="2"/>
     </row>
-    <row r="181" spans="1:26">
+    <row r="181" spans="1:26" ht="16.5">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -7093,7 +7093,7 @@
       <c r="Y181" s="2"/>
       <c r="Z181" s="2"/>
     </row>
-    <row r="182" spans="1:26">
+    <row r="182" spans="1:26" ht="16.5">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -7121,7 +7121,7 @@
       <c r="Y182" s="2"/>
       <c r="Z182" s="2"/>
     </row>
-    <row r="183" spans="1:26">
+    <row r="183" spans="1:26" ht="16.5">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -7149,7 +7149,7 @@
       <c r="Y183" s="2"/>
       <c r="Z183" s="2"/>
     </row>
-    <row r="184" spans="1:26">
+    <row r="184" spans="1:26" ht="16.5">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -7177,7 +7177,7 @@
       <c r="Y184" s="2"/>
       <c r="Z184" s="2"/>
     </row>
-    <row r="185" spans="1:26">
+    <row r="185" spans="1:26" ht="16.5">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -7205,7 +7205,7 @@
       <c r="Y185" s="2"/>
       <c r="Z185" s="2"/>
     </row>
-    <row r="186" spans="1:26">
+    <row r="186" spans="1:26" ht="16.5">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -7233,7 +7233,7 @@
       <c r="Y186" s="2"/>
       <c r="Z186" s="2"/>
     </row>
-    <row r="187" spans="1:26">
+    <row r="187" spans="1:26" ht="16.5">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -7261,7 +7261,7 @@
       <c r="Y187" s="2"/>
       <c r="Z187" s="2"/>
     </row>
-    <row r="188" spans="1:26">
+    <row r="188" spans="1:26" ht="16.5">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -7289,7 +7289,7 @@
       <c r="Y188" s="2"/>
       <c r="Z188" s="2"/>
     </row>
-    <row r="189" spans="1:26">
+    <row r="189" spans="1:26" ht="16.5">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -7317,7 +7317,7 @@
       <c r="Y189" s="2"/>
       <c r="Z189" s="2"/>
     </row>
-    <row r="190" spans="1:26">
+    <row r="190" spans="1:26" ht="16.5">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -7345,7 +7345,7 @@
       <c r="Y190" s="2"/>
       <c r="Z190" s="2"/>
     </row>
-    <row r="191" spans="1:26">
+    <row r="191" spans="1:26" ht="16.5">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -7373,7 +7373,7 @@
       <c r="Y191" s="2"/>
       <c r="Z191" s="2"/>
     </row>
-    <row r="192" spans="1:26">
+    <row r="192" spans="1:26" ht="16.5">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -7401,7 +7401,7 @@
       <c r="Y192" s="2"/>
       <c r="Z192" s="2"/>
     </row>
-    <row r="193" spans="1:26">
+    <row r="193" spans="1:26" ht="16.5">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -7429,7 +7429,7 @@
       <c r="Y193" s="2"/>
       <c r="Z193" s="2"/>
     </row>
-    <row r="194" spans="1:26">
+    <row r="194" spans="1:26" ht="16.5">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -7457,7 +7457,7 @@
       <c r="Y194" s="2"/>
       <c r="Z194" s="2"/>
     </row>
-    <row r="195" spans="1:26">
+    <row r="195" spans="1:26" ht="16.5">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -7485,7 +7485,7 @@
       <c r="Y195" s="2"/>
       <c r="Z195" s="2"/>
     </row>
-    <row r="196" spans="1:26">
+    <row r="196" spans="1:26" ht="16.5">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -7513,7 +7513,7 @@
       <c r="Y196" s="2"/>
       <c r="Z196" s="2"/>
     </row>
-    <row r="197" spans="1:26">
+    <row r="197" spans="1:26" ht="16.5">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -7541,7 +7541,7 @@
       <c r="Y197" s="2"/>
       <c r="Z197" s="2"/>
     </row>
-    <row r="198" spans="1:26">
+    <row r="198" spans="1:26" ht="16.5">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -7569,7 +7569,7 @@
       <c r="Y198" s="2"/>
       <c r="Z198" s="2"/>
     </row>
-    <row r="199" spans="1:26">
+    <row r="199" spans="1:26" ht="16.5">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -7597,7 +7597,7 @@
       <c r="Y199" s="2"/>
       <c r="Z199" s="2"/>
     </row>
-    <row r="200" spans="1:26">
+    <row r="200" spans="1:26" ht="16.5">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -7640,9 +7640,9 @@
       <selection activeCell="G4" sqref="A1:G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" ht="16.5">
       <c r="A1" s="7" t="s">
         <v>6</v>
       </c>
@@ -7659,7 +7659,7 @@
       <c r="F1" s="10"/>
       <c r="G1" s="10"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" ht="16.5">
       <c r="A2" s="47" t="s">
         <v>8</v>
       </c>
@@ -7678,7 +7678,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" ht="16.5">
       <c r="A3" s="48" t="s">
         <v>19</v>
       </c>
@@ -7689,7 +7689,7 @@
       <c r="F3" s="13"/>
       <c r="G3" s="14"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" ht="16.5">
       <c r="A4" s="15" t="s">
         <v>13</v>
       </c>
@@ -7765,9 +7765,9 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" ht="16.5">
       <c r="A1" s="7" t="s">
         <v>6</v>
       </c>
@@ -7784,7 +7784,7 @@
       <c r="F1" s="10"/>
       <c r="G1" s="10"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" ht="16.5">
       <c r="A2" s="47" t="s">
         <v>8</v>
       </c>
@@ -7803,7 +7803,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" ht="16.5">
       <c r="A3" s="48" t="s">
         <v>30</v>
       </c>
@@ -7814,7 +7814,7 @@
       <c r="F3" s="13"/>
       <c r="G3" s="14"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" ht="16.5">
       <c r="A4" s="15" t="s">
         <v>13</v>
       </c>
@@ -7885,15 +7885,15 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="3" width="12.8984375" customWidth="1"/>
+    <col min="1" max="3" width="12.875" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
-    <col min="5" max="5" width="29.19921875" customWidth="1"/>
-    <col min="6" max="26" width="12.8984375" customWidth="1"/>
+    <col min="5" max="5" width="29.25" customWidth="1"/>
+    <col min="6" max="26" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" ht="16.5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -7933,7 +7933,7 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" ht="16.5">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -7961,7 +7961,7 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" ht="16.5">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -7989,7 +7989,7 @@
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" ht="16.5">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -8017,7 +8017,7 @@
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" ht="16.5">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -8045,7 +8045,7 @@
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" ht="16.5">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -8073,7 +8073,7 @@
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" ht="16.5">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -8101,7 +8101,7 @@
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" ht="16.5">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -8129,7 +8129,7 @@
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" ht="16.5">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -8157,7 +8157,7 @@
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:26" ht="16.5">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -8185,7 +8185,7 @@
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" ht="16.5">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -8213,7 +8213,7 @@
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:26" ht="16.5">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -8241,7 +8241,7 @@
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:26" ht="16.5">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -8269,7 +8269,7 @@
       <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:26" ht="16.5">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -8297,7 +8297,7 @@
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:26" ht="16.5">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -8325,7 +8325,7 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:26" ht="16.5">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -8353,7 +8353,7 @@
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
     </row>
-    <row r="17" spans="1:26">
+    <row r="17" spans="1:26" ht="16.5">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -8381,7 +8381,7 @@
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
     </row>
-    <row r="18" spans="1:26">
+    <row r="18" spans="1:26" ht="16.5">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -8409,7 +8409,7 @@
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
     </row>
-    <row r="19" spans="1:26">
+    <row r="19" spans="1:26" ht="16.5">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -8437,7 +8437,7 @@
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:26" ht="16.5">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -8465,7 +8465,7 @@
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
     </row>
-    <row r="21" spans="1:26">
+    <row r="21" spans="1:26" ht="16.5">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -8493,7 +8493,7 @@
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
     </row>
-    <row r="22" spans="1:26">
+    <row r="22" spans="1:26" ht="16.5">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -8521,7 +8521,7 @@
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
     </row>
-    <row r="23" spans="1:26">
+    <row r="23" spans="1:26" ht="16.5">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -8549,7 +8549,7 @@
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
     </row>
-    <row r="24" spans="1:26">
+    <row r="24" spans="1:26" ht="16.5">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -8577,7 +8577,7 @@
       <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
     </row>
-    <row r="25" spans="1:26">
+    <row r="25" spans="1:26" ht="16.5">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -8605,7 +8605,7 @@
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
     </row>
-    <row r="26" spans="1:26">
+    <row r="26" spans="1:26" ht="16.5">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -8633,7 +8633,7 @@
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
     </row>
-    <row r="27" spans="1:26">
+    <row r="27" spans="1:26" ht="16.5">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -8661,7 +8661,7 @@
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
     </row>
-    <row r="28" spans="1:26">
+    <row r="28" spans="1:26" ht="16.5">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -8689,7 +8689,7 @@
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
     </row>
-    <row r="29" spans="1:26">
+    <row r="29" spans="1:26" ht="16.5">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -8717,7 +8717,7 @@
       <c r="Y29" s="2"/>
       <c r="Z29" s="2"/>
     </row>
-    <row r="30" spans="1:26">
+    <row r="30" spans="1:26" ht="16.5">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -8745,7 +8745,7 @@
       <c r="Y30" s="2"/>
       <c r="Z30" s="2"/>
     </row>
-    <row r="31" spans="1:26">
+    <row r="31" spans="1:26" ht="16.5">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -8773,7 +8773,7 @@
       <c r="Y31" s="2"/>
       <c r="Z31" s="2"/>
     </row>
-    <row r="32" spans="1:26">
+    <row r="32" spans="1:26" ht="16.5">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -8801,7 +8801,7 @@
       <c r="Y32" s="2"/>
       <c r="Z32" s="2"/>
     </row>
-    <row r="33" spans="1:26">
+    <row r="33" spans="1:26" ht="16.5">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -8829,7 +8829,7 @@
       <c r="Y33" s="2"/>
       <c r="Z33" s="2"/>
     </row>
-    <row r="34" spans="1:26">
+    <row r="34" spans="1:26" ht="16.5">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -8857,7 +8857,7 @@
       <c r="Y34" s="2"/>
       <c r="Z34" s="2"/>
     </row>
-    <row r="35" spans="1:26">
+    <row r="35" spans="1:26" ht="16.5">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -8885,7 +8885,7 @@
       <c r="Y35" s="2"/>
       <c r="Z35" s="2"/>
     </row>
-    <row r="36" spans="1:26">
+    <row r="36" spans="1:26" ht="16.5">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -8913,7 +8913,7 @@
       <c r="Y36" s="2"/>
       <c r="Z36" s="2"/>
     </row>
-    <row r="37" spans="1:26">
+    <row r="37" spans="1:26" ht="16.5">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -8941,7 +8941,7 @@
       <c r="Y37" s="2"/>
       <c r="Z37" s="2"/>
     </row>
-    <row r="38" spans="1:26">
+    <row r="38" spans="1:26" ht="16.5">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -8969,7 +8969,7 @@
       <c r="Y38" s="2"/>
       <c r="Z38" s="2"/>
     </row>
-    <row r="39" spans="1:26">
+    <row r="39" spans="1:26" ht="16.5">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -8997,7 +8997,7 @@
       <c r="Y39" s="2"/>
       <c r="Z39" s="2"/>
     </row>
-    <row r="40" spans="1:26">
+    <row r="40" spans="1:26" ht="16.5">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -9025,7 +9025,7 @@
       <c r="Y40" s="2"/>
       <c r="Z40" s="2"/>
     </row>
-    <row r="41" spans="1:26">
+    <row r="41" spans="1:26" ht="16.5">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -9053,7 +9053,7 @@
       <c r="Y41" s="2"/>
       <c r="Z41" s="2"/>
     </row>
-    <row r="42" spans="1:26">
+    <row r="42" spans="1:26" ht="16.5">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -9081,7 +9081,7 @@
       <c r="Y42" s="2"/>
       <c r="Z42" s="2"/>
     </row>
-    <row r="43" spans="1:26">
+    <row r="43" spans="1:26" ht="16.5">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -9109,7 +9109,7 @@
       <c r="Y43" s="2"/>
       <c r="Z43" s="2"/>
     </row>
-    <row r="44" spans="1:26">
+    <row r="44" spans="1:26" ht="16.5">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -9137,7 +9137,7 @@
       <c r="Y44" s="2"/>
       <c r="Z44" s="2"/>
     </row>
-    <row r="45" spans="1:26">
+    <row r="45" spans="1:26" ht="16.5">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -9165,7 +9165,7 @@
       <c r="Y45" s="2"/>
       <c r="Z45" s="2"/>
     </row>
-    <row r="46" spans="1:26">
+    <row r="46" spans="1:26" ht="16.5">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -9193,7 +9193,7 @@
       <c r="Y46" s="2"/>
       <c r="Z46" s="2"/>
     </row>
-    <row r="47" spans="1:26">
+    <row r="47" spans="1:26" ht="16.5">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -9221,7 +9221,7 @@
       <c r="Y47" s="2"/>
       <c r="Z47" s="2"/>
     </row>
-    <row r="48" spans="1:26">
+    <row r="48" spans="1:26" ht="16.5">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -9249,7 +9249,7 @@
       <c r="Y48" s="2"/>
       <c r="Z48" s="2"/>
     </row>
-    <row r="49" spans="1:26">
+    <row r="49" spans="1:26" ht="16.5">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -9277,7 +9277,7 @@
       <c r="Y49" s="2"/>
       <c r="Z49" s="2"/>
     </row>
-    <row r="50" spans="1:26">
+    <row r="50" spans="1:26" ht="16.5">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -9305,7 +9305,7 @@
       <c r="Y50" s="2"/>
       <c r="Z50" s="2"/>
     </row>
-    <row r="51" spans="1:26">
+    <row r="51" spans="1:26" ht="16.5">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -9333,7 +9333,7 @@
       <c r="Y51" s="2"/>
       <c r="Z51" s="2"/>
     </row>
-    <row r="52" spans="1:26">
+    <row r="52" spans="1:26" ht="16.5">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -9361,7 +9361,7 @@
       <c r="Y52" s="2"/>
       <c r="Z52" s="2"/>
     </row>
-    <row r="53" spans="1:26">
+    <row r="53" spans="1:26" ht="16.5">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -9389,7 +9389,7 @@
       <c r="Y53" s="2"/>
       <c r="Z53" s="2"/>
     </row>
-    <row r="54" spans="1:26">
+    <row r="54" spans="1:26" ht="16.5">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -9417,7 +9417,7 @@
       <c r="Y54" s="2"/>
       <c r="Z54" s="2"/>
     </row>
-    <row r="55" spans="1:26">
+    <row r="55" spans="1:26" ht="16.5">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -9445,7 +9445,7 @@
       <c r="Y55" s="2"/>
       <c r="Z55" s="2"/>
     </row>
-    <row r="56" spans="1:26">
+    <row r="56" spans="1:26" ht="16.5">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -9473,7 +9473,7 @@
       <c r="Y56" s="2"/>
       <c r="Z56" s="2"/>
     </row>
-    <row r="57" spans="1:26">
+    <row r="57" spans="1:26" ht="16.5">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -9501,7 +9501,7 @@
       <c r="Y57" s="2"/>
       <c r="Z57" s="2"/>
     </row>
-    <row r="58" spans="1:26">
+    <row r="58" spans="1:26" ht="16.5">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -9529,7 +9529,7 @@
       <c r="Y58" s="2"/>
       <c r="Z58" s="2"/>
     </row>
-    <row r="59" spans="1:26">
+    <row r="59" spans="1:26" ht="16.5">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -9557,7 +9557,7 @@
       <c r="Y59" s="2"/>
       <c r="Z59" s="2"/>
     </row>
-    <row r="60" spans="1:26">
+    <row r="60" spans="1:26" ht="16.5">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -9585,7 +9585,7 @@
       <c r="Y60" s="2"/>
       <c r="Z60" s="2"/>
     </row>
-    <row r="61" spans="1:26">
+    <row r="61" spans="1:26" ht="16.5">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -9613,7 +9613,7 @@
       <c r="Y61" s="2"/>
       <c r="Z61" s="2"/>
     </row>
-    <row r="62" spans="1:26">
+    <row r="62" spans="1:26" ht="16.5">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -9641,7 +9641,7 @@
       <c r="Y62" s="2"/>
       <c r="Z62" s="2"/>
     </row>
-    <row r="63" spans="1:26">
+    <row r="63" spans="1:26" ht="16.5">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -9669,7 +9669,7 @@
       <c r="Y63" s="2"/>
       <c r="Z63" s="2"/>
     </row>
-    <row r="64" spans="1:26">
+    <row r="64" spans="1:26" ht="16.5">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -9697,7 +9697,7 @@
       <c r="Y64" s="2"/>
       <c r="Z64" s="2"/>
     </row>
-    <row r="65" spans="1:26">
+    <row r="65" spans="1:26" ht="16.5">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -9725,7 +9725,7 @@
       <c r="Y65" s="2"/>
       <c r="Z65" s="2"/>
     </row>
-    <row r="66" spans="1:26">
+    <row r="66" spans="1:26" ht="16.5">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -9753,7 +9753,7 @@
       <c r="Y66" s="2"/>
       <c r="Z66" s="2"/>
     </row>
-    <row r="67" spans="1:26">
+    <row r="67" spans="1:26" ht="16.5">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -9781,7 +9781,7 @@
       <c r="Y67" s="2"/>
       <c r="Z67" s="2"/>
     </row>
-    <row r="68" spans="1:26">
+    <row r="68" spans="1:26" ht="16.5">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -9809,7 +9809,7 @@
       <c r="Y68" s="2"/>
       <c r="Z68" s="2"/>
     </row>
-    <row r="69" spans="1:26">
+    <row r="69" spans="1:26" ht="16.5">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -9837,7 +9837,7 @@
       <c r="Y69" s="2"/>
       <c r="Z69" s="2"/>
     </row>
-    <row r="70" spans="1:26">
+    <row r="70" spans="1:26" ht="16.5">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -9865,7 +9865,7 @@
       <c r="Y70" s="2"/>
       <c r="Z70" s="2"/>
     </row>
-    <row r="71" spans="1:26">
+    <row r="71" spans="1:26" ht="16.5">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -9893,7 +9893,7 @@
       <c r="Y71" s="2"/>
       <c r="Z71" s="2"/>
     </row>
-    <row r="72" spans="1:26">
+    <row r="72" spans="1:26" ht="16.5">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -9921,7 +9921,7 @@
       <c r="Y72" s="2"/>
       <c r="Z72" s="2"/>
     </row>
-    <row r="73" spans="1:26">
+    <row r="73" spans="1:26" ht="16.5">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -9949,7 +9949,7 @@
       <c r="Y73" s="2"/>
       <c r="Z73" s="2"/>
     </row>
-    <row r="74" spans="1:26">
+    <row r="74" spans="1:26" ht="16.5">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -9977,7 +9977,7 @@
       <c r="Y74" s="2"/>
       <c r="Z74" s="2"/>
     </row>
-    <row r="75" spans="1:26">
+    <row r="75" spans="1:26" ht="16.5">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -10005,7 +10005,7 @@
       <c r="Y75" s="2"/>
       <c r="Z75" s="2"/>
     </row>
-    <row r="76" spans="1:26">
+    <row r="76" spans="1:26" ht="16.5">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -10033,7 +10033,7 @@
       <c r="Y76" s="2"/>
       <c r="Z76" s="2"/>
     </row>
-    <row r="77" spans="1:26">
+    <row r="77" spans="1:26" ht="16.5">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -10061,7 +10061,7 @@
       <c r="Y77" s="2"/>
       <c r="Z77" s="2"/>
     </row>
-    <row r="78" spans="1:26">
+    <row r="78" spans="1:26" ht="16.5">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -10089,7 +10089,7 @@
       <c r="Y78" s="2"/>
       <c r="Z78" s="2"/>
     </row>
-    <row r="79" spans="1:26">
+    <row r="79" spans="1:26" ht="16.5">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -10117,7 +10117,7 @@
       <c r="Y79" s="2"/>
       <c r="Z79" s="2"/>
     </row>
-    <row r="80" spans="1:26">
+    <row r="80" spans="1:26" ht="16.5">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -10145,7 +10145,7 @@
       <c r="Y80" s="2"/>
       <c r="Z80" s="2"/>
     </row>
-    <row r="81" spans="1:26">
+    <row r="81" spans="1:26" ht="16.5">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -10173,7 +10173,7 @@
       <c r="Y81" s="2"/>
       <c r="Z81" s="2"/>
     </row>
-    <row r="82" spans="1:26">
+    <row r="82" spans="1:26" ht="16.5">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -10201,7 +10201,7 @@
       <c r="Y82" s="2"/>
       <c r="Z82" s="2"/>
     </row>
-    <row r="83" spans="1:26">
+    <row r="83" spans="1:26" ht="16.5">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -10229,7 +10229,7 @@
       <c r="Y83" s="2"/>
       <c r="Z83" s="2"/>
     </row>
-    <row r="84" spans="1:26">
+    <row r="84" spans="1:26" ht="16.5">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -10257,7 +10257,7 @@
       <c r="Y84" s="2"/>
       <c r="Z84" s="2"/>
     </row>
-    <row r="85" spans="1:26">
+    <row r="85" spans="1:26" ht="16.5">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -10285,7 +10285,7 @@
       <c r="Y85" s="2"/>
       <c r="Z85" s="2"/>
     </row>
-    <row r="86" spans="1:26">
+    <row r="86" spans="1:26" ht="16.5">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -10313,7 +10313,7 @@
       <c r="Y86" s="2"/>
       <c r="Z86" s="2"/>
     </row>
-    <row r="87" spans="1:26">
+    <row r="87" spans="1:26" ht="16.5">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -10341,7 +10341,7 @@
       <c r="Y87" s="2"/>
       <c r="Z87" s="2"/>
     </row>
-    <row r="88" spans="1:26">
+    <row r="88" spans="1:26" ht="16.5">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -10369,7 +10369,7 @@
       <c r="Y88" s="2"/>
       <c r="Z88" s="2"/>
     </row>
-    <row r="89" spans="1:26">
+    <row r="89" spans="1:26" ht="16.5">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -10397,7 +10397,7 @@
       <c r="Y89" s="2"/>
       <c r="Z89" s="2"/>
     </row>
-    <row r="90" spans="1:26">
+    <row r="90" spans="1:26" ht="16.5">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -10425,7 +10425,7 @@
       <c r="Y90" s="2"/>
       <c r="Z90" s="2"/>
     </row>
-    <row r="91" spans="1:26">
+    <row r="91" spans="1:26" ht="16.5">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -10453,7 +10453,7 @@
       <c r="Y91" s="2"/>
       <c r="Z91" s="2"/>
     </row>
-    <row r="92" spans="1:26">
+    <row r="92" spans="1:26" ht="16.5">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -10481,7 +10481,7 @@
       <c r="Y92" s="2"/>
       <c r="Z92" s="2"/>
     </row>
-    <row r="93" spans="1:26">
+    <row r="93" spans="1:26" ht="16.5">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -10509,7 +10509,7 @@
       <c r="Y93" s="2"/>
       <c r="Z93" s="2"/>
     </row>
-    <row r="94" spans="1:26">
+    <row r="94" spans="1:26" ht="16.5">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -10537,7 +10537,7 @@
       <c r="Y94" s="2"/>
       <c r="Z94" s="2"/>
     </row>
-    <row r="95" spans="1:26">
+    <row r="95" spans="1:26" ht="16.5">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -10565,7 +10565,7 @@
       <c r="Y95" s="2"/>
       <c r="Z95" s="2"/>
     </row>
-    <row r="96" spans="1:26">
+    <row r="96" spans="1:26" ht="16.5">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -10593,7 +10593,7 @@
       <c r="Y96" s="2"/>
       <c r="Z96" s="2"/>
     </row>
-    <row r="97" spans="1:26">
+    <row r="97" spans="1:26" ht="16.5">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -10621,7 +10621,7 @@
       <c r="Y97" s="2"/>
       <c r="Z97" s="2"/>
     </row>
-    <row r="98" spans="1:26">
+    <row r="98" spans="1:26" ht="16.5">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -10649,7 +10649,7 @@
       <c r="Y98" s="2"/>
       <c r="Z98" s="2"/>
     </row>
-    <row r="99" spans="1:26">
+    <row r="99" spans="1:26" ht="16.5">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -10677,7 +10677,7 @@
       <c r="Y99" s="2"/>
       <c r="Z99" s="2"/>
     </row>
-    <row r="100" spans="1:26">
+    <row r="100" spans="1:26" ht="16.5">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -10705,7 +10705,7 @@
       <c r="Y100" s="2"/>
       <c r="Z100" s="2"/>
     </row>
-    <row r="101" spans="1:26">
+    <row r="101" spans="1:26" ht="16.5">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -10733,7 +10733,7 @@
       <c r="Y101" s="2"/>
       <c r="Z101" s="2"/>
     </row>
-    <row r="102" spans="1:26">
+    <row r="102" spans="1:26" ht="16.5">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -10761,7 +10761,7 @@
       <c r="Y102" s="2"/>
       <c r="Z102" s="2"/>
     </row>
-    <row r="103" spans="1:26">
+    <row r="103" spans="1:26" ht="16.5">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -10789,7 +10789,7 @@
       <c r="Y103" s="2"/>
       <c r="Z103" s="2"/>
     </row>
-    <row r="104" spans="1:26">
+    <row r="104" spans="1:26" ht="16.5">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -10817,7 +10817,7 @@
       <c r="Y104" s="2"/>
       <c r="Z104" s="2"/>
     </row>
-    <row r="105" spans="1:26">
+    <row r="105" spans="1:26" ht="16.5">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -10845,7 +10845,7 @@
       <c r="Y105" s="2"/>
       <c r="Z105" s="2"/>
     </row>
-    <row r="106" spans="1:26">
+    <row r="106" spans="1:26" ht="16.5">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -10873,7 +10873,7 @@
       <c r="Y106" s="2"/>
       <c r="Z106" s="2"/>
     </row>
-    <row r="107" spans="1:26">
+    <row r="107" spans="1:26" ht="16.5">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -10901,7 +10901,7 @@
       <c r="Y107" s="2"/>
       <c r="Z107" s="2"/>
     </row>
-    <row r="108" spans="1:26">
+    <row r="108" spans="1:26" ht="16.5">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -10929,7 +10929,7 @@
       <c r="Y108" s="2"/>
       <c r="Z108" s="2"/>
     </row>
-    <row r="109" spans="1:26">
+    <row r="109" spans="1:26" ht="16.5">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -10957,7 +10957,7 @@
       <c r="Y109" s="2"/>
       <c r="Z109" s="2"/>
     </row>
-    <row r="110" spans="1:26">
+    <row r="110" spans="1:26" ht="16.5">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -10985,7 +10985,7 @@
       <c r="Y110" s="2"/>
       <c r="Z110" s="2"/>
     </row>
-    <row r="111" spans="1:26">
+    <row r="111" spans="1:26" ht="16.5">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -11013,7 +11013,7 @@
       <c r="Y111" s="2"/>
       <c r="Z111" s="2"/>
     </row>
-    <row r="112" spans="1:26">
+    <row r="112" spans="1:26" ht="16.5">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -11041,7 +11041,7 @@
       <c r="Y112" s="2"/>
       <c r="Z112" s="2"/>
     </row>
-    <row r="113" spans="1:26">
+    <row r="113" spans="1:26" ht="16.5">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -11069,7 +11069,7 @@
       <c r="Y113" s="2"/>
       <c r="Z113" s="2"/>
     </row>
-    <row r="114" spans="1:26">
+    <row r="114" spans="1:26" ht="16.5">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -11097,7 +11097,7 @@
       <c r="Y114" s="2"/>
       <c r="Z114" s="2"/>
     </row>
-    <row r="115" spans="1:26">
+    <row r="115" spans="1:26" ht="16.5">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -11125,7 +11125,7 @@
       <c r="Y115" s="2"/>
       <c r="Z115" s="2"/>
     </row>
-    <row r="116" spans="1:26">
+    <row r="116" spans="1:26" ht="16.5">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -11153,7 +11153,7 @@
       <c r="Y116" s="2"/>
       <c r="Z116" s="2"/>
     </row>
-    <row r="117" spans="1:26">
+    <row r="117" spans="1:26" ht="16.5">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -11181,7 +11181,7 @@
       <c r="Y117" s="2"/>
       <c r="Z117" s="2"/>
     </row>
-    <row r="118" spans="1:26">
+    <row r="118" spans="1:26" ht="16.5">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -11209,7 +11209,7 @@
       <c r="Y118" s="2"/>
       <c r="Z118" s="2"/>
     </row>
-    <row r="119" spans="1:26">
+    <row r="119" spans="1:26" ht="16.5">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -11237,7 +11237,7 @@
       <c r="Y119" s="2"/>
       <c r="Z119" s="2"/>
     </row>
-    <row r="120" spans="1:26">
+    <row r="120" spans="1:26" ht="16.5">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -11265,7 +11265,7 @@
       <c r="Y120" s="2"/>
       <c r="Z120" s="2"/>
     </row>
-    <row r="121" spans="1:26">
+    <row r="121" spans="1:26" ht="16.5">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -11293,7 +11293,7 @@
       <c r="Y121" s="2"/>
       <c r="Z121" s="2"/>
     </row>
-    <row r="122" spans="1:26">
+    <row r="122" spans="1:26" ht="16.5">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -11321,7 +11321,7 @@
       <c r="Y122" s="2"/>
       <c r="Z122" s="2"/>
     </row>
-    <row r="123" spans="1:26">
+    <row r="123" spans="1:26" ht="16.5">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -11349,7 +11349,7 @@
       <c r="Y123" s="2"/>
       <c r="Z123" s="2"/>
     </row>
-    <row r="124" spans="1:26">
+    <row r="124" spans="1:26" ht="16.5">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -11377,7 +11377,7 @@
       <c r="Y124" s="2"/>
       <c r="Z124" s="2"/>
     </row>
-    <row r="125" spans="1:26">
+    <row r="125" spans="1:26" ht="16.5">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -11405,7 +11405,7 @@
       <c r="Y125" s="2"/>
       <c r="Z125" s="2"/>
     </row>
-    <row r="126" spans="1:26">
+    <row r="126" spans="1:26" ht="16.5">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -11433,7 +11433,7 @@
       <c r="Y126" s="2"/>
       <c r="Z126" s="2"/>
     </row>
-    <row r="127" spans="1:26">
+    <row r="127" spans="1:26" ht="16.5">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -11461,7 +11461,7 @@
       <c r="Y127" s="2"/>
       <c r="Z127" s="2"/>
     </row>
-    <row r="128" spans="1:26">
+    <row r="128" spans="1:26" ht="16.5">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -11489,7 +11489,7 @@
       <c r="Y128" s="2"/>
       <c r="Z128" s="2"/>
     </row>
-    <row r="129" spans="1:26">
+    <row r="129" spans="1:26" ht="16.5">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -11517,7 +11517,7 @@
       <c r="Y129" s="2"/>
       <c r="Z129" s="2"/>
     </row>
-    <row r="130" spans="1:26">
+    <row r="130" spans="1:26" ht="16.5">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -11545,7 +11545,7 @@
       <c r="Y130" s="2"/>
       <c r="Z130" s="2"/>
     </row>
-    <row r="131" spans="1:26">
+    <row r="131" spans="1:26" ht="16.5">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -11573,7 +11573,7 @@
       <c r="Y131" s="2"/>
       <c r="Z131" s="2"/>
     </row>
-    <row r="132" spans="1:26">
+    <row r="132" spans="1:26" ht="16.5">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -11601,7 +11601,7 @@
       <c r="Y132" s="2"/>
       <c r="Z132" s="2"/>
     </row>
-    <row r="133" spans="1:26">
+    <row r="133" spans="1:26" ht="16.5">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -11629,7 +11629,7 @@
       <c r="Y133" s="2"/>
       <c r="Z133" s="2"/>
     </row>
-    <row r="134" spans="1:26">
+    <row r="134" spans="1:26" ht="16.5">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -11657,7 +11657,7 @@
       <c r="Y134" s="2"/>
       <c r="Z134" s="2"/>
     </row>
-    <row r="135" spans="1:26">
+    <row r="135" spans="1:26" ht="16.5">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -11685,7 +11685,7 @@
       <c r="Y135" s="2"/>
       <c r="Z135" s="2"/>
     </row>
-    <row r="136" spans="1:26">
+    <row r="136" spans="1:26" ht="16.5">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -11713,7 +11713,7 @@
       <c r="Y136" s="2"/>
       <c r="Z136" s="2"/>
     </row>
-    <row r="137" spans="1:26">
+    <row r="137" spans="1:26" ht="16.5">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -11741,7 +11741,7 @@
       <c r="Y137" s="2"/>
       <c r="Z137" s="2"/>
     </row>
-    <row r="138" spans="1:26">
+    <row r="138" spans="1:26" ht="16.5">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -11769,7 +11769,7 @@
       <c r="Y138" s="2"/>
       <c r="Z138" s="2"/>
     </row>
-    <row r="139" spans="1:26">
+    <row r="139" spans="1:26" ht="16.5">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -11797,7 +11797,7 @@
       <c r="Y139" s="2"/>
       <c r="Z139" s="2"/>
     </row>
-    <row r="140" spans="1:26">
+    <row r="140" spans="1:26" ht="16.5">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -11825,7 +11825,7 @@
       <c r="Y140" s="2"/>
       <c r="Z140" s="2"/>
     </row>
-    <row r="141" spans="1:26">
+    <row r="141" spans="1:26" ht="16.5">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -11853,7 +11853,7 @@
       <c r="Y141" s="2"/>
       <c r="Z141" s="2"/>
     </row>
-    <row r="142" spans="1:26">
+    <row r="142" spans="1:26" ht="16.5">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -11881,7 +11881,7 @@
       <c r="Y142" s="2"/>
       <c r="Z142" s="2"/>
     </row>
-    <row r="143" spans="1:26">
+    <row r="143" spans="1:26" ht="16.5">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -11909,7 +11909,7 @@
       <c r="Y143" s="2"/>
       <c r="Z143" s="2"/>
     </row>
-    <row r="144" spans="1:26">
+    <row r="144" spans="1:26" ht="16.5">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -11937,7 +11937,7 @@
       <c r="Y144" s="2"/>
       <c r="Z144" s="2"/>
     </row>
-    <row r="145" spans="1:26">
+    <row r="145" spans="1:26" ht="16.5">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -11965,7 +11965,7 @@
       <c r="Y145" s="2"/>
       <c r="Z145" s="2"/>
     </row>
-    <row r="146" spans="1:26">
+    <row r="146" spans="1:26" ht="16.5">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -11993,7 +11993,7 @@
       <c r="Y146" s="2"/>
       <c r="Z146" s="2"/>
     </row>
-    <row r="147" spans="1:26">
+    <row r="147" spans="1:26" ht="16.5">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -12021,7 +12021,7 @@
       <c r="Y147" s="2"/>
       <c r="Z147" s="2"/>
     </row>
-    <row r="148" spans="1:26">
+    <row r="148" spans="1:26" ht="16.5">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -12049,7 +12049,7 @@
       <c r="Y148" s="2"/>
       <c r="Z148" s="2"/>
     </row>
-    <row r="149" spans="1:26">
+    <row r="149" spans="1:26" ht="16.5">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -12077,7 +12077,7 @@
       <c r="Y149" s="2"/>
       <c r="Z149" s="2"/>
     </row>
-    <row r="150" spans="1:26">
+    <row r="150" spans="1:26" ht="16.5">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -12105,7 +12105,7 @@
       <c r="Y150" s="2"/>
       <c r="Z150" s="2"/>
     </row>
-    <row r="151" spans="1:26">
+    <row r="151" spans="1:26" ht="16.5">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -12133,7 +12133,7 @@
       <c r="Y151" s="2"/>
       <c r="Z151" s="2"/>
     </row>
-    <row r="152" spans="1:26">
+    <row r="152" spans="1:26" ht="16.5">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -12161,7 +12161,7 @@
       <c r="Y152" s="2"/>
       <c r="Z152" s="2"/>
     </row>
-    <row r="153" spans="1:26">
+    <row r="153" spans="1:26" ht="16.5">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -12189,7 +12189,7 @@
       <c r="Y153" s="2"/>
       <c r="Z153" s="2"/>
     </row>
-    <row r="154" spans="1:26">
+    <row r="154" spans="1:26" ht="16.5">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -12217,7 +12217,7 @@
       <c r="Y154" s="2"/>
       <c r="Z154" s="2"/>
     </row>
-    <row r="155" spans="1:26">
+    <row r="155" spans="1:26" ht="16.5">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -12245,7 +12245,7 @@
       <c r="Y155" s="2"/>
       <c r="Z155" s="2"/>
     </row>
-    <row r="156" spans="1:26">
+    <row r="156" spans="1:26" ht="16.5">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -12273,7 +12273,7 @@
       <c r="Y156" s="2"/>
       <c r="Z156" s="2"/>
     </row>
-    <row r="157" spans="1:26">
+    <row r="157" spans="1:26" ht="16.5">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -12301,7 +12301,7 @@
       <c r="Y157" s="2"/>
       <c r="Z157" s="2"/>
     </row>
-    <row r="158" spans="1:26">
+    <row r="158" spans="1:26" ht="16.5">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -12329,7 +12329,7 @@
       <c r="Y158" s="2"/>
       <c r="Z158" s="2"/>
     </row>
-    <row r="159" spans="1:26">
+    <row r="159" spans="1:26" ht="16.5">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -12357,7 +12357,7 @@
       <c r="Y159" s="2"/>
       <c r="Z159" s="2"/>
     </row>
-    <row r="160" spans="1:26">
+    <row r="160" spans="1:26" ht="16.5">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -12385,7 +12385,7 @@
       <c r="Y160" s="2"/>
       <c r="Z160" s="2"/>
     </row>
-    <row r="161" spans="1:26">
+    <row r="161" spans="1:26" ht="16.5">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -12413,7 +12413,7 @@
       <c r="Y161" s="2"/>
       <c r="Z161" s="2"/>
     </row>
-    <row r="162" spans="1:26">
+    <row r="162" spans="1:26" ht="16.5">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -12441,7 +12441,7 @@
       <c r="Y162" s="2"/>
       <c r="Z162" s="2"/>
     </row>
-    <row r="163" spans="1:26">
+    <row r="163" spans="1:26" ht="16.5">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -12469,7 +12469,7 @@
       <c r="Y163" s="2"/>
       <c r="Z163" s="2"/>
     </row>
-    <row r="164" spans="1:26">
+    <row r="164" spans="1:26" ht="16.5">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -12497,7 +12497,7 @@
       <c r="Y164" s="2"/>
       <c r="Z164" s="2"/>
     </row>
-    <row r="165" spans="1:26">
+    <row r="165" spans="1:26" ht="16.5">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -12525,7 +12525,7 @@
       <c r="Y165" s="2"/>
       <c r="Z165" s="2"/>
     </row>
-    <row r="166" spans="1:26">
+    <row r="166" spans="1:26" ht="16.5">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -12553,7 +12553,7 @@
       <c r="Y166" s="2"/>
       <c r="Z166" s="2"/>
     </row>
-    <row r="167" spans="1:26">
+    <row r="167" spans="1:26" ht="16.5">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -12581,7 +12581,7 @@
       <c r="Y167" s="2"/>
       <c r="Z167" s="2"/>
     </row>
-    <row r="168" spans="1:26">
+    <row r="168" spans="1:26" ht="16.5">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -12609,7 +12609,7 @@
       <c r="Y168" s="2"/>
       <c r="Z168" s="2"/>
     </row>
-    <row r="169" spans="1:26">
+    <row r="169" spans="1:26" ht="16.5">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -12637,7 +12637,7 @@
       <c r="Y169" s="2"/>
       <c r="Z169" s="2"/>
     </row>
-    <row r="170" spans="1:26">
+    <row r="170" spans="1:26" ht="16.5">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -12665,7 +12665,7 @@
       <c r="Y170" s="2"/>
       <c r="Z170" s="2"/>
     </row>
-    <row r="171" spans="1:26">
+    <row r="171" spans="1:26" ht="16.5">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -12693,7 +12693,7 @@
       <c r="Y171" s="2"/>
       <c r="Z171" s="2"/>
     </row>
-    <row r="172" spans="1:26">
+    <row r="172" spans="1:26" ht="16.5">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -12721,7 +12721,7 @@
       <c r="Y172" s="2"/>
       <c r="Z172" s="2"/>
     </row>
-    <row r="173" spans="1:26">
+    <row r="173" spans="1:26" ht="16.5">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -12749,7 +12749,7 @@
       <c r="Y173" s="2"/>
       <c r="Z173" s="2"/>
     </row>
-    <row r="174" spans="1:26">
+    <row r="174" spans="1:26" ht="16.5">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -12777,7 +12777,7 @@
       <c r="Y174" s="2"/>
       <c r="Z174" s="2"/>
     </row>
-    <row r="175" spans="1:26">
+    <row r="175" spans="1:26" ht="16.5">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -12805,7 +12805,7 @@
       <c r="Y175" s="2"/>
       <c r="Z175" s="2"/>
     </row>
-    <row r="176" spans="1:26">
+    <row r="176" spans="1:26" ht="16.5">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -12833,7 +12833,7 @@
       <c r="Y176" s="2"/>
       <c r="Z176" s="2"/>
     </row>
-    <row r="177" spans="1:26">
+    <row r="177" spans="1:26" ht="16.5">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -12861,7 +12861,7 @@
       <c r="Y177" s="2"/>
       <c r="Z177" s="2"/>
     </row>
-    <row r="178" spans="1:26">
+    <row r="178" spans="1:26" ht="16.5">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -12889,7 +12889,7 @@
       <c r="Y178" s="2"/>
       <c r="Z178" s="2"/>
     </row>
-    <row r="179" spans="1:26">
+    <row r="179" spans="1:26" ht="16.5">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -12917,7 +12917,7 @@
       <c r="Y179" s="2"/>
       <c r="Z179" s="2"/>
     </row>
-    <row r="180" spans="1:26">
+    <row r="180" spans="1:26" ht="16.5">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -12945,7 +12945,7 @@
       <c r="Y180" s="2"/>
       <c r="Z180" s="2"/>
     </row>
-    <row r="181" spans="1:26">
+    <row r="181" spans="1:26" ht="16.5">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -12973,7 +12973,7 @@
       <c r="Y181" s="2"/>
       <c r="Z181" s="2"/>
     </row>
-    <row r="182" spans="1:26">
+    <row r="182" spans="1:26" ht="16.5">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -13001,7 +13001,7 @@
       <c r="Y182" s="2"/>
       <c r="Z182" s="2"/>
     </row>
-    <row r="183" spans="1:26">
+    <row r="183" spans="1:26" ht="16.5">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -13029,7 +13029,7 @@
       <c r="Y183" s="2"/>
       <c r="Z183" s="2"/>
     </row>
-    <row r="184" spans="1:26">
+    <row r="184" spans="1:26" ht="16.5">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -13057,7 +13057,7 @@
       <c r="Y184" s="2"/>
       <c r="Z184" s="2"/>
     </row>
-    <row r="185" spans="1:26">
+    <row r="185" spans="1:26" ht="16.5">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -13085,7 +13085,7 @@
       <c r="Y185" s="2"/>
       <c r="Z185" s="2"/>
     </row>
-    <row r="186" spans="1:26">
+    <row r="186" spans="1:26" ht="16.5">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -13113,7 +13113,7 @@
       <c r="Y186" s="2"/>
       <c r="Z186" s="2"/>
     </row>
-    <row r="187" spans="1:26">
+    <row r="187" spans="1:26" ht="16.5">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -13141,7 +13141,7 @@
       <c r="Y187" s="2"/>
       <c r="Z187" s="2"/>
     </row>
-    <row r="188" spans="1:26">
+    <row r="188" spans="1:26" ht="16.5">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -13169,7 +13169,7 @@
       <c r="Y188" s="2"/>
       <c r="Z188" s="2"/>
     </row>
-    <row r="189" spans="1:26">
+    <row r="189" spans="1:26" ht="16.5">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -13197,7 +13197,7 @@
       <c r="Y189" s="2"/>
       <c r="Z189" s="2"/>
     </row>
-    <row r="190" spans="1:26">
+    <row r="190" spans="1:26" ht="16.5">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -13225,7 +13225,7 @@
       <c r="Y190" s="2"/>
       <c r="Z190" s="2"/>
     </row>
-    <row r="191" spans="1:26">
+    <row r="191" spans="1:26" ht="16.5">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -13253,7 +13253,7 @@
       <c r="Y191" s="2"/>
       <c r="Z191" s="2"/>
     </row>
-    <row r="192" spans="1:26">
+    <row r="192" spans="1:26" ht="16.5">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -13281,7 +13281,7 @@
       <c r="Y192" s="2"/>
       <c r="Z192" s="2"/>
     </row>
-    <row r="193" spans="1:26">
+    <row r="193" spans="1:26" ht="16.5">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -13309,7 +13309,7 @@
       <c r="Y193" s="2"/>
       <c r="Z193" s="2"/>
     </row>
-    <row r="194" spans="1:26">
+    <row r="194" spans="1:26" ht="16.5">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -13337,7 +13337,7 @@
       <c r="Y194" s="2"/>
       <c r="Z194" s="2"/>
     </row>
-    <row r="195" spans="1:26">
+    <row r="195" spans="1:26" ht="16.5">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -13365,7 +13365,7 @@
       <c r="Y195" s="2"/>
       <c r="Z195" s="2"/>
     </row>
-    <row r="196" spans="1:26">
+    <row r="196" spans="1:26" ht="16.5">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -13393,7 +13393,7 @@
       <c r="Y196" s="2"/>
       <c r="Z196" s="2"/>
     </row>
-    <row r="197" spans="1:26">
+    <row r="197" spans="1:26" ht="16.5">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -13421,7 +13421,7 @@
       <c r="Y197" s="2"/>
       <c r="Z197" s="2"/>
     </row>
-    <row r="198" spans="1:26">
+    <row r="198" spans="1:26" ht="16.5">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -13449,7 +13449,7 @@
       <c r="Y198" s="2"/>
       <c r="Z198" s="2"/>
     </row>
-    <row r="199" spans="1:26">
+    <row r="199" spans="1:26" ht="16.5">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -13477,7 +13477,7 @@
       <c r="Y199" s="2"/>
       <c r="Z199" s="2"/>
     </row>
-    <row r="200" spans="1:26">
+    <row r="200" spans="1:26" ht="16.5">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -13519,13 +13519,13 @@
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="15.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" ht="16.5">
       <c r="A1" s="41" t="s">
         <v>6</v>
       </c>
@@ -13542,7 +13542,7 @@
       <c r="F1" s="26"/>
       <c r="G1" s="26"/>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" ht="16.5">
       <c r="A2" s="47" t="s">
         <v>8</v>
       </c>
@@ -13561,7 +13561,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" ht="16.5">
       <c r="A3" s="48" t="s">
         <v>47</v>
       </c>
@@ -13572,7 +13572,7 @@
       <c r="F3" s="42"/>
       <c r="G3" s="14"/>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" ht="16.5">
       <c r="A4" s="28" t="s">
         <v>13</v>
       </c>
@@ -13593,7 +13593,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" ht="16.5">
       <c r="A5" s="40" t="s">
         <v>48</v>
       </c>
@@ -13633,7 +13633,7 @@
         <v>&lt;if test="flowId != null and flowId !=''"&gt; and  flow_id= #{flowId} &lt;/if&gt;</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" ht="16.5">
       <c r="A6" s="40" t="s">
         <v>49</v>
       </c>
@@ -13673,7 +13673,7 @@
         <v>&lt;if test="flowName != null and flowName !=''"&gt; and  flow_name= #{flowName} &lt;/if&gt;</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" ht="16.5">
       <c r="A7" s="40" t="s">
         <v>50</v>
       </c>
@@ -13713,7 +13713,7 @@
         <v>&lt;if test="flowType != null and flowType !=''"&gt; and  flow_type= #{flowType} &lt;/if&gt;</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" ht="16.5">
       <c r="A8" s="40" t="s">
         <v>55</v>
       </c>
@@ -13753,7 +13753,7 @@
         <v>&lt;if test="parentFlowId != null and parentFlowId !=''"&gt; and  parent_flow_id= #{parentFlowId} &lt;/if&gt;</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" ht="16.5">
       <c r="A9" s="40" t="s">
         <v>54</v>
       </c>
@@ -13793,7 +13793,7 @@
         <v>&lt;if test="flowKey != null and flowKey !=''"&gt; and  flow_key= #{flowKey} &lt;/if&gt;</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" ht="16.5">
       <c r="A10" s="40" t="s">
         <v>64</v>
       </c>
@@ -13833,7 +13833,7 @@
         <v>&lt;if test="flowValue1 != null and flowValue1 !=''"&gt; and  flow_value1= #{flowValue1} &lt;/if&gt;</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" ht="16.5">
       <c r="A11" s="35" t="s">
         <v>241</v>
       </c>
@@ -13873,7 +13873,7 @@
         <v>&lt;if test="flowValue2 != null and flowValue2 !=''"&gt; and  flow_value2= #{flowValue2} &lt;/if&gt;</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" ht="16.5">
       <c r="A12" s="35" t="s">
         <v>242</v>
       </c>
@@ -13913,7 +13913,7 @@
         <v>&lt;if test="flowValue3 != null and flowValue3 !=''"&gt; and  flow_value3= #{flowValue3} &lt;/if&gt;</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" ht="16.5">
       <c r="A13" s="35" t="s">
         <v>243</v>
       </c>
@@ -13953,7 +13953,7 @@
         <v>&lt;if test="flowValue4 != null and flowValue4 !=''"&gt; and  flow_value4= #{flowValue4} &lt;/if&gt;</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" ht="16.5">
       <c r="A14" s="40" t="s">
         <v>51</v>
       </c>
@@ -13993,7 +13993,7 @@
         <v>&lt;if test="flowValue5 != null and flowValue5 !=''"&gt; and  flow_value5= #{flowValue5} &lt;/if&gt;</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" ht="16.5">
       <c r="A15" s="40" t="s">
         <v>20</v>
       </c>
@@ -14033,7 +14033,7 @@
         <v>&lt;if test="flowSort != null and flowSort !=''"&gt; and  flow_sort= #{flowSort} &lt;/if&gt;</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" ht="16.5">
       <c r="A16" s="40" t="s">
         <v>52</v>
       </c>
@@ -14073,7 +14073,7 @@
         <v>&lt;if test="status != null and status !=''"&gt; and  status= #{status} &lt;/if&gt;</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" ht="16.5">
       <c r="A17" s="40" t="s">
         <v>53</v>
       </c>
@@ -14211,14 +14211,14 @@
       <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.8984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" ht="16.5">
       <c r="A1" s="20" t="s">
         <v>6</v>
       </c>
@@ -14235,7 +14235,7 @@
       <c r="F1" s="26"/>
       <c r="G1" s="26"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" ht="16.5">
       <c r="A2" s="47" t="s">
         <v>8</v>
       </c>
@@ -14267,7 +14267,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" ht="16.5">
       <c r="A4" s="28" t="s">
         <v>13</v>
       </c>
@@ -14288,7 +14288,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" ht="16.5">
       <c r="A5" s="31" t="s">
         <v>70</v>
       </c>
@@ -14303,7 +14303,7 @@
       <c r="F5" s="32"/>
       <c r="G5" s="32"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" ht="16.5">
       <c r="A6" s="31" t="s">
         <v>72</v>
       </c>
@@ -14318,7 +14318,7 @@
       <c r="F6" s="32"/>
       <c r="G6" s="32"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" ht="16.5">
       <c r="A7" s="31" t="s">
         <v>74</v>
       </c>
@@ -14333,7 +14333,7 @@
       <c r="F7" s="32"/>
       <c r="G7" s="32"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" ht="16.5">
       <c r="A8" s="33" t="s">
         <v>77</v>
       </c>
@@ -14348,7 +14348,7 @@
       <c r="F8" s="32"/>
       <c r="G8" s="32"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" ht="16.5">
       <c r="A9" s="33" t="s">
         <v>79</v>
       </c>
@@ -14363,7 +14363,7 @@
       <c r="F9" s="32"/>
       <c r="G9" s="32"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" ht="16.5">
       <c r="A10" s="33" t="s">
         <v>133</v>
       </c>
@@ -14378,7 +14378,7 @@
       <c r="F10" s="32"/>
       <c r="G10" s="32"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" ht="16.5">
       <c r="A11" s="33" t="s">
         <v>128</v>
       </c>
@@ -14393,7 +14393,7 @@
       <c r="F11" s="32"/>
       <c r="G11" s="32"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" ht="16.5">
       <c r="A12" s="33" t="s">
         <v>129</v>
       </c>
@@ -14408,7 +14408,7 @@
       <c r="F12" s="32"/>
       <c r="G12" s="32"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" ht="16.5">
       <c r="A13" s="33" t="s">
         <v>130</v>
       </c>
@@ -14423,7 +14423,7 @@
       <c r="F13" s="32"/>
       <c r="G13" s="32"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" ht="16.5">
       <c r="A14" s="33" t="s">
         <v>134</v>
       </c>
@@ -14438,7 +14438,7 @@
       <c r="F14" s="32"/>
       <c r="G14" s="32"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" ht="16.5">
       <c r="A15" s="33" t="s">
         <v>104</v>
       </c>
@@ -14453,7 +14453,7 @@
       <c r="F15" s="32"/>
       <c r="G15" s="32"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" ht="16.5">
       <c r="A16" s="21" t="s">
         <v>51</v>
       </c>
@@ -14468,7 +14468,7 @@
       <c r="F16" s="32"/>
       <c r="G16" s="32"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" ht="16.5">
       <c r="A17" s="21" t="s">
         <v>20</v>
       </c>
@@ -14483,7 +14483,7 @@
       <c r="F17" s="32"/>
       <c r="G17" s="32"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" ht="16.5">
       <c r="A18" s="21" t="s">
         <v>52</v>
       </c>
@@ -14498,7 +14498,7 @@
       <c r="F18" s="32"/>
       <c r="G18" s="32"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" ht="16.5">
       <c r="A19" s="21" t="s">
         <v>53</v>
       </c>
@@ -14536,16 +14536,16 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="18.09765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.8984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" ht="16.5">
       <c r="A1" s="20" t="s">
         <v>6</v>
       </c>
@@ -14562,7 +14562,7 @@
       <c r="F1" s="26"/>
       <c r="G1" s="26"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" ht="16.5">
       <c r="A2" s="47" t="s">
         <v>8</v>
       </c>
@@ -14581,7 +14581,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" ht="16.5">
       <c r="A3" s="48" t="s">
         <v>84</v>
       </c>
@@ -14592,7 +14592,7 @@
       <c r="F3" s="19"/>
       <c r="G3" s="30"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" ht="16.5">
       <c r="A4" s="28" t="s">
         <v>13</v>
       </c>
@@ -14613,7 +14613,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" ht="16.5">
       <c r="A5" s="31" t="s">
         <v>85</v>
       </c>
@@ -14628,7 +14628,7 @@
       <c r="F5" s="32"/>
       <c r="G5" s="32"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" ht="16.5">
       <c r="A6" s="31" t="s">
         <v>86</v>
       </c>
@@ -14643,7 +14643,7 @@
       <c r="F6" s="32"/>
       <c r="G6" s="32"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" ht="16.5">
       <c r="A7" s="31" t="s">
         <v>89</v>
       </c>
@@ -14658,7 +14658,7 @@
       <c r="F7" s="32"/>
       <c r="G7" s="32"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" ht="16.5">
       <c r="A8" s="33" t="s">
         <v>90</v>
       </c>
@@ -14673,7 +14673,7 @@
       <c r="F8" s="32"/>
       <c r="G8" s="32"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" ht="16.5">
       <c r="A9" s="33" t="s">
         <v>91</v>
       </c>
@@ -14688,7 +14688,7 @@
       <c r="F9" s="32"/>
       <c r="G9" s="32"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" ht="16.5">
       <c r="A10" s="33" t="s">
         <v>106</v>
       </c>
@@ -14703,7 +14703,7 @@
       <c r="F10" s="32"/>
       <c r="G10" s="32"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" ht="16.5">
       <c r="A11" s="33" t="s">
         <v>103</v>
       </c>
@@ -14718,7 +14718,7 @@
       <c r="F11" s="32"/>
       <c r="G11" s="32"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" ht="16.5">
       <c r="A12" s="33" t="s">
         <v>107</v>
       </c>
@@ -14733,7 +14733,7 @@
       <c r="F12" s="32"/>
       <c r="G12" s="32"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" ht="16.5">
       <c r="A13" s="33" t="s">
         <v>100</v>
       </c>
@@ -14748,7 +14748,7 @@
       <c r="F13" s="32"/>
       <c r="G13" s="32"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" ht="16.5">
       <c r="A14" s="33" t="s">
         <v>191</v>
       </c>
@@ -14763,7 +14763,7 @@
       <c r="F14" s="32"/>
       <c r="G14" s="32"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" ht="16.5">
       <c r="A15" s="33" t="s">
         <v>112</v>
       </c>
@@ -14778,7 +14778,7 @@
       <c r="F15" s="32"/>
       <c r="G15" s="32"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" ht="16.5">
       <c r="A16" s="33" t="s">
         <v>95</v>
       </c>
@@ -14793,7 +14793,7 @@
       <c r="F16" s="32"/>
       <c r="G16" s="32"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" ht="16.5">
       <c r="A17" s="33" t="s">
         <v>96</v>
       </c>
@@ -14808,7 +14808,7 @@
       <c r="F17" s="32"/>
       <c r="G17" s="32"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" ht="16.5">
       <c r="A18" s="33" t="s">
         <v>239</v>
       </c>
@@ -14819,7 +14819,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" ht="16.5">
       <c r="A19" s="33" t="s">
         <v>113</v>
       </c>
@@ -14834,7 +14834,7 @@
       <c r="F19" s="32"/>
       <c r="G19" s="32"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" ht="16.5">
       <c r="A20" s="33" t="s">
         <v>114</v>
       </c>
@@ -14849,7 +14849,7 @@
       <c r="F20" s="32"/>
       <c r="G20" s="32"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" ht="16.5">
       <c r="A21" s="33" t="s">
         <v>124</v>
       </c>
@@ -14864,7 +14864,7 @@
       <c r="F21" s="32"/>
       <c r="G21" s="32"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" ht="16.5">
       <c r="A22" s="33" t="s">
         <v>119</v>
       </c>
@@ -14879,7 +14879,7 @@
       <c r="F22" s="32"/>
       <c r="G22" s="32"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" ht="16.5">
       <c r="A23" s="33" t="s">
         <v>125</v>
       </c>
@@ -14894,7 +14894,7 @@
       <c r="F23" s="32"/>
       <c r="G23" s="32"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" ht="16.5">
       <c r="A24" s="23" t="s">
         <v>51</v>
       </c>
@@ -14909,7 +14909,7 @@
       <c r="F24" s="32"/>
       <c r="G24" s="32"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" ht="16.5">
       <c r="A25" s="23" t="s">
         <v>20</v>
       </c>
@@ -14924,7 +14924,7 @@
       <c r="F25" s="32"/>
       <c r="G25" s="32"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" ht="16.5">
       <c r="A26" s="23" t="s">
         <v>52</v>
       </c>
@@ -14939,7 +14939,7 @@
       <c r="F26" s="32"/>
       <c r="G26" s="32"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" ht="16.5">
       <c r="A27" s="23" t="s">
         <v>53</v>
       </c>
@@ -14954,7 +14954,7 @@
       <c r="F27" s="32"/>
       <c r="G27" s="32"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" ht="16.5">
       <c r="A28" s="35" t="s">
         <v>120</v>
       </c>
@@ -14969,7 +14969,7 @@
       <c r="F28" s="32"/>
       <c r="G28" s="32"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" ht="16.5">
       <c r="A29" s="35" t="s">
         <v>121</v>
       </c>
@@ -15010,13 +15010,13 @@
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="2" width="18.09765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="18.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" ht="16.5">
       <c r="A1" s="20" t="s">
         <v>6</v>
       </c>
@@ -15033,7 +15033,7 @@
       <c r="F1" s="26"/>
       <c r="G1" s="26"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" ht="16.5">
       <c r="A2" s="47" t="s">
         <v>8</v>
       </c>
@@ -15052,7 +15052,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" ht="16.5">
       <c r="A3" s="48" t="s">
         <v>141</v>
       </c>
@@ -15063,7 +15063,7 @@
       <c r="F3" s="19"/>
       <c r="G3" s="30"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" ht="16.5">
       <c r="A4" s="28" t="s">
         <v>13</v>
       </c>
@@ -15084,7 +15084,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" ht="16.5">
       <c r="A5" s="31" t="s">
         <v>142</v>
       </c>
@@ -15099,7 +15099,7 @@
       <c r="F5" s="32"/>
       <c r="G5" s="32"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" ht="16.5">
       <c r="A6" s="31" t="s">
         <v>144</v>
       </c>
@@ -15114,7 +15114,7 @@
       <c r="F6" s="32"/>
       <c r="G6" s="32"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" ht="16.5">
       <c r="A7" t="s">
         <v>258</v>
       </c>
@@ -15125,7 +15125,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" ht="16.5">
       <c r="A8" s="31" t="s">
         <v>146</v>
       </c>
@@ -15140,7 +15140,7 @@
       <c r="F8" s="32"/>
       <c r="G8" s="32"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" ht="16.5">
       <c r="A9" s="33" t="s">
         <v>147</v>
       </c>
@@ -15155,7 +15155,7 @@
       <c r="F9" s="32"/>
       <c r="G9" s="32"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" ht="16.5">
       <c r="A10" s="33" t="s">
         <v>148</v>
       </c>
@@ -15170,7 +15170,7 @@
       <c r="F10" s="32"/>
       <c r="G10" s="32"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" ht="16.5">
       <c r="A11" s="33" t="s">
         <v>160</v>
       </c>
@@ -15185,7 +15185,7 @@
       <c r="F11" s="32"/>
       <c r="G11" s="32"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" ht="16.5">
       <c r="A12" s="33" t="s">
         <v>149</v>
       </c>
@@ -15200,7 +15200,7 @@
       <c r="F12" s="32"/>
       <c r="G12" s="32"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" ht="16.5">
       <c r="A13" s="33" t="s">
         <v>150</v>
       </c>
@@ -15215,7 +15215,7 @@
       <c r="F13" s="32"/>
       <c r="G13" s="32"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" ht="16.5">
       <c r="A14" s="33" t="s">
         <v>157</v>
       </c>
@@ -15230,7 +15230,7 @@
       <c r="F14" s="32"/>
       <c r="G14" s="32"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" ht="16.5">
       <c r="A15" s="33" t="s">
         <v>156</v>
       </c>
@@ -15245,7 +15245,7 @@
       <c r="F15" s="32"/>
       <c r="G15" s="32"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" ht="16.5">
       <c r="A16" s="33" t="s">
         <v>158</v>
       </c>
@@ -15260,7 +15260,7 @@
       <c r="F16" s="32"/>
       <c r="G16" s="32"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" ht="16.5">
       <c r="A17" s="33" t="s">
         <v>159</v>
       </c>
@@ -15275,7 +15275,7 @@
       <c r="F17" s="32"/>
       <c r="G17" s="32"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" ht="16.5">
       <c r="A18" s="35" t="s">
         <v>241</v>
       </c>
@@ -15290,7 +15290,7 @@
       <c r="F18" s="32"/>
       <c r="G18" s="32"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" ht="16.5">
       <c r="A19" s="35" t="s">
         <v>242</v>
       </c>
@@ -15305,7 +15305,7 @@
       <c r="F19" s="32"/>
       <c r="G19" s="32"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" ht="16.5">
       <c r="A20" s="40" t="s">
         <v>51</v>
       </c>
@@ -15320,7 +15320,7 @@
       <c r="F20" s="32"/>
       <c r="G20" s="32"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" ht="16.5">
       <c r="A21" s="40" t="s">
         <v>20</v>
       </c>
@@ -15335,7 +15335,7 @@
       <c r="F21" s="32"/>
       <c r="G21" s="32"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" ht="16.5">
       <c r="A22" s="40" t="s">
         <v>52</v>
       </c>
@@ -15350,7 +15350,7 @@
       <c r="F22" s="32"/>
       <c r="G22" s="32"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" ht="16.5">
       <c r="A23" s="40" t="s">
         <v>53</v>
       </c>
@@ -15365,7 +15365,7 @@
       <c r="F23" s="32"/>
       <c r="G23" s="32"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" ht="16.5">
       <c r="A24" s="35" t="s">
         <v>120</v>
       </c>
@@ -15380,7 +15380,7 @@
       <c r="F24" s="32"/>
       <c r="G24" s="32"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" ht="16.5">
       <c r="A25" s="35" t="s">
         <v>121</v>
       </c>
@@ -15420,15 +15420,15 @@
       <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="13.69921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.8984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.59765625" customWidth="1"/>
+    <col min="7" max="7" width="24.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" ht="16.5">
       <c r="A1" s="22" t="s">
         <v>6</v>
       </c>
@@ -15445,7 +15445,7 @@
       <c r="F1" s="26"/>
       <c r="G1" s="26"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" ht="16.5">
       <c r="A2" s="47" t="s">
         <v>8</v>
       </c>
@@ -15464,7 +15464,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" ht="16.5">
       <c r="A3" s="48" t="s">
         <v>167</v>
       </c>
@@ -15477,7 +15477,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" ht="16.5">
       <c r="A4" s="28" t="s">
         <v>13</v>
       </c>
@@ -15498,7 +15498,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" ht="16.5">
       <c r="A5" s="31" t="s">
         <v>168</v>
       </c>
@@ -15513,7 +15513,7 @@
       <c r="F5" s="32"/>
       <c r="G5" s="32"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" ht="16.5">
       <c r="A6" s="31" t="s">
         <v>169</v>
       </c>
@@ -15528,7 +15528,7 @@
       <c r="F6" s="32"/>
       <c r="G6" s="32"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" ht="16.5">
       <c r="A7" s="31" t="s">
         <v>170</v>
       </c>
@@ -15543,7 +15543,7 @@
       <c r="F7" s="32"/>
       <c r="G7" s="32"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" ht="16.5">
       <c r="A8" s="33" t="s">
         <v>174</v>
       </c>
@@ -15558,7 +15558,7 @@
       <c r="F8" s="32"/>
       <c r="G8" s="32"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" ht="16.5">
       <c r="A9" s="33" t="s">
         <v>171</v>
       </c>
@@ -15573,7 +15573,7 @@
       <c r="F9" s="32"/>
       <c r="G9" s="32"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" ht="16.5">
       <c r="A10" s="33" t="s">
         <v>185</v>
       </c>
@@ -15588,7 +15588,7 @@
       <c r="F10" s="32"/>
       <c r="G10" s="32"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" ht="16.5">
       <c r="A11" s="33" t="s">
         <v>175</v>
       </c>
@@ -15603,7 +15603,7 @@
       <c r="F11" s="32"/>
       <c r="G11" s="32"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" ht="16.5">
       <c r="A12" s="33" t="s">
         <v>172</v>
       </c>
@@ -15618,7 +15618,7 @@
       <c r="F12" s="32"/>
       <c r="G12" s="32"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" ht="16.5">
       <c r="A13" s="33" t="s">
         <v>173</v>
       </c>
@@ -15633,7 +15633,7 @@
       <c r="F13" s="32"/>
       <c r="G13" s="32"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" ht="16.5">
       <c r="A14" s="23" t="s">
         <v>51</v>
       </c>
@@ -15648,7 +15648,7 @@
       <c r="F14" s="32"/>
       <c r="G14" s="32"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" ht="16.5">
       <c r="A15" s="23" t="s">
         <v>20</v>
       </c>
@@ -15663,7 +15663,7 @@
       <c r="F15" s="32"/>
       <c r="G15" s="32"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" ht="16.5">
       <c r="A16" s="23" t="s">
         <v>52</v>
       </c>
@@ -15678,7 +15678,7 @@
       <c r="F16" s="32"/>
       <c r="G16" s="32"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" ht="16.5">
       <c r="A17" s="23" t="s">
         <v>53</v>
       </c>
@@ -15716,7 +15716,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15731,12 +15731,12 @@
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="18.09765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" ht="16.5">
       <c r="A1" s="37" t="s">
         <v>6</v>
       </c>
@@ -15753,7 +15753,7 @@
       <c r="F1" s="26"/>
       <c r="G1" s="26"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" ht="16.5">
       <c r="A2" s="47" t="s">
         <v>8</v>
       </c>
@@ -15772,7 +15772,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" ht="16.5">
       <c r="A3" s="48" t="s">
         <v>201</v>
       </c>
@@ -15783,7 +15783,7 @@
       <c r="F3" s="38"/>
       <c r="G3" s="30"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" ht="16.5">
       <c r="A4" s="28" t="s">
         <v>13</v>
       </c>
@@ -15804,7 +15804,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" ht="16.5">
       <c r="A5" s="32" t="s">
         <v>205</v>
       </c>
@@ -15819,7 +15819,7 @@
       <c r="F5" s="32"/>
       <c r="G5" s="32"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" ht="16.5">
       <c r="A6" s="32" t="s">
         <v>207</v>
       </c>
@@ -15834,7 +15834,7 @@
       <c r="F6" s="32"/>
       <c r="G6" s="32"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" ht="16.5">
       <c r="A7" s="32" t="s">
         <v>206</v>
       </c>
@@ -15849,7 +15849,7 @@
       <c r="F7" s="32"/>
       <c r="G7" s="32"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" ht="16.5">
       <c r="A8" s="32" t="s">
         <v>208</v>
       </c>
@@ -15864,7 +15864,7 @@
       <c r="F8" s="32"/>
       <c r="G8" s="32"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" ht="16.5">
       <c r="A9" s="31" t="s">
         <v>226</v>
       </c>
@@ -15879,7 +15879,7 @@
       <c r="F9" s="32"/>
       <c r="G9" s="32"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" ht="16.5">
       <c r="A10" s="31" t="s">
         <v>227</v>
       </c>
@@ -15894,7 +15894,7 @@
       <c r="F10" s="32"/>
       <c r="G10" s="32"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" ht="16.5">
       <c r="A11" s="32" t="s">
         <v>209</v>
       </c>
@@ -15909,7 +15909,7 @@
       <c r="F11" s="32"/>
       <c r="G11" s="32"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" ht="16.5">
       <c r="A12" s="32" t="s">
         <v>210</v>
       </c>
@@ -15924,7 +15924,7 @@
       <c r="F12" s="32"/>
       <c r="G12" s="32"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" ht="16.5">
       <c r="A13" s="32" t="s">
         <v>211</v>
       </c>
@@ -15939,7 +15939,7 @@
       <c r="F13" s="32"/>
       <c r="G13" s="32"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" ht="16.5">
       <c r="A14" s="32" t="s">
         <v>212</v>
       </c>
@@ -15954,7 +15954,7 @@
       <c r="F14" s="32"/>
       <c r="G14" s="32"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" ht="16.5">
       <c r="A15" s="32" t="s">
         <v>213</v>
       </c>
@@ -15969,7 +15969,7 @@
       <c r="F15" s="32"/>
       <c r="G15" s="32"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" ht="16.5">
       <c r="A16" s="32" t="s">
         <v>215</v>
       </c>
@@ -15984,7 +15984,7 @@
       <c r="F16" s="32"/>
       <c r="G16" s="32"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" ht="16.5">
       <c r="A17" s="32" t="s">
         <v>214</v>
       </c>
@@ -15999,7 +15999,7 @@
       <c r="F17" s="32"/>
       <c r="G17" s="32"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" ht="16.5">
       <c r="A18" s="32" t="s">
         <v>219</v>
       </c>
@@ -16014,7 +16014,7 @@
       <c r="F18" s="32"/>
       <c r="G18" s="32"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" ht="16.5">
       <c r="A19" s="32" t="s">
         <v>216</v>
       </c>
@@ -16029,7 +16029,7 @@
       <c r="F19" s="32"/>
       <c r="G19" s="32"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" ht="16.5">
       <c r="A20" s="32" t="s">
         <v>217</v>
       </c>
@@ -16044,7 +16044,7 @@
       <c r="F20" s="32"/>
       <c r="G20" s="32"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" ht="16.5">
       <c r="A21" s="32" t="s">
         <v>218</v>
       </c>
@@ -16059,7 +16059,7 @@
       <c r="F21" s="32"/>
       <c r="G21" s="32"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" ht="16.5">
       <c r="A22" s="36" t="s">
         <v>51</v>
       </c>
@@ -16074,7 +16074,7 @@
       <c r="F22" s="32"/>
       <c r="G22" s="32"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" ht="16.5">
       <c r="A23" s="36" t="s">
         <v>20</v>
       </c>
@@ -16089,7 +16089,7 @@
       <c r="F23" s="32"/>
       <c r="G23" s="32"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" ht="16.5">
       <c r="A24" s="36" t="s">
         <v>52</v>
       </c>
@@ -16104,7 +16104,7 @@
       <c r="F24" s="32"/>
       <c r="G24" s="32"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" ht="16.5">
       <c r="A25" s="36" t="s">
         <v>53</v>
       </c>
@@ -16119,7 +16119,7 @@
       <c r="F25" s="32"/>
       <c r="G25" s="32"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" ht="16.5">
       <c r="A26" s="35" t="s">
         <v>120</v>
       </c>
@@ -16134,7 +16134,7 @@
       <c r="F26" s="32"/>
       <c r="G26" s="32"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" ht="16.5">
       <c r="A27" s="35" t="s">
         <v>121</v>
       </c>

--- a/getdata/doc/模型与接口.xlsx
+++ b/getdata/doc/模型与接口.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\myGit\get-data\getdata\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52A073E5-65A8-4AE1-A3A5-6BDD41075367}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8661D5C-E9EC-4463-BB66-5432CC752617}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="284">
   <si>
     <r>
       <rPr>
@@ -1244,6 +1244,10 @@
   <si>
     <t>flow_value1</t>
     <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>source_key_name_zh</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1504,7 +1508,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1628,14 +1632,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7649,10 +7656,10 @@
       <c r="B1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="53"/>
+      <c r="D1" s="54"/>
       <c r="E1" s="9" t="s">
         <v>7</v>
       </c>
@@ -7660,14 +7667,14 @@
       <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:7" ht="16.5">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="54" t="s">
+      <c r="B2" s="46"/>
+      <c r="C2" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="53"/>
+      <c r="D2" s="54"/>
       <c r="E2" s="11" t="s">
         <v>10</v>
       </c>
@@ -7679,12 +7686,12 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="16.5">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="51"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="52"/>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
       <c r="G3" s="14"/>
@@ -7696,10 +7703,10 @@
       <c r="B4" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="51"/>
+      <c r="D4" s="52"/>
       <c r="E4" s="16" t="s">
         <v>16</v>
       </c>
@@ -7774,10 +7781,10 @@
       <c r="B1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="53"/>
+      <c r="D1" s="54"/>
       <c r="E1" s="9" t="s">
         <v>7</v>
       </c>
@@ -7785,14 +7792,14 @@
       <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:7" ht="16.5">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="54" t="s">
+      <c r="B2" s="46"/>
+      <c r="C2" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="53"/>
+      <c r="D2" s="54"/>
       <c r="E2" s="11" t="s">
         <v>10</v>
       </c>
@@ -7804,12 +7811,12 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="16.5">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="51"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="52"/>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
       <c r="G3" s="14"/>
@@ -7821,10 +7828,10 @@
       <c r="B4" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="51"/>
+      <c r="D4" s="52"/>
       <c r="E4" s="16" t="s">
         <v>16</v>
       </c>
@@ -13515,8 +13522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82A1E8BE-F4D8-4DFE-997C-38F54A34FFE2}">
   <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -13526,16 +13533,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="16.5">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="43" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="45"/>
+      <c r="D1" s="46"/>
       <c r="E1" s="25" t="s">
         <v>7</v>
       </c>
@@ -13543,14 +13550,14 @@
       <c r="G1" s="26"/>
     </row>
     <row r="2" spans="1:16" ht="16.5">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="47" t="s">
+      <c r="B2" s="46"/>
+      <c r="C2" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="45"/>
+      <c r="D2" s="46"/>
       <c r="E2" s="27" t="s">
         <v>10</v>
       </c>
@@ -13562,14 +13569,14 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="16.5">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
       <c r="G3" s="14"/>
     </row>
     <row r="4" spans="1:16" ht="16.5">
@@ -13579,10 +13586,10 @@
       <c r="B4" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="45"/>
+      <c r="D4" s="46"/>
       <c r="E4" s="28" t="s">
         <v>16</v>
       </c>
@@ -13594,20 +13601,20 @@
       </c>
     </row>
     <row r="5" spans="1:16" ht="16.5">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="I5" s="43" t="s">
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="I5" s="41" t="s">
         <v>247</v>
       </c>
       <c r="J5" t="s">
@@ -13634,20 +13641,20 @@
       </c>
     </row>
     <row r="6" spans="1:16" ht="16.5">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="I6" s="43" t="s">
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="I6" s="41" t="s">
         <v>247</v>
       </c>
       <c r="J6" t="s">
@@ -13674,20 +13681,20 @@
       </c>
     </row>
     <row r="7" spans="1:16" ht="16.5">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="I7" s="43" t="s">
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="I7" s="41" t="s">
         <v>247</v>
       </c>
       <c r="J7" t="s">
@@ -13714,20 +13721,20 @@
       </c>
     </row>
     <row r="8" spans="1:16" ht="16.5">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="I8" s="43" t="s">
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="I8" s="41" t="s">
         <v>247</v>
       </c>
       <c r="J8" t="s">
@@ -13754,20 +13761,20 @@
       </c>
     </row>
     <row r="9" spans="1:16" ht="16.5">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="C9" s="40" t="s">
+      <c r="C9" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="I9" s="43" t="s">
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="I9" s="41" t="s">
         <v>247</v>
       </c>
       <c r="J9" t="s">
@@ -13794,20 +13801,20 @@
       </c>
     </row>
     <row r="10" spans="1:16" ht="16.5">
-      <c r="A10" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="B10" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="I10" s="43" t="s">
+      <c r="A10" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="42" t="s">
+        <v>283</v>
+      </c>
+      <c r="C10" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="I10" s="41" t="s">
         <v>247</v>
       </c>
       <c r="J10" s="17" t="s">
@@ -13834,20 +13841,20 @@
       </c>
     </row>
     <row r="11" spans="1:16" ht="16.5">
-      <c r="A11" s="35" t="s">
-        <v>241</v>
-      </c>
-      <c r="B11" s="35" t="s">
-        <v>244</v>
-      </c>
-      <c r="C11" s="40" t="s">
+      <c r="A11" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="I11" s="43" t="s">
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="I11" s="41" t="s">
         <v>247</v>
       </c>
       <c r="J11" t="s">
@@ -13875,19 +13882,19 @@
     </row>
     <row r="12" spans="1:16" ht="16.5">
       <c r="A12" s="35" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B12" s="35" t="s">
-        <v>245</v>
-      </c>
-      <c r="C12" s="40" t="s">
+        <v>244</v>
+      </c>
+      <c r="C12" s="42" t="s">
         <v>38</v>
       </c>
       <c r="D12" s="32"/>
       <c r="E12" s="32"/>
       <c r="F12" s="32"/>
       <c r="G12" s="32"/>
-      <c r="I12" s="43" t="s">
+      <c r="I12" s="41" t="s">
         <v>247</v>
       </c>
       <c r="J12" t="s">
@@ -13915,19 +13922,19 @@
     </row>
     <row r="13" spans="1:16" ht="16.5">
       <c r="A13" s="35" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B13" s="35" t="s">
-        <v>246</v>
-      </c>
-      <c r="C13" s="40" t="s">
-        <v>39</v>
+        <v>245</v>
+      </c>
+      <c r="C13" s="42" t="s">
+        <v>38</v>
       </c>
       <c r="D13" s="32"/>
       <c r="E13" s="32"/>
       <c r="F13" s="32"/>
       <c r="G13" s="32"/>
-      <c r="I13" s="43" t="s">
+      <c r="I13" s="41" t="s">
         <v>247</v>
       </c>
       <c r="J13" t="s">
@@ -13954,20 +13961,20 @@
       </c>
     </row>
     <row r="14" spans="1:16" ht="16.5">
-      <c r="A14" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="I14" s="43" t="s">
+      <c r="A14" s="35" t="s">
+        <v>243</v>
+      </c>
+      <c r="B14" s="35" t="s">
+        <v>246</v>
+      </c>
+      <c r="C14" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="I14" s="41" t="s">
         <v>247</v>
       </c>
       <c r="J14" t="s">
@@ -13994,20 +14001,20 @@
       </c>
     </row>
     <row r="15" spans="1:16" ht="16.5">
-      <c r="A15" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="I15" s="43" t="s">
+      <c r="A15" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="I15" s="41" t="s">
         <v>247</v>
       </c>
       <c r="J15" t="s">
@@ -14034,20 +14041,20 @@
       </c>
     </row>
     <row r="16" spans="1:16" ht="16.5">
-      <c r="A16" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="B16" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" s="40" t="s">
+      <c r="A16" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="I16" s="43" t="s">
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="I16" s="41" t="s">
         <v>247</v>
       </c>
       <c r="J16" t="s">
@@ -14074,20 +14081,20 @@
       </c>
     </row>
     <row r="17" spans="1:16" ht="16.5">
-      <c r="A17" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="B17" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="I17" s="43" t="s">
+      <c r="A17" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="I17" s="41" t="s">
         <v>247</v>
       </c>
       <c r="J17" t="s">
@@ -14113,8 +14120,21 @@
         <v>&lt;if test="remark != null and remark !=''"&gt; and  remark= #{remark} &lt;/if&gt;</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
-      <c r="I18" s="43" t="s">
+    <row r="18" spans="1:16" ht="16.5">
+      <c r="A18" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="I18" s="41" t="s">
         <v>247</v>
       </c>
       <c r="J18" t="s">
@@ -14141,7 +14161,7 @@
       </c>
     </row>
     <row r="19" spans="1:16">
-      <c r="I19" s="43" t="s">
+      <c r="I19" s="41" t="s">
         <v>247</v>
       </c>
       <c r="J19" t="s">
@@ -14168,22 +14188,22 @@
       </c>
     </row>
     <row r="20" spans="1:16">
-      <c r="I20" s="43"/>
+      <c r="I20" s="41"/>
     </row>
     <row r="21" spans="1:16">
-      <c r="I21" s="43"/>
+      <c r="I21" s="41"/>
     </row>
     <row r="22" spans="1:16">
-      <c r="I22" s="43"/>
+      <c r="I22" s="41"/>
     </row>
     <row r="23" spans="1:16">
-      <c r="I23" s="43"/>
+      <c r="I23" s="41"/>
     </row>
     <row r="24" spans="1:16">
-      <c r="I24" s="43"/>
+      <c r="I24" s="41"/>
     </row>
     <row r="25" spans="1:16">
-      <c r="I25" s="43"/>
+      <c r="I25" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -14225,10 +14245,10 @@
       <c r="B1" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="45"/>
+      <c r="D1" s="46"/>
       <c r="E1" s="25" t="s">
         <v>7</v>
       </c>
@@ -14236,14 +14256,14 @@
       <c r="G1" s="26"/>
     </row>
     <row r="2" spans="1:7" ht="16.5">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="47" t="s">
+      <c r="B2" s="46"/>
+      <c r="C2" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="45"/>
+      <c r="D2" s="46"/>
       <c r="E2" s="27" t="s">
         <v>10</v>
       </c>
@@ -14255,12 +14275,12 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="24">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="45"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="46"/>
       <c r="E3" s="19"/>
       <c r="F3" s="19"/>
       <c r="G3" s="30" t="s">
@@ -14274,10 +14294,10 @@
       <c r="B4" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="45"/>
+      <c r="D4" s="46"/>
       <c r="E4" s="28" t="s">
         <v>16</v>
       </c>
@@ -14535,7 +14555,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A09EC6E4-313A-414A-90E1-5D6FB5B11A52}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -14552,10 +14572,10 @@
       <c r="B1" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="D1" s="45"/>
+      <c r="D1" s="46"/>
       <c r="E1" s="25" t="s">
         <v>7</v>
       </c>
@@ -14563,14 +14583,14 @@
       <c r="G1" s="26"/>
     </row>
     <row r="2" spans="1:7" ht="16.5">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="47" t="s">
+      <c r="B2" s="46"/>
+      <c r="C2" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="45"/>
+      <c r="D2" s="46"/>
       <c r="E2" s="27" t="s">
         <v>10</v>
       </c>
@@ -14582,12 +14602,12 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="16.5">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="45"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="46"/>
       <c r="E3" s="19"/>
       <c r="F3" s="19"/>
       <c r="G3" s="30"/>
@@ -14599,10 +14619,10 @@
       <c r="B4" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="45"/>
+      <c r="D4" s="46"/>
       <c r="E4" s="28" t="s">
         <v>16</v>
       </c>
@@ -15023,10 +15043,10 @@
       <c r="B1" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="47" t="s">
         <v>140</v>
       </c>
-      <c r="D1" s="45"/>
+      <c r="D1" s="46"/>
       <c r="E1" s="25" t="s">
         <v>7</v>
       </c>
@@ -15034,14 +15054,14 @@
       <c r="G1" s="26"/>
     </row>
     <row r="2" spans="1:7" ht="16.5">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="47" t="s">
+      <c r="B2" s="46"/>
+      <c r="C2" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="45"/>
+      <c r="D2" s="46"/>
       <c r="E2" s="27" t="s">
         <v>10</v>
       </c>
@@ -15053,12 +15073,12 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="16.5">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="49" t="s">
         <v>141</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="45"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="46"/>
       <c r="E3" s="19"/>
       <c r="F3" s="19"/>
       <c r="G3" s="30"/>
@@ -15070,10 +15090,10 @@
       <c r="B4" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="45"/>
+      <c r="D4" s="46"/>
       <c r="E4" s="28" t="s">
         <v>16</v>
       </c>
@@ -15435,10 +15455,10 @@
       <c r="B1" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="47" t="s">
         <v>140</v>
       </c>
-      <c r="D1" s="45"/>
+      <c r="D1" s="46"/>
       <c r="E1" s="25" t="s">
         <v>7</v>
       </c>
@@ -15446,14 +15466,14 @@
       <c r="G1" s="26"/>
     </row>
     <row r="2" spans="1:7" ht="16.5">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="47" t="s">
+      <c r="B2" s="46"/>
+      <c r="C2" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="45"/>
+      <c r="D2" s="46"/>
       <c r="E2" s="27" t="s">
         <v>10</v>
       </c>
@@ -15465,12 +15485,12 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="16.5">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="49" t="s">
         <v>167</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="45"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="46"/>
       <c r="E3" s="29"/>
       <c r="F3" s="29"/>
       <c r="G3" s="30" t="s">
@@ -15484,10 +15504,10 @@
       <c r="B4" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="45"/>
+      <c r="D4" s="46"/>
       <c r="E4" s="28" t="s">
         <v>16</v>
       </c>
@@ -15743,10 +15763,10 @@
       <c r="B1" s="24" t="s">
         <v>204</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="47" t="s">
         <v>202</v>
       </c>
-      <c r="D1" s="45"/>
+      <c r="D1" s="46"/>
       <c r="E1" s="25" t="s">
         <v>7</v>
       </c>
@@ -15754,14 +15774,14 @@
       <c r="G1" s="26"/>
     </row>
     <row r="2" spans="1:7" ht="16.5">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="47" t="s">
+      <c r="B2" s="46"/>
+      <c r="C2" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="45"/>
+      <c r="D2" s="46"/>
       <c r="E2" s="27" t="s">
         <v>10</v>
       </c>
@@ -15773,12 +15793,12 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="16.5">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="49" t="s">
         <v>201</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="45"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="46"/>
       <c r="E3" s="38"/>
       <c r="F3" s="38"/>
       <c r="G3" s="30"/>
@@ -15790,10 +15810,10 @@
       <c r="B4" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="45"/>
+      <c r="D4" s="46"/>
       <c r="E4" s="28" t="s">
         <v>16</v>
       </c>

--- a/getdata/doc/模型与接口.xlsx
+++ b/getdata/doc/模型与接口.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\git\myGit\get-data\getdata\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitProject\get-data\getdata\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDECEF40-339F-4AE7-9C89-ABF817961397}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-2328" windowWidth="30936" windowHeight="16896" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22935" yWindow="-2325" windowWidth="30930" windowHeight="16890" firstSheet="6" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -25,13 +24,14 @@
     <sheet name="静态码表" sheetId="15" r:id="rId10"/>
     <sheet name="序列表" sheetId="16" r:id="rId11"/>
     <sheet name="测试数据" sheetId="28" r:id="rId12"/>
+    <sheet name="删除分区配置表" sheetId="29" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="761">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="790">
   <si>
     <r>
       <rPr>
@@ -2793,11 +2793,103 @@
   <si>
     <t>buy_refund_network_num_y</t>
   </si>
+  <si>
+    <t>config_id</t>
+  </si>
+  <si>
+    <t>group_id</t>
+  </si>
+  <si>
+    <t>db_user</t>
+  </si>
+  <si>
+    <t>table_name</t>
+  </si>
+  <si>
+    <t>table_name_desc</t>
+  </si>
+  <si>
+    <t>drop_partition_form</t>
+  </si>
+  <si>
+    <t>data_save_days</t>
+  </si>
+  <si>
+    <t>create_user</t>
+  </si>
+  <si>
+    <t>last_exec_date</t>
+  </si>
+  <si>
+    <t>last_exec_cmd</t>
+  </si>
+  <si>
+    <t>last_exec_result</t>
+  </si>
+  <si>
+    <t>分组编码</t>
+  </si>
+  <si>
+    <t>库名</t>
+  </si>
+  <si>
+    <t>表名</t>
+  </si>
+  <si>
+    <t>表说明</t>
+  </si>
+  <si>
+    <t>删除分区格式</t>
+  </si>
+  <si>
+    <t>数据保存天数</t>
+  </si>
+  <si>
+    <t>是否有效</t>
+  </si>
+  <si>
+    <t>创建人</t>
+  </si>
+  <si>
+    <t>创建时间</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>最近一次执行时间</t>
+  </si>
+  <si>
+    <t>最近一次执行语句</t>
+  </si>
+  <si>
+    <t>最近一次执行结果</t>
+  </si>
+  <si>
+    <t>配置编码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(40)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除分区配置表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>etl_drop_partition_config</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="24">
     <font>
       <sz val="12"/>
@@ -3083,7 +3175,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3227,6 +3319,12 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3561,21 +3659,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z200"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="12.8984375" customWidth="1"/>
-    <col min="2" max="2" width="18.69921875" customWidth="1"/>
-    <col min="3" max="26" width="12.8984375" customWidth="1"/>
+    <col min="1" max="1" width="12.875" customWidth="1"/>
+    <col min="2" max="2" width="18.75" customWidth="1"/>
+    <col min="3" max="26" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" ht="16.5">
       <c r="A1" s="1" t="s">
         <v>43</v>
       </c>
@@ -3605,7 +3703,7 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" ht="16.5">
       <c r="A2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -3632,7 +3730,7 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" ht="16.5">
       <c r="A3" s="2" t="s">
         <v>44</v>
       </c>
@@ -3666,7 +3764,7 @@
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" ht="16.5">
       <c r="A4" s="2" t="s">
         <v>66</v>
       </c>
@@ -3700,7 +3798,7 @@
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" ht="16.5">
       <c r="A5" s="2" t="s">
         <v>82</v>
       </c>
@@ -3734,7 +3832,7 @@
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" ht="16.5">
       <c r="A6" s="34" t="s">
         <v>137</v>
       </c>
@@ -3768,7 +3866,7 @@
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" ht="16.5">
       <c r="A7" s="2" t="s">
         <v>166</v>
       </c>
@@ -3804,7 +3902,7 @@
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" ht="16.5">
       <c r="A8" s="2" t="s">
         <v>194</v>
       </c>
@@ -3835,7 +3933,7 @@
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" ht="16.5">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -3863,7 +3961,7 @@
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:26" ht="16.5">
       <c r="A10" s="2" t="s">
         <v>203</v>
       </c>
@@ -3897,7 +3995,7 @@
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" ht="16.5">
       <c r="A11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -3924,7 +4022,7 @@
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:26" ht="16.5">
       <c r="A12" s="2"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -3952,7 +4050,7 @@
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:26" ht="16.5">
       <c r="A13" s="2"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -3980,7 +4078,7 @@
       <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:26" ht="16.5">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -4008,7 +4106,7 @@
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:26" ht="16.5">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -4036,7 +4134,7 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:26" ht="16.5">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -4064,7 +4162,7 @@
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
     </row>
-    <row r="17" spans="1:26">
+    <row r="17" spans="1:26" ht="16.5">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -4092,7 +4190,7 @@
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
     </row>
-    <row r="18" spans="1:26">
+    <row r="18" spans="1:26" ht="16.5">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -4120,7 +4218,7 @@
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
     </row>
-    <row r="19" spans="1:26">
+    <row r="19" spans="1:26" ht="16.5">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -4148,7 +4246,7 @@
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:26" ht="16.5">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -4176,7 +4274,7 @@
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
     </row>
-    <row r="21" spans="1:26">
+    <row r="21" spans="1:26" ht="16.5">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -4204,7 +4302,7 @@
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
     </row>
-    <row r="22" spans="1:26">
+    <row r="22" spans="1:26" ht="16.5">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -4232,7 +4330,7 @@
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
     </row>
-    <row r="23" spans="1:26">
+    <row r="23" spans="1:26" ht="16.5">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -4260,7 +4358,7 @@
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
     </row>
-    <row r="24" spans="1:26">
+    <row r="24" spans="1:26" ht="16.5">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -4288,7 +4386,7 @@
       <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
     </row>
-    <row r="25" spans="1:26">
+    <row r="25" spans="1:26" ht="16.5">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -4316,7 +4414,7 @@
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
     </row>
-    <row r="26" spans="1:26">
+    <row r="26" spans="1:26" ht="16.5">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -4344,7 +4442,7 @@
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
     </row>
-    <row r="27" spans="1:26">
+    <row r="27" spans="1:26" ht="16.5">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -4372,7 +4470,7 @@
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
     </row>
-    <row r="28" spans="1:26">
+    <row r="28" spans="1:26" ht="16.5">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -4400,7 +4498,7 @@
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
     </row>
-    <row r="29" spans="1:26">
+    <row r="29" spans="1:26" ht="16.5">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -4428,7 +4526,7 @@
       <c r="Y29" s="2"/>
       <c r="Z29" s="2"/>
     </row>
-    <row r="30" spans="1:26">
+    <row r="30" spans="1:26" ht="16.5">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -4456,7 +4554,7 @@
       <c r="Y30" s="2"/>
       <c r="Z30" s="2"/>
     </row>
-    <row r="31" spans="1:26">
+    <row r="31" spans="1:26" ht="16.5">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -4484,7 +4582,7 @@
       <c r="Y31" s="2"/>
       <c r="Z31" s="2"/>
     </row>
-    <row r="32" spans="1:26">
+    <row r="32" spans="1:26" ht="16.5">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -4512,7 +4610,7 @@
       <c r="Y32" s="2"/>
       <c r="Z32" s="2"/>
     </row>
-    <row r="33" spans="1:26">
+    <row r="33" spans="1:26" ht="16.5">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -4540,7 +4638,7 @@
       <c r="Y33" s="2"/>
       <c r="Z33" s="2"/>
     </row>
-    <row r="34" spans="1:26">
+    <row r="34" spans="1:26" ht="16.5">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -4568,7 +4666,7 @@
       <c r="Y34" s="2"/>
       <c r="Z34" s="2"/>
     </row>
-    <row r="35" spans="1:26">
+    <row r="35" spans="1:26" ht="16.5">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -4596,7 +4694,7 @@
       <c r="Y35" s="2"/>
       <c r="Z35" s="2"/>
     </row>
-    <row r="36" spans="1:26">
+    <row r="36" spans="1:26" ht="16.5">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -4624,7 +4722,7 @@
       <c r="Y36" s="2"/>
       <c r="Z36" s="2"/>
     </row>
-    <row r="37" spans="1:26">
+    <row r="37" spans="1:26" ht="16.5">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -4652,7 +4750,7 @@
       <c r="Y37" s="2"/>
       <c r="Z37" s="2"/>
     </row>
-    <row r="38" spans="1:26">
+    <row r="38" spans="1:26" ht="16.5">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -4680,7 +4778,7 @@
       <c r="Y38" s="2"/>
       <c r="Z38" s="2"/>
     </row>
-    <row r="39" spans="1:26">
+    <row r="39" spans="1:26" ht="16.5">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -4708,7 +4806,7 @@
       <c r="Y39" s="2"/>
       <c r="Z39" s="2"/>
     </row>
-    <row r="40" spans="1:26">
+    <row r="40" spans="1:26" ht="16.5">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -4736,7 +4834,7 @@
       <c r="Y40" s="2"/>
       <c r="Z40" s="2"/>
     </row>
-    <row r="41" spans="1:26">
+    <row r="41" spans="1:26" ht="16.5">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -4764,7 +4862,7 @@
       <c r="Y41" s="2"/>
       <c r="Z41" s="2"/>
     </row>
-    <row r="42" spans="1:26">
+    <row r="42" spans="1:26" ht="16.5">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -4792,7 +4890,7 @@
       <c r="Y42" s="2"/>
       <c r="Z42" s="2"/>
     </row>
-    <row r="43" spans="1:26">
+    <row r="43" spans="1:26" ht="16.5">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -4820,7 +4918,7 @@
       <c r="Y43" s="2"/>
       <c r="Z43" s="2"/>
     </row>
-    <row r="44" spans="1:26">
+    <row r="44" spans="1:26" ht="16.5">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -4848,7 +4946,7 @@
       <c r="Y44" s="2"/>
       <c r="Z44" s="2"/>
     </row>
-    <row r="45" spans="1:26">
+    <row r="45" spans="1:26" ht="16.5">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -4876,7 +4974,7 @@
       <c r="Y45" s="2"/>
       <c r="Z45" s="2"/>
     </row>
-    <row r="46" spans="1:26">
+    <row r="46" spans="1:26" ht="16.5">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -4904,7 +5002,7 @@
       <c r="Y46" s="2"/>
       <c r="Z46" s="2"/>
     </row>
-    <row r="47" spans="1:26">
+    <row r="47" spans="1:26" ht="16.5">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -4932,7 +5030,7 @@
       <c r="Y47" s="2"/>
       <c r="Z47" s="2"/>
     </row>
-    <row r="48" spans="1:26">
+    <row r="48" spans="1:26" ht="16.5">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -4960,7 +5058,7 @@
       <c r="Y48" s="2"/>
       <c r="Z48" s="2"/>
     </row>
-    <row r="49" spans="1:26">
+    <row r="49" spans="1:26" ht="16.5">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -4988,7 +5086,7 @@
       <c r="Y49" s="2"/>
       <c r="Z49" s="2"/>
     </row>
-    <row r="50" spans="1:26">
+    <row r="50" spans="1:26" ht="16.5">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -5016,7 +5114,7 @@
       <c r="Y50" s="2"/>
       <c r="Z50" s="2"/>
     </row>
-    <row r="51" spans="1:26">
+    <row r="51" spans="1:26" ht="16.5">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -5044,7 +5142,7 @@
       <c r="Y51" s="2"/>
       <c r="Z51" s="2"/>
     </row>
-    <row r="52" spans="1:26">
+    <row r="52" spans="1:26" ht="16.5">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -5072,7 +5170,7 @@
       <c r="Y52" s="2"/>
       <c r="Z52" s="2"/>
     </row>
-    <row r="53" spans="1:26">
+    <row r="53" spans="1:26" ht="16.5">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -5100,7 +5198,7 @@
       <c r="Y53" s="2"/>
       <c r="Z53" s="2"/>
     </row>
-    <row r="54" spans="1:26">
+    <row r="54" spans="1:26" ht="16.5">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -5128,7 +5226,7 @@
       <c r="Y54" s="2"/>
       <c r="Z54" s="2"/>
     </row>
-    <row r="55" spans="1:26">
+    <row r="55" spans="1:26" ht="16.5">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -5156,7 +5254,7 @@
       <c r="Y55" s="2"/>
       <c r="Z55" s="2"/>
     </row>
-    <row r="56" spans="1:26">
+    <row r="56" spans="1:26" ht="16.5">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -5184,7 +5282,7 @@
       <c r="Y56" s="2"/>
       <c r="Z56" s="2"/>
     </row>
-    <row r="57" spans="1:26">
+    <row r="57" spans="1:26" ht="16.5">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -5212,7 +5310,7 @@
       <c r="Y57" s="2"/>
       <c r="Z57" s="2"/>
     </row>
-    <row r="58" spans="1:26">
+    <row r="58" spans="1:26" ht="16.5">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -5240,7 +5338,7 @@
       <c r="Y58" s="2"/>
       <c r="Z58" s="2"/>
     </row>
-    <row r="59" spans="1:26">
+    <row r="59" spans="1:26" ht="16.5">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -5268,7 +5366,7 @@
       <c r="Y59" s="2"/>
       <c r="Z59" s="2"/>
     </row>
-    <row r="60" spans="1:26">
+    <row r="60" spans="1:26" ht="16.5">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -5296,7 +5394,7 @@
       <c r="Y60" s="2"/>
       <c r="Z60" s="2"/>
     </row>
-    <row r="61" spans="1:26">
+    <row r="61" spans="1:26" ht="16.5">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -5324,7 +5422,7 @@
       <c r="Y61" s="2"/>
       <c r="Z61" s="2"/>
     </row>
-    <row r="62" spans="1:26">
+    <row r="62" spans="1:26" ht="16.5">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -5352,7 +5450,7 @@
       <c r="Y62" s="2"/>
       <c r="Z62" s="2"/>
     </row>
-    <row r="63" spans="1:26">
+    <row r="63" spans="1:26" ht="16.5">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -5380,7 +5478,7 @@
       <c r="Y63" s="2"/>
       <c r="Z63" s="2"/>
     </row>
-    <row r="64" spans="1:26">
+    <row r="64" spans="1:26" ht="16.5">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -5408,7 +5506,7 @@
       <c r="Y64" s="2"/>
       <c r="Z64" s="2"/>
     </row>
-    <row r="65" spans="1:26">
+    <row r="65" spans="1:26" ht="16.5">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -5436,7 +5534,7 @@
       <c r="Y65" s="2"/>
       <c r="Z65" s="2"/>
     </row>
-    <row r="66" spans="1:26">
+    <row r="66" spans="1:26" ht="16.5">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -5464,7 +5562,7 @@
       <c r="Y66" s="2"/>
       <c r="Z66" s="2"/>
     </row>
-    <row r="67" spans="1:26">
+    <row r="67" spans="1:26" ht="16.5">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -5492,7 +5590,7 @@
       <c r="Y67" s="2"/>
       <c r="Z67" s="2"/>
     </row>
-    <row r="68" spans="1:26">
+    <row r="68" spans="1:26" ht="16.5">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -5520,7 +5618,7 @@
       <c r="Y68" s="2"/>
       <c r="Z68" s="2"/>
     </row>
-    <row r="69" spans="1:26">
+    <row r="69" spans="1:26" ht="16.5">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -5548,7 +5646,7 @@
       <c r="Y69" s="2"/>
       <c r="Z69" s="2"/>
     </row>
-    <row r="70" spans="1:26">
+    <row r="70" spans="1:26" ht="16.5">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -5576,7 +5674,7 @@
       <c r="Y70" s="2"/>
       <c r="Z70" s="2"/>
     </row>
-    <row r="71" spans="1:26">
+    <row r="71" spans="1:26" ht="16.5">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -5604,7 +5702,7 @@
       <c r="Y71" s="2"/>
       <c r="Z71" s="2"/>
     </row>
-    <row r="72" spans="1:26">
+    <row r="72" spans="1:26" ht="16.5">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -5632,7 +5730,7 @@
       <c r="Y72" s="2"/>
       <c r="Z72" s="2"/>
     </row>
-    <row r="73" spans="1:26">
+    <row r="73" spans="1:26" ht="16.5">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -5660,7 +5758,7 @@
       <c r="Y73" s="2"/>
       <c r="Z73" s="2"/>
     </row>
-    <row r="74" spans="1:26">
+    <row r="74" spans="1:26" ht="16.5">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -5688,7 +5786,7 @@
       <c r="Y74" s="2"/>
       <c r="Z74" s="2"/>
     </row>
-    <row r="75" spans="1:26">
+    <row r="75" spans="1:26" ht="16.5">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -5716,7 +5814,7 @@
       <c r="Y75" s="2"/>
       <c r="Z75" s="2"/>
     </row>
-    <row r="76" spans="1:26">
+    <row r="76" spans="1:26" ht="16.5">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -5744,7 +5842,7 @@
       <c r="Y76" s="2"/>
       <c r="Z76" s="2"/>
     </row>
-    <row r="77" spans="1:26">
+    <row r="77" spans="1:26" ht="16.5">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -5772,7 +5870,7 @@
       <c r="Y77" s="2"/>
       <c r="Z77" s="2"/>
     </row>
-    <row r="78" spans="1:26">
+    <row r="78" spans="1:26" ht="16.5">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -5800,7 +5898,7 @@
       <c r="Y78" s="2"/>
       <c r="Z78" s="2"/>
     </row>
-    <row r="79" spans="1:26">
+    <row r="79" spans="1:26" ht="16.5">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -5828,7 +5926,7 @@
       <c r="Y79" s="2"/>
       <c r="Z79" s="2"/>
     </row>
-    <row r="80" spans="1:26">
+    <row r="80" spans="1:26" ht="16.5">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -5856,7 +5954,7 @@
       <c r="Y80" s="2"/>
       <c r="Z80" s="2"/>
     </row>
-    <row r="81" spans="1:26">
+    <row r="81" spans="1:26" ht="16.5">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -5884,7 +5982,7 @@
       <c r="Y81" s="2"/>
       <c r="Z81" s="2"/>
     </row>
-    <row r="82" spans="1:26">
+    <row r="82" spans="1:26" ht="16.5">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -5912,7 +6010,7 @@
       <c r="Y82" s="2"/>
       <c r="Z82" s="2"/>
     </row>
-    <row r="83" spans="1:26">
+    <row r="83" spans="1:26" ht="16.5">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -5940,7 +6038,7 @@
       <c r="Y83" s="2"/>
       <c r="Z83" s="2"/>
     </row>
-    <row r="84" spans="1:26">
+    <row r="84" spans="1:26" ht="16.5">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -5968,7 +6066,7 @@
       <c r="Y84" s="2"/>
       <c r="Z84" s="2"/>
     </row>
-    <row r="85" spans="1:26">
+    <row r="85" spans="1:26" ht="16.5">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -5996,7 +6094,7 @@
       <c r="Y85" s="2"/>
       <c r="Z85" s="2"/>
     </row>
-    <row r="86" spans="1:26">
+    <row r="86" spans="1:26" ht="16.5">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -6024,7 +6122,7 @@
       <c r="Y86" s="2"/>
       <c r="Z86" s="2"/>
     </row>
-    <row r="87" spans="1:26">
+    <row r="87" spans="1:26" ht="16.5">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -6052,7 +6150,7 @@
       <c r="Y87" s="2"/>
       <c r="Z87" s="2"/>
     </row>
-    <row r="88" spans="1:26">
+    <row r="88" spans="1:26" ht="16.5">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -6080,7 +6178,7 @@
       <c r="Y88" s="2"/>
       <c r="Z88" s="2"/>
     </row>
-    <row r="89" spans="1:26">
+    <row r="89" spans="1:26" ht="16.5">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -6108,7 +6206,7 @@
       <c r="Y89" s="2"/>
       <c r="Z89" s="2"/>
     </row>
-    <row r="90" spans="1:26">
+    <row r="90" spans="1:26" ht="16.5">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -6136,7 +6234,7 @@
       <c r="Y90" s="2"/>
       <c r="Z90" s="2"/>
     </row>
-    <row r="91" spans="1:26">
+    <row r="91" spans="1:26" ht="16.5">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -6164,7 +6262,7 @@
       <c r="Y91" s="2"/>
       <c r="Z91" s="2"/>
     </row>
-    <row r="92" spans="1:26">
+    <row r="92" spans="1:26" ht="16.5">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -6192,7 +6290,7 @@
       <c r="Y92" s="2"/>
       <c r="Z92" s="2"/>
     </row>
-    <row r="93" spans="1:26">
+    <row r="93" spans="1:26" ht="16.5">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -6220,7 +6318,7 @@
       <c r="Y93" s="2"/>
       <c r="Z93" s="2"/>
     </row>
-    <row r="94" spans="1:26">
+    <row r="94" spans="1:26" ht="16.5">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -6248,7 +6346,7 @@
       <c r="Y94" s="2"/>
       <c r="Z94" s="2"/>
     </row>
-    <row r="95" spans="1:26">
+    <row r="95" spans="1:26" ht="16.5">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -6276,7 +6374,7 @@
       <c r="Y95" s="2"/>
       <c r="Z95" s="2"/>
     </row>
-    <row r="96" spans="1:26">
+    <row r="96" spans="1:26" ht="16.5">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -6304,7 +6402,7 @@
       <c r="Y96" s="2"/>
       <c r="Z96" s="2"/>
     </row>
-    <row r="97" spans="1:26">
+    <row r="97" spans="1:26" ht="16.5">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -6332,7 +6430,7 @@
       <c r="Y97" s="2"/>
       <c r="Z97" s="2"/>
     </row>
-    <row r="98" spans="1:26">
+    <row r="98" spans="1:26" ht="16.5">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -6360,7 +6458,7 @@
       <c r="Y98" s="2"/>
       <c r="Z98" s="2"/>
     </row>
-    <row r="99" spans="1:26">
+    <row r="99" spans="1:26" ht="16.5">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -6388,7 +6486,7 @@
       <c r="Y99" s="2"/>
       <c r="Z99" s="2"/>
     </row>
-    <row r="100" spans="1:26">
+    <row r="100" spans="1:26" ht="16.5">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -6416,7 +6514,7 @@
       <c r="Y100" s="2"/>
       <c r="Z100" s="2"/>
     </row>
-    <row r="101" spans="1:26">
+    <row r="101" spans="1:26" ht="16.5">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -6444,7 +6542,7 @@
       <c r="Y101" s="2"/>
       <c r="Z101" s="2"/>
     </row>
-    <row r="102" spans="1:26">
+    <row r="102" spans="1:26" ht="16.5">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -6472,7 +6570,7 @@
       <c r="Y102" s="2"/>
       <c r="Z102" s="2"/>
     </row>
-    <row r="103" spans="1:26">
+    <row r="103" spans="1:26" ht="16.5">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -6500,7 +6598,7 @@
       <c r="Y103" s="2"/>
       <c r="Z103" s="2"/>
     </row>
-    <row r="104" spans="1:26">
+    <row r="104" spans="1:26" ht="16.5">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -6528,7 +6626,7 @@
       <c r="Y104" s="2"/>
       <c r="Z104" s="2"/>
     </row>
-    <row r="105" spans="1:26">
+    <row r="105" spans="1:26" ht="16.5">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -6556,7 +6654,7 @@
       <c r="Y105" s="2"/>
       <c r="Z105" s="2"/>
     </row>
-    <row r="106" spans="1:26">
+    <row r="106" spans="1:26" ht="16.5">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -6584,7 +6682,7 @@
       <c r="Y106" s="2"/>
       <c r="Z106" s="2"/>
     </row>
-    <row r="107" spans="1:26">
+    <row r="107" spans="1:26" ht="16.5">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -6612,7 +6710,7 @@
       <c r="Y107" s="2"/>
       <c r="Z107" s="2"/>
     </row>
-    <row r="108" spans="1:26">
+    <row r="108" spans="1:26" ht="16.5">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -6640,7 +6738,7 @@
       <c r="Y108" s="2"/>
       <c r="Z108" s="2"/>
     </row>
-    <row r="109" spans="1:26">
+    <row r="109" spans="1:26" ht="16.5">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -6668,7 +6766,7 @@
       <c r="Y109" s="2"/>
       <c r="Z109" s="2"/>
     </row>
-    <row r="110" spans="1:26">
+    <row r="110" spans="1:26" ht="16.5">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -6696,7 +6794,7 @@
       <c r="Y110" s="2"/>
       <c r="Z110" s="2"/>
     </row>
-    <row r="111" spans="1:26">
+    <row r="111" spans="1:26" ht="16.5">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -6724,7 +6822,7 @@
       <c r="Y111" s="2"/>
       <c r="Z111" s="2"/>
     </row>
-    <row r="112" spans="1:26">
+    <row r="112" spans="1:26" ht="16.5">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -6752,7 +6850,7 @@
       <c r="Y112" s="2"/>
       <c r="Z112" s="2"/>
     </row>
-    <row r="113" spans="1:26">
+    <row r="113" spans="1:26" ht="16.5">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -6780,7 +6878,7 @@
       <c r="Y113" s="2"/>
       <c r="Z113" s="2"/>
     </row>
-    <row r="114" spans="1:26">
+    <row r="114" spans="1:26" ht="16.5">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -6808,7 +6906,7 @@
       <c r="Y114" s="2"/>
       <c r="Z114" s="2"/>
     </row>
-    <row r="115" spans="1:26">
+    <row r="115" spans="1:26" ht="16.5">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -6836,7 +6934,7 @@
       <c r="Y115" s="2"/>
       <c r="Z115" s="2"/>
     </row>
-    <row r="116" spans="1:26">
+    <row r="116" spans="1:26" ht="16.5">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -6864,7 +6962,7 @@
       <c r="Y116" s="2"/>
       <c r="Z116" s="2"/>
     </row>
-    <row r="117" spans="1:26">
+    <row r="117" spans="1:26" ht="16.5">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -6892,7 +6990,7 @@
       <c r="Y117" s="2"/>
       <c r="Z117" s="2"/>
     </row>
-    <row r="118" spans="1:26">
+    <row r="118" spans="1:26" ht="16.5">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -6920,7 +7018,7 @@
       <c r="Y118" s="2"/>
       <c r="Z118" s="2"/>
     </row>
-    <row r="119" spans="1:26">
+    <row r="119" spans="1:26" ht="16.5">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -6948,7 +7046,7 @@
       <c r="Y119" s="2"/>
       <c r="Z119" s="2"/>
     </row>
-    <row r="120" spans="1:26">
+    <row r="120" spans="1:26" ht="16.5">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -6976,7 +7074,7 @@
       <c r="Y120" s="2"/>
       <c r="Z120" s="2"/>
     </row>
-    <row r="121" spans="1:26">
+    <row r="121" spans="1:26" ht="16.5">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -7004,7 +7102,7 @@
       <c r="Y121" s="2"/>
       <c r="Z121" s="2"/>
     </row>
-    <row r="122" spans="1:26">
+    <row r="122" spans="1:26" ht="16.5">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -7032,7 +7130,7 @@
       <c r="Y122" s="2"/>
       <c r="Z122" s="2"/>
     </row>
-    <row r="123" spans="1:26">
+    <row r="123" spans="1:26" ht="16.5">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -7060,7 +7158,7 @@
       <c r="Y123" s="2"/>
       <c r="Z123" s="2"/>
     </row>
-    <row r="124" spans="1:26">
+    <row r="124" spans="1:26" ht="16.5">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -7088,7 +7186,7 @@
       <c r="Y124" s="2"/>
       <c r="Z124" s="2"/>
     </row>
-    <row r="125" spans="1:26">
+    <row r="125" spans="1:26" ht="16.5">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -7116,7 +7214,7 @@
       <c r="Y125" s="2"/>
       <c r="Z125" s="2"/>
     </row>
-    <row r="126" spans="1:26">
+    <row r="126" spans="1:26" ht="16.5">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -7144,7 +7242,7 @@
       <c r="Y126" s="2"/>
       <c r="Z126" s="2"/>
     </row>
-    <row r="127" spans="1:26">
+    <row r="127" spans="1:26" ht="16.5">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -7172,7 +7270,7 @@
       <c r="Y127" s="2"/>
       <c r="Z127" s="2"/>
     </row>
-    <row r="128" spans="1:26">
+    <row r="128" spans="1:26" ht="16.5">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -7200,7 +7298,7 @@
       <c r="Y128" s="2"/>
       <c r="Z128" s="2"/>
     </row>
-    <row r="129" spans="1:26">
+    <row r="129" spans="1:26" ht="16.5">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -7228,7 +7326,7 @@
       <c r="Y129" s="2"/>
       <c r="Z129" s="2"/>
     </row>
-    <row r="130" spans="1:26">
+    <row r="130" spans="1:26" ht="16.5">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -7256,7 +7354,7 @@
       <c r="Y130" s="2"/>
       <c r="Z130" s="2"/>
     </row>
-    <row r="131" spans="1:26">
+    <row r="131" spans="1:26" ht="16.5">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -7284,7 +7382,7 @@
       <c r="Y131" s="2"/>
       <c r="Z131" s="2"/>
     </row>
-    <row r="132" spans="1:26">
+    <row r="132" spans="1:26" ht="16.5">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -7312,7 +7410,7 @@
       <c r="Y132" s="2"/>
       <c r="Z132" s="2"/>
     </row>
-    <row r="133" spans="1:26">
+    <row r="133" spans="1:26" ht="16.5">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -7340,7 +7438,7 @@
       <c r="Y133" s="2"/>
       <c r="Z133" s="2"/>
     </row>
-    <row r="134" spans="1:26">
+    <row r="134" spans="1:26" ht="16.5">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -7368,7 +7466,7 @@
       <c r="Y134" s="2"/>
       <c r="Z134" s="2"/>
     </row>
-    <row r="135" spans="1:26">
+    <row r="135" spans="1:26" ht="16.5">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -7396,7 +7494,7 @@
       <c r="Y135" s="2"/>
       <c r="Z135" s="2"/>
     </row>
-    <row r="136" spans="1:26">
+    <row r="136" spans="1:26" ht="16.5">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -7424,7 +7522,7 @@
       <c r="Y136" s="2"/>
       <c r="Z136" s="2"/>
     </row>
-    <row r="137" spans="1:26">
+    <row r="137" spans="1:26" ht="16.5">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -7452,7 +7550,7 @@
       <c r="Y137" s="2"/>
       <c r="Z137" s="2"/>
     </row>
-    <row r="138" spans="1:26">
+    <row r="138" spans="1:26" ht="16.5">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -7480,7 +7578,7 @@
       <c r="Y138" s="2"/>
       <c r="Z138" s="2"/>
     </row>
-    <row r="139" spans="1:26">
+    <row r="139" spans="1:26" ht="16.5">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -7508,7 +7606,7 @@
       <c r="Y139" s="2"/>
       <c r="Z139" s="2"/>
     </row>
-    <row r="140" spans="1:26">
+    <row r="140" spans="1:26" ht="16.5">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -7536,7 +7634,7 @@
       <c r="Y140" s="2"/>
       <c r="Z140" s="2"/>
     </row>
-    <row r="141" spans="1:26">
+    <row r="141" spans="1:26" ht="16.5">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -7564,7 +7662,7 @@
       <c r="Y141" s="2"/>
       <c r="Z141" s="2"/>
     </row>
-    <row r="142" spans="1:26">
+    <row r="142" spans="1:26" ht="16.5">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -7592,7 +7690,7 @@
       <c r="Y142" s="2"/>
       <c r="Z142" s="2"/>
     </row>
-    <row r="143" spans="1:26">
+    <row r="143" spans="1:26" ht="16.5">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -7620,7 +7718,7 @@
       <c r="Y143" s="2"/>
       <c r="Z143" s="2"/>
     </row>
-    <row r="144" spans="1:26">
+    <row r="144" spans="1:26" ht="16.5">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -7648,7 +7746,7 @@
       <c r="Y144" s="2"/>
       <c r="Z144" s="2"/>
     </row>
-    <row r="145" spans="1:26">
+    <row r="145" spans="1:26" ht="16.5">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -7676,7 +7774,7 @@
       <c r="Y145" s="2"/>
       <c r="Z145" s="2"/>
     </row>
-    <row r="146" spans="1:26">
+    <row r="146" spans="1:26" ht="16.5">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -7704,7 +7802,7 @@
       <c r="Y146" s="2"/>
       <c r="Z146" s="2"/>
     </row>
-    <row r="147" spans="1:26">
+    <row r="147" spans="1:26" ht="16.5">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -7732,7 +7830,7 @@
       <c r="Y147" s="2"/>
       <c r="Z147" s="2"/>
     </row>
-    <row r="148" spans="1:26">
+    <row r="148" spans="1:26" ht="16.5">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -7760,7 +7858,7 @@
       <c r="Y148" s="2"/>
       <c r="Z148" s="2"/>
     </row>
-    <row r="149" spans="1:26">
+    <row r="149" spans="1:26" ht="16.5">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -7788,7 +7886,7 @@
       <c r="Y149" s="2"/>
       <c r="Z149" s="2"/>
     </row>
-    <row r="150" spans="1:26">
+    <row r="150" spans="1:26" ht="16.5">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -7816,7 +7914,7 @@
       <c r="Y150" s="2"/>
       <c r="Z150" s="2"/>
     </row>
-    <row r="151" spans="1:26">
+    <row r="151" spans="1:26" ht="16.5">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -7844,7 +7942,7 @@
       <c r="Y151" s="2"/>
       <c r="Z151" s="2"/>
     </row>
-    <row r="152" spans="1:26">
+    <row r="152" spans="1:26" ht="16.5">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -7872,7 +7970,7 @@
       <c r="Y152" s="2"/>
       <c r="Z152" s="2"/>
     </row>
-    <row r="153" spans="1:26">
+    <row r="153" spans="1:26" ht="16.5">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -7900,7 +7998,7 @@
       <c r="Y153" s="2"/>
       <c r="Z153" s="2"/>
     </row>
-    <row r="154" spans="1:26">
+    <row r="154" spans="1:26" ht="16.5">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -7928,7 +8026,7 @@
       <c r="Y154" s="2"/>
       <c r="Z154" s="2"/>
     </row>
-    <row r="155" spans="1:26">
+    <row r="155" spans="1:26" ht="16.5">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -7956,7 +8054,7 @@
       <c r="Y155" s="2"/>
       <c r="Z155" s="2"/>
     </row>
-    <row r="156" spans="1:26">
+    <row r="156" spans="1:26" ht="16.5">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -7984,7 +8082,7 @@
       <c r="Y156" s="2"/>
       <c r="Z156" s="2"/>
     </row>
-    <row r="157" spans="1:26">
+    <row r="157" spans="1:26" ht="16.5">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -8012,7 +8110,7 @@
       <c r="Y157" s="2"/>
       <c r="Z157" s="2"/>
     </row>
-    <row r="158" spans="1:26">
+    <row r="158" spans="1:26" ht="16.5">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -8040,7 +8138,7 @@
       <c r="Y158" s="2"/>
       <c r="Z158" s="2"/>
     </row>
-    <row r="159" spans="1:26">
+    <row r="159" spans="1:26" ht="16.5">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -8068,7 +8166,7 @@
       <c r="Y159" s="2"/>
       <c r="Z159" s="2"/>
     </row>
-    <row r="160" spans="1:26">
+    <row r="160" spans="1:26" ht="16.5">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -8096,7 +8194,7 @@
       <c r="Y160" s="2"/>
       <c r="Z160" s="2"/>
     </row>
-    <row r="161" spans="1:26">
+    <row r="161" spans="1:26" ht="16.5">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -8124,7 +8222,7 @@
       <c r="Y161" s="2"/>
       <c r="Z161" s="2"/>
     </row>
-    <row r="162" spans="1:26">
+    <row r="162" spans="1:26" ht="16.5">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -8152,7 +8250,7 @@
       <c r="Y162" s="2"/>
       <c r="Z162" s="2"/>
     </row>
-    <row r="163" spans="1:26">
+    <row r="163" spans="1:26" ht="16.5">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -8180,7 +8278,7 @@
       <c r="Y163" s="2"/>
       <c r="Z163" s="2"/>
     </row>
-    <row r="164" spans="1:26">
+    <row r="164" spans="1:26" ht="16.5">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -8208,7 +8306,7 @@
       <c r="Y164" s="2"/>
       <c r="Z164" s="2"/>
     </row>
-    <row r="165" spans="1:26">
+    <row r="165" spans="1:26" ht="16.5">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -8236,7 +8334,7 @@
       <c r="Y165" s="2"/>
       <c r="Z165" s="2"/>
     </row>
-    <row r="166" spans="1:26">
+    <row r="166" spans="1:26" ht="16.5">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -8264,7 +8362,7 @@
       <c r="Y166" s="2"/>
       <c r="Z166" s="2"/>
     </row>
-    <row r="167" spans="1:26">
+    <row r="167" spans="1:26" ht="16.5">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -8292,7 +8390,7 @@
       <c r="Y167" s="2"/>
       <c r="Z167" s="2"/>
     </row>
-    <row r="168" spans="1:26">
+    <row r="168" spans="1:26" ht="16.5">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -8320,7 +8418,7 @@
       <c r="Y168" s="2"/>
       <c r="Z168" s="2"/>
     </row>
-    <row r="169" spans="1:26">
+    <row r="169" spans="1:26" ht="16.5">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -8348,7 +8446,7 @@
       <c r="Y169" s="2"/>
       <c r="Z169" s="2"/>
     </row>
-    <row r="170" spans="1:26">
+    <row r="170" spans="1:26" ht="16.5">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -8376,7 +8474,7 @@
       <c r="Y170" s="2"/>
       <c r="Z170" s="2"/>
     </row>
-    <row r="171" spans="1:26">
+    <row r="171" spans="1:26" ht="16.5">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -8404,7 +8502,7 @@
       <c r="Y171" s="2"/>
       <c r="Z171" s="2"/>
     </row>
-    <row r="172" spans="1:26">
+    <row r="172" spans="1:26" ht="16.5">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -8432,7 +8530,7 @@
       <c r="Y172" s="2"/>
       <c r="Z172" s="2"/>
     </row>
-    <row r="173" spans="1:26">
+    <row r="173" spans="1:26" ht="16.5">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -8460,7 +8558,7 @@
       <c r="Y173" s="2"/>
       <c r="Z173" s="2"/>
     </row>
-    <row r="174" spans="1:26">
+    <row r="174" spans="1:26" ht="16.5">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -8488,7 +8586,7 @@
       <c r="Y174" s="2"/>
       <c r="Z174" s="2"/>
     </row>
-    <row r="175" spans="1:26">
+    <row r="175" spans="1:26" ht="16.5">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -8516,7 +8614,7 @@
       <c r="Y175" s="2"/>
       <c r="Z175" s="2"/>
     </row>
-    <row r="176" spans="1:26">
+    <row r="176" spans="1:26" ht="16.5">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -8544,7 +8642,7 @@
       <c r="Y176" s="2"/>
       <c r="Z176" s="2"/>
     </row>
-    <row r="177" spans="1:26">
+    <row r="177" spans="1:26" ht="16.5">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -8572,7 +8670,7 @@
       <c r="Y177" s="2"/>
       <c r="Z177" s="2"/>
     </row>
-    <row r="178" spans="1:26">
+    <row r="178" spans="1:26" ht="16.5">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -8600,7 +8698,7 @@
       <c r="Y178" s="2"/>
       <c r="Z178" s="2"/>
     </row>
-    <row r="179" spans="1:26">
+    <row r="179" spans="1:26" ht="16.5">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -8628,7 +8726,7 @@
       <c r="Y179" s="2"/>
       <c r="Z179" s="2"/>
     </row>
-    <row r="180" spans="1:26">
+    <row r="180" spans="1:26" ht="16.5">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -8656,7 +8754,7 @@
       <c r="Y180" s="2"/>
       <c r="Z180" s="2"/>
     </row>
-    <row r="181" spans="1:26">
+    <row r="181" spans="1:26" ht="16.5">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -8684,7 +8782,7 @@
       <c r="Y181" s="2"/>
       <c r="Z181" s="2"/>
     </row>
-    <row r="182" spans="1:26">
+    <row r="182" spans="1:26" ht="16.5">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -8712,7 +8810,7 @@
       <c r="Y182" s="2"/>
       <c r="Z182" s="2"/>
     </row>
-    <row r="183" spans="1:26">
+    <row r="183" spans="1:26" ht="16.5">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -8740,7 +8838,7 @@
       <c r="Y183" s="2"/>
       <c r="Z183" s="2"/>
     </row>
-    <row r="184" spans="1:26">
+    <row r="184" spans="1:26" ht="16.5">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -8768,7 +8866,7 @@
       <c r="Y184" s="2"/>
       <c r="Z184" s="2"/>
     </row>
-    <row r="185" spans="1:26">
+    <row r="185" spans="1:26" ht="16.5">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -8796,7 +8894,7 @@
       <c r="Y185" s="2"/>
       <c r="Z185" s="2"/>
     </row>
-    <row r="186" spans="1:26">
+    <row r="186" spans="1:26" ht="16.5">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -8824,7 +8922,7 @@
       <c r="Y186" s="2"/>
       <c r="Z186" s="2"/>
     </row>
-    <row r="187" spans="1:26">
+    <row r="187" spans="1:26" ht="16.5">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -8852,7 +8950,7 @@
       <c r="Y187" s="2"/>
       <c r="Z187" s="2"/>
     </row>
-    <row r="188" spans="1:26">
+    <row r="188" spans="1:26" ht="16.5">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -8880,7 +8978,7 @@
       <c r="Y188" s="2"/>
       <c r="Z188" s="2"/>
     </row>
-    <row r="189" spans="1:26">
+    <row r="189" spans="1:26" ht="16.5">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -8908,7 +9006,7 @@
       <c r="Y189" s="2"/>
       <c r="Z189" s="2"/>
     </row>
-    <row r="190" spans="1:26">
+    <row r="190" spans="1:26" ht="16.5">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -8936,7 +9034,7 @@
       <c r="Y190" s="2"/>
       <c r="Z190" s="2"/>
     </row>
-    <row r="191" spans="1:26">
+    <row r="191" spans="1:26" ht="16.5">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -8964,7 +9062,7 @@
       <c r="Y191" s="2"/>
       <c r="Z191" s="2"/>
     </row>
-    <row r="192" spans="1:26">
+    <row r="192" spans="1:26" ht="16.5">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -8992,7 +9090,7 @@
       <c r="Y192" s="2"/>
       <c r="Z192" s="2"/>
     </row>
-    <row r="193" spans="1:26">
+    <row r="193" spans="1:26" ht="16.5">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -9020,7 +9118,7 @@
       <c r="Y193" s="2"/>
       <c r="Z193" s="2"/>
     </row>
-    <row r="194" spans="1:26">
+    <row r="194" spans="1:26" ht="16.5">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -9048,7 +9146,7 @@
       <c r="Y194" s="2"/>
       <c r="Z194" s="2"/>
     </row>
-    <row r="195" spans="1:26">
+    <row r="195" spans="1:26" ht="16.5">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -9076,7 +9174,7 @@
       <c r="Y195" s="2"/>
       <c r="Z195" s="2"/>
     </row>
-    <row r="196" spans="1:26">
+    <row r="196" spans="1:26" ht="16.5">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -9104,7 +9202,7 @@
       <c r="Y196" s="2"/>
       <c r="Z196" s="2"/>
     </row>
-    <row r="197" spans="1:26">
+    <row r="197" spans="1:26" ht="16.5">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -9132,7 +9230,7 @@
       <c r="Y197" s="2"/>
       <c r="Z197" s="2"/>
     </row>
-    <row r="198" spans="1:26">
+    <row r="198" spans="1:26" ht="16.5">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -9160,7 +9258,7 @@
       <c r="Y198" s="2"/>
       <c r="Z198" s="2"/>
     </row>
-    <row r="199" spans="1:26">
+    <row r="199" spans="1:26" ht="16.5">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -9188,7 +9286,7 @@
       <c r="Y199" s="2"/>
       <c r="Z199" s="2"/>
     </row>
-    <row r="200" spans="1:26">
+    <row r="200" spans="1:26" ht="16.5">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -9224,41 +9322,41 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A34290C4-9B1D-4846-84AC-2506C3BAB96D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="A1:G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" ht="16.5">
       <c r="A1" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="57"/>
+      <c r="D1" s="59"/>
       <c r="E1" s="9" t="s">
         <v>7</v>
       </c>
       <c r="F1" s="10"/>
       <c r="G1" s="10"/>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="51" t="s">
+    <row r="2" spans="1:7" ht="16.5">
+      <c r="A2" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="58" t="s">
+      <c r="B2" s="51"/>
+      <c r="C2" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="57"/>
+      <c r="D2" s="59"/>
       <c r="E2" s="11" t="s">
         <v>10</v>
       </c>
@@ -9269,28 +9367,28 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="52" t="s">
+    <row r="3" spans="1:7" ht="16.5">
+      <c r="A3" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="55"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="57"/>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
       <c r="G3" s="14"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" ht="16.5">
       <c r="A4" s="15" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="55"/>
+      <c r="D4" s="57"/>
       <c r="E4" s="16" t="s">
         <v>16</v>
       </c>
@@ -9342,48 +9440,48 @@
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E1" r:id="rId1" xr:uid="{58D8AA3A-81EA-4DC7-B010-B459081CAC2B}"/>
+    <hyperlink ref="E1" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{932B4249-EE84-4CF6-917B-8201BDD66616}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="G4" sqref="A1:G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" ht="16.5">
       <c r="A1" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="57"/>
+      <c r="D1" s="59"/>
       <c r="E1" s="9" t="s">
         <v>7</v>
       </c>
       <c r="F1" s="10"/>
       <c r="G1" s="10"/>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="51" t="s">
+    <row r="2" spans="1:7" ht="16.5">
+      <c r="A2" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="58" t="s">
+      <c r="B2" s="51"/>
+      <c r="C2" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="57"/>
+      <c r="D2" s="59"/>
       <c r="E2" s="11" t="s">
         <v>10</v>
       </c>
@@ -9394,28 +9492,28 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="52" t="s">
+    <row r="3" spans="1:7" ht="16.5">
+      <c r="A3" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="55"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="57"/>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
       <c r="G3" s="14"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" ht="16.5">
       <c r="A4" s="15" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="55"/>
+      <c r="D4" s="57"/>
       <c r="E4" s="16" t="s">
         <v>16</v>
       </c>
@@ -9461,7 +9559,7 @@
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E1" r:id="rId1" xr:uid="{841307DA-50B8-4997-BACD-8CB06E9A0F8A}"/>
+    <hyperlink ref="E1" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -9469,19 +9567,19 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F2C5B5D-1AFE-41C6-9849-B6BBCAFCEA9D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E240"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="E101" sqref="E101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="3" max="3" width="20.8984375" customWidth="1"/>
+    <col min="3" max="3" width="20.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="18">
+    <row r="2" spans="2:5" ht="18.75">
       <c r="B2">
         <v>1000001</v>
       </c>
@@ -9495,7 +9593,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="18">
+    <row r="3" spans="2:5" ht="18.75">
       <c r="B3">
         <v>1000002</v>
       </c>
@@ -9509,7 +9607,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="18">
+    <row r="4" spans="2:5" ht="18.75">
       <c r="B4">
         <v>1000003</v>
       </c>
@@ -9523,7 +9621,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="18">
+    <row r="5" spans="2:5" ht="18.75">
       <c r="B5">
         <v>1000004</v>
       </c>
@@ -9537,7 +9635,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="18">
+    <row r="6" spans="2:5" ht="18.75">
       <c r="B6">
         <v>1000005</v>
       </c>
@@ -9551,7 +9649,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="7" spans="2:5" ht="18">
+    <row r="7" spans="2:5" ht="18.75">
       <c r="B7">
         <v>1000006</v>
       </c>
@@ -9565,7 +9663,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="18">
+    <row r="8" spans="2:5" ht="18.75">
       <c r="B8">
         <v>1000007</v>
       </c>
@@ -9579,7 +9677,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="18">
+    <row r="9" spans="2:5" ht="18.75">
       <c r="B9">
         <v>1000008</v>
       </c>
@@ -9593,7 +9691,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="10" spans="2:5" ht="18">
+    <row r="10" spans="2:5" ht="18.75">
       <c r="B10">
         <v>1000009</v>
       </c>
@@ -9607,7 +9705,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="11" spans="2:5" ht="18">
+    <row r="11" spans="2:5" ht="18.75">
       <c r="B11">
         <v>1000010</v>
       </c>
@@ -9621,7 +9719,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="12" spans="2:5" ht="18">
+    <row r="12" spans="2:5" ht="18.75">
       <c r="B12">
         <v>1000011</v>
       </c>
@@ -9635,7 +9733,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="18">
+    <row r="13" spans="2:5" ht="18.75">
       <c r="B13">
         <v>1000012</v>
       </c>
@@ -9649,7 +9747,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="14" spans="2:5" ht="18">
+    <row r="14" spans="2:5" ht="18.75">
       <c r="B14">
         <v>1000013</v>
       </c>
@@ -9663,7 +9761,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="15" spans="2:5" ht="18">
+    <row r="15" spans="2:5" ht="18.75">
       <c r="B15">
         <v>1000014</v>
       </c>
@@ -9677,7 +9775,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="16" spans="2:5" ht="18">
+    <row r="16" spans="2:5" ht="18.75">
       <c r="B16">
         <v>1000015</v>
       </c>
@@ -9691,7 +9789,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="18">
+    <row r="17" spans="2:5" ht="18.75">
       <c r="B17">
         <v>1000016</v>
       </c>
@@ -9705,7 +9803,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="18">
+    <row r="18" spans="2:5" ht="18.75">
       <c r="B18">
         <v>1000017</v>
       </c>
@@ -9719,7 +9817,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="18">
+    <row r="19" spans="2:5" ht="18.75">
       <c r="B19">
         <v>1000018</v>
       </c>
@@ -9733,7 +9831,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="20" spans="2:5" ht="18">
+    <row r="20" spans="2:5" ht="18.75">
       <c r="B20">
         <v>1000019</v>
       </c>
@@ -9747,7 +9845,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="21" spans="2:5" ht="18">
+    <row r="21" spans="2:5" ht="18.75">
       <c r="B21">
         <v>1000020</v>
       </c>
@@ -9761,7 +9859,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="22" spans="2:5" ht="18">
+    <row r="22" spans="2:5" ht="18.75">
       <c r="B22">
         <v>1000021</v>
       </c>
@@ -9775,7 +9873,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="23" spans="2:5" ht="18">
+    <row r="23" spans="2:5" ht="18.75">
       <c r="B23">
         <v>1000022</v>
       </c>
@@ -9789,7 +9887,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="24" spans="2:5" ht="18">
+    <row r="24" spans="2:5" ht="18.75">
       <c r="B24">
         <v>1000023</v>
       </c>
@@ -9803,7 +9901,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="25" spans="2:5" ht="18">
+    <row r="25" spans="2:5" ht="18.75">
       <c r="B25">
         <v>1000024</v>
       </c>
@@ -9817,7 +9915,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="26" spans="2:5" ht="18">
+    <row r="26" spans="2:5" ht="18.75">
       <c r="B26">
         <v>1000025</v>
       </c>
@@ -9831,7 +9929,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="27" spans="2:5" ht="18">
+    <row r="27" spans="2:5" ht="18.75">
       <c r="B27">
         <v>1000026</v>
       </c>
@@ -9845,7 +9943,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="28" spans="2:5" ht="18">
+    <row r="28" spans="2:5" ht="18.75">
       <c r="B28">
         <v>1000027</v>
       </c>
@@ -9859,7 +9957,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="29" spans="2:5" ht="18">
+    <row r="29" spans="2:5" ht="18.75">
       <c r="B29">
         <v>1000028</v>
       </c>
@@ -9873,7 +9971,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="30" spans="2:5" ht="18">
+    <row r="30" spans="2:5" ht="18.75">
       <c r="B30">
         <v>1000029</v>
       </c>
@@ -9887,7 +9985,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="31" spans="2:5" ht="18">
+    <row r="31" spans="2:5" ht="18.75">
       <c r="B31">
         <v>1000030</v>
       </c>
@@ -9901,7 +9999,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="32" spans="2:5" ht="18">
+    <row r="32" spans="2:5" ht="18.75">
       <c r="B32">
         <v>1000031</v>
       </c>
@@ -9915,7 +10013,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="33" spans="2:5" ht="18">
+    <row r="33" spans="2:5" ht="18.75">
       <c r="B33">
         <v>1000032</v>
       </c>
@@ -9929,7 +10027,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="34" spans="2:5" ht="18">
+    <row r="34" spans="2:5" ht="18.75">
       <c r="B34">
         <v>1000033</v>
       </c>
@@ -9943,7 +10041,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="35" spans="2:5" ht="18">
+    <row r="35" spans="2:5" ht="18.75">
       <c r="B35">
         <v>1000034</v>
       </c>
@@ -9957,7 +10055,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="36" spans="2:5" ht="18">
+    <row r="36" spans="2:5" ht="18.75">
       <c r="B36">
         <v>1000035</v>
       </c>
@@ -9971,7 +10069,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="37" spans="2:5" ht="18">
+    <row r="37" spans="2:5" ht="18.75">
       <c r="B37">
         <v>1000036</v>
       </c>
@@ -9985,7 +10083,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="38" spans="2:5" ht="18">
+    <row r="38" spans="2:5" ht="18.75">
       <c r="B38">
         <v>1000037</v>
       </c>
@@ -9999,7 +10097,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="39" spans="2:5" ht="18">
+    <row r="39" spans="2:5" ht="18.75">
       <c r="B39">
         <v>1000038</v>
       </c>
@@ -10013,7 +10111,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="40" spans="2:5" ht="18">
+    <row r="40" spans="2:5" ht="18.75">
       <c r="B40">
         <v>1000039</v>
       </c>
@@ -10027,7 +10125,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="41" spans="2:5" ht="18">
+    <row r="41" spans="2:5" ht="18.75">
       <c r="B41">
         <v>1000040</v>
       </c>
@@ -10041,7 +10139,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="42" spans="2:5" ht="18">
+    <row r="42" spans="2:5" ht="18.75">
       <c r="B42">
         <v>1000041</v>
       </c>
@@ -10055,7 +10153,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="43" spans="2:5" ht="18">
+    <row r="43" spans="2:5" ht="18.75">
       <c r="B43">
         <v>1000042</v>
       </c>
@@ -10069,7 +10167,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="44" spans="2:5" ht="18">
+    <row r="44" spans="2:5" ht="18.75">
       <c r="B44">
         <v>1000043</v>
       </c>
@@ -10083,7 +10181,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="45" spans="2:5" ht="18">
+    <row r="45" spans="2:5" ht="18.75">
       <c r="B45">
         <v>1000044</v>
       </c>
@@ -10097,7 +10195,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="46" spans="2:5" ht="18">
+    <row r="46" spans="2:5" ht="18.75">
       <c r="B46">
         <v>1000045</v>
       </c>
@@ -10111,7 +10209,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="47" spans="2:5" ht="18">
+    <row r="47" spans="2:5" ht="18.75">
       <c r="B47">
         <v>1000046</v>
       </c>
@@ -10125,7 +10223,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="48" spans="2:5" ht="18">
+    <row r="48" spans="2:5" ht="18.75">
       <c r="B48">
         <v>1000047</v>
       </c>
@@ -10139,7 +10237,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="49" spans="2:5" ht="18">
+    <row r="49" spans="2:5" ht="18.75">
       <c r="B49">
         <v>1000048</v>
       </c>
@@ -10153,7 +10251,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="50" spans="2:5" ht="18">
+    <row r="50" spans="2:5" ht="18.75">
       <c r="B50">
         <v>1000049</v>
       </c>
@@ -10167,7 +10265,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="51" spans="2:5" ht="18">
+    <row r="51" spans="2:5" ht="18.75">
       <c r="B51">
         <v>1000050</v>
       </c>
@@ -10181,7 +10279,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="52" spans="2:5" ht="18">
+    <row r="52" spans="2:5" ht="18.75">
       <c r="B52">
         <v>1000051</v>
       </c>
@@ -10195,7 +10293,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="53" spans="2:5" ht="18">
+    <row r="53" spans="2:5" ht="18.75">
       <c r="B53">
         <v>1000052</v>
       </c>
@@ -10209,7 +10307,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="54" spans="2:5" ht="18">
+    <row r="54" spans="2:5" ht="18.75">
       <c r="B54">
         <v>1000053</v>
       </c>
@@ -10223,7 +10321,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="55" spans="2:5" ht="18">
+    <row r="55" spans="2:5" ht="18.75">
       <c r="B55">
         <v>1000054</v>
       </c>
@@ -10237,7 +10335,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="56" spans="2:5" ht="18">
+    <row r="56" spans="2:5" ht="18.75">
       <c r="B56">
         <v>1000055</v>
       </c>
@@ -10251,7 +10349,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="57" spans="2:5" ht="18">
+    <row r="57" spans="2:5" ht="18.75">
       <c r="B57">
         <v>1000056</v>
       </c>
@@ -10265,7 +10363,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="58" spans="2:5" ht="18">
+    <row r="58" spans="2:5" ht="18.75">
       <c r="B58">
         <v>1000057</v>
       </c>
@@ -10279,7 +10377,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="59" spans="2:5" ht="18">
+    <row r="59" spans="2:5" ht="18.75">
       <c r="B59">
         <v>1000058</v>
       </c>
@@ -10293,7 +10391,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="60" spans="2:5" ht="18">
+    <row r="60" spans="2:5" ht="18.75">
       <c r="B60">
         <v>1000059</v>
       </c>
@@ -10307,7 +10405,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="61" spans="2:5" ht="18">
+    <row r="61" spans="2:5" ht="18.75">
       <c r="B61">
         <v>1000060</v>
       </c>
@@ -10321,7 +10419,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="62" spans="2:5" ht="18">
+    <row r="62" spans="2:5" ht="18.75">
       <c r="B62">
         <v>1000061</v>
       </c>
@@ -10335,7 +10433,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="63" spans="2:5" ht="18">
+    <row r="63" spans="2:5" ht="18.75">
       <c r="B63">
         <v>1000062</v>
       </c>
@@ -10349,7 +10447,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="64" spans="2:5" ht="18">
+    <row r="64" spans="2:5" ht="18.75">
       <c r="B64">
         <v>1000063</v>
       </c>
@@ -10363,7 +10461,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="65" spans="2:5" ht="18">
+    <row r="65" spans="2:5" ht="18.75">
       <c r="B65">
         <v>1000064</v>
       </c>
@@ -10377,7 +10475,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="66" spans="2:5" ht="18">
+    <row r="66" spans="2:5" ht="18.75">
       <c r="B66">
         <v>1000065</v>
       </c>
@@ -10391,7 +10489,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="67" spans="2:5" ht="18">
+    <row r="67" spans="2:5" ht="18.75">
       <c r="B67">
         <v>1000066</v>
       </c>
@@ -10405,7 +10503,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="68" spans="2:5" ht="18">
+    <row r="68" spans="2:5" ht="18.75">
       <c r="B68">
         <v>1000067</v>
       </c>
@@ -10419,7 +10517,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="69" spans="2:5" ht="18">
+    <row r="69" spans="2:5" ht="18.75">
       <c r="B69">
         <v>1000068</v>
       </c>
@@ -10433,7 +10531,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="70" spans="2:5" ht="18">
+    <row r="70" spans="2:5" ht="18.75">
       <c r="B70">
         <v>1000069</v>
       </c>
@@ -10447,7 +10545,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="71" spans="2:5" ht="18">
+    <row r="71" spans="2:5" ht="18.75">
       <c r="B71">
         <v>1000070</v>
       </c>
@@ -10461,7 +10559,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="72" spans="2:5" ht="18">
+    <row r="72" spans="2:5" ht="18.75">
       <c r="B72">
         <v>1000071</v>
       </c>
@@ -10475,7 +10573,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="73" spans="2:5" ht="18">
+    <row r="73" spans="2:5" ht="18.75">
       <c r="B73">
         <v>1000072</v>
       </c>
@@ -10489,7 +10587,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="74" spans="2:5" ht="18">
+    <row r="74" spans="2:5" ht="18.75">
       <c r="B74">
         <v>1000073</v>
       </c>
@@ -10503,7 +10601,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="75" spans="2:5" ht="18">
+    <row r="75" spans="2:5" ht="18.75">
       <c r="B75">
         <v>1000074</v>
       </c>
@@ -10517,7 +10615,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="76" spans="2:5" ht="18">
+    <row r="76" spans="2:5" ht="18.75">
       <c r="B76">
         <v>1000075</v>
       </c>
@@ -10531,7 +10629,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="77" spans="2:5" ht="18">
+    <row r="77" spans="2:5" ht="18.75">
       <c r="B77">
         <v>1000076</v>
       </c>
@@ -10545,7 +10643,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="78" spans="2:5" ht="18">
+    <row r="78" spans="2:5" ht="18.75">
       <c r="B78">
         <v>1000077</v>
       </c>
@@ -10559,7 +10657,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="79" spans="2:5" ht="18">
+    <row r="79" spans="2:5" ht="18.75">
       <c r="B79">
         <v>1000078</v>
       </c>
@@ -10573,7 +10671,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="80" spans="2:5" ht="18">
+    <row r="80" spans="2:5" ht="18.75">
       <c r="B80">
         <v>1000079</v>
       </c>
@@ -10587,7 +10685,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="81" spans="2:5" ht="18">
+    <row r="81" spans="2:5" ht="18.75">
       <c r="B81">
         <v>1000080</v>
       </c>
@@ -10601,7 +10699,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="82" spans="2:5" ht="18">
+    <row r="82" spans="2:5" ht="18.75">
       <c r="B82">
         <v>1000081</v>
       </c>
@@ -10615,7 +10713,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="83" spans="2:5" ht="18">
+    <row r="83" spans="2:5" ht="18.75">
       <c r="B83">
         <v>1000082</v>
       </c>
@@ -10629,7 +10727,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="84" spans="2:5" ht="18">
+    <row r="84" spans="2:5" ht="18.75">
       <c r="B84">
         <v>1000083</v>
       </c>
@@ -10643,7 +10741,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="85" spans="2:5" ht="18">
+    <row r="85" spans="2:5" ht="18.75">
       <c r="B85">
         <v>1000084</v>
       </c>
@@ -10657,7 +10755,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="86" spans="2:5" ht="18">
+    <row r="86" spans="2:5" ht="18.75">
       <c r="B86">
         <v>1000085</v>
       </c>
@@ -10671,7 +10769,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="87" spans="2:5" ht="18">
+    <row r="87" spans="2:5" ht="18.75">
       <c r="B87">
         <v>1000086</v>
       </c>
@@ -10685,7 +10783,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="88" spans="2:5" ht="18">
+    <row r="88" spans="2:5" ht="18.75">
       <c r="B88">
         <v>1000087</v>
       </c>
@@ -10699,7 +10797,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="89" spans="2:5" ht="18">
+    <row r="89" spans="2:5" ht="18.75">
       <c r="B89">
         <v>1000088</v>
       </c>
@@ -10713,7 +10811,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="90" spans="2:5" ht="18">
+    <row r="90" spans="2:5" ht="18.75">
       <c r="B90">
         <v>1000089</v>
       </c>
@@ -10727,7 +10825,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="91" spans="2:5" ht="18">
+    <row r="91" spans="2:5" ht="18.75">
       <c r="B91">
         <v>1000090</v>
       </c>
@@ -10741,7 +10839,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="92" spans="2:5" ht="18">
+    <row r="92" spans="2:5" ht="18.75">
       <c r="B92">
         <v>1000091</v>
       </c>
@@ -10755,7 +10853,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="93" spans="2:5" ht="18">
+    <row r="93" spans="2:5" ht="18.75">
       <c r="B93">
         <v>1000092</v>
       </c>
@@ -10769,7 +10867,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="94" spans="2:5" ht="18">
+    <row r="94" spans="2:5" ht="18.75">
       <c r="B94">
         <v>1000093</v>
       </c>
@@ -10783,7 +10881,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="95" spans="2:5" ht="18">
+    <row r="95" spans="2:5" ht="18.75">
       <c r="B95">
         <v>1000094</v>
       </c>
@@ -10797,7 +10895,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="96" spans="2:5" ht="18">
+    <row r="96" spans="2:5" ht="18.75">
       <c r="B96">
         <v>1000095</v>
       </c>
@@ -10811,7 +10909,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="97" spans="2:5" ht="18">
+    <row r="97" spans="2:5" ht="18.75">
       <c r="B97">
         <v>1000096</v>
       </c>
@@ -10825,7 +10923,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="98" spans="2:5" ht="18">
+    <row r="98" spans="2:5" ht="18.75">
       <c r="B98">
         <v>1000097</v>
       </c>
@@ -10839,7 +10937,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="99" spans="2:5" ht="18">
+    <row r="99" spans="2:5" ht="18.75">
       <c r="B99">
         <v>1000098</v>
       </c>
@@ -10853,7 +10951,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="100" spans="2:5" ht="18">
+    <row r="100" spans="2:5" ht="18.75">
       <c r="B100">
         <v>1000099</v>
       </c>
@@ -10867,7 +10965,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="101" spans="2:5" ht="18">
+    <row r="101" spans="2:5" ht="18.75">
       <c r="B101">
         <v>1000100</v>
       </c>
@@ -10881,7 +10979,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="102" spans="2:5" ht="18">
+    <row r="102" spans="2:5" ht="18.75">
       <c r="B102">
         <v>1000101</v>
       </c>
@@ -10895,7 +10993,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="103" spans="2:5" ht="18">
+    <row r="103" spans="2:5" ht="18.75">
       <c r="B103">
         <v>1000102</v>
       </c>
@@ -10909,7 +11007,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="104" spans="2:5" ht="18">
+    <row r="104" spans="2:5" ht="18.75">
       <c r="B104">
         <v>1000103</v>
       </c>
@@ -10923,7 +11021,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="105" spans="2:5" ht="18">
+    <row r="105" spans="2:5" ht="18.75">
       <c r="B105">
         <v>1000104</v>
       </c>
@@ -10937,7 +11035,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="106" spans="2:5" ht="18">
+    <row r="106" spans="2:5" ht="18.75">
       <c r="B106">
         <v>1000105</v>
       </c>
@@ -10951,7 +11049,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="107" spans="2:5" ht="18">
+    <row r="107" spans="2:5" ht="18.75">
       <c r="B107">
         <v>1000106</v>
       </c>
@@ -10965,7 +11063,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="108" spans="2:5" ht="18">
+    <row r="108" spans="2:5" ht="18.75">
       <c r="B108">
         <v>1000107</v>
       </c>
@@ -10979,7 +11077,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="109" spans="2:5" ht="18">
+    <row r="109" spans="2:5" ht="18.75">
       <c r="B109">
         <v>1000108</v>
       </c>
@@ -10993,7 +11091,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="110" spans="2:5" ht="18">
+    <row r="110" spans="2:5" ht="18.75">
       <c r="B110">
         <v>1000109</v>
       </c>
@@ -11007,7 +11105,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="111" spans="2:5" ht="18">
+    <row r="111" spans="2:5" ht="18.75">
       <c r="B111">
         <v>1000110</v>
       </c>
@@ -11021,7 +11119,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="112" spans="2:5" ht="18">
+    <row r="112" spans="2:5" ht="18.75">
       <c r="B112">
         <v>1000111</v>
       </c>
@@ -11035,7 +11133,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="113" spans="2:5" ht="18">
+    <row r="113" spans="2:5" ht="18.75">
       <c r="B113">
         <v>1000112</v>
       </c>
@@ -11049,7 +11147,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="114" spans="2:5" ht="18">
+    <row r="114" spans="2:5" ht="18.75">
       <c r="B114">
         <v>1000113</v>
       </c>
@@ -11063,7 +11161,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="115" spans="2:5" ht="18">
+    <row r="115" spans="2:5" ht="18.75">
       <c r="B115">
         <v>1000114</v>
       </c>
@@ -11077,7 +11175,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="116" spans="2:5" ht="18">
+    <row r="116" spans="2:5" ht="18.75">
       <c r="B116">
         <v>1000115</v>
       </c>
@@ -11091,7 +11189,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="117" spans="2:5" ht="18">
+    <row r="117" spans="2:5" ht="18.75">
       <c r="B117">
         <v>1000116</v>
       </c>
@@ -11105,7 +11203,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="118" spans="2:5" ht="18">
+    <row r="118" spans="2:5" ht="18.75">
       <c r="B118">
         <v>1000117</v>
       </c>
@@ -11119,7 +11217,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="119" spans="2:5" ht="18">
+    <row r="119" spans="2:5" ht="18.75">
       <c r="B119">
         <v>1000118</v>
       </c>
@@ -11133,7 +11231,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="120" spans="2:5" ht="18">
+    <row r="120" spans="2:5" ht="18.75">
       <c r="B120">
         <v>1000119</v>
       </c>
@@ -11147,7 +11245,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="121" spans="2:5" ht="18">
+    <row r="121" spans="2:5" ht="18.75">
       <c r="B121">
         <v>1000120</v>
       </c>
@@ -11161,7 +11259,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="122" spans="2:5" ht="18">
+    <row r="122" spans="2:5" ht="18.75">
       <c r="B122">
         <v>1000121</v>
       </c>
@@ -11175,7 +11273,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="123" spans="2:5" ht="18">
+    <row r="123" spans="2:5" ht="18.75">
       <c r="B123">
         <v>1000122</v>
       </c>
@@ -11189,7 +11287,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="124" spans="2:5" ht="18">
+    <row r="124" spans="2:5" ht="18.75">
       <c r="B124">
         <v>1000123</v>
       </c>
@@ -11203,7 +11301,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="125" spans="2:5" ht="18">
+    <row r="125" spans="2:5" ht="18.75">
       <c r="B125">
         <v>1000124</v>
       </c>
@@ -11217,7 +11315,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="126" spans="2:5" ht="18">
+    <row r="126" spans="2:5" ht="18.75">
       <c r="B126">
         <v>1000125</v>
       </c>
@@ -11231,7 +11329,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="127" spans="2:5" ht="18">
+    <row r="127" spans="2:5" ht="18.75">
       <c r="B127">
         <v>1000126</v>
       </c>
@@ -11245,7 +11343,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="128" spans="2:5" ht="18">
+    <row r="128" spans="2:5" ht="18.75">
       <c r="B128">
         <v>1000127</v>
       </c>
@@ -11259,7 +11357,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="129" spans="2:5" ht="18">
+    <row r="129" spans="2:5" ht="18.75">
       <c r="B129">
         <v>1000128</v>
       </c>
@@ -11273,7 +11371,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="130" spans="2:5" ht="18">
+    <row r="130" spans="2:5" ht="18.75">
       <c r="B130">
         <v>1000129</v>
       </c>
@@ -11287,7 +11385,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="131" spans="2:5" ht="18">
+    <row r="131" spans="2:5" ht="18.75">
       <c r="B131">
         <v>1000130</v>
       </c>
@@ -11301,7 +11399,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="132" spans="2:5" ht="18">
+    <row r="132" spans="2:5" ht="18.75">
       <c r="B132">
         <v>1000131</v>
       </c>
@@ -11315,7 +11413,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="133" spans="2:5" ht="18">
+    <row r="133" spans="2:5" ht="18.75">
       <c r="B133">
         <v>1000132</v>
       </c>
@@ -11329,7 +11427,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="134" spans="2:5" ht="18">
+    <row r="134" spans="2:5" ht="18.75">
       <c r="B134">
         <v>1000133</v>
       </c>
@@ -11343,7 +11441,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="135" spans="2:5" ht="18">
+    <row r="135" spans="2:5" ht="18.75">
       <c r="B135">
         <v>1000134</v>
       </c>
@@ -11357,7 +11455,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="136" spans="2:5" ht="18">
+    <row r="136" spans="2:5" ht="18.75">
       <c r="B136">
         <v>1000135</v>
       </c>
@@ -11371,7 +11469,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="137" spans="2:5" ht="18">
+    <row r="137" spans="2:5" ht="18.75">
       <c r="B137">
         <v>1000136</v>
       </c>
@@ -11385,7 +11483,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="138" spans="2:5" ht="18">
+    <row r="138" spans="2:5" ht="18.75">
       <c r="B138">
         <v>1000137</v>
       </c>
@@ -11399,7 +11497,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="139" spans="2:5" ht="18">
+    <row r="139" spans="2:5" ht="18.75">
       <c r="B139">
         <v>1000138</v>
       </c>
@@ -11413,7 +11511,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="140" spans="2:5" ht="18">
+    <row r="140" spans="2:5" ht="18.75">
       <c r="B140">
         <v>1000139</v>
       </c>
@@ -11427,7 +11525,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="141" spans="2:5" ht="18">
+    <row r="141" spans="2:5" ht="18.75">
       <c r="B141">
         <v>1000140</v>
       </c>
@@ -11441,7 +11539,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="142" spans="2:5" ht="18">
+    <row r="142" spans="2:5" ht="18.75">
       <c r="B142">
         <v>1000141</v>
       </c>
@@ -11455,7 +11553,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="143" spans="2:5" ht="18">
+    <row r="143" spans="2:5" ht="18.75">
       <c r="B143">
         <v>1000142</v>
       </c>
@@ -11469,7 +11567,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="144" spans="2:5" ht="18">
+    <row r="144" spans="2:5" ht="18.75">
       <c r="B144">
         <v>1000143</v>
       </c>
@@ -11483,7 +11581,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="145" spans="2:5" ht="18">
+    <row r="145" spans="2:5" ht="18.75">
       <c r="B145">
         <v>1000144</v>
       </c>
@@ -11497,7 +11595,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="146" spans="2:5" ht="18">
+    <row r="146" spans="2:5" ht="18.75">
       <c r="B146">
         <v>1000145</v>
       </c>
@@ -11511,7 +11609,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="147" spans="2:5" ht="18">
+    <row r="147" spans="2:5" ht="18.75">
       <c r="B147">
         <v>1000146</v>
       </c>
@@ -11525,7 +11623,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="148" spans="2:5" ht="18">
+    <row r="148" spans="2:5" ht="18.75">
       <c r="B148">
         <v>1000147</v>
       </c>
@@ -11539,7 +11637,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="149" spans="2:5" ht="18">
+    <row r="149" spans="2:5" ht="18.75">
       <c r="B149">
         <v>1000148</v>
       </c>
@@ -11553,7 +11651,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="150" spans="2:5" ht="18">
+    <row r="150" spans="2:5" ht="18.75">
       <c r="B150">
         <v>1000149</v>
       </c>
@@ -11567,7 +11665,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="151" spans="2:5" ht="18">
+    <row r="151" spans="2:5" ht="18.75">
       <c r="B151">
         <v>1000150</v>
       </c>
@@ -11581,7 +11679,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="152" spans="2:5" ht="18">
+    <row r="152" spans="2:5" ht="18.75">
       <c r="B152">
         <v>1000151</v>
       </c>
@@ -11595,7 +11693,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="153" spans="2:5" ht="18">
+    <row r="153" spans="2:5" ht="18.75">
       <c r="B153">
         <v>1000152</v>
       </c>
@@ -11609,7 +11707,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="154" spans="2:5" ht="18">
+    <row r="154" spans="2:5" ht="18.75">
       <c r="B154">
         <v>1000153</v>
       </c>
@@ -11623,7 +11721,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="155" spans="2:5" ht="18">
+    <row r="155" spans="2:5" ht="18.75">
       <c r="B155">
         <v>1000154</v>
       </c>
@@ -11637,7 +11735,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="156" spans="2:5" ht="18">
+    <row r="156" spans="2:5" ht="18.75">
       <c r="B156">
         <v>1000155</v>
       </c>
@@ -11651,7 +11749,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="157" spans="2:5" ht="18">
+    <row r="157" spans="2:5" ht="18.75">
       <c r="B157">
         <v>1000156</v>
       </c>
@@ -11665,7 +11763,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="158" spans="2:5" ht="18">
+    <row r="158" spans="2:5" ht="18.75">
       <c r="B158">
         <v>1000157</v>
       </c>
@@ -11679,7 +11777,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="159" spans="2:5" ht="18">
+    <row r="159" spans="2:5" ht="18.75">
       <c r="B159">
         <v>1000158</v>
       </c>
@@ -11693,7 +11791,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="160" spans="2:5" ht="18">
+    <row r="160" spans="2:5" ht="18.75">
       <c r="B160">
         <v>1000159</v>
       </c>
@@ -11707,7 +11805,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="161" spans="2:5" ht="18">
+    <row r="161" spans="2:5" ht="18.75">
       <c r="B161">
         <v>1000160</v>
       </c>
@@ -11721,7 +11819,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="162" spans="2:5" ht="18">
+    <row r="162" spans="2:5" ht="18.75">
       <c r="B162">
         <v>1000161</v>
       </c>
@@ -11735,7 +11833,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="163" spans="2:5" ht="18">
+    <row r="163" spans="2:5" ht="18.75">
       <c r="B163">
         <v>1000162</v>
       </c>
@@ -11749,7 +11847,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="164" spans="2:5" ht="18">
+    <row r="164" spans="2:5" ht="18.75">
       <c r="B164">
         <v>1000163</v>
       </c>
@@ -11763,7 +11861,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="165" spans="2:5" ht="18">
+    <row r="165" spans="2:5" ht="18.75">
       <c r="B165">
         <v>1000164</v>
       </c>
@@ -11777,7 +11875,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="166" spans="2:5" ht="18">
+    <row r="166" spans="2:5" ht="18.75">
       <c r="B166">
         <v>1000165</v>
       </c>
@@ -11791,7 +11889,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="167" spans="2:5" ht="18">
+    <row r="167" spans="2:5" ht="18.75">
       <c r="B167">
         <v>1000166</v>
       </c>
@@ -11805,7 +11903,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="168" spans="2:5" ht="18">
+    <row r="168" spans="2:5" ht="18.75">
       <c r="B168">
         <v>1000167</v>
       </c>
@@ -11819,7 +11917,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="169" spans="2:5" ht="18">
+    <row r="169" spans="2:5" ht="18.75">
       <c r="B169">
         <v>1000168</v>
       </c>
@@ -11833,7 +11931,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="170" spans="2:5" ht="18">
+    <row r="170" spans="2:5" ht="18.75">
       <c r="B170">
         <v>1000169</v>
       </c>
@@ -11847,7 +11945,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="171" spans="2:5" ht="18">
+    <row r="171" spans="2:5" ht="18.75">
       <c r="B171">
         <v>1000170</v>
       </c>
@@ -11861,7 +11959,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="172" spans="2:5" ht="18">
+    <row r="172" spans="2:5" ht="18.75">
       <c r="B172">
         <v>1000171</v>
       </c>
@@ -11875,7 +11973,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="173" spans="2:5" ht="18">
+    <row r="173" spans="2:5" ht="18.75">
       <c r="B173">
         <v>1000172</v>
       </c>
@@ -11889,7 +11987,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="174" spans="2:5" ht="18">
+    <row r="174" spans="2:5" ht="18.75">
       <c r="B174">
         <v>1000173</v>
       </c>
@@ -11903,7 +12001,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="175" spans="2:5" ht="18">
+    <row r="175" spans="2:5" ht="18.75">
       <c r="B175">
         <v>1000174</v>
       </c>
@@ -11917,7 +12015,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="176" spans="2:5" ht="18">
+    <row r="176" spans="2:5" ht="18.75">
       <c r="B176">
         <v>1000175</v>
       </c>
@@ -11931,7 +12029,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="177" spans="2:5" ht="18">
+    <row r="177" spans="2:5" ht="18.75">
       <c r="B177">
         <v>1000176</v>
       </c>
@@ -11945,7 +12043,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="178" spans="2:5" ht="18">
+    <row r="178" spans="2:5" ht="18.75">
       <c r="B178">
         <v>1000177</v>
       </c>
@@ -11959,7 +12057,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="179" spans="2:5" ht="18">
+    <row r="179" spans="2:5" ht="18.75">
       <c r="B179">
         <v>1000178</v>
       </c>
@@ -11973,7 +12071,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="180" spans="2:5" ht="18">
+    <row r="180" spans="2:5" ht="18.75">
       <c r="B180">
         <v>1000179</v>
       </c>
@@ -11987,7 +12085,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="181" spans="2:5" ht="18">
+    <row r="181" spans="2:5" ht="18.75">
       <c r="B181">
         <v>1000180</v>
       </c>
@@ -12001,7 +12099,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="182" spans="2:5" ht="18">
+    <row r="182" spans="2:5" ht="18.75">
       <c r="B182">
         <v>1000181</v>
       </c>
@@ -12015,7 +12113,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="183" spans="2:5" ht="18">
+    <row r="183" spans="2:5" ht="18.75">
       <c r="B183">
         <v>1000182</v>
       </c>
@@ -12029,7 +12127,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="184" spans="2:5" ht="18">
+    <row r="184" spans="2:5" ht="18.75">
       <c r="B184">
         <v>1000183</v>
       </c>
@@ -12043,7 +12141,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="185" spans="2:5" ht="18">
+    <row r="185" spans="2:5" ht="18.75">
       <c r="B185">
         <v>1000184</v>
       </c>
@@ -12057,7 +12155,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="186" spans="2:5" ht="18">
+    <row r="186" spans="2:5" ht="18.75">
       <c r="B186">
         <v>1000185</v>
       </c>
@@ -12071,7 +12169,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="187" spans="2:5" ht="18">
+    <row r="187" spans="2:5" ht="18.75">
       <c r="B187">
         <v>1000186</v>
       </c>
@@ -12085,7 +12183,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="188" spans="2:5" ht="18">
+    <row r="188" spans="2:5" ht="18.75">
       <c r="B188">
         <v>1000187</v>
       </c>
@@ -12099,7 +12197,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="189" spans="2:5" ht="18">
+    <row r="189" spans="2:5" ht="18.75">
       <c r="B189">
         <v>1000188</v>
       </c>
@@ -12113,7 +12211,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="190" spans="2:5" ht="18">
+    <row r="190" spans="2:5" ht="18.75">
       <c r="B190">
         <v>1000189</v>
       </c>
@@ -12127,7 +12225,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="191" spans="2:5" ht="18">
+    <row r="191" spans="2:5" ht="18.75">
       <c r="B191">
         <v>1000190</v>
       </c>
@@ -12141,7 +12239,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="192" spans="2:5" ht="18">
+    <row r="192" spans="2:5" ht="18.75">
       <c r="B192">
         <v>1000191</v>
       </c>
@@ -12155,7 +12253,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="193" spans="2:5" ht="18">
+    <row r="193" spans="2:5" ht="18.75">
       <c r="B193">
         <v>1000192</v>
       </c>
@@ -12169,7 +12267,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="194" spans="2:5" ht="18">
+    <row r="194" spans="2:5" ht="18.75">
       <c r="B194">
         <v>1000193</v>
       </c>
@@ -12183,7 +12281,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="195" spans="2:5" ht="18">
+    <row r="195" spans="2:5" ht="18.75">
       <c r="B195">
         <v>1000194</v>
       </c>
@@ -12197,7 +12295,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="196" spans="2:5" ht="18">
+    <row r="196" spans="2:5" ht="18.75">
       <c r="B196">
         <v>1000195</v>
       </c>
@@ -12211,7 +12309,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="197" spans="2:5" ht="18">
+    <row r="197" spans="2:5" ht="18.75">
       <c r="B197">
         <v>1000196</v>
       </c>
@@ -12225,7 +12323,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="198" spans="2:5" ht="18">
+    <row r="198" spans="2:5" ht="18.75">
       <c r="B198">
         <v>1000197</v>
       </c>
@@ -12239,7 +12337,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="199" spans="2:5" ht="18">
+    <row r="199" spans="2:5" ht="18.75">
       <c r="B199">
         <v>1000198</v>
       </c>
@@ -12253,7 +12351,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="200" spans="2:5" ht="18">
+    <row r="200" spans="2:5" ht="18.75">
       <c r="B200">
         <v>1000199</v>
       </c>
@@ -12267,7 +12365,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="201" spans="2:5" ht="18">
+    <row r="201" spans="2:5" ht="18.75">
       <c r="B201">
         <v>1000200</v>
       </c>
@@ -12281,7 +12379,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="202" spans="2:5" ht="18">
+    <row r="202" spans="2:5" ht="18.75">
       <c r="B202">
         <v>1000201</v>
       </c>
@@ -12295,7 +12393,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="203" spans="2:5" ht="18">
+    <row r="203" spans="2:5" ht="18.75">
       <c r="B203">
         <v>1000202</v>
       </c>
@@ -12309,7 +12407,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="204" spans="2:5" ht="18">
+    <row r="204" spans="2:5" ht="18.75">
       <c r="B204">
         <v>1000203</v>
       </c>
@@ -12323,7 +12421,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="205" spans="2:5" ht="18">
+    <row r="205" spans="2:5" ht="18.75">
       <c r="B205">
         <v>1000204</v>
       </c>
@@ -12337,7 +12435,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="206" spans="2:5" ht="18">
+    <row r="206" spans="2:5" ht="18.75">
       <c r="B206">
         <v>1000205</v>
       </c>
@@ -12351,7 +12449,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="207" spans="2:5" ht="18">
+    <row r="207" spans="2:5" ht="18.75">
       <c r="B207">
         <v>1000206</v>
       </c>
@@ -12365,7 +12463,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="208" spans="2:5" ht="18">
+    <row r="208" spans="2:5" ht="18.75">
       <c r="B208">
         <v>1000207</v>
       </c>
@@ -12379,7 +12477,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="209" spans="2:5" ht="18">
+    <row r="209" spans="2:5" ht="18.75">
       <c r="B209">
         <v>1000208</v>
       </c>
@@ -12393,7 +12491,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="210" spans="2:5" ht="18">
+    <row r="210" spans="2:5" ht="18.75">
       <c r="B210">
         <v>1000209</v>
       </c>
@@ -12407,7 +12505,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="211" spans="2:5" ht="18">
+    <row r="211" spans="2:5" ht="18.75">
       <c r="B211">
         <v>1000210</v>
       </c>
@@ -12421,7 +12519,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="212" spans="2:5" ht="18">
+    <row r="212" spans="2:5" ht="18.75">
       <c r="B212">
         <v>1000211</v>
       </c>
@@ -12435,7 +12533,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="213" spans="2:5" ht="18">
+    <row r="213" spans="2:5" ht="18.75">
       <c r="B213">
         <v>1000212</v>
       </c>
@@ -12449,7 +12547,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="214" spans="2:5" ht="18">
+    <row r="214" spans="2:5" ht="18.75">
       <c r="B214">
         <v>1000213</v>
       </c>
@@ -12463,7 +12561,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="215" spans="2:5" ht="18">
+    <row r="215" spans="2:5" ht="18.75">
       <c r="B215">
         <v>1000214</v>
       </c>
@@ -12477,7 +12575,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="216" spans="2:5" ht="18">
+    <row r="216" spans="2:5" ht="18.75">
       <c r="B216">
         <v>1000215</v>
       </c>
@@ -12491,7 +12589,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="217" spans="2:5" ht="18">
+    <row r="217" spans="2:5" ht="18.75">
       <c r="B217">
         <v>1000216</v>
       </c>
@@ -12505,7 +12603,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="218" spans="2:5" ht="18">
+    <row r="218" spans="2:5" ht="18.75">
       <c r="B218">
         <v>1000217</v>
       </c>
@@ -12519,7 +12617,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="219" spans="2:5" ht="18">
+    <row r="219" spans="2:5" ht="18.75">
       <c r="B219">
         <v>1000218</v>
       </c>
@@ -12533,7 +12631,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="220" spans="2:5" ht="18">
+    <row r="220" spans="2:5" ht="18.75">
       <c r="B220">
         <v>1000219</v>
       </c>
@@ -12547,7 +12645,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="221" spans="2:5" ht="18">
+    <row r="221" spans="2:5" ht="18.75">
       <c r="B221">
         <v>1000220</v>
       </c>
@@ -12561,7 +12659,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="222" spans="2:5" ht="18">
+    <row r="222" spans="2:5" ht="18.75">
       <c r="B222">
         <v>1000221</v>
       </c>
@@ -12575,7 +12673,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="223" spans="2:5" ht="18">
+    <row r="223" spans="2:5" ht="18.75">
       <c r="B223">
         <v>1000222</v>
       </c>
@@ -12589,7 +12687,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="224" spans="2:5" ht="18">
+    <row r="224" spans="2:5" ht="18.75">
       <c r="B224">
         <v>1000223</v>
       </c>
@@ -12603,7 +12701,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="225" spans="2:5" ht="18">
+    <row r="225" spans="2:5" ht="18.75">
       <c r="B225">
         <v>1000224</v>
       </c>
@@ -12617,7 +12715,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="226" spans="2:5" ht="18">
+    <row r="226" spans="2:5" ht="18.75">
       <c r="B226">
         <v>1000225</v>
       </c>
@@ -12631,7 +12729,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="227" spans="2:5" ht="18">
+    <row r="227" spans="2:5" ht="18.75">
       <c r="B227">
         <v>1000226</v>
       </c>
@@ -12645,7 +12743,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="228" spans="2:5" ht="18">
+    <row r="228" spans="2:5" ht="18.75">
       <c r="B228">
         <v>1000227</v>
       </c>
@@ -12659,7 +12757,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="229" spans="2:5" ht="18">
+    <row r="229" spans="2:5" ht="18.75">
       <c r="B229">
         <v>1000228</v>
       </c>
@@ -12673,7 +12771,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="230" spans="2:5" ht="18">
+    <row r="230" spans="2:5" ht="18.75">
       <c r="B230">
         <v>1000229</v>
       </c>
@@ -12687,7 +12785,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="231" spans="2:5" ht="18">
+    <row r="231" spans="2:5" ht="18.75">
       <c r="B231">
         <v>1000230</v>
       </c>
@@ -12701,7 +12799,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="232" spans="2:5" ht="18">
+    <row r="232" spans="2:5" ht="18.75">
       <c r="B232">
         <v>1000231</v>
       </c>
@@ -12715,7 +12813,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="233" spans="2:5" ht="18">
+    <row r="233" spans="2:5" ht="18.75">
       <c r="B233">
         <v>1000232</v>
       </c>
@@ -12729,7 +12827,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="234" spans="2:5" ht="18">
+    <row r="234" spans="2:5" ht="18.75">
       <c r="B234">
         <v>1000233</v>
       </c>
@@ -12743,7 +12841,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="235" spans="2:5" ht="18">
+    <row r="235" spans="2:5" ht="18.75">
       <c r="B235">
         <v>1000234</v>
       </c>
@@ -12757,7 +12855,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="236" spans="2:5" ht="18">
+    <row r="236" spans="2:5" ht="18.75">
       <c r="B236">
         <v>1000235</v>
       </c>
@@ -12771,7 +12869,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="237" spans="2:5" ht="18">
+    <row r="237" spans="2:5" ht="18.75">
       <c r="B237">
         <v>1000236</v>
       </c>
@@ -12785,7 +12883,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="238" spans="2:5" ht="18">
+    <row r="238" spans="2:5" ht="18.75">
       <c r="B238">
         <v>1000237</v>
       </c>
@@ -12799,7 +12897,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="239" spans="2:5" ht="18">
+    <row r="239" spans="2:5" ht="18.75">
       <c r="B239">
         <v>1000238</v>
       </c>
@@ -12813,7 +12911,7 @@
         <v>1000001</v>
       </c>
     </row>
-    <row r="240" spans="2:5" ht="18">
+    <row r="240" spans="2:5" ht="18.75">
       <c r="B240">
         <v>1000239</v>
       </c>
@@ -12834,23 +12932,330 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="16.5">
+      <c r="A1" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>788</v>
+      </c>
+      <c r="C1" s="52"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+    </row>
+    <row r="2" spans="1:7" ht="16.5">
+      <c r="A2" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="51"/>
+      <c r="C2" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="51"/>
+      <c r="E2" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="16.5">
+      <c r="A3" s="55" t="s">
+        <v>789</v>
+      </c>
+      <c r="B3" s="51"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="14"/>
+    </row>
+    <row r="4" spans="1:7" ht="16.5">
+      <c r="A4" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="51"/>
+      <c r="E4" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="31" t="s">
+        <v>785</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>761</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="32" t="s">
+        <v>772</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>762</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="32" t="s">
+        <v>773</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>763</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="32" t="s">
+        <v>774</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>764</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="32" t="s">
+        <v>775</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>765</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="32" t="s">
+        <v>776</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>766</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="32" t="s">
+        <v>777</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>767</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="32" t="s">
+        <v>778</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>252</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="32" t="s">
+        <v>779</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>768</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="32" t="s">
+        <v>780</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>256</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>786</v>
+      </c>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="32" t="s">
+        <v>781</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>253</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="32" t="s">
+        <v>782</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>769</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>786</v>
+      </c>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="32" t="s">
+        <v>783</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>770</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>787</v>
+      </c>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="32" t="s">
+        <v>784</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>771</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E1" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z200"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="3" width="12.8984375" customWidth="1"/>
+    <col min="1" max="3" width="12.875" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
-    <col min="5" max="5" width="29.19921875" customWidth="1"/>
-    <col min="6" max="26" width="12.8984375" customWidth="1"/>
+    <col min="5" max="5" width="29.25" customWidth="1"/>
+    <col min="6" max="26" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" ht="16.5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -12890,7 +13295,7 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" ht="16.5">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -12918,7 +13323,7 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" ht="16.5">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -12946,7 +13351,7 @@
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" ht="16.5">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -12974,7 +13379,7 @@
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" ht="16.5">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -13002,7 +13407,7 @@
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" ht="16.5">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -13030,7 +13435,7 @@
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" ht="16.5">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -13058,7 +13463,7 @@
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" ht="16.5">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -13086,7 +13491,7 @@
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" ht="16.5">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -13114,7 +13519,7 @@
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:26" ht="16.5">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -13142,7 +13547,7 @@
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" ht="16.5">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -13170,7 +13575,7 @@
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:26" ht="16.5">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -13198,7 +13603,7 @@
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:26" ht="16.5">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -13226,7 +13631,7 @@
       <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:26" ht="16.5">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -13254,7 +13659,7 @@
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:26" ht="16.5">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -13282,7 +13687,7 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:26" ht="16.5">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -13310,7 +13715,7 @@
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
     </row>
-    <row r="17" spans="1:26">
+    <row r="17" spans="1:26" ht="16.5">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -13338,7 +13743,7 @@
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
     </row>
-    <row r="18" spans="1:26">
+    <row r="18" spans="1:26" ht="16.5">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -13366,7 +13771,7 @@
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
     </row>
-    <row r="19" spans="1:26">
+    <row r="19" spans="1:26" ht="16.5">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -13394,7 +13799,7 @@
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:26" ht="16.5">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -13422,7 +13827,7 @@
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
     </row>
-    <row r="21" spans="1:26">
+    <row r="21" spans="1:26" ht="16.5">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -13450,7 +13855,7 @@
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
     </row>
-    <row r="22" spans="1:26">
+    <row r="22" spans="1:26" ht="16.5">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -13478,7 +13883,7 @@
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
     </row>
-    <row r="23" spans="1:26">
+    <row r="23" spans="1:26" ht="16.5">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -13506,7 +13911,7 @@
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
     </row>
-    <row r="24" spans="1:26">
+    <row r="24" spans="1:26" ht="16.5">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -13534,7 +13939,7 @@
       <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
     </row>
-    <row r="25" spans="1:26">
+    <row r="25" spans="1:26" ht="16.5">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -13562,7 +13967,7 @@
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
     </row>
-    <row r="26" spans="1:26">
+    <row r="26" spans="1:26" ht="16.5">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -13590,7 +13995,7 @@
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
     </row>
-    <row r="27" spans="1:26">
+    <row r="27" spans="1:26" ht="16.5">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -13618,7 +14023,7 @@
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
     </row>
-    <row r="28" spans="1:26">
+    <row r="28" spans="1:26" ht="16.5">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -13646,7 +14051,7 @@
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
     </row>
-    <row r="29" spans="1:26">
+    <row r="29" spans="1:26" ht="16.5">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -13674,7 +14079,7 @@
       <c r="Y29" s="2"/>
       <c r="Z29" s="2"/>
     </row>
-    <row r="30" spans="1:26">
+    <row r="30" spans="1:26" ht="16.5">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -13702,7 +14107,7 @@
       <c r="Y30" s="2"/>
       <c r="Z30" s="2"/>
     </row>
-    <row r="31" spans="1:26">
+    <row r="31" spans="1:26" ht="16.5">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -13730,7 +14135,7 @@
       <c r="Y31" s="2"/>
       <c r="Z31" s="2"/>
     </row>
-    <row r="32" spans="1:26">
+    <row r="32" spans="1:26" ht="16.5">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -13758,7 +14163,7 @@
       <c r="Y32" s="2"/>
       <c r="Z32" s="2"/>
     </row>
-    <row r="33" spans="1:26">
+    <row r="33" spans="1:26" ht="16.5">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -13786,7 +14191,7 @@
       <c r="Y33" s="2"/>
       <c r="Z33" s="2"/>
     </row>
-    <row r="34" spans="1:26">
+    <row r="34" spans="1:26" ht="16.5">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -13814,7 +14219,7 @@
       <c r="Y34" s="2"/>
       <c r="Z34" s="2"/>
     </row>
-    <row r="35" spans="1:26">
+    <row r="35" spans="1:26" ht="16.5">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -13842,7 +14247,7 @@
       <c r="Y35" s="2"/>
       <c r="Z35" s="2"/>
     </row>
-    <row r="36" spans="1:26">
+    <row r="36" spans="1:26" ht="16.5">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -13870,7 +14275,7 @@
       <c r="Y36" s="2"/>
       <c r="Z36" s="2"/>
     </row>
-    <row r="37" spans="1:26">
+    <row r="37" spans="1:26" ht="16.5">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -13898,7 +14303,7 @@
       <c r="Y37" s="2"/>
       <c r="Z37" s="2"/>
     </row>
-    <row r="38" spans="1:26">
+    <row r="38" spans="1:26" ht="16.5">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -13926,7 +14331,7 @@
       <c r="Y38" s="2"/>
       <c r="Z38" s="2"/>
     </row>
-    <row r="39" spans="1:26">
+    <row r="39" spans="1:26" ht="16.5">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -13954,7 +14359,7 @@
       <c r="Y39" s="2"/>
       <c r="Z39" s="2"/>
     </row>
-    <row r="40" spans="1:26">
+    <row r="40" spans="1:26" ht="16.5">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -13982,7 +14387,7 @@
       <c r="Y40" s="2"/>
       <c r="Z40" s="2"/>
     </row>
-    <row r="41" spans="1:26">
+    <row r="41" spans="1:26" ht="16.5">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -14010,7 +14415,7 @@
       <c r="Y41" s="2"/>
       <c r="Z41" s="2"/>
     </row>
-    <row r="42" spans="1:26">
+    <row r="42" spans="1:26" ht="16.5">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -14038,7 +14443,7 @@
       <c r="Y42" s="2"/>
       <c r="Z42" s="2"/>
     </row>
-    <row r="43" spans="1:26">
+    <row r="43" spans="1:26" ht="16.5">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -14066,7 +14471,7 @@
       <c r="Y43" s="2"/>
       <c r="Z43" s="2"/>
     </row>
-    <row r="44" spans="1:26">
+    <row r="44" spans="1:26" ht="16.5">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -14094,7 +14499,7 @@
       <c r="Y44" s="2"/>
       <c r="Z44" s="2"/>
     </row>
-    <row r="45" spans="1:26">
+    <row r="45" spans="1:26" ht="16.5">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -14122,7 +14527,7 @@
       <c r="Y45" s="2"/>
       <c r="Z45" s="2"/>
     </row>
-    <row r="46" spans="1:26">
+    <row r="46" spans="1:26" ht="16.5">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -14150,7 +14555,7 @@
       <c r="Y46" s="2"/>
       <c r="Z46" s="2"/>
     </row>
-    <row r="47" spans="1:26">
+    <row r="47" spans="1:26" ht="16.5">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -14178,7 +14583,7 @@
       <c r="Y47" s="2"/>
       <c r="Z47" s="2"/>
     </row>
-    <row r="48" spans="1:26">
+    <row r="48" spans="1:26" ht="16.5">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -14206,7 +14611,7 @@
       <c r="Y48" s="2"/>
       <c r="Z48" s="2"/>
     </row>
-    <row r="49" spans="1:26">
+    <row r="49" spans="1:26" ht="16.5">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -14234,7 +14639,7 @@
       <c r="Y49" s="2"/>
       <c r="Z49" s="2"/>
     </row>
-    <row r="50" spans="1:26">
+    <row r="50" spans="1:26" ht="16.5">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -14262,7 +14667,7 @@
       <c r="Y50" s="2"/>
       <c r="Z50" s="2"/>
     </row>
-    <row r="51" spans="1:26">
+    <row r="51" spans="1:26" ht="16.5">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -14290,7 +14695,7 @@
       <c r="Y51" s="2"/>
       <c r="Z51" s="2"/>
     </row>
-    <row r="52" spans="1:26">
+    <row r="52" spans="1:26" ht="16.5">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -14318,7 +14723,7 @@
       <c r="Y52" s="2"/>
       <c r="Z52" s="2"/>
     </row>
-    <row r="53" spans="1:26">
+    <row r="53" spans="1:26" ht="16.5">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -14346,7 +14751,7 @@
       <c r="Y53" s="2"/>
       <c r="Z53" s="2"/>
     </row>
-    <row r="54" spans="1:26">
+    <row r="54" spans="1:26" ht="16.5">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -14374,7 +14779,7 @@
       <c r="Y54" s="2"/>
       <c r="Z54" s="2"/>
     </row>
-    <row r="55" spans="1:26">
+    <row r="55" spans="1:26" ht="16.5">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -14402,7 +14807,7 @@
       <c r="Y55" s="2"/>
       <c r="Z55" s="2"/>
     </row>
-    <row r="56" spans="1:26">
+    <row r="56" spans="1:26" ht="16.5">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -14430,7 +14835,7 @@
       <c r="Y56" s="2"/>
       <c r="Z56" s="2"/>
     </row>
-    <row r="57" spans="1:26">
+    <row r="57" spans="1:26" ht="16.5">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -14458,7 +14863,7 @@
       <c r="Y57" s="2"/>
       <c r="Z57" s="2"/>
     </row>
-    <row r="58" spans="1:26">
+    <row r="58" spans="1:26" ht="16.5">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -14486,7 +14891,7 @@
       <c r="Y58" s="2"/>
       <c r="Z58" s="2"/>
     </row>
-    <row r="59" spans="1:26">
+    <row r="59" spans="1:26" ht="16.5">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -14514,7 +14919,7 @@
       <c r="Y59" s="2"/>
       <c r="Z59" s="2"/>
     </row>
-    <row r="60" spans="1:26">
+    <row r="60" spans="1:26" ht="16.5">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -14542,7 +14947,7 @@
       <c r="Y60" s="2"/>
       <c r="Z60" s="2"/>
     </row>
-    <row r="61" spans="1:26">
+    <row r="61" spans="1:26" ht="16.5">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -14570,7 +14975,7 @@
       <c r="Y61" s="2"/>
       <c r="Z61" s="2"/>
     </row>
-    <row r="62" spans="1:26">
+    <row r="62" spans="1:26" ht="16.5">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -14598,7 +15003,7 @@
       <c r="Y62" s="2"/>
       <c r="Z62" s="2"/>
     </row>
-    <row r="63" spans="1:26">
+    <row r="63" spans="1:26" ht="16.5">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -14626,7 +15031,7 @@
       <c r="Y63" s="2"/>
       <c r="Z63" s="2"/>
     </row>
-    <row r="64" spans="1:26">
+    <row r="64" spans="1:26" ht="16.5">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -14654,7 +15059,7 @@
       <c r="Y64" s="2"/>
       <c r="Z64" s="2"/>
     </row>
-    <row r="65" spans="1:26">
+    <row r="65" spans="1:26" ht="16.5">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -14682,7 +15087,7 @@
       <c r="Y65" s="2"/>
       <c r="Z65" s="2"/>
     </row>
-    <row r="66" spans="1:26">
+    <row r="66" spans="1:26" ht="16.5">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -14710,7 +15115,7 @@
       <c r="Y66" s="2"/>
       <c r="Z66" s="2"/>
     </row>
-    <row r="67" spans="1:26">
+    <row r="67" spans="1:26" ht="16.5">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -14738,7 +15143,7 @@
       <c r="Y67" s="2"/>
       <c r="Z67" s="2"/>
     </row>
-    <row r="68" spans="1:26">
+    <row r="68" spans="1:26" ht="16.5">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -14766,7 +15171,7 @@
       <c r="Y68" s="2"/>
       <c r="Z68" s="2"/>
     </row>
-    <row r="69" spans="1:26">
+    <row r="69" spans="1:26" ht="16.5">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -14794,7 +15199,7 @@
       <c r="Y69" s="2"/>
       <c r="Z69" s="2"/>
     </row>
-    <row r="70" spans="1:26">
+    <row r="70" spans="1:26" ht="16.5">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -14822,7 +15227,7 @@
       <c r="Y70" s="2"/>
       <c r="Z70" s="2"/>
     </row>
-    <row r="71" spans="1:26">
+    <row r="71" spans="1:26" ht="16.5">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -14850,7 +15255,7 @@
       <c r="Y71" s="2"/>
       <c r="Z71" s="2"/>
     </row>
-    <row r="72" spans="1:26">
+    <row r="72" spans="1:26" ht="16.5">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -14878,7 +15283,7 @@
       <c r="Y72" s="2"/>
       <c r="Z72" s="2"/>
     </row>
-    <row r="73" spans="1:26">
+    <row r="73" spans="1:26" ht="16.5">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -14906,7 +15311,7 @@
       <c r="Y73" s="2"/>
       <c r="Z73" s="2"/>
     </row>
-    <row r="74" spans="1:26">
+    <row r="74" spans="1:26" ht="16.5">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -14934,7 +15339,7 @@
       <c r="Y74" s="2"/>
       <c r="Z74" s="2"/>
     </row>
-    <row r="75" spans="1:26">
+    <row r="75" spans="1:26" ht="16.5">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -14962,7 +15367,7 @@
       <c r="Y75" s="2"/>
       <c r="Z75" s="2"/>
     </row>
-    <row r="76" spans="1:26">
+    <row r="76" spans="1:26" ht="16.5">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -14990,7 +15395,7 @@
       <c r="Y76" s="2"/>
       <c r="Z76" s="2"/>
     </row>
-    <row r="77" spans="1:26">
+    <row r="77" spans="1:26" ht="16.5">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -15018,7 +15423,7 @@
       <c r="Y77" s="2"/>
       <c r="Z77" s="2"/>
     </row>
-    <row r="78" spans="1:26">
+    <row r="78" spans="1:26" ht="16.5">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -15046,7 +15451,7 @@
       <c r="Y78" s="2"/>
       <c r="Z78" s="2"/>
     </row>
-    <row r="79" spans="1:26">
+    <row r="79" spans="1:26" ht="16.5">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -15074,7 +15479,7 @@
       <c r="Y79" s="2"/>
       <c r="Z79" s="2"/>
     </row>
-    <row r="80" spans="1:26">
+    <row r="80" spans="1:26" ht="16.5">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -15102,7 +15507,7 @@
       <c r="Y80" s="2"/>
       <c r="Z80" s="2"/>
     </row>
-    <row r="81" spans="1:26">
+    <row r="81" spans="1:26" ht="16.5">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -15130,7 +15535,7 @@
       <c r="Y81" s="2"/>
       <c r="Z81" s="2"/>
     </row>
-    <row r="82" spans="1:26">
+    <row r="82" spans="1:26" ht="16.5">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -15158,7 +15563,7 @@
       <c r="Y82" s="2"/>
       <c r="Z82" s="2"/>
     </row>
-    <row r="83" spans="1:26">
+    <row r="83" spans="1:26" ht="16.5">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -15186,7 +15591,7 @@
       <c r="Y83" s="2"/>
       <c r="Z83" s="2"/>
     </row>
-    <row r="84" spans="1:26">
+    <row r="84" spans="1:26" ht="16.5">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -15214,7 +15619,7 @@
       <c r="Y84" s="2"/>
       <c r="Z84" s="2"/>
     </row>
-    <row r="85" spans="1:26">
+    <row r="85" spans="1:26" ht="16.5">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -15242,7 +15647,7 @@
       <c r="Y85" s="2"/>
       <c r="Z85" s="2"/>
     </row>
-    <row r="86" spans="1:26">
+    <row r="86" spans="1:26" ht="16.5">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -15270,7 +15675,7 @@
       <c r="Y86" s="2"/>
       <c r="Z86" s="2"/>
     </row>
-    <row r="87" spans="1:26">
+    <row r="87" spans="1:26" ht="16.5">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -15298,7 +15703,7 @@
       <c r="Y87" s="2"/>
       <c r="Z87" s="2"/>
     </row>
-    <row r="88" spans="1:26">
+    <row r="88" spans="1:26" ht="16.5">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -15326,7 +15731,7 @@
       <c r="Y88" s="2"/>
       <c r="Z88" s="2"/>
     </row>
-    <row r="89" spans="1:26">
+    <row r="89" spans="1:26" ht="16.5">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -15354,7 +15759,7 @@
       <c r="Y89" s="2"/>
       <c r="Z89" s="2"/>
     </row>
-    <row r="90" spans="1:26">
+    <row r="90" spans="1:26" ht="16.5">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -15382,7 +15787,7 @@
       <c r="Y90" s="2"/>
       <c r="Z90" s="2"/>
     </row>
-    <row r="91" spans="1:26">
+    <row r="91" spans="1:26" ht="16.5">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -15410,7 +15815,7 @@
       <c r="Y91" s="2"/>
       <c r="Z91" s="2"/>
     </row>
-    <row r="92" spans="1:26">
+    <row r="92" spans="1:26" ht="16.5">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -15438,7 +15843,7 @@
       <c r="Y92" s="2"/>
       <c r="Z92" s="2"/>
     </row>
-    <row r="93" spans="1:26">
+    <row r="93" spans="1:26" ht="16.5">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -15466,7 +15871,7 @@
       <c r="Y93" s="2"/>
       <c r="Z93" s="2"/>
     </row>
-    <row r="94" spans="1:26">
+    <row r="94" spans="1:26" ht="16.5">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -15494,7 +15899,7 @@
       <c r="Y94" s="2"/>
       <c r="Z94" s="2"/>
     </row>
-    <row r="95" spans="1:26">
+    <row r="95" spans="1:26" ht="16.5">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -15522,7 +15927,7 @@
       <c r="Y95" s="2"/>
       <c r="Z95" s="2"/>
     </row>
-    <row r="96" spans="1:26">
+    <row r="96" spans="1:26" ht="16.5">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -15550,7 +15955,7 @@
       <c r="Y96" s="2"/>
       <c r="Z96" s="2"/>
     </row>
-    <row r="97" spans="1:26">
+    <row r="97" spans="1:26" ht="16.5">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -15578,7 +15983,7 @@
       <c r="Y97" s="2"/>
       <c r="Z97" s="2"/>
     </row>
-    <row r="98" spans="1:26">
+    <row r="98" spans="1:26" ht="16.5">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -15606,7 +16011,7 @@
       <c r="Y98" s="2"/>
       <c r="Z98" s="2"/>
     </row>
-    <row r="99" spans="1:26">
+    <row r="99" spans="1:26" ht="16.5">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -15634,7 +16039,7 @@
       <c r="Y99" s="2"/>
       <c r="Z99" s="2"/>
     </row>
-    <row r="100" spans="1:26">
+    <row r="100" spans="1:26" ht="16.5">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -15662,7 +16067,7 @@
       <c r="Y100" s="2"/>
       <c r="Z100" s="2"/>
     </row>
-    <row r="101" spans="1:26">
+    <row r="101" spans="1:26" ht="16.5">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -15690,7 +16095,7 @@
       <c r="Y101" s="2"/>
       <c r="Z101" s="2"/>
     </row>
-    <row r="102" spans="1:26">
+    <row r="102" spans="1:26" ht="16.5">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -15718,7 +16123,7 @@
       <c r="Y102" s="2"/>
       <c r="Z102" s="2"/>
     </row>
-    <row r="103" spans="1:26">
+    <row r="103" spans="1:26" ht="16.5">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -15746,7 +16151,7 @@
       <c r="Y103" s="2"/>
       <c r="Z103" s="2"/>
     </row>
-    <row r="104" spans="1:26">
+    <row r="104" spans="1:26" ht="16.5">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -15774,7 +16179,7 @@
       <c r="Y104" s="2"/>
       <c r="Z104" s="2"/>
     </row>
-    <row r="105" spans="1:26">
+    <row r="105" spans="1:26" ht="16.5">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -15802,7 +16207,7 @@
       <c r="Y105" s="2"/>
       <c r="Z105" s="2"/>
     </row>
-    <row r="106" spans="1:26">
+    <row r="106" spans="1:26" ht="16.5">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -15830,7 +16235,7 @@
       <c r="Y106" s="2"/>
       <c r="Z106" s="2"/>
     </row>
-    <row r="107" spans="1:26">
+    <row r="107" spans="1:26" ht="16.5">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -15858,7 +16263,7 @@
       <c r="Y107" s="2"/>
       <c r="Z107" s="2"/>
     </row>
-    <row r="108" spans="1:26">
+    <row r="108" spans="1:26" ht="16.5">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -15886,7 +16291,7 @@
       <c r="Y108" s="2"/>
       <c r="Z108" s="2"/>
     </row>
-    <row r="109" spans="1:26">
+    <row r="109" spans="1:26" ht="16.5">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -15914,7 +16319,7 @@
       <c r="Y109" s="2"/>
       <c r="Z109" s="2"/>
     </row>
-    <row r="110" spans="1:26">
+    <row r="110" spans="1:26" ht="16.5">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -15942,7 +16347,7 @@
       <c r="Y110" s="2"/>
       <c r="Z110" s="2"/>
     </row>
-    <row r="111" spans="1:26">
+    <row r="111" spans="1:26" ht="16.5">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -15970,7 +16375,7 @@
       <c r="Y111" s="2"/>
       <c r="Z111" s="2"/>
     </row>
-    <row r="112" spans="1:26">
+    <row r="112" spans="1:26" ht="16.5">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -15998,7 +16403,7 @@
       <c r="Y112" s="2"/>
       <c r="Z112" s="2"/>
     </row>
-    <row r="113" spans="1:26">
+    <row r="113" spans="1:26" ht="16.5">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -16026,7 +16431,7 @@
       <c r="Y113" s="2"/>
       <c r="Z113" s="2"/>
     </row>
-    <row r="114" spans="1:26">
+    <row r="114" spans="1:26" ht="16.5">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -16054,7 +16459,7 @@
       <c r="Y114" s="2"/>
       <c r="Z114" s="2"/>
     </row>
-    <row r="115" spans="1:26">
+    <row r="115" spans="1:26" ht="16.5">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -16082,7 +16487,7 @@
       <c r="Y115" s="2"/>
       <c r="Z115" s="2"/>
     </row>
-    <row r="116" spans="1:26">
+    <row r="116" spans="1:26" ht="16.5">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -16110,7 +16515,7 @@
       <c r="Y116" s="2"/>
       <c r="Z116" s="2"/>
     </row>
-    <row r="117" spans="1:26">
+    <row r="117" spans="1:26" ht="16.5">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -16138,7 +16543,7 @@
       <c r="Y117" s="2"/>
       <c r="Z117" s="2"/>
     </row>
-    <row r="118" spans="1:26">
+    <row r="118" spans="1:26" ht="16.5">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -16166,7 +16571,7 @@
       <c r="Y118" s="2"/>
       <c r="Z118" s="2"/>
     </row>
-    <row r="119" spans="1:26">
+    <row r="119" spans="1:26" ht="16.5">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -16194,7 +16599,7 @@
       <c r="Y119" s="2"/>
       <c r="Z119" s="2"/>
     </row>
-    <row r="120" spans="1:26">
+    <row r="120" spans="1:26" ht="16.5">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -16222,7 +16627,7 @@
       <c r="Y120" s="2"/>
       <c r="Z120" s="2"/>
     </row>
-    <row r="121" spans="1:26">
+    <row r="121" spans="1:26" ht="16.5">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -16250,7 +16655,7 @@
       <c r="Y121" s="2"/>
       <c r="Z121" s="2"/>
     </row>
-    <row r="122" spans="1:26">
+    <row r="122" spans="1:26" ht="16.5">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -16278,7 +16683,7 @@
       <c r="Y122" s="2"/>
       <c r="Z122" s="2"/>
     </row>
-    <row r="123" spans="1:26">
+    <row r="123" spans="1:26" ht="16.5">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -16306,7 +16711,7 @@
       <c r="Y123" s="2"/>
       <c r="Z123" s="2"/>
     </row>
-    <row r="124" spans="1:26">
+    <row r="124" spans="1:26" ht="16.5">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -16334,7 +16739,7 @@
       <c r="Y124" s="2"/>
       <c r="Z124" s="2"/>
     </row>
-    <row r="125" spans="1:26">
+    <row r="125" spans="1:26" ht="16.5">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -16362,7 +16767,7 @@
       <c r="Y125" s="2"/>
       <c r="Z125" s="2"/>
     </row>
-    <row r="126" spans="1:26">
+    <row r="126" spans="1:26" ht="16.5">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -16390,7 +16795,7 @@
       <c r="Y126" s="2"/>
       <c r="Z126" s="2"/>
     </row>
-    <row r="127" spans="1:26">
+    <row r="127" spans="1:26" ht="16.5">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -16418,7 +16823,7 @@
       <c r="Y127" s="2"/>
       <c r="Z127" s="2"/>
     </row>
-    <row r="128" spans="1:26">
+    <row r="128" spans="1:26" ht="16.5">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -16446,7 +16851,7 @@
       <c r="Y128" s="2"/>
       <c r="Z128" s="2"/>
     </row>
-    <row r="129" spans="1:26">
+    <row r="129" spans="1:26" ht="16.5">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -16474,7 +16879,7 @@
       <c r="Y129" s="2"/>
       <c r="Z129" s="2"/>
     </row>
-    <row r="130" spans="1:26">
+    <row r="130" spans="1:26" ht="16.5">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -16502,7 +16907,7 @@
       <c r="Y130" s="2"/>
       <c r="Z130" s="2"/>
     </row>
-    <row r="131" spans="1:26">
+    <row r="131" spans="1:26" ht="16.5">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -16530,7 +16935,7 @@
       <c r="Y131" s="2"/>
       <c r="Z131" s="2"/>
     </row>
-    <row r="132" spans="1:26">
+    <row r="132" spans="1:26" ht="16.5">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -16558,7 +16963,7 @@
       <c r="Y132" s="2"/>
       <c r="Z132" s="2"/>
     </row>
-    <row r="133" spans="1:26">
+    <row r="133" spans="1:26" ht="16.5">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -16586,7 +16991,7 @@
       <c r="Y133" s="2"/>
       <c r="Z133" s="2"/>
     </row>
-    <row r="134" spans="1:26">
+    <row r="134" spans="1:26" ht="16.5">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -16614,7 +17019,7 @@
       <c r="Y134" s="2"/>
       <c r="Z134" s="2"/>
     </row>
-    <row r="135" spans="1:26">
+    <row r="135" spans="1:26" ht="16.5">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -16642,7 +17047,7 @@
       <c r="Y135" s="2"/>
       <c r="Z135" s="2"/>
     </row>
-    <row r="136" spans="1:26">
+    <row r="136" spans="1:26" ht="16.5">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -16670,7 +17075,7 @@
       <c r="Y136" s="2"/>
       <c r="Z136" s="2"/>
     </row>
-    <row r="137" spans="1:26">
+    <row r="137" spans="1:26" ht="16.5">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -16698,7 +17103,7 @@
       <c r="Y137" s="2"/>
       <c r="Z137" s="2"/>
     </row>
-    <row r="138" spans="1:26">
+    <row r="138" spans="1:26" ht="16.5">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -16726,7 +17131,7 @@
       <c r="Y138" s="2"/>
       <c r="Z138" s="2"/>
     </row>
-    <row r="139" spans="1:26">
+    <row r="139" spans="1:26" ht="16.5">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -16754,7 +17159,7 @@
       <c r="Y139" s="2"/>
       <c r="Z139" s="2"/>
     </row>
-    <row r="140" spans="1:26">
+    <row r="140" spans="1:26" ht="16.5">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -16782,7 +17187,7 @@
       <c r="Y140" s="2"/>
       <c r="Z140" s="2"/>
     </row>
-    <row r="141" spans="1:26">
+    <row r="141" spans="1:26" ht="16.5">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -16810,7 +17215,7 @@
       <c r="Y141" s="2"/>
       <c r="Z141" s="2"/>
     </row>
-    <row r="142" spans="1:26">
+    <row r="142" spans="1:26" ht="16.5">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -16838,7 +17243,7 @@
       <c r="Y142" s="2"/>
       <c r="Z142" s="2"/>
     </row>
-    <row r="143" spans="1:26">
+    <row r="143" spans="1:26" ht="16.5">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -16866,7 +17271,7 @@
       <c r="Y143" s="2"/>
       <c r="Z143" s="2"/>
     </row>
-    <row r="144" spans="1:26">
+    <row r="144" spans="1:26" ht="16.5">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -16894,7 +17299,7 @@
       <c r="Y144" s="2"/>
       <c r="Z144" s="2"/>
     </row>
-    <row r="145" spans="1:26">
+    <row r="145" spans="1:26" ht="16.5">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -16922,7 +17327,7 @@
       <c r="Y145" s="2"/>
       <c r="Z145" s="2"/>
     </row>
-    <row r="146" spans="1:26">
+    <row r="146" spans="1:26" ht="16.5">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -16950,7 +17355,7 @@
       <c r="Y146" s="2"/>
       <c r="Z146" s="2"/>
     </row>
-    <row r="147" spans="1:26">
+    <row r="147" spans="1:26" ht="16.5">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -16978,7 +17383,7 @@
       <c r="Y147" s="2"/>
       <c r="Z147" s="2"/>
     </row>
-    <row r="148" spans="1:26">
+    <row r="148" spans="1:26" ht="16.5">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -17006,7 +17411,7 @@
       <c r="Y148" s="2"/>
       <c r="Z148" s="2"/>
     </row>
-    <row r="149" spans="1:26">
+    <row r="149" spans="1:26" ht="16.5">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -17034,7 +17439,7 @@
       <c r="Y149" s="2"/>
       <c r="Z149" s="2"/>
     </row>
-    <row r="150" spans="1:26">
+    <row r="150" spans="1:26" ht="16.5">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -17062,7 +17467,7 @@
       <c r="Y150" s="2"/>
       <c r="Z150" s="2"/>
     </row>
-    <row r="151" spans="1:26">
+    <row r="151" spans="1:26" ht="16.5">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -17090,7 +17495,7 @@
       <c r="Y151" s="2"/>
       <c r="Z151" s="2"/>
     </row>
-    <row r="152" spans="1:26">
+    <row r="152" spans="1:26" ht="16.5">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -17118,7 +17523,7 @@
       <c r="Y152" s="2"/>
       <c r="Z152" s="2"/>
     </row>
-    <row r="153" spans="1:26">
+    <row r="153" spans="1:26" ht="16.5">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -17146,7 +17551,7 @@
       <c r="Y153" s="2"/>
       <c r="Z153" s="2"/>
     </row>
-    <row r="154" spans="1:26">
+    <row r="154" spans="1:26" ht="16.5">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -17174,7 +17579,7 @@
       <c r="Y154" s="2"/>
       <c r="Z154" s="2"/>
     </row>
-    <row r="155" spans="1:26">
+    <row r="155" spans="1:26" ht="16.5">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -17202,7 +17607,7 @@
       <c r="Y155" s="2"/>
       <c r="Z155" s="2"/>
     </row>
-    <row r="156" spans="1:26">
+    <row r="156" spans="1:26" ht="16.5">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -17230,7 +17635,7 @@
       <c r="Y156" s="2"/>
       <c r="Z156" s="2"/>
     </row>
-    <row r="157" spans="1:26">
+    <row r="157" spans="1:26" ht="16.5">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -17258,7 +17663,7 @@
       <c r="Y157" s="2"/>
       <c r="Z157" s="2"/>
     </row>
-    <row r="158" spans="1:26">
+    <row r="158" spans="1:26" ht="16.5">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -17286,7 +17691,7 @@
       <c r="Y158" s="2"/>
       <c r="Z158" s="2"/>
     </row>
-    <row r="159" spans="1:26">
+    <row r="159" spans="1:26" ht="16.5">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -17314,7 +17719,7 @@
       <c r="Y159" s="2"/>
       <c r="Z159" s="2"/>
     </row>
-    <row r="160" spans="1:26">
+    <row r="160" spans="1:26" ht="16.5">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -17342,7 +17747,7 @@
       <c r="Y160" s="2"/>
       <c r="Z160" s="2"/>
     </row>
-    <row r="161" spans="1:26">
+    <row r="161" spans="1:26" ht="16.5">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -17370,7 +17775,7 @@
       <c r="Y161" s="2"/>
       <c r="Z161" s="2"/>
     </row>
-    <row r="162" spans="1:26">
+    <row r="162" spans="1:26" ht="16.5">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -17398,7 +17803,7 @@
       <c r="Y162" s="2"/>
       <c r="Z162" s="2"/>
     </row>
-    <row r="163" spans="1:26">
+    <row r="163" spans="1:26" ht="16.5">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -17426,7 +17831,7 @@
       <c r="Y163" s="2"/>
       <c r="Z163" s="2"/>
     </row>
-    <row r="164" spans="1:26">
+    <row r="164" spans="1:26" ht="16.5">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -17454,7 +17859,7 @@
       <c r="Y164" s="2"/>
       <c r="Z164" s="2"/>
     </row>
-    <row r="165" spans="1:26">
+    <row r="165" spans="1:26" ht="16.5">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -17482,7 +17887,7 @@
       <c r="Y165" s="2"/>
       <c r="Z165" s="2"/>
     </row>
-    <row r="166" spans="1:26">
+    <row r="166" spans="1:26" ht="16.5">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -17510,7 +17915,7 @@
       <c r="Y166" s="2"/>
       <c r="Z166" s="2"/>
     </row>
-    <row r="167" spans="1:26">
+    <row r="167" spans="1:26" ht="16.5">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -17538,7 +17943,7 @@
       <c r="Y167" s="2"/>
       <c r="Z167" s="2"/>
     </row>
-    <row r="168" spans="1:26">
+    <row r="168" spans="1:26" ht="16.5">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -17566,7 +17971,7 @@
       <c r="Y168" s="2"/>
       <c r="Z168" s="2"/>
     </row>
-    <row r="169" spans="1:26">
+    <row r="169" spans="1:26" ht="16.5">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -17594,7 +17999,7 @@
       <c r="Y169" s="2"/>
       <c r="Z169" s="2"/>
     </row>
-    <row r="170" spans="1:26">
+    <row r="170" spans="1:26" ht="16.5">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -17622,7 +18027,7 @@
       <c r="Y170" s="2"/>
       <c r="Z170" s="2"/>
     </row>
-    <row r="171" spans="1:26">
+    <row r="171" spans="1:26" ht="16.5">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -17650,7 +18055,7 @@
       <c r="Y171" s="2"/>
       <c r="Z171" s="2"/>
     </row>
-    <row r="172" spans="1:26">
+    <row r="172" spans="1:26" ht="16.5">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -17678,7 +18083,7 @@
       <c r="Y172" s="2"/>
       <c r="Z172" s="2"/>
     </row>
-    <row r="173" spans="1:26">
+    <row r="173" spans="1:26" ht="16.5">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -17706,7 +18111,7 @@
       <c r="Y173" s="2"/>
       <c r="Z173" s="2"/>
     </row>
-    <row r="174" spans="1:26">
+    <row r="174" spans="1:26" ht="16.5">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -17734,7 +18139,7 @@
       <c r="Y174" s="2"/>
       <c r="Z174" s="2"/>
     </row>
-    <row r="175" spans="1:26">
+    <row r="175" spans="1:26" ht="16.5">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -17762,7 +18167,7 @@
       <c r="Y175" s="2"/>
       <c r="Z175" s="2"/>
     </row>
-    <row r="176" spans="1:26">
+    <row r="176" spans="1:26" ht="16.5">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -17790,7 +18195,7 @@
       <c r="Y176" s="2"/>
       <c r="Z176" s="2"/>
     </row>
-    <row r="177" spans="1:26">
+    <row r="177" spans="1:26" ht="16.5">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -17818,7 +18223,7 @@
       <c r="Y177" s="2"/>
       <c r="Z177" s="2"/>
     </row>
-    <row r="178" spans="1:26">
+    <row r="178" spans="1:26" ht="16.5">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -17846,7 +18251,7 @@
       <c r="Y178" s="2"/>
       <c r="Z178" s="2"/>
     </row>
-    <row r="179" spans="1:26">
+    <row r="179" spans="1:26" ht="16.5">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -17874,7 +18279,7 @@
       <c r="Y179" s="2"/>
       <c r="Z179" s="2"/>
     </row>
-    <row r="180" spans="1:26">
+    <row r="180" spans="1:26" ht="16.5">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -17902,7 +18307,7 @@
       <c r="Y180" s="2"/>
       <c r="Z180" s="2"/>
     </row>
-    <row r="181" spans="1:26">
+    <row r="181" spans="1:26" ht="16.5">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -17930,7 +18335,7 @@
       <c r="Y181" s="2"/>
       <c r="Z181" s="2"/>
     </row>
-    <row r="182" spans="1:26">
+    <row r="182" spans="1:26" ht="16.5">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -17958,7 +18363,7 @@
       <c r="Y182" s="2"/>
       <c r="Z182" s="2"/>
     </row>
-    <row r="183" spans="1:26">
+    <row r="183" spans="1:26" ht="16.5">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -17986,7 +18391,7 @@
       <c r="Y183" s="2"/>
       <c r="Z183" s="2"/>
     </row>
-    <row r="184" spans="1:26">
+    <row r="184" spans="1:26" ht="16.5">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -18014,7 +18419,7 @@
       <c r="Y184" s="2"/>
       <c r="Z184" s="2"/>
     </row>
-    <row r="185" spans="1:26">
+    <row r="185" spans="1:26" ht="16.5">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -18042,7 +18447,7 @@
       <c r="Y185" s="2"/>
       <c r="Z185" s="2"/>
     </row>
-    <row r="186" spans="1:26">
+    <row r="186" spans="1:26" ht="16.5">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -18070,7 +18475,7 @@
       <c r="Y186" s="2"/>
       <c r="Z186" s="2"/>
     </row>
-    <row r="187" spans="1:26">
+    <row r="187" spans="1:26" ht="16.5">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -18098,7 +18503,7 @@
       <c r="Y187" s="2"/>
       <c r="Z187" s="2"/>
     </row>
-    <row r="188" spans="1:26">
+    <row r="188" spans="1:26" ht="16.5">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -18126,7 +18531,7 @@
       <c r="Y188" s="2"/>
       <c r="Z188" s="2"/>
     </row>
-    <row r="189" spans="1:26">
+    <row r="189" spans="1:26" ht="16.5">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -18154,7 +18559,7 @@
       <c r="Y189" s="2"/>
       <c r="Z189" s="2"/>
     </row>
-    <row r="190" spans="1:26">
+    <row r="190" spans="1:26" ht="16.5">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -18182,7 +18587,7 @@
       <c r="Y190" s="2"/>
       <c r="Z190" s="2"/>
     </row>
-    <row r="191" spans="1:26">
+    <row r="191" spans="1:26" ht="16.5">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -18210,7 +18615,7 @@
       <c r="Y191" s="2"/>
       <c r="Z191" s="2"/>
     </row>
-    <row r="192" spans="1:26">
+    <row r="192" spans="1:26" ht="16.5">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -18238,7 +18643,7 @@
       <c r="Y192" s="2"/>
       <c r="Z192" s="2"/>
     </row>
-    <row r="193" spans="1:26">
+    <row r="193" spans="1:26" ht="16.5">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -18266,7 +18671,7 @@
       <c r="Y193" s="2"/>
       <c r="Z193" s="2"/>
     </row>
-    <row r="194" spans="1:26">
+    <row r="194" spans="1:26" ht="16.5">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -18294,7 +18699,7 @@
       <c r="Y194" s="2"/>
       <c r="Z194" s="2"/>
     </row>
-    <row r="195" spans="1:26">
+    <row r="195" spans="1:26" ht="16.5">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -18322,7 +18727,7 @@
       <c r="Y195" s="2"/>
       <c r="Z195" s="2"/>
     </row>
-    <row r="196" spans="1:26">
+    <row r="196" spans="1:26" ht="16.5">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -18350,7 +18755,7 @@
       <c r="Y196" s="2"/>
       <c r="Z196" s="2"/>
     </row>
-    <row r="197" spans="1:26">
+    <row r="197" spans="1:26" ht="16.5">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -18378,7 +18783,7 @@
       <c r="Y197" s="2"/>
       <c r="Z197" s="2"/>
     </row>
-    <row r="198" spans="1:26">
+    <row r="198" spans="1:26" ht="16.5">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -18406,7 +18811,7 @@
       <c r="Y198" s="2"/>
       <c r="Z198" s="2"/>
     </row>
-    <row r="199" spans="1:26">
+    <row r="199" spans="1:26" ht="16.5">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -18434,7 +18839,7 @@
       <c r="Y199" s="2"/>
       <c r="Z199" s="2"/>
     </row>
-    <row r="200" spans="1:26">
+    <row r="200" spans="1:26" ht="16.5">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -18469,45 +18874,45 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82A1E8BE-F4D8-4DFE-997C-38F54A34FFE2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="15.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" ht="16.5">
       <c r="A1" s="43" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="49"/>
+      <c r="D1" s="51"/>
       <c r="E1" s="25" t="s">
         <v>7</v>
       </c>
       <c r="F1" s="26"/>
       <c r="G1" s="26"/>
     </row>
-    <row r="2" spans="1:16">
-      <c r="A2" s="51" t="s">
+    <row r="2" spans="1:16" ht="16.5">
+      <c r="A2" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="51" t="s">
+      <c r="B2" s="51"/>
+      <c r="C2" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="49"/>
+      <c r="D2" s="51"/>
       <c r="E2" s="27" t="s">
         <v>10</v>
       </c>
@@ -18518,28 +18923,28 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
-      <c r="A3" s="52" t="s">
+    <row r="3" spans="1:16" ht="16.5">
+      <c r="A3" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="49"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="51"/>
       <c r="E3" s="44"/>
       <c r="F3" s="44"/>
       <c r="G3" s="14"/>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" ht="16.5">
       <c r="A4" s="28" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="49"/>
+      <c r="D4" s="51"/>
       <c r="E4" s="28" t="s">
         <v>16</v>
       </c>
@@ -18550,7 +18955,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" ht="16.5">
       <c r="A5" s="42" t="s">
         <v>48</v>
       </c>
@@ -18590,7 +18995,7 @@
         <v>&lt;if test="flowId != null and flowId !=''"&gt; and  flow_id= #{flowId} &lt;/if&gt;</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" ht="16.5">
       <c r="A6" s="42" t="s">
         <v>49</v>
       </c>
@@ -18630,7 +19035,7 @@
         <v>&lt;if test="flowName != null and flowName !=''"&gt; and  flow_name= #{flowName} &lt;/if&gt;</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" ht="16.5">
       <c r="A7" s="42" t="s">
         <v>50</v>
       </c>
@@ -18670,7 +19075,7 @@
         <v>&lt;if test="flowType != null and flowType !=''"&gt; and  flow_type= #{flowType} &lt;/if&gt;</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" ht="16.5">
       <c r="A8" s="42" t="s">
         <v>55</v>
       </c>
@@ -18710,7 +19115,7 @@
         <v>&lt;if test="parentFlowId != null and parentFlowId !=''"&gt; and  parent_flow_id= #{parentFlowId} &lt;/if&gt;</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" ht="16.5">
       <c r="A9" s="42" t="s">
         <v>54</v>
       </c>
@@ -18750,7 +19155,7 @@
         <v>&lt;if test="flowKey != null and flowKey !=''"&gt; and  flow_key= #{flowKey} &lt;/if&gt;</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" ht="16.5">
       <c r="A10" s="42" t="s">
         <v>54</v>
       </c>
@@ -18790,7 +19195,7 @@
         <v>&lt;if test="flowValue1 != null and flowValue1 !=''"&gt; and  flow_value1= #{flowValue1} &lt;/if&gt;</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" ht="16.5">
       <c r="A11" s="42" t="s">
         <v>64</v>
       </c>
@@ -18830,7 +19235,7 @@
         <v>&lt;if test="flowValue2 != null and flowValue2 !=''"&gt; and  flow_value2= #{flowValue2} &lt;/if&gt;</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" ht="16.5">
       <c r="A12" s="35" t="s">
         <v>241</v>
       </c>
@@ -18870,7 +19275,7 @@
         <v>&lt;if test="flowValue3 != null and flowValue3 !=''"&gt; and  flow_value3= #{flowValue3} &lt;/if&gt;</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" ht="16.5">
       <c r="A13" s="35" t="s">
         <v>242</v>
       </c>
@@ -18910,7 +19315,7 @@
         <v>&lt;if test="flowValue4 != null and flowValue4 !=''"&gt; and  flow_value4= #{flowValue4} &lt;/if&gt;</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" ht="16.5">
       <c r="A14" s="35" t="s">
         <v>243</v>
       </c>
@@ -18950,7 +19355,7 @@
         <v>&lt;if test="flowValue5 != null and flowValue5 !=''"&gt; and  flow_value5= #{flowValue5} &lt;/if&gt;</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" ht="16.5">
       <c r="A15" s="42" t="s">
         <v>51</v>
       </c>
@@ -18990,7 +19395,7 @@
         <v>&lt;if test="flowSort != null and flowSort !=''"&gt; and  flow_sort= #{flowSort} &lt;/if&gt;</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" ht="16.5">
       <c r="A16" s="42" t="s">
         <v>20</v>
       </c>
@@ -19030,7 +19435,7 @@
         <v>&lt;if test="status != null and status !=''"&gt; and  status= #{status} &lt;/if&gt;</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" ht="16.5">
       <c r="A17" s="42" t="s">
         <v>52</v>
       </c>
@@ -19070,7 +19475,7 @@
         <v>&lt;if test="remark != null and remark !=''"&gt; and  remark= #{remark} &lt;/if&gt;</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" ht="16.5">
       <c r="A18" s="42" t="s">
         <v>53</v>
       </c>
@@ -19166,7 +19571,7 @@
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E1" r:id="rId1" xr:uid="{75194CD4-363F-4069-9321-A5A5DE410555}"/>
+    <hyperlink ref="E1" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -19174,46 +19579,46 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD0A458F-6D86-4D18-969D-1BA53D8EF957}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.8984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" ht="16.5">
       <c r="A1" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="49"/>
+      <c r="D1" s="51"/>
       <c r="E1" s="25" t="s">
         <v>7</v>
       </c>
       <c r="F1" s="26"/>
       <c r="G1" s="26"/>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="51" t="s">
+    <row r="2" spans="1:7" ht="16.5">
+      <c r="A2" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="51" t="s">
+      <c r="B2" s="51"/>
+      <c r="C2" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="49"/>
+      <c r="D2" s="51"/>
       <c r="E2" s="27" t="s">
         <v>10</v>
       </c>
@@ -19225,29 +19630,29 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="24">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="49"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="51"/>
       <c r="E3" s="19"/>
       <c r="F3" s="19"/>
       <c r="G3" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" ht="16.5">
       <c r="A4" s="28" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="49"/>
+      <c r="D4" s="51"/>
       <c r="E4" s="28" t="s">
         <v>16</v>
       </c>
@@ -19258,7 +19663,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" ht="16.5">
       <c r="A5" s="31" t="s">
         <v>70</v>
       </c>
@@ -19273,7 +19678,7 @@
       <c r="F5" s="32"/>
       <c r="G5" s="32"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" ht="16.5">
       <c r="A6" s="31" t="s">
         <v>72</v>
       </c>
@@ -19288,7 +19693,7 @@
       <c r="F6" s="32"/>
       <c r="G6" s="32"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" ht="16.5">
       <c r="A7" s="31" t="s">
         <v>74</v>
       </c>
@@ -19303,7 +19708,7 @@
       <c r="F7" s="32"/>
       <c r="G7" s="32"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" ht="16.5">
       <c r="A8" s="33" t="s">
         <v>77</v>
       </c>
@@ -19318,7 +19723,7 @@
       <c r="F8" s="32"/>
       <c r="G8" s="32"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" ht="16.5">
       <c r="A9" s="33" t="s">
         <v>79</v>
       </c>
@@ -19333,7 +19738,7 @@
       <c r="F9" s="32"/>
       <c r="G9" s="32"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" ht="16.5">
       <c r="A10" s="33" t="s">
         <v>133</v>
       </c>
@@ -19348,7 +19753,7 @@
       <c r="F10" s="32"/>
       <c r="G10" s="32"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" ht="16.5">
       <c r="A11" s="33" t="s">
         <v>128</v>
       </c>
@@ -19363,7 +19768,7 @@
       <c r="F11" s="32"/>
       <c r="G11" s="32"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" ht="16.5">
       <c r="A12" s="33" t="s">
         <v>129</v>
       </c>
@@ -19378,7 +19783,7 @@
       <c r="F12" s="32"/>
       <c r="G12" s="32"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" ht="16.5">
       <c r="A13" s="33" t="s">
         <v>130</v>
       </c>
@@ -19393,7 +19798,7 @@
       <c r="F13" s="32"/>
       <c r="G13" s="32"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" ht="16.5">
       <c r="A14" s="33" t="s">
         <v>134</v>
       </c>
@@ -19408,7 +19813,7 @@
       <c r="F14" s="32"/>
       <c r="G14" s="32"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" ht="16.5">
       <c r="A15" s="33" t="s">
         <v>104</v>
       </c>
@@ -19423,7 +19828,7 @@
       <c r="F15" s="32"/>
       <c r="G15" s="32"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" ht="16.5">
       <c r="A16" s="21" t="s">
         <v>51</v>
       </c>
@@ -19438,7 +19843,7 @@
       <c r="F16" s="32"/>
       <c r="G16" s="32"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" ht="16.5">
       <c r="A17" s="21" t="s">
         <v>20</v>
       </c>
@@ -19453,7 +19858,7 @@
       <c r="F17" s="32"/>
       <c r="G17" s="32"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" ht="16.5">
       <c r="A18" s="21" t="s">
         <v>52</v>
       </c>
@@ -19468,7 +19873,7 @@
       <c r="F18" s="32"/>
       <c r="G18" s="32"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" ht="16.5">
       <c r="A19" s="21" t="s">
         <v>53</v>
       </c>
@@ -19494,7 +19899,7 @@
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E1" r:id="rId1" xr:uid="{CC942904-E5C4-4598-8339-092829011663}"/>
+    <hyperlink ref="E1" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -19502,45 +19907,45 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A09EC6E4-313A-414A-90E1-5D6FB5B11A52}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="18.09765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.8984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" ht="16.5">
       <c r="A1" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="D1" s="49"/>
+      <c r="D1" s="51"/>
       <c r="E1" s="25" t="s">
         <v>7</v>
       </c>
       <c r="F1" s="26"/>
       <c r="G1" s="26"/>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="51" t="s">
+    <row r="2" spans="1:7" ht="16.5">
+      <c r="A2" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="51" t="s">
+      <c r="B2" s="51"/>
+      <c r="C2" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="49"/>
+      <c r="D2" s="51"/>
       <c r="E2" s="27" t="s">
         <v>10</v>
       </c>
@@ -19551,28 +19956,28 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="52" t="s">
+    <row r="3" spans="1:7" ht="16.5">
+      <c r="A3" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="49"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="51"/>
       <c r="E3" s="19"/>
       <c r="F3" s="19"/>
       <c r="G3" s="30"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" ht="16.5">
       <c r="A4" s="28" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="49"/>
+      <c r="D4" s="51"/>
       <c r="E4" s="28" t="s">
         <v>16</v>
       </c>
@@ -19583,7 +19988,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" ht="16.5">
       <c r="A5" s="31" t="s">
         <v>85</v>
       </c>
@@ -19598,7 +20003,7 @@
       <c r="F5" s="32"/>
       <c r="G5" s="32"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" ht="16.5">
       <c r="A6" s="31" t="s">
         <v>86</v>
       </c>
@@ -19613,7 +20018,7 @@
       <c r="F6" s="32"/>
       <c r="G6" s="32"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" ht="16.5">
       <c r="A7" s="31" t="s">
         <v>89</v>
       </c>
@@ -19628,7 +20033,7 @@
       <c r="F7" s="32"/>
       <c r="G7" s="32"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" ht="16.5">
       <c r="A8" s="33" t="s">
         <v>90</v>
       </c>
@@ -19643,7 +20048,7 @@
       <c r="F8" s="32"/>
       <c r="G8" s="32"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" ht="16.5">
       <c r="A9" s="33" t="s">
         <v>91</v>
       </c>
@@ -19658,7 +20063,7 @@
       <c r="F9" s="32"/>
       <c r="G9" s="32"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" ht="16.5">
       <c r="A10" s="33" t="s">
         <v>106</v>
       </c>
@@ -19673,7 +20078,7 @@
       <c r="F10" s="32"/>
       <c r="G10" s="32"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" ht="16.5">
       <c r="A11" s="33" t="s">
         <v>103</v>
       </c>
@@ -19688,7 +20093,7 @@
       <c r="F11" s="32"/>
       <c r="G11" s="32"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" ht="16.5">
       <c r="A12" s="33" t="s">
         <v>107</v>
       </c>
@@ -19703,7 +20108,7 @@
       <c r="F12" s="32"/>
       <c r="G12" s="32"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" ht="16.5">
       <c r="A13" s="33" t="s">
         <v>100</v>
       </c>
@@ -19718,7 +20123,7 @@
       <c r="F13" s="32"/>
       <c r="G13" s="32"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" ht="16.5">
       <c r="A14" s="33" t="s">
         <v>191</v>
       </c>
@@ -19733,7 +20138,7 @@
       <c r="F14" s="32"/>
       <c r="G14" s="32"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" ht="16.5">
       <c r="A15" s="33" t="s">
         <v>112</v>
       </c>
@@ -19748,7 +20153,7 @@
       <c r="F15" s="32"/>
       <c r="G15" s="32"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" ht="16.5">
       <c r="A16" s="33" t="s">
         <v>95</v>
       </c>
@@ -19763,7 +20168,7 @@
       <c r="F16" s="32"/>
       <c r="G16" s="32"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" ht="16.5">
       <c r="A17" s="33" t="s">
         <v>96</v>
       </c>
@@ -19778,7 +20183,7 @@
       <c r="F17" s="32"/>
       <c r="G17" s="32"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" ht="16.5">
       <c r="A18" s="33" t="s">
         <v>239</v>
       </c>
@@ -19789,7 +20194,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" ht="16.5">
       <c r="A19" s="33" t="s">
         <v>113</v>
       </c>
@@ -19804,7 +20209,7 @@
       <c r="F19" s="32"/>
       <c r="G19" s="32"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" ht="16.5">
       <c r="A20" s="33" t="s">
         <v>114</v>
       </c>
@@ -19819,7 +20224,7 @@
       <c r="F20" s="32"/>
       <c r="G20" s="32"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" ht="16.5">
       <c r="A21" s="33" t="s">
         <v>124</v>
       </c>
@@ -19834,7 +20239,7 @@
       <c r="F21" s="32"/>
       <c r="G21" s="32"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" ht="16.5">
       <c r="A22" s="33" t="s">
         <v>119</v>
       </c>
@@ -19849,7 +20254,7 @@
       <c r="F22" s="32"/>
       <c r="G22" s="32"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" ht="16.5">
       <c r="A23" s="33" t="s">
         <v>125</v>
       </c>
@@ -19864,7 +20269,7 @@
       <c r="F23" s="32"/>
       <c r="G23" s="32"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" ht="16.5">
       <c r="A24" s="23" t="s">
         <v>51</v>
       </c>
@@ -19879,7 +20284,7 @@
       <c r="F24" s="32"/>
       <c r="G24" s="32"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" ht="16.5">
       <c r="A25" s="23" t="s">
         <v>20</v>
       </c>
@@ -19894,7 +20299,7 @@
       <c r="F25" s="32"/>
       <c r="G25" s="32"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" ht="16.5">
       <c r="A26" s="23" t="s">
         <v>52</v>
       </c>
@@ -19909,7 +20314,7 @@
       <c r="F26" s="32"/>
       <c r="G26" s="32"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" ht="16.5">
       <c r="A27" s="23" t="s">
         <v>53</v>
       </c>
@@ -19924,7 +20329,7 @@
       <c r="F27" s="32"/>
       <c r="G27" s="32"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" ht="16.5">
       <c r="A28" s="35" t="s">
         <v>120</v>
       </c>
@@ -19939,7 +20344,7 @@
       <c r="F28" s="32"/>
       <c r="G28" s="32"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" ht="16.5">
       <c r="A29" s="35" t="s">
         <v>121</v>
       </c>
@@ -19965,7 +20370,7 @@
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E1" r:id="rId1" xr:uid="{80950AF4-AC3A-4346-9686-50B2CD89654D}"/>
+    <hyperlink ref="E1" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -19973,45 +20378,45 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9977B4FF-2833-4277-B728-AA1892995068}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="2" width="18.09765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="18.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" ht="16.5">
       <c r="A1" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="52" t="s">
         <v>140</v>
       </c>
-      <c r="D1" s="49"/>
+      <c r="D1" s="51"/>
       <c r="E1" s="25" t="s">
         <v>7</v>
       </c>
       <c r="F1" s="26"/>
       <c r="G1" s="26"/>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="51" t="s">
+    <row r="2" spans="1:7" ht="16.5">
+      <c r="A2" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="51" t="s">
+      <c r="B2" s="51"/>
+      <c r="C2" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="49"/>
+      <c r="D2" s="51"/>
       <c r="E2" s="27" t="s">
         <v>10</v>
       </c>
@@ -20022,28 +20427,28 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="52" t="s">
+    <row r="3" spans="1:7" ht="16.5">
+      <c r="A3" s="54" t="s">
         <v>141</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="49"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="51"/>
       <c r="E3" s="19"/>
       <c r="F3" s="19"/>
       <c r="G3" s="30"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" ht="16.5">
       <c r="A4" s="28" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="49"/>
+      <c r="D4" s="51"/>
       <c r="E4" s="28" t="s">
         <v>16</v>
       </c>
@@ -20054,7 +20459,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" ht="16.5">
       <c r="A5" s="31" t="s">
         <v>142</v>
       </c>
@@ -20069,7 +20474,7 @@
       <c r="F5" s="32"/>
       <c r="G5" s="32"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" ht="16.5">
       <c r="A6" s="31" t="s">
         <v>144</v>
       </c>
@@ -20084,7 +20489,7 @@
       <c r="F6" s="32"/>
       <c r="G6" s="32"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" ht="16.5">
       <c r="A7" t="s">
         <v>258</v>
       </c>
@@ -20095,7 +20500,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" ht="16.5">
       <c r="A8" s="31" t="s">
         <v>146</v>
       </c>
@@ -20110,7 +20515,7 @@
       <c r="F8" s="32"/>
       <c r="G8" s="32"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" ht="16.5">
       <c r="A9" s="33" t="s">
         <v>147</v>
       </c>
@@ -20125,7 +20530,7 @@
       <c r="F9" s="32"/>
       <c r="G9" s="32"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" ht="16.5">
       <c r="A10" s="33" t="s">
         <v>148</v>
       </c>
@@ -20140,7 +20545,7 @@
       <c r="F10" s="32"/>
       <c r="G10" s="32"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" ht="16.5">
       <c r="A11" s="33" t="s">
         <v>160</v>
       </c>
@@ -20155,7 +20560,7 @@
       <c r="F11" s="32"/>
       <c r="G11" s="32"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" ht="16.5">
       <c r="A12" s="33" t="s">
         <v>149</v>
       </c>
@@ -20170,7 +20575,7 @@
       <c r="F12" s="32"/>
       <c r="G12" s="32"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" ht="16.5">
       <c r="A13" s="33" t="s">
         <v>150</v>
       </c>
@@ -20185,7 +20590,7 @@
       <c r="F13" s="32"/>
       <c r="G13" s="32"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" ht="16.5">
       <c r="A14" s="33" t="s">
         <v>157</v>
       </c>
@@ -20200,7 +20605,7 @@
       <c r="F14" s="32"/>
       <c r="G14" s="32"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" ht="16.5">
       <c r="A15" s="33" t="s">
         <v>156</v>
       </c>
@@ -20215,7 +20620,7 @@
       <c r="F15" s="32"/>
       <c r="G15" s="32"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" ht="16.5">
       <c r="A16" s="33" t="s">
         <v>158</v>
       </c>
@@ -20230,7 +20635,7 @@
       <c r="F16" s="32"/>
       <c r="G16" s="32"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" ht="16.5">
       <c r="A17" s="33" t="s">
         <v>159</v>
       </c>
@@ -20245,7 +20650,7 @@
       <c r="F17" s="32"/>
       <c r="G17" s="32"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" ht="16.5">
       <c r="A18" s="35" t="s">
         <v>241</v>
       </c>
@@ -20260,7 +20665,7 @@
       <c r="F18" s="32"/>
       <c r="G18" s="32"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" ht="16.5">
       <c r="A19" s="35" t="s">
         <v>242</v>
       </c>
@@ -20275,7 +20680,7 @@
       <c r="F19" s="32"/>
       <c r="G19" s="32"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" ht="16.5">
       <c r="A20" s="40" t="s">
         <v>51</v>
       </c>
@@ -20290,7 +20695,7 @@
       <c r="F20" s="32"/>
       <c r="G20" s="32"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" ht="16.5">
       <c r="A21" s="40" t="s">
         <v>20</v>
       </c>
@@ -20305,7 +20710,7 @@
       <c r="F21" s="32"/>
       <c r="G21" s="32"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" ht="16.5">
       <c r="A22" s="40" t="s">
         <v>52</v>
       </c>
@@ -20320,7 +20725,7 @@
       <c r="F22" s="32"/>
       <c r="G22" s="32"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" ht="16.5">
       <c r="A23" s="40" t="s">
         <v>53</v>
       </c>
@@ -20335,7 +20740,7 @@
       <c r="F23" s="32"/>
       <c r="G23" s="32"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" ht="16.5">
       <c r="A24" s="35" t="s">
         <v>120</v>
       </c>
@@ -20350,7 +20755,7 @@
       <c r="F24" s="32"/>
       <c r="G24" s="32"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" ht="16.5">
       <c r="A25" s="35" t="s">
         <v>121</v>
       </c>
@@ -20376,54 +20781,54 @@
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E1" r:id="rId1" xr:uid="{533AEAD8-3AEC-46D9-AB9D-9E90EEA064E8}"/>
+    <hyperlink ref="E1" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F21F1EF9-56DB-46CC-86A1-8F082E58C53D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="13.69921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.8984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.59765625" customWidth="1"/>
+    <col min="7" max="7" width="24.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" ht="16.5">
       <c r="A1" s="22" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="52" t="s">
         <v>140</v>
       </c>
-      <c r="D1" s="49"/>
+      <c r="D1" s="51"/>
       <c r="E1" s="25" t="s">
         <v>7</v>
       </c>
       <c r="F1" s="26"/>
       <c r="G1" s="26"/>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="51" t="s">
+    <row r="2" spans="1:7" ht="16.5">
+      <c r="A2" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="51" t="s">
+      <c r="B2" s="51"/>
+      <c r="C2" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="49"/>
+      <c r="D2" s="51"/>
       <c r="E2" s="27" t="s">
         <v>10</v>
       </c>
@@ -20434,30 +20839,30 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="52" t="s">
+    <row r="3" spans="1:7" ht="16.5">
+      <c r="A3" s="54" t="s">
         <v>167</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="49"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="51"/>
       <c r="E3" s="29"/>
       <c r="F3" s="29"/>
       <c r="G3" s="30" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" ht="16.5">
       <c r="A4" s="28" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="49"/>
+      <c r="D4" s="51"/>
       <c r="E4" s="28" t="s">
         <v>16</v>
       </c>
@@ -20468,7 +20873,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" ht="16.5">
       <c r="A5" s="31" t="s">
         <v>168</v>
       </c>
@@ -20483,7 +20888,7 @@
       <c r="F5" s="32"/>
       <c r="G5" s="32"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" ht="16.5">
       <c r="A6" s="31" t="s">
         <v>169</v>
       </c>
@@ -20498,7 +20903,7 @@
       <c r="F6" s="32"/>
       <c r="G6" s="32"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" ht="16.5">
       <c r="A7" s="31" t="s">
         <v>170</v>
       </c>
@@ -20513,7 +20918,7 @@
       <c r="F7" s="32"/>
       <c r="G7" s="32"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" ht="16.5">
       <c r="A8" s="33" t="s">
         <v>174</v>
       </c>
@@ -20528,7 +20933,7 @@
       <c r="F8" s="32"/>
       <c r="G8" s="32"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" ht="16.5">
       <c r="A9" s="33" t="s">
         <v>171</v>
       </c>
@@ -20543,7 +20948,7 @@
       <c r="F9" s="32"/>
       <c r="G9" s="32"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" ht="16.5">
       <c r="A10" s="33" t="s">
         <v>185</v>
       </c>
@@ -20558,7 +20963,7 @@
       <c r="F10" s="32"/>
       <c r="G10" s="32"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" ht="16.5">
       <c r="A11" s="33" t="s">
         <v>175</v>
       </c>
@@ -20573,7 +20978,7 @@
       <c r="F11" s="32"/>
       <c r="G11" s="32"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" ht="16.5">
       <c r="A12" s="33" t="s">
         <v>172</v>
       </c>
@@ -20588,7 +20993,7 @@
       <c r="F12" s="32"/>
       <c r="G12" s="32"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" ht="16.5">
       <c r="A13" s="33" t="s">
         <v>173</v>
       </c>
@@ -20603,7 +21008,7 @@
       <c r="F13" s="32"/>
       <c r="G13" s="32"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" ht="16.5">
       <c r="A14" s="23" t="s">
         <v>51</v>
       </c>
@@ -20618,7 +21023,7 @@
       <c r="F14" s="32"/>
       <c r="G14" s="32"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" ht="16.5">
       <c r="A15" s="23" t="s">
         <v>20</v>
       </c>
@@ -20633,7 +21038,7 @@
       <c r="F15" s="32"/>
       <c r="G15" s="32"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" ht="16.5">
       <c r="A16" s="23" t="s">
         <v>52</v>
       </c>
@@ -20648,7 +21053,7 @@
       <c r="F16" s="32"/>
       <c r="G16" s="32"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" ht="16.5">
       <c r="A17" s="23" t="s">
         <v>53</v>
       </c>
@@ -20674,19 +21079,19 @@
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E1" r:id="rId1" xr:uid="{0F0E7124-77AE-48FF-8882-37570032BD8E}"/>
+    <hyperlink ref="E1" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2572D573-13CA-4D74-AC6A-48DE436AAFE9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20694,44 +21099,44 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20AD4854-E9AA-417B-8E43-0F6E6A1AEE7C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="18.09765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" ht="16.5">
       <c r="A1" s="37" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="24" t="s">
         <v>204</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="52" t="s">
         <v>202</v>
       </c>
-      <c r="D1" s="49"/>
+      <c r="D1" s="51"/>
       <c r="E1" s="25" t="s">
         <v>7</v>
       </c>
       <c r="F1" s="26"/>
       <c r="G1" s="26"/>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="51" t="s">
+    <row r="2" spans="1:7" ht="16.5">
+      <c r="A2" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="51" t="s">
+      <c r="B2" s="51"/>
+      <c r="C2" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="49"/>
+      <c r="D2" s="51"/>
       <c r="E2" s="27" t="s">
         <v>10</v>
       </c>
@@ -20742,28 +21147,28 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="52" t="s">
+    <row r="3" spans="1:7" ht="16.5">
+      <c r="A3" s="54" t="s">
         <v>201</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="49"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="51"/>
       <c r="E3" s="38"/>
       <c r="F3" s="38"/>
       <c r="G3" s="30"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" ht="16.5">
       <c r="A4" s="28" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="49"/>
+      <c r="D4" s="51"/>
       <c r="E4" s="28" t="s">
         <v>16</v>
       </c>
@@ -20774,7 +21179,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" ht="16.5">
       <c r="A5" s="32" t="s">
         <v>205</v>
       </c>
@@ -20789,7 +21194,7 @@
       <c r="F5" s="32"/>
       <c r="G5" s="32"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" ht="16.5">
       <c r="A6" s="32" t="s">
         <v>207</v>
       </c>
@@ -20804,7 +21209,7 @@
       <c r="F6" s="32"/>
       <c r="G6" s="32"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" ht="16.5">
       <c r="A7" s="32" t="s">
         <v>206</v>
       </c>
@@ -20819,7 +21224,7 @@
       <c r="F7" s="32"/>
       <c r="G7" s="32"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" ht="16.5">
       <c r="A8" s="32" t="s">
         <v>208</v>
       </c>
@@ -20834,7 +21239,7 @@
       <c r="F8" s="32"/>
       <c r="G8" s="32"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" ht="16.5">
       <c r="A9" s="31" t="s">
         <v>226</v>
       </c>
@@ -20849,7 +21254,7 @@
       <c r="F9" s="32"/>
       <c r="G9" s="32"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" ht="16.5">
       <c r="A10" s="31" t="s">
         <v>227</v>
       </c>
@@ -20864,7 +21269,7 @@
       <c r="F10" s="32"/>
       <c r="G10" s="32"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" ht="16.5">
       <c r="A11" s="32" t="s">
         <v>209</v>
       </c>
@@ -20879,7 +21284,7 @@
       <c r="F11" s="32"/>
       <c r="G11" s="32"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" ht="16.5">
       <c r="A12" s="32" t="s">
         <v>210</v>
       </c>
@@ -20894,7 +21299,7 @@
       <c r="F12" s="32"/>
       <c r="G12" s="32"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" ht="16.5">
       <c r="A13" s="32" t="s">
         <v>211</v>
       </c>
@@ -20909,7 +21314,7 @@
       <c r="F13" s="32"/>
       <c r="G13" s="32"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" ht="16.5">
       <c r="A14" s="32" t="s">
         <v>212</v>
       </c>
@@ -20924,7 +21329,7 @@
       <c r="F14" s="32"/>
       <c r="G14" s="32"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" ht="16.5">
       <c r="A15" s="32" t="s">
         <v>213</v>
       </c>
@@ -20939,7 +21344,7 @@
       <c r="F15" s="32"/>
       <c r="G15" s="32"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" ht="16.5">
       <c r="A16" s="32" t="s">
         <v>215</v>
       </c>
@@ -20954,7 +21359,7 @@
       <c r="F16" s="32"/>
       <c r="G16" s="32"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" ht="16.5">
       <c r="A17" s="32" t="s">
         <v>214</v>
       </c>
@@ -20969,7 +21374,7 @@
       <c r="F17" s="32"/>
       <c r="G17" s="32"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" ht="16.5">
       <c r="A18" s="32" t="s">
         <v>219</v>
       </c>
@@ -20984,7 +21389,7 @@
       <c r="F18" s="32"/>
       <c r="G18" s="32"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" ht="16.5">
       <c r="A19" s="32" t="s">
         <v>216</v>
       </c>
@@ -20999,7 +21404,7 @@
       <c r="F19" s="32"/>
       <c r="G19" s="32"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" ht="16.5">
       <c r="A20" s="32" t="s">
         <v>217</v>
       </c>
@@ -21014,7 +21419,7 @@
       <c r="F20" s="32"/>
       <c r="G20" s="32"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" ht="16.5">
       <c r="A21" s="32" t="s">
         <v>218</v>
       </c>
@@ -21029,7 +21434,7 @@
       <c r="F21" s="32"/>
       <c r="G21" s="32"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" ht="16.5">
       <c r="A22" s="36" t="s">
         <v>51</v>
       </c>
@@ -21044,7 +21449,7 @@
       <c r="F22" s="32"/>
       <c r="G22" s="32"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" ht="16.5">
       <c r="A23" s="36" t="s">
         <v>20</v>
       </c>
@@ -21059,7 +21464,7 @@
       <c r="F23" s="32"/>
       <c r="G23" s="32"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" ht="16.5">
       <c r="A24" s="36" t="s">
         <v>52</v>
       </c>
@@ -21074,7 +21479,7 @@
       <c r="F24" s="32"/>
       <c r="G24" s="32"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" ht="16.5">
       <c r="A25" s="36" t="s">
         <v>53</v>
       </c>
@@ -21089,7 +21494,7 @@
       <c r="F25" s="32"/>
       <c r="G25" s="32"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" ht="16.5">
       <c r="A26" s="35" t="s">
         <v>120</v>
       </c>
@@ -21104,7 +21509,7 @@
       <c r="F26" s="32"/>
       <c r="G26" s="32"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" ht="16.5">
       <c r="A27" s="35" t="s">
         <v>121</v>
       </c>
@@ -21130,7 +21535,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E1" r:id="rId1" xr:uid="{1256A67E-5691-48F1-988E-87A4B953744B}"/>
+    <hyperlink ref="E1" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
